--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ21974847" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ22090866" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ22212379" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ22341709" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ22476052" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ22597457" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ22717234" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ22838744" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ22960261" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ23108499" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ23244023" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ23364709" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ23481947" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ23601059" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ23715572" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ23836263" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ23954774" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ24075103" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ24194307" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ24316092" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ24436604" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ24565379" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ24701405" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ24833920" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ24947359" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ25065420" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ25241859" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ25364369" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ25483554" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ25605649" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ25731070" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ25850582" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ25970530" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ26093553" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ26217483" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ26339518" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ26458365" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ26579292" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ26701000" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ26830531" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ26951380" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ27072894" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ27189747" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ27309765" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ27432233" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ27557248" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ27678254" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ27801570" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ27927910" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ28051834" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ25005660" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ25104368" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ25209694" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ25319269" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ25451353" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ25583380" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ25728628" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ25873621" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ26011790" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ26146306" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ26289626" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ26434507" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ26574957" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ26713434" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ26848945" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ26986645" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ27129160" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ27271769" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ27414214" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ27589144" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ27757712" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ27918430" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ28048934" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ28193003" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ28326981" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ28462716" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ28603050" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ28748332" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ28893603" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ29033112" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ29177704" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ29317448" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ29490824" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ29673365" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ29829818" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ30006746" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ30158710" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ30303695" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ30446208" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ30601683" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ30742333" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ30888016" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ31026063" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ31162764" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ31315249" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ31462607" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ31594835" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ31737994" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ31875081" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ32018646" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ25005660" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ25104368" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ25209694" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ25319269" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ25451353" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ25583380" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ25728628" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ25873621" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ26011790" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ26146306" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ26289626" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ26434507" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ26574957" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ26713434" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ26848945" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ26986645" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ27129160" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ27271769" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ27414214" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ27589144" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ27757712" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ27918430" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ28048934" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ28193003" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ28326981" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ28462716" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ28603050" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ28748332" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ28893603" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ29033112" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ29177704" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ29317448" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ29490824" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ29673365" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ29829818" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ30006746" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ30158710" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ30303695" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ30446208" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ30601683" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ30742333" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ30888016" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ31026063" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ31162764" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ31315249" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ31462607" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ31594835" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ31737994" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ31875081" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ32018646" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ06591445" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06702387" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06794918" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06890634" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06983013" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07078975" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ07171618" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07265996" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07361769" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ07456690" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ07551406" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ07647660" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ07744950" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ07843488" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ07942409" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ08049157" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ08146671" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ08245389" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ08342902" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ08439655" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ08537747" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ08635423" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ08730186" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ08823708" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ08922064" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ09022449" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ09138788" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ09233621" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ09331713" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ09429229" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ09527749" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ09626304" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ09726891" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ09821941" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ09920465" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ10015106" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ10113625" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ10211806" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ10309330" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ10406855" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ10515913" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ10615745" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ10714413" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ10819139" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ10933168" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ11061589" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ11161166" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ11261092" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ11364952" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ11485775" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3405.32995767273</v>
+        <v>5289.361968218514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1332910199646091</v>
+        <v>0.01113687112147469</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>82.05061742820595</v>
+        <v>64.96427910591134</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1523412791583194</v>
+        <v>0.2597530587524712</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>226.7060701962622</v>
+        <v>221.4554745527232</v>
       </c>
       <c r="C4" t="n">
-        <v>8.293973558779539e-06</v>
+        <v>1.319664611109377e-05</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05233856267224284</v>
+        <v>-0.05304679856069354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06825768980852526</v>
+        <v>0.07395875373161614</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001052208706359813</v>
+        <v>9.5730392030965e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004258078633421428</v>
+        <v>0.008821888975476153</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.57784591992128</v>
+        <v>-19.21420657960995</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04334695259332856</v>
+        <v>0.02260007689374742</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.44498198928596</v>
+        <v>-15.76421237109729</v>
       </c>
       <c r="C8" t="n">
-        <v>0.692774495948528</v>
+        <v>0.08808578004677459</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1173.404985621756</v>
+        <v>-276.7458582599288</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1803629115855095</v>
+        <v>0.6715423409989931</v>
       </c>
     </row>
     <row r="10">
@@ -611,49 +611,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>717.1952601126677</v>
+        <v>727.0046224983225</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3586232546068536</v>
+        <v>0.370001379418787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3359.755927509332</v>
+        <v>3667.184721946602</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1339141668733198</v>
+        <v>0.09491203122281586</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3504.715756059037</v>
+        <v>-14.1319241819879</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09812576523508515</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.463915013610631</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7566687456915817</v>
+        <v>0.5674262339385011</v>
       </c>
     </row>
   </sheetData>
@@ -667,7 +654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4354.34657755626</v>
+        <v>5623.251878931052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08009237546360989</v>
+        <v>0.009559851048080527</v>
       </c>
     </row>
     <row r="3">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.64082302174978</v>
+        <v>4.236714154365472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6437458494702484</v>
+        <v>0.9470050090229801</v>
       </c>
     </row>
     <row r="4">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.0496266869135</v>
+        <v>178.238691358233</v>
       </c>
       <c r="C4" t="n">
-        <v>4.428969091377076e-05</v>
+        <v>4.282955119290365e-05</v>
       </c>
     </row>
     <row r="5">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09263006094087473</v>
+        <v>-0.09390840395949646</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01885801789304804</v>
+        <v>0.01680647556981483</v>
       </c>
     </row>
     <row r="6">
@@ -751,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.281282269186503e-05</v>
+        <v>4.701021010987508e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.139779700470913</v>
+        <v>0.1781462219882045</v>
       </c>
     </row>
     <row r="7">
@@ -764,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.04040587553439</v>
+        <v>-11.18920234377121</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2927377221201503</v>
+        <v>0.2376423164705958</v>
       </c>
     </row>
     <row r="8">
@@ -777,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5680680626821442</v>
+        <v>-6.426568397784671</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9640801788857525</v>
+        <v>0.5341893875741278</v>
       </c>
     </row>
     <row r="9">
@@ -790,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1101.446745266449</v>
+        <v>-699.9878414323757</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2692059369500703</v>
+        <v>0.4325126232628373</v>
       </c>
     </row>
     <row r="10">
@@ -803,49 +790,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1369.580471530263</v>
+        <v>1230.58212016269</v>
       </c>
       <c r="C10" t="n">
-        <v>0.174892392861548</v>
+        <v>0.214358026297923</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2177.369767211726</v>
+        <v>2378.775915385691</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3424356826259441</v>
+        <v>0.3399806734784028</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2438.247321170971</v>
+        <v>-29.98692186745838</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3297879930316965</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-27.12863694337643</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2966984989072637</v>
+        <v>0.2458044874088291</v>
       </c>
     </row>
   </sheetData>
@@ -859,7 +833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4532.43494326265</v>
+        <v>6362.350895363605</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0644709099186066</v>
+        <v>0.003011050637437931</v>
       </c>
     </row>
     <row r="3">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>59.21660070627144</v>
+        <v>22.85673833592799</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4011346603381087</v>
+        <v>0.725976971954111</v>
       </c>
     </row>
     <row r="4">
@@ -917,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.530944613117</v>
+        <v>187.9821966028695</v>
       </c>
       <c r="C4" t="n">
-        <v>1.109027723689218e-05</v>
+        <v>1.437092709514999e-05</v>
       </c>
     </row>
     <row r="5">
@@ -930,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05530267640239858</v>
+        <v>-0.0509006710452454</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1632390908800583</v>
+        <v>0.2032866140538696</v>
       </c>
     </row>
     <row r="6">
@@ -943,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.724713883548804e-05</v>
+        <v>6.978913579787054e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02262922642148049</v>
+        <v>0.03651690735180924</v>
       </c>
     </row>
     <row r="7">
@@ -956,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.59217981013006</v>
+        <v>-13.24040091911873</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1707659802669961</v>
+        <v>0.1223612861649874</v>
       </c>
     </row>
     <row r="8">
@@ -969,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.772660050384832</v>
+        <v>-12.50146632729027</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8154574489773256</v>
+        <v>0.1925616639322781</v>
       </c>
     </row>
     <row r="9">
@@ -982,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1310.39553591833</v>
+        <v>-676.2705984955112</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1721081674666089</v>
+        <v>0.4078124788558178</v>
       </c>
     </row>
     <row r="10">
@@ -995,49 +969,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>595.786889420795</v>
+        <v>318.8267058460824</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5720153473435067</v>
+        <v>0.761010711854575</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2902.25659245186</v>
+        <v>828.1080979583203</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2064155379934137</v>
+        <v>0.7494787439117577</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1164.914858631153</v>
+        <v>-28.04267472754358</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6493578275433523</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.52466640304109</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3508190784818702</v>
+        <v>0.2494197694478313</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1083,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3470.968575893628</v>
+        <v>4249.854578853105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2048089784282276</v>
+        <v>0.08946000774997541</v>
       </c>
     </row>
     <row r="3">
@@ -1096,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>71.74147174905818</v>
+        <v>50.24127444531337</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3314692648744362</v>
+        <v>0.4452795311639479</v>
       </c>
     </row>
     <row r="4">
@@ -1109,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>252.0718530024209</v>
+        <v>251.7530933276361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000443766985565442</v>
+        <v>0.0003492242775883384</v>
       </c>
     </row>
     <row r="5">
@@ -1122,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06233601170667682</v>
+        <v>-0.06563657851661786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1173282993697859</v>
+        <v>0.09297754176182686</v>
       </c>
     </row>
     <row r="6">
@@ -1135,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.036493250839001e-05</v>
+        <v>7.922775240449082e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0857545579116217</v>
+        <v>0.04137019047146906</v>
       </c>
     </row>
     <row r="7">
@@ -1148,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.170821619046237</v>
+        <v>-11.95199138415021</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5047441114122336</v>
+        <v>0.2757789697421835</v>
       </c>
     </row>
     <row r="8">
@@ -1161,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.583500741592847</v>
+        <v>-6.564858875678919</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8276186179804689</v>
+        <v>0.5260451609501031</v>
       </c>
     </row>
     <row r="9">
@@ -1174,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-787.5869349539209</v>
+        <v>-504.0393727372395</v>
       </c>
       <c r="C9" t="n">
-        <v>0.339628262372511</v>
+        <v>0.4737413776308843</v>
       </c>
     </row>
     <row r="10">
@@ -1187,49 +1148,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>856.3161920144921</v>
+        <v>977.0915397776134</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3507081088689519</v>
+        <v>0.2732982047930976</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1675.430767646798</v>
+        <v>3248.941307567478</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4812841243348318</v>
+        <v>0.2265676551023992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3343.062280342139</v>
+        <v>-16.43714314863405</v>
       </c>
       <c r="C12" t="n">
-        <v>0.221390845708702</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-15.2646166559972</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6012775364033439</v>
+        <v>0.567679558342866</v>
       </c>
     </row>
   </sheetData>
@@ -1243,7 +1191,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1275,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1255.048348967517</v>
+        <v>1733.629589193524</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4632907009018329</v>
+        <v>0.2907514099943253</v>
       </c>
     </row>
     <row r="3">
@@ -1288,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.57471271654182</v>
+        <v>44.15676034937718</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3374133535091794</v>
+        <v>0.3784734280335683</v>
       </c>
     </row>
     <row r="4">
@@ -1301,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.9769445594644</v>
+        <v>157.6558995287185</v>
       </c>
       <c r="C4" t="n">
-        <v>1.90694471259959e-05</v>
+        <v>1.747309690272662e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1314,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0404226679914728</v>
+        <v>-0.04105194679003391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1133978548820322</v>
+        <v>0.1065515714538329</v>
       </c>
     </row>
     <row r="6">
@@ -1327,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.089171787551198e-05</v>
+        <v>3.969606035858649e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1524231808714393</v>
+        <v>0.1619436336779547</v>
       </c>
     </row>
     <row r="7">
@@ -1340,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.04588399915522</v>
+        <v>-10.93977087562915</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2055898355331724</v>
+        <v>0.1650554394627858</v>
       </c>
     </row>
     <row r="8">
@@ -1353,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.343399550907179</v>
+        <v>4.074817408211317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4065401493807662</v>
+        <v>0.6460385013008982</v>
       </c>
     </row>
     <row r="9">
@@ -1366,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-785.1582204156521</v>
+        <v>-519.8664791001256</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1938544622585848</v>
+        <v>0.3214894993964378</v>
       </c>
     </row>
     <row r="10">
@@ -1379,49 +1327,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>844.5810511393597</v>
+        <v>889.7891288556284</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2151315221667127</v>
+        <v>0.1897521536090147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1556.493153278781</v>
+        <v>5973.725168167013</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3502055949179231</v>
+        <v>0.005407016008861782</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6049.404854195198</v>
+        <v>12.40297125295925</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005311302529745675</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>8.612307948145187</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6915084210646041</v>
+        <v>0.5606946146423444</v>
       </c>
     </row>
   </sheetData>
@@ -1435,7 +1370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1467,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5261.083623911776</v>
+        <v>6294.584393417447</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01803909709118141</v>
+        <v>0.007374256901042119</v>
       </c>
     </row>
     <row r="3">
@@ -1480,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.77075653043278</v>
+        <v>18.45248436658414</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5294671167244971</v>
+        <v>0.7866566723471461</v>
       </c>
     </row>
     <row r="4">
@@ -1493,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.6029732794005</v>
+        <v>184.7176043024309</v>
       </c>
       <c r="C4" t="n">
-        <v>3.280424171614126e-05</v>
+        <v>0.0001001514516771268</v>
       </c>
     </row>
     <row r="5">
@@ -1506,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05883918267930183</v>
+        <v>-0.06189385936851255</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05527167858306691</v>
+        <v>0.05885363864651957</v>
       </c>
     </row>
     <row r="6">
@@ -1519,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.726893092535538e-05</v>
+        <v>3.917960225904203e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2686483554774398</v>
+        <v>0.2776840077530634</v>
       </c>
     </row>
     <row r="7">
@@ -1532,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.28064947151749</v>
+        <v>-18.09022515983493</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07822645971804409</v>
+        <v>0.08429904024264918</v>
       </c>
     </row>
     <row r="8">
@@ -1545,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.593366633624164</v>
+        <v>-7.044408588746826</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8768708536296773</v>
+        <v>0.4824117499764496</v>
       </c>
     </row>
     <row r="9">
@@ -1558,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1094.028298128324</v>
+        <v>-560.5904629573129</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09244729809564041</v>
+        <v>0.3576557312722161</v>
       </c>
     </row>
     <row r="10">
@@ -1571,49 +1506,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1182.827116211714</v>
+        <v>1109.043324105044</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1566888580189882</v>
+        <v>0.2120176178931593</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3397.006682242885</v>
+        <v>4557.372433243801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0631044378029179</v>
+        <v>0.1175644750569448</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4788.238125669845</v>
+        <v>-52.72169292714544</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08103412659089575</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-60.76660192439967</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05456273914727022</v>
+        <v>0.109985255527973</v>
       </c>
     </row>
   </sheetData>
@@ -1627,7 +1549,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1659,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4234.821511329867</v>
+        <v>5373.706668251982</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05038866035639089</v>
+        <v>0.01472441688027688</v>
       </c>
     </row>
     <row r="3">
@@ -1672,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.10022224641395</v>
+        <v>3.199564403273598</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6117429011593264</v>
+        <v>0.9633032504129517</v>
       </c>
     </row>
     <row r="4">
@@ -1685,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.2763223649936</v>
+        <v>192.2953539056047</v>
       </c>
       <c r="C4" t="n">
-        <v>1.164253394161618e-05</v>
+        <v>2.830376035636747e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1698,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08785660664016137</v>
+        <v>-0.08233869354074513</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0234999557537495</v>
+        <v>0.03893851386160058</v>
       </c>
     </row>
     <row r="6">
@@ -1711,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.224071807894196e-05</v>
+        <v>4.023228381750958e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1672066545569422</v>
+        <v>0.2954771070868307</v>
       </c>
     </row>
     <row r="7">
@@ -1724,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.391363358338779</v>
+        <v>-5.485263660657949</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6701394679955688</v>
+        <v>0.6117181839412962</v>
       </c>
     </row>
     <row r="8">
@@ -1737,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.233822826842335</v>
+        <v>-8.372384707715248</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9031499951200983</v>
+        <v>0.3915054371437435</v>
       </c>
     </row>
     <row r="9">
@@ -1750,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-693.3089303407014</v>
+        <v>-292.5589037702462</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3066055148306231</v>
+        <v>0.6562723755381098</v>
       </c>
     </row>
     <row r="10">
@@ -1763,49 +1685,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>884.5144001819535</v>
+        <v>698.1363047016403</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3594561699622281</v>
+        <v>0.485343058814841</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3251.933412064242</v>
+        <v>2228.60548240444</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1030487185220497</v>
+        <v>0.4190677768826322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1484.60228766609</v>
+        <v>-23.18192281459434</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5759005680355895</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.27992021719629</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3395209130828676</v>
+        <v>0.3638085988365002</v>
       </c>
     </row>
   </sheetData>
@@ -1819,7 +1728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1851,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2934.180189071867</v>
+        <v>3649.795311886486</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08173963870696463</v>
+        <v>0.02596046145466515</v>
       </c>
     </row>
     <row r="3">
@@ -1864,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-17.52675580351212</v>
+        <v>-38.1670416544701</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7214810942936088</v>
+        <v>0.4197032839032321</v>
       </c>
     </row>
     <row r="4">
@@ -1877,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>110.9054629168202</v>
+        <v>102.8337429988433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0009341409256176332</v>
+        <v>0.001469759213870989</v>
       </c>
     </row>
     <row r="5">
@@ -1890,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02268068018300862</v>
+        <v>-0.0225166995537634</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4371339410435142</v>
+        <v>0.4469274268411414</v>
       </c>
     </row>
     <row r="6">
@@ -1903,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.740776402242008e-05</v>
+        <v>1.242397671477255e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4835843745331756</v>
+        <v>0.6163051361228132</v>
       </c>
     </row>
     <row r="7">
@@ -1916,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.09837230010167</v>
+        <v>-21.42522698973181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.004922137017287996</v>
+        <v>0.002931247738438933</v>
       </c>
     </row>
     <row r="8">
@@ -1929,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.261113322961279</v>
+        <v>-5.98075517786009</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8793739542611849</v>
+        <v>0.4290050637820991</v>
       </c>
     </row>
     <row r="9">
@@ -1942,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1490.819121436545</v>
+        <v>-1306.400350502587</v>
       </c>
       <c r="C9" t="n">
-        <v>0.006098903772868468</v>
+        <v>0.01092511025164279</v>
       </c>
     </row>
     <row r="10">
@@ -1955,49 +1864,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>134.4064752607346</v>
+        <v>30.41855849159447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.835629109024253</v>
+        <v>0.9627706715349592</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1582.931470684343</v>
+        <v>7640.168705824115</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2254894286577587</v>
+        <v>0.001015208399790705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7393.958154243048</v>
+        <v>19.80818760843527</v>
       </c>
       <c r="C12" t="n">
-        <v>0.001341712246951688</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>18.05701332711809</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3495653428327037</v>
+        <v>0.3114582047344117</v>
       </c>
     </row>
   </sheetData>
@@ -2011,7 +1907,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2043,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3280.61879017697</v>
+        <v>4753.329698688754</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1921656542904586</v>
+        <v>0.042461523573262</v>
       </c>
     </row>
     <row r="3">
@@ -2056,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.43102267639119</v>
+        <v>37.9918473283285</v>
       </c>
       <c r="C3" t="n">
-        <v>0.311064997748337</v>
+        <v>0.5086069322076885</v>
       </c>
     </row>
     <row r="4">
@@ -2069,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>295.6540767775159</v>
+        <v>294.1599277552885</v>
       </c>
       <c r="C4" t="n">
-        <v>2.698190736670767e-06</v>
+        <v>2.711741907605401e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2082,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02643285053865646</v>
+        <v>-0.01861342864574481</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4185604945006274</v>
+        <v>0.5670331685795182</v>
       </c>
     </row>
     <row r="6">
@@ -2095,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.794807299789169e-05</v>
+        <v>1.951438789767756e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4158307614300879</v>
+        <v>0.5676172128691206</v>
       </c>
     </row>
     <row r="7">
@@ -2108,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.552985163089488</v>
+        <v>-9.995634948103742</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7372855104649417</v>
+        <v>0.4494692334924038</v>
       </c>
     </row>
     <row r="8">
@@ -2121,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.386678491040129</v>
+        <v>-4.448407819748503</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7001827987529179</v>
+        <v>0.6306144487865759</v>
       </c>
     </row>
     <row r="9">
@@ -2134,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-570.2153922761827</v>
+        <v>130.4633156778555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5265605665282966</v>
+        <v>0.8568703180609062</v>
       </c>
     </row>
     <row r="10">
@@ -2147,49 +2043,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>686.6901896956624</v>
+        <v>765.3599951904544</v>
       </c>
       <c r="C10" t="n">
-        <v>0.486369213949752</v>
+        <v>0.445750435863201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2400.392225144266</v>
+        <v>5356.005396605495</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2094222598531362</v>
+        <v>0.06815868188855238</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4788.810252966822</v>
+        <v>-49.80783691284805</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09884308781450953</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-43.82519775329082</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.185382633356434</v>
+        <v>0.1372836241990243</v>
       </c>
     </row>
   </sheetData>
@@ -2203,7 +2086,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2876.281133054259</v>
+        <v>4693.076455008969</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1680688590881244</v>
+        <v>0.01739739395005595</v>
       </c>
     </row>
     <row r="3">
@@ -2248,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.55247234914447</v>
+        <v>48.90130966227585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1478634458511361</v>
+        <v>0.4381215336300528</v>
       </c>
     </row>
     <row r="4">
@@ -2261,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>205.117059900689</v>
+        <v>191.9264243770422</v>
       </c>
       <c r="C4" t="n">
-        <v>2.307071312596238e-06</v>
+        <v>5.434921626308064e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2274,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05667814958756805</v>
+        <v>-0.06052222259290836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04220329309938014</v>
+        <v>0.03828536140323406</v>
       </c>
     </row>
     <row r="6">
@@ -2287,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.764017560701777e-05</v>
+        <v>9.939478666421603e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01302131260065701</v>
+        <v>0.006775699457598662</v>
       </c>
     </row>
     <row r="7">
@@ -2300,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.33899415379297</v>
+        <v>-14.89128975048006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2542739292202422</v>
+        <v>0.1078826373398684</v>
       </c>
     </row>
     <row r="8">
@@ -2313,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.537097653242462</v>
+        <v>-5.901715583847704</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8690309810233637</v>
+        <v>0.499515999150133</v>
       </c>
     </row>
     <row r="9">
@@ -2326,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-700.9329440022257</v>
+        <v>-363.9535232308622</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2489307618312834</v>
+        <v>0.5412565032341106</v>
       </c>
     </row>
     <row r="10">
@@ -2339,49 +2222,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>655.0182656162226</v>
+        <v>646.9374461151801</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3476170608038486</v>
+        <v>0.3768475793972839</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3002.336791802054</v>
+        <v>2404.346410753349</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0976292805767444</v>
+        <v>0.2905535629045374</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2978.484709780441</v>
+        <v>-18.6478830594551</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1783167750294805</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.32921978725788</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6118667141944867</v>
+        <v>0.4209363704273813</v>
       </c>
     </row>
   </sheetData>
@@ -2395,7 +2265,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2427,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5655.119130803876</v>
+        <v>7068.66200981035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04886152088054568</v>
+        <v>0.007381274812429056</v>
       </c>
     </row>
     <row r="3">
@@ -2440,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.0078258024871</v>
+        <v>58.98156636994187</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2841705000394287</v>
+        <v>0.4023248345868382</v>
       </c>
     </row>
     <row r="4">
@@ -2453,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.0702031087716</v>
+        <v>179.2332746062731</v>
       </c>
       <c r="C4" t="n">
-        <v>5.316458146629348e-05</v>
+        <v>5.813704569299414e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2466,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09148297081549535</v>
+        <v>-0.09151740225300486</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02101229088095494</v>
+        <v>0.0209943666945832</v>
       </c>
     </row>
     <row r="6">
@@ -2479,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.281711664591759e-05</v>
+        <v>7.033454270017155e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0584235300403808</v>
+        <v>0.06663786195694626</v>
       </c>
     </row>
     <row r="7">
@@ -2492,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.281313308511372</v>
+        <v>-8.935480825761573</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3484369907800512</v>
+        <v>0.3678138607598491</v>
       </c>
     </row>
     <row r="8">
@@ -2505,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.024207518593855</v>
+        <v>-12.67422865992433</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6172269909836587</v>
+        <v>0.2301548550981453</v>
       </c>
     </row>
     <row r="9">
@@ -2518,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1070.907955816323</v>
+        <v>-912.9626835964327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1784293283972344</v>
+        <v>0.2413950180352171</v>
       </c>
     </row>
     <row r="10">
@@ -2531,49 +2401,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>990.7587258778162</v>
+        <v>760.5289746594704</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3103853963467297</v>
+        <v>0.4238295735835582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2637.478684627295</v>
+        <v>822.9972490489599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2879581798890834</v>
+        <v>0.778474294924703</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1016.435067660583</v>
+        <v>-45.65653944292453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7277668896945393</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-39.24811251489675</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2113468326018436</v>
+        <v>0.1428423793950059</v>
       </c>
     </row>
   </sheetData>
@@ -2587,7 +2444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2619,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3937.361466246082</v>
+        <v>3999.477422682257</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09286547055200602</v>
+        <v>0.02529501179820737</v>
       </c>
     </row>
     <row r="3">
@@ -2632,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-36.84212112101494</v>
+        <v>-38.65050460251393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6606730565210486</v>
+        <v>0.583279195732929</v>
       </c>
     </row>
     <row r="4">
@@ -2645,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.9536538007821</v>
+        <v>131.3851171082233</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001188524969530789</v>
+        <v>0.0004181347802972246</v>
       </c>
     </row>
     <row r="5">
@@ -2658,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01817022519583422</v>
+        <v>-0.01824057389671357</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5765186831246063</v>
+        <v>0.5632317639185782</v>
       </c>
     </row>
     <row r="6">
@@ -2671,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.861757662087899e-05</v>
+        <v>1.900372299931652e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6120038692137794</v>
+        <v>0.5823755150250267</v>
       </c>
     </row>
     <row r="7">
@@ -2684,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.46769716338414</v>
+        <v>-17.5828791444243</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04156817245163028</v>
+        <v>0.0261779211670168</v>
       </c>
     </row>
     <row r="8">
@@ -2697,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.319344706281399</v>
+        <v>-7.615712143667217</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4748921140484973</v>
+        <v>0.2994872620211688</v>
       </c>
     </row>
     <row r="9">
@@ -2710,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1664.780378260435</v>
+        <v>-1658.454945640223</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01694752178409407</v>
+        <v>0.01212041461268725</v>
       </c>
     </row>
     <row r="10">
@@ -2723,49 +2580,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-322.3522128421409</v>
+        <v>-328.0022950618186</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6998295928323679</v>
+        <v>0.6824779657832951</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.0455041396344</v>
+        <v>6941.951558074057</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9658506463040768</v>
+        <v>0.01259938529341761</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6966.579335910154</v>
+        <v>15.84033968981809</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0172152898800158</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>15.92198746280222</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5417919112963907</v>
+        <v>0.5308166238279011</v>
       </c>
     </row>
   </sheetData>
@@ -2779,7 +2623,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2811,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4367.823046929074</v>
+        <v>5049.686009532868</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04884714982488418</v>
+        <v>0.01763958991571239</v>
       </c>
     </row>
     <row r="3">
@@ -2824,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.08130149646689</v>
+        <v>33.20813190926478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5815497004622756</v>
+        <v>0.6372025463697711</v>
       </c>
     </row>
     <row r="4">
@@ -2837,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.0120654336238</v>
+        <v>193.9608106761592</v>
       </c>
       <c r="C4" t="n">
-        <v>5.682403993246761e-05</v>
+        <v>5.699215779285087e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2850,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07761132149824326</v>
+        <v>-0.08037127105406475</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03145648573799665</v>
+        <v>0.02530345717521419</v>
       </c>
     </row>
     <row r="6">
@@ -2863,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.403296433870963e-05</v>
+        <v>5.290114605218397e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1222653861523075</v>
+        <v>0.1281977017696526</v>
       </c>
     </row>
     <row r="7">
@@ -2876,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.09352349916561</v>
+        <v>-11.96405973052639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2187092672640438</v>
+        <v>0.1825636742960312</v>
       </c>
     </row>
     <row r="8">
@@ -2889,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.046664233722218</v>
+        <v>-9.625066514976936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7983046278881016</v>
+        <v>0.3291080383981149</v>
       </c>
     </row>
     <row r="9">
@@ -2902,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-880.9759935900749</v>
+        <v>-428.3459855202422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2678437715540014</v>
+        <v>0.4942229523778662</v>
       </c>
     </row>
     <row r="10">
@@ -2915,49 +2759,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1341.306045623734</v>
+        <v>1479.677561276463</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1849988508402741</v>
+        <v>0.1403380106827429</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2256.099388759098</v>
+        <v>2732.000648028676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3419677041114525</v>
+        <v>0.2760771444851395</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2927.998442961307</v>
+        <v>-19.16186251489134</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2470838783315914</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-24.6752692286909</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3592568523401258</v>
+        <v>0.4629780586972755</v>
       </c>
     </row>
   </sheetData>
@@ -2971,7 +2802,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3003,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4093.667376137535</v>
+        <v>5404.271395383987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06471221927350762</v>
+        <v>0.008406798307404385</v>
       </c>
     </row>
     <row r="3">
@@ -3016,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.75943599733799</v>
+        <v>4.37750251176351</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5910324125618305</v>
+        <v>0.9407496986686187</v>
       </c>
     </row>
     <row r="4">
@@ -3029,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.8976958386218</v>
+        <v>214.8762592183475</v>
       </c>
       <c r="C4" t="n">
-        <v>2.756889443926292e-06</v>
+        <v>3.094645228508495e-06</v>
       </c>
     </row>
     <row r="5">
@@ -3042,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06292965209934034</v>
+        <v>-0.06852895100333668</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03853546260990266</v>
+        <v>0.0256630594770115</v>
       </c>
     </row>
     <row r="6">
@@ -3055,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.14015255876983e-05</v>
+        <v>3.107286450490266e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3823642135582271</v>
+        <v>0.394273126107381</v>
       </c>
     </row>
     <row r="7">
@@ -3068,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.10588803158446</v>
+        <v>-10.01174600209313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2536105478276748</v>
+        <v>0.2646342879646198</v>
       </c>
     </row>
     <row r="8">
@@ -3081,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.649685934905406</v>
+        <v>2.75691602603508</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3683248662802674</v>
+        <v>0.7645060347692851</v>
       </c>
     </row>
     <row r="9">
@@ -3094,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-577.4893886504772</v>
+        <v>-338.0836536780605</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3939630090461282</v>
+        <v>0.6056197326729282</v>
       </c>
     </row>
     <row r="10">
@@ -3107,49 +2938,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1606.504358201448</v>
+        <v>1492.359735558973</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05038632678623357</v>
+        <v>0.06853457850948456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2488.033082894035</v>
+        <v>4989.227065987066</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2218334589897303</v>
+        <v>0.05230563261332905</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5589.222355102336</v>
+        <v>-71.27675533991578</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0329974220493426</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-69.57424250406231</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.02986394046550223</v>
+        <v>0.02794939356654672</v>
       </c>
     </row>
   </sheetData>
@@ -3163,7 +2981,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3195,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2155.944935286268</v>
+        <v>3270.490128302211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2378318804392108</v>
+        <v>0.08028565796279111</v>
       </c>
     </row>
     <row r="3">
@@ -3208,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.04134183589687</v>
+        <v>68.10783384486297</v>
       </c>
       <c r="C3" t="n">
-        <v>0.20295975446513</v>
+        <v>0.2671270331889598</v>
       </c>
     </row>
     <row r="4">
@@ -3221,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>265.3052310828319</v>
+        <v>269.9054532426684</v>
       </c>
       <c r="C4" t="n">
-        <v>5.774394785409996e-05</v>
+        <v>7.887968397575337e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3234,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04330714189255463</v>
+        <v>-0.04410258537478451</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1159943745898027</v>
+        <v>0.1307389198604945</v>
       </c>
     </row>
     <row r="6">
@@ -3247,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.634801986163077e-05</v>
+        <v>6.718041754915098e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02720462501760196</v>
+        <v>0.03384201630744276</v>
       </c>
     </row>
     <row r="7">
@@ -3260,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5174010030063698</v>
+        <v>-3.709804261758137</v>
       </c>
       <c r="C7" t="n">
-        <v>0.958879512392789</v>
+        <v>0.7216323546100895</v>
       </c>
     </row>
     <row r="8">
@@ -3273,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.200569411567841</v>
+        <v>-7.788705837985855</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9024378248056435</v>
+        <v>0.3922688751145441</v>
       </c>
     </row>
     <row r="9">
@@ -3286,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-727.7828610410256</v>
+        <v>-264.9810655829456</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2345887419628011</v>
+        <v>0.6476603315516412</v>
       </c>
     </row>
     <row r="10">
@@ -3299,49 +3117,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.493169126388239</v>
+        <v>223.4809904404319</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9975887744745722</v>
+        <v>0.7971738117989384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3124.30334799429</v>
+        <v>3605.862661490661</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08139852206019238</v>
+        <v>0.1099476928786629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3200.800216063019</v>
+        <v>0.04482967083453104</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1323322846551681</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.293703810306752</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9124729792473173</v>
+        <v>0.9983864552568109</v>
       </c>
     </row>
   </sheetData>
@@ -3355,7 +3160,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3387,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4169.254730718967</v>
+        <v>5862.665115658363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.157848367207752</v>
+        <v>0.02298849352189128</v>
       </c>
     </row>
     <row r="3">
@@ -3400,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.99600993889527</v>
+        <v>14.43897158582422</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4736064247229499</v>
+        <v>0.8448809350761944</v>
       </c>
     </row>
     <row r="4">
@@ -3413,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.383156530781</v>
+        <v>183.5081493990705</v>
       </c>
       <c r="C4" t="n">
-        <v>6.884455110141713e-05</v>
+        <v>7.810246602851383e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3426,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08564630895129682</v>
+        <v>-0.08973109553502084</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04993229161341487</v>
+        <v>0.04028928812950874</v>
       </c>
     </row>
     <row r="6">
@@ -3439,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.286296376809022e-05</v>
+        <v>7.921805003603606e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1073321517470639</v>
+        <v>0.07970743758290377</v>
       </c>
     </row>
     <row r="7">
@@ -3452,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.2544063602252</v>
+        <v>-16.79192712532658</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3477302924265415</v>
+        <v>0.1277958522983244</v>
       </c>
     </row>
     <row r="8">
@@ -3465,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.2448089242476925</v>
+        <v>-9.012583222983828</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9863909613089541</v>
+        <v>0.4495258166894924</v>
       </c>
     </row>
     <row r="9">
@@ -3478,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1192.854948875161</v>
+        <v>-472.207995773774</v>
       </c>
       <c r="C9" t="n">
-        <v>0.270894488284706</v>
+        <v>0.570036318557944</v>
       </c>
     </row>
     <row r="10">
@@ -3491,49 +3296,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1072.175409091111</v>
+        <v>1038.239202667447</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3153443319910041</v>
+        <v>0.3317555069511792</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2742.214376617121</v>
+        <v>2153.237935964302</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2924437315796696</v>
+        <v>0.4495038940064342</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2185.488419738436</v>
+        <v>-27.52666857639161</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4413327280273129</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.45447321962384</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4139713935786783</v>
+        <v>0.3366143407268752</v>
       </c>
     </row>
   </sheetData>
@@ -3547,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3579,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4726.177471170682</v>
+        <v>5262.926603282733</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009838444396316624</v>
+        <v>0.005731777590561226</v>
       </c>
     </row>
     <row r="3">
@@ -3592,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.14740661107801</v>
+        <v>13.23515486998252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3796422054065891</v>
+        <v>0.7942378045375723</v>
       </c>
     </row>
     <row r="4">
@@ -3605,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>141.2091224088909</v>
+        <v>130.1510865479573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001463862230754371</v>
+        <v>0.0003853045755329665</v>
       </c>
     </row>
     <row r="5">
@@ -3618,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07517276219198046</v>
+        <v>-0.0598617699400823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05224834886406245</v>
+        <v>0.12101475654328</v>
       </c>
     </row>
     <row r="6">
@@ -3631,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.829401962545107e-05</v>
+        <v>3.874664969780349e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08085202854945921</v>
+        <v>0.165069265679007</v>
       </c>
     </row>
     <row r="7">
@@ -3644,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.8368972945419</v>
+        <v>-20.71925409417941</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01384112574632893</v>
+        <v>0.009416326826076236</v>
       </c>
     </row>
     <row r="8">
@@ -3657,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.665430153682834</v>
+        <v>-11.00238528995736</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4808869298321076</v>
+        <v>0.1648782796835388</v>
       </c>
     </row>
     <row r="9">
@@ -3670,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1484.990732534873</v>
+        <v>-1182.149375424101</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01097256895870349</v>
+        <v>0.03453883530561834</v>
       </c>
     </row>
     <row r="10">
@@ -3683,49 +3475,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1056.271038473928</v>
+        <v>707.2275806356283</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2385282013930939</v>
+        <v>0.4346325632585549</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2553.04222278938</v>
+        <v>4581.528730194705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1000660489956498</v>
+        <v>0.09939354549235113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3471.197180294279</v>
+        <v>-2.03320574057993</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1977268526014876</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-9.306660590464212</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6672321548032565</v>
+        <v>0.9271620119462947</v>
       </c>
     </row>
   </sheetData>
@@ -3739,7 +3518,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3771,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3698.598113021528</v>
+        <v>4509.073097381297</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09083304597106945</v>
+        <v>0.03483918606287873</v>
       </c>
     </row>
     <row r="3">
@@ -3784,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.30513642204414</v>
+        <v>75.55555739437727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2840299281490222</v>
+        <v>0.3113635108210416</v>
       </c>
     </row>
     <row r="4">
@@ -3797,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>202.8826082606375</v>
+        <v>196.5603582353848</v>
       </c>
       <c r="C4" t="n">
-        <v>3.851467803546353e-05</v>
+        <v>4.78815418223277e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3810,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06366271793001738</v>
+        <v>-0.06523122081978498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05131790794328247</v>
+        <v>0.04790041396595745</v>
       </c>
     </row>
     <row r="6">
@@ -3823,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.166864580431791e-05</v>
+        <v>7.233254902735121e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03907899598746976</v>
+        <v>0.03888572380377191</v>
       </c>
     </row>
     <row r="7">
@@ -3836,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.26263364447593</v>
+        <v>-12.19870464768231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2135881692903306</v>
+        <v>0.1821663484289625</v>
       </c>
     </row>
     <row r="8">
@@ -3849,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.85324221154211</v>
+        <v>-9.73095249027908</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8742783925079883</v>
+        <v>0.3270641261094268</v>
       </c>
     </row>
     <row r="9">
@@ -3862,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-901.5826212755196</v>
+        <v>-371.2632213970655</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2459331286088455</v>
+        <v>0.5561057351983374</v>
       </c>
     </row>
     <row r="10">
@@ -3875,49 +3654,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>792.5113951977664</v>
+        <v>898.3981510952417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3489501245965057</v>
+        <v>0.2924266796772322</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2743.432137914526</v>
+        <v>2957.068091349476</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2401317245783561</v>
+        <v>0.2333677419673422</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3230.692825123457</v>
+        <v>-10.33306008608469</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1920307604639891</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.09470012617086</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5209804954489292</v>
+        <v>0.6935960179671571</v>
       </c>
     </row>
   </sheetData>
@@ -3931,7 +3697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3963,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.773129383953</v>
+        <v>4643.190272453552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4525907347969658</v>
+        <v>0.05049088927089803</v>
       </c>
     </row>
     <row r="3">
@@ -3976,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.08381865534793</v>
+        <v>16.65180048172772</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4161341113750183</v>
+        <v>0.7997813984898728</v>
       </c>
     </row>
     <row r="4">
@@ -3989,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>273.4747719632487</v>
+        <v>237.5153962787776</v>
       </c>
       <c r="C4" t="n">
-        <v>4.446271783376695e-06</v>
+        <v>3.557049569320522e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4002,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06461085116099627</v>
+        <v>-0.06150802388043108</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03428386157311598</v>
+        <v>0.06761615383425572</v>
       </c>
     </row>
     <row r="6">
@@ -4015,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.93121079436436e-05</v>
+        <v>4.587282920320275e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0681698545383681</v>
+        <v>0.1911899989592247</v>
       </c>
     </row>
     <row r="7">
@@ -4028,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.031916387171487</v>
+        <v>1.845496255558183</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4211437861976</v>
+        <v>0.8784569542114899</v>
       </c>
     </row>
     <row r="8">
@@ -4041,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.439314498751585</v>
+        <v>-9.325946547625605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5586678194885908</v>
+        <v>0.4362874078753826</v>
       </c>
     </row>
     <row r="9">
@@ -4054,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1507.780689053351</v>
+        <v>-258.111801682664</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1240293689212059</v>
+        <v>0.7716613938196958</v>
       </c>
     </row>
     <row r="10">
@@ -4067,49 +3833,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>109.4221896371151</v>
+        <v>-24.85388815808778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8999486960662846</v>
+        <v>0.9797366030547037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4768.1703113537</v>
+        <v>2804.084298875776</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02655348508269498</v>
+        <v>0.261298667765511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2355.722345591211</v>
+        <v>-17.93028481131136</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2888555723670593</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-11.3908419737802</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6165979960868417</v>
+        <v>0.4825537439252412</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +3876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1982.720013623471</v>
+        <v>3173.789562424987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3479972836543948</v>
+        <v>0.1472852059822968</v>
       </c>
     </row>
     <row r="3">
@@ -4168,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.96664570034963</v>
+        <v>33.69335933631726</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5003807217747623</v>
+        <v>0.6415150668274086</v>
       </c>
     </row>
     <row r="4">
@@ -4181,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.1590365740888</v>
+        <v>176.6059555002864</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003474667262586321</v>
+        <v>0.001840030067124919</v>
       </c>
     </row>
     <row r="5">
@@ -4194,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06998106139945803</v>
+        <v>-0.06766440220227538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02653882583358903</v>
+        <v>0.04152604170926248</v>
       </c>
     </row>
     <row r="6">
@@ -4207,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.380452224744714e-05</v>
+        <v>5.751626702974326e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1231622330852843</v>
+        <v>0.1221443358775497</v>
       </c>
     </row>
     <row r="7">
@@ -4220,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.452231619206557</v>
+        <v>-5.685199280934071</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8744160197092844</v>
+        <v>0.5526908418139012</v>
       </c>
     </row>
     <row r="8">
@@ -4233,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.33684637015792</v>
+        <v>6.439085060190287</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1707657863280053</v>
+        <v>0.5807456653916697</v>
       </c>
     </row>
     <row r="9">
@@ -4246,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-850.9203375646193</v>
+        <v>-251.1907365127754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2020829377460218</v>
+        <v>0.6796806630421689</v>
       </c>
     </row>
     <row r="10">
@@ -4259,49 +4012,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1142.517241369227</v>
+        <v>1305.391864018574</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1813390599534689</v>
+        <v>0.1521657528645408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3375.147525921595</v>
+        <v>3420.095610466017</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07345676733437179</v>
+        <v>0.1628263972339754</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3215.106090253374</v>
+        <v>-26.24638170139076</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1616767998098539</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-31.53935765903587</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1844562947019399</v>
+        <v>0.2930549379396948</v>
       </c>
     </row>
   </sheetData>
@@ -4315,7 +4055,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4347,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3798.763336073522</v>
+        <v>4765.10057268042</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05619548069548249</v>
+        <v>0.00776338926544743</v>
       </c>
     </row>
     <row r="3">
@@ -4360,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.5524878078362</v>
+        <v>6.683311347645315</v>
       </c>
       <c r="C3" t="n">
-        <v>0.575217377342826</v>
+        <v>0.8942476209190846</v>
       </c>
     </row>
     <row r="4">
@@ -4373,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145.5503425491973</v>
+        <v>137.3483703139882</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002013212302784066</v>
+        <v>0.0002277114887676152</v>
       </c>
     </row>
     <row r="5">
@@ -4386,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05588090522847508</v>
+        <v>-0.05953552166002571</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07275716406582347</v>
+        <v>0.05503332528732838</v>
       </c>
     </row>
     <row r="6">
@@ -4399,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.388096981305052e-05</v>
+        <v>4.743494831839327e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.154643006119683</v>
+        <v>0.1225485782075385</v>
       </c>
     </row>
     <row r="7">
@@ -4412,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.75304179199895</v>
+        <v>-22.05798149828898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01708463460301565</v>
+        <v>0.006234399485822356</v>
       </c>
     </row>
     <row r="8">
@@ -4425,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.733027595209165</v>
+        <v>-8.223692714209903</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6705706566496428</v>
+        <v>0.2816575592756421</v>
       </c>
     </row>
     <row r="9">
@@ -4438,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1326.567229018363</v>
+        <v>-1141.016880360887</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02839443674307385</v>
+        <v>0.04306012757058732</v>
       </c>
     </row>
     <row r="10">
@@ -4451,49 +4191,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319.6422643788489</v>
+        <v>310.7585770545022</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6278855702031716</v>
+        <v>0.6373631993673906</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1644.875386473188</v>
+        <v>5536.553839017532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3231287476897455</v>
+        <v>0.01817404863598938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5751.387517794914</v>
+        <v>1.408302278627247</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01547954693289514</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3.770400591598801</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.8671532942960587</v>
+        <v>0.9498944566175183</v>
       </c>
     </row>
   </sheetData>
@@ -4507,7 +4234,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4539,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3611.711602130432</v>
+        <v>4532.821429509383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09321939577302354</v>
+        <v>0.02720569542133489</v>
       </c>
     </row>
     <row r="3">
@@ -4552,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>100.1396809591884</v>
+        <v>83.71121356557302</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1438502016630772</v>
+        <v>0.2103751445608198</v>
       </c>
     </row>
     <row r="4">
@@ -4565,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.6563759852101</v>
+        <v>182.0148894503899</v>
       </c>
       <c r="C4" t="n">
-        <v>9.352007956245095e-06</v>
+        <v>1.037354262553642e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4578,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05953280955177007</v>
+        <v>-0.05794101864827059</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08631431278046486</v>
+        <v>0.09600973612982765</v>
       </c>
     </row>
     <row r="6">
@@ -4591,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.887253267172933e-05</v>
+        <v>8.785463983829127e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01084287527272471</v>
+        <v>0.01183253484649277</v>
       </c>
     </row>
     <row r="7">
@@ -4604,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.80798706571125</v>
+        <v>-14.95422025890794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08732369431880396</v>
+        <v>0.08620916182665264</v>
       </c>
     </row>
     <row r="8">
@@ -4617,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.855947788268431</v>
+        <v>-9.869837383927766</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7876909815407895</v>
+        <v>0.2657195482038353</v>
       </c>
     </row>
     <row r="9">
@@ -4630,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-736.2732631855515</v>
+        <v>-418.4332850690062</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2837710059939451</v>
+        <v>0.5032890026888045</v>
       </c>
     </row>
     <row r="10">
@@ -4643,49 +4370,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>973.5085722489762</v>
+        <v>883.9931032752529</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2502446973694896</v>
+        <v>0.2963777828059463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2801.697130931584</v>
+        <v>2002.317522716517</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2603302977610171</v>
+        <v>0.4042037297729281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2197.208452290934</v>
+        <v>-4.440047519536179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3584935200962848</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-8.460857998237415</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7247760919090548</v>
+        <v>0.8528776802012805</v>
       </c>
     </row>
   </sheetData>
@@ -4699,7 +4413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4731,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3861.075075818361</v>
+        <v>5284.987926622151</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1117280322695646</v>
+        <v>0.03692186557940829</v>
       </c>
     </row>
     <row r="3">
@@ -4744,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.1630547102414</v>
+        <v>24.81734662180122</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3757264757249092</v>
+        <v>0.7251570469476945</v>
       </c>
     </row>
     <row r="4">
@@ -4757,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.5390338928815</v>
+        <v>215.1124419018371</v>
       </c>
       <c r="C4" t="n">
-        <v>8.352610315989006e-06</v>
+        <v>2.917480395520562e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4770,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05262767307155192</v>
+        <v>-0.0632484445488285</v>
       </c>
       <c r="C5" t="n">
-        <v>0.150534403177516</v>
+        <v>0.1052667596339816</v>
       </c>
     </row>
     <row r="6">
@@ -4783,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.010399929219632e-05</v>
+        <v>4.125006206747648e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2359517258721566</v>
+        <v>0.2545939297682673</v>
       </c>
     </row>
     <row r="7">
@@ -4796,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.821903066937359</v>
+        <v>-12.38613065863407</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3418461951311916</v>
+        <v>0.2618645262137666</v>
       </c>
     </row>
     <row r="8">
@@ -4809,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.740697074600796</v>
+        <v>-4.236636037771156</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6142056927800197</v>
+        <v>0.697164171290608</v>
       </c>
     </row>
     <row r="9">
@@ -4822,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1174.42136852898</v>
+        <v>-570.9869548952543</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09707887524609723</v>
+        <v>0.3845056861873984</v>
       </c>
     </row>
     <row r="10">
@@ -4835,49 +4549,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>912.9313323847691</v>
+        <v>926.1845146471383</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2841751865020291</v>
+        <v>0.3099957268787858</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3450.333402321758</v>
+        <v>4713.787405455368</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06371837264434353</v>
+        <v>0.1006456999091572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5079.615215592554</v>
+        <v>-44.19025110529515</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06184690439404851</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-50.43079417065013</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1153937786825303</v>
+        <v>0.190553242992561</v>
       </c>
     </row>
   </sheetData>
@@ -4891,7 +4592,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4923,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6224.4824238111</v>
+        <v>7404.559781851243</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009440041289190843</v>
+        <v>0.002070956683016639</v>
       </c>
     </row>
     <row r="3">
@@ -4936,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.85435456590341</v>
+        <v>20.21880552572105</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5335074130076221</v>
+        <v>0.7487813277140798</v>
       </c>
     </row>
     <row r="4">
@@ -4949,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.7473028011846</v>
+        <v>197.0886202575645</v>
       </c>
       <c r="C4" t="n">
-        <v>5.042566908904098e-06</v>
+        <v>9.189773189952282e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4962,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06013561161401232</v>
+        <v>-0.06540538542663052</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09324092109150646</v>
+        <v>0.07714824247229465</v>
       </c>
     </row>
     <row r="6">
@@ -4975,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.40352372339177e-05</v>
+        <v>2.457301942095373e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4562015470549851</v>
+        <v>0.4618422020368856</v>
       </c>
     </row>
     <row r="7">
@@ -4988,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.4445984022871</v>
+        <v>-13.80698002915477</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1761402459294253</v>
+        <v>0.1464035359066801</v>
       </c>
     </row>
     <row r="8">
@@ -5001,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.045445444857847</v>
+        <v>-5.616110317944774</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8404063346616782</v>
+        <v>0.5417310468072729</v>
       </c>
     </row>
     <row r="9">
@@ -5014,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-929.1822508014457</v>
+        <v>-464.3364427497389</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1653131525370307</v>
+        <v>0.4408017348514686</v>
       </c>
     </row>
     <row r="10">
@@ -5027,49 +4728,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1274.029636661848</v>
+        <v>1281.771490808334</v>
       </c>
       <c r="C10" t="n">
-        <v>0.19561436399662</v>
+        <v>0.2076945468262354</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2689.475633103288</v>
+        <v>2401.301865313384</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1370418168080129</v>
+        <v>0.4420287489827975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2738.135689910436</v>
+        <v>-77.77210160439577</v>
       </c>
       <c r="C12" t="n">
-        <v>0.366830767276121</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-79.41998650605348</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.01815341741017006</v>
+        <v>0.02385009544632085</v>
       </c>
     </row>
   </sheetData>
@@ -5083,7 +4771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5115,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.389514241261</v>
+        <v>2004.140514659566</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3706316264841486</v>
+        <v>0.323503109666151</v>
       </c>
     </row>
     <row r="3">
@@ -5128,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.22322028135272</v>
+        <v>96.99911350016293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.142632520012548</v>
+        <v>0.1289891735492814</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.3736016951914</v>
+        <v>272.0346119242196</v>
       </c>
       <c r="C4" t="n">
-        <v>1.563583248276401e-05</v>
+        <v>7.656252058368773e-06</v>
       </c>
     </row>
     <row r="5">
@@ -5154,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05840009109928909</v>
+        <v>-0.05897631773227269</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05690296401547301</v>
+        <v>0.04808937546677433</v>
       </c>
     </row>
     <row r="6">
@@ -5167,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.215837877656999e-05</v>
+        <v>6.174565468101769e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07951930220835071</v>
+        <v>0.07325216528772339</v>
       </c>
     </row>
     <row r="7">
@@ -5180,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.02822329156901837</v>
+        <v>-0.3931488590533085</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9977089732504749</v>
+        <v>0.9669265304948806</v>
       </c>
     </row>
     <row r="8">
@@ -5193,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.615586562741768</v>
+        <v>1.641091608943476</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7574458315137798</v>
+        <v>0.8639025780464415</v>
       </c>
     </row>
     <row r="9">
@@ -5206,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-480.6601149602629</v>
+        <v>-311.5572919091346</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5544685209662658</v>
+        <v>0.5955030777740298</v>
       </c>
     </row>
     <row r="10">
@@ -5219,49 +4907,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1102.592783368148</v>
+        <v>1189.558929955293</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2164210738632972</v>
+        <v>0.150961210887261</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>755.6019891580727</v>
+        <v>4071.168035162034</v>
       </c>
       <c r="C11" t="n">
-        <v>0.755528564204212</v>
+        <v>0.07558454917818652</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4072.026975406196</v>
+        <v>-7.160815298705671</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0835538946035119</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-10.0563039171538</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7025574369420907</v>
+        <v>0.7651333922898522</v>
       </c>
     </row>
   </sheetData>
@@ -5275,7 +4950,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5307,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5463.156751807852</v>
+        <v>7137.406448317211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04565914757756977</v>
+        <v>0.00288640622009562</v>
       </c>
     </row>
     <row r="3">
@@ -5320,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.61531067433461</v>
+        <v>26.91219909383221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4513250719068248</v>
+        <v>0.7058003033143834</v>
       </c>
     </row>
     <row r="4">
@@ -5333,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>203.661100942984</v>
+        <v>197.387733189823</v>
       </c>
       <c r="C4" t="n">
-        <v>4.65506324645442e-05</v>
+        <v>5.258199854257116e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5346,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06560639433384521</v>
+        <v>-0.06293676540880197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05364748456676887</v>
+        <v>0.06328566601451212</v>
       </c>
     </row>
     <row r="6">
@@ -5359,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.417364378888649e-05</v>
+        <v>2.458200721243672e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3632971640817074</v>
+        <v>0.5017584809468364</v>
       </c>
     </row>
     <row r="7">
@@ -5372,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.21559811275866</v>
+        <v>-18.76814169273558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.108124957528591</v>
+        <v>0.06028906950720708</v>
       </c>
     </row>
     <row r="8">
@@ -5385,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.194323682913652</v>
+        <v>-6.192537099941539</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8037781618889177</v>
+        <v>0.5282586848590076</v>
       </c>
     </row>
     <row r="9">
@@ -5398,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-825.0375318703336</v>
+        <v>-87.19048767796994</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4198730722296444</v>
+        <v>0.9100554544860781</v>
       </c>
     </row>
     <row r="10">
@@ -5411,49 +5086,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1237.176800109606</v>
+        <v>1105.176244742098</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1518560370554166</v>
+        <v>0.1957795977627789</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2497.948786361994</v>
+        <v>5264.434642667753</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2738124290433306</v>
+        <v>0.07700206575531884</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4959.096299391062</v>
+        <v>-78.13504412733354</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09426516573806096</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-70.56561999068757</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.06072428614428286</v>
+        <v>0.03732000337837706</v>
       </c>
     </row>
   </sheetData>
@@ -5467,7 +5129,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5499,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5526.860514078398</v>
+        <v>6872.170967280879</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04709197054016803</v>
+        <v>0.00295275226884275</v>
       </c>
     </row>
     <row r="3">
@@ -5512,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.8639639792587</v>
+        <v>8.713816962522969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5716290099571579</v>
+        <v>0.8955729200366731</v>
       </c>
     </row>
     <row r="4">
@@ -5525,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.1167750982443</v>
+        <v>167.6506418625392</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001695284716907981</v>
+        <v>0.0001570686156831875</v>
       </c>
     </row>
     <row r="5">
@@ -5538,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07203439159289751</v>
+        <v>-0.0731541935483568</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07873666286520407</v>
+        <v>0.07145760210194649</v>
       </c>
     </row>
     <row r="6">
@@ -5551,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.788093446502991e-05</v>
+        <v>7.683335958884123e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1037731664584875</v>
+        <v>0.05650437610563633</v>
       </c>
     </row>
     <row r="7">
@@ -5564,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.43572751633036</v>
+        <v>-15.58217105745541</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1993702945191298</v>
+        <v>0.1237287453224083</v>
       </c>
     </row>
     <row r="8">
@@ -5577,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.109914020626483</v>
+        <v>-9.459581640415081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7144177044388691</v>
+        <v>0.3033751110675538</v>
       </c>
     </row>
     <row r="9">
@@ -5590,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-974.4124665632855</v>
+        <v>-851.2008296097788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.16760348433929</v>
+        <v>0.2100589453087756</v>
       </c>
     </row>
     <row r="10">
@@ -5603,49 +5265,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>929.8960134428007</v>
+        <v>801.7645240249585</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3977095647041988</v>
+        <v>0.4561395581626974</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2071.147680812746</v>
+        <v>107.0625617691039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4142650914555189</v>
+        <v>0.9710386334772337</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>875.2145130475928</v>
+        <v>-39.2485021424251</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7791351675489604</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-34.13114873848948</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2198248869232444</v>
+        <v>0.1466176505948477</v>
       </c>
     </row>
   </sheetData>
@@ -5659,7 +5308,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5691,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4661.492439194804</v>
+        <v>5070.969405878372</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03044730632455176</v>
+        <v>0.02043916412332695</v>
       </c>
     </row>
     <row r="3">
@@ -5704,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.4343870153004</v>
+        <v>-3.453326242273249</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7544759302643083</v>
+        <v>0.9495622968227099</v>
       </c>
     </row>
     <row r="4">
@@ -5717,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.3341777872076</v>
+        <v>151.6650177879631</v>
       </c>
       <c r="C4" t="n">
-        <v>6.683544864686893e-05</v>
+        <v>0.0001082333209860844</v>
       </c>
     </row>
     <row r="5">
@@ -5730,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06323708107407483</v>
+        <v>-0.05619405149277629</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09420171061091819</v>
+        <v>0.1370567630713359</v>
       </c>
     </row>
     <row r="6">
@@ -5743,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.134744653682903e-05</v>
+        <v>3.464247243797214e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1616055281717418</v>
+        <v>0.2392259792757451</v>
       </c>
     </row>
     <row r="7">
@@ -5756,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.83340227646304</v>
+        <v>-20.08323378238229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02978602874730259</v>
+        <v>0.01531747813809807</v>
       </c>
     </row>
     <row r="8">
@@ -5769,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.418740967743418</v>
+        <v>-13.54523804007454</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3398657476178495</v>
+        <v>0.1623023902611064</v>
       </c>
     </row>
     <row r="9">
@@ -5782,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1398.351999319428</v>
+        <v>-1079.959563184266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03552530331344978</v>
+        <v>0.07888357333134123</v>
       </c>
     </row>
     <row r="10">
@@ -5795,49 +5444,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>522.9404785984123</v>
+        <v>405.8753515205281</v>
       </c>
       <c r="C10" t="n">
-        <v>0.494033383552373</v>
+        <v>0.5997834532303875</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2191.134562487325</v>
+        <v>5562.573683320035</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1905797234398775</v>
+        <v>0.04888027065567212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4762.528220647277</v>
+        <v>3.739798353398896</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08933629138295973</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-2.825326824473954</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9073002248975639</v>
+        <v>0.8775647505671604</v>
       </c>
     </row>
   </sheetData>
@@ -5851,7 +5487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5883,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1906.170080913107</v>
+        <v>3626.211115334636</v>
       </c>
       <c r="C2" t="n">
-        <v>0.282449631281288</v>
+        <v>0.05342676961305824</v>
       </c>
     </row>
     <row r="3">
@@ -5896,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>81.34869418744627</v>
+        <v>47.38896720678156</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1392693030874682</v>
+        <v>0.4153524356320277</v>
       </c>
     </row>
     <row r="4">
@@ -5909,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.1665247585218</v>
+        <v>178.2273506760852</v>
       </c>
       <c r="C4" t="n">
-        <v>2.57729920359038e-06</v>
+        <v>1.820244154444994e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5922,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04322743358288483</v>
+        <v>-0.0478752582890839</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1000095987785298</v>
+        <v>0.102406386821132</v>
       </c>
     </row>
     <row r="6">
@@ -5935,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.278282004812387e-05</v>
+        <v>7.443645845105287e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008168521457680017</v>
+        <v>0.02685273332414275</v>
       </c>
     </row>
     <row r="7">
@@ -5948,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.10595570099929</v>
+        <v>-13.56646965318289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1680391893484744</v>
+        <v>0.1667483318741975</v>
       </c>
     </row>
     <row r="8">
@@ -5961,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.019611210658411</v>
+        <v>-4.010487511888527</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5758505538533395</v>
+        <v>0.6598392820476486</v>
       </c>
     </row>
     <row r="9">
@@ -5974,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-681.3495415855817</v>
+        <v>-228.942952327754</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2180709410077036</v>
+        <v>0.6881603669521643</v>
       </c>
     </row>
     <row r="10">
@@ -5987,49 +5623,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>604.9842086334311</v>
+        <v>591.3364949476563</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3998370525062123</v>
+        <v>0.4618428450091054</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3645.729057678218</v>
+        <v>3619.849520488126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02546022354186452</v>
+        <v>0.09837395304613822</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3579.292079334336</v>
+        <v>-2.314105019455916</v>
       </c>
       <c r="C12" t="n">
-        <v>0.06966813386128673</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>2.358309513165601</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9068911497768383</v>
+        <v>0.91811037482493</v>
       </c>
     </row>
   </sheetData>
@@ -6043,7 +5666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6075,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2433.496820604407</v>
+        <v>4223.187831563884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3239076662399367</v>
+        <v>0.09146044125708681</v>
       </c>
     </row>
     <row r="3">
@@ -6088,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.82854004723691</v>
+        <v>35.49684009965131</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3031739438660564</v>
+        <v>0.6075500465510747</v>
       </c>
     </row>
     <row r="4">
@@ -6101,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.1567834212438</v>
+        <v>182.9539515932169</v>
       </c>
       <c r="C4" t="n">
-        <v>7.251323844932692e-05</v>
+        <v>0.0001836662377315602</v>
       </c>
     </row>
     <row r="5">
@@ -6114,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07479245237645105</v>
+        <v>-0.06335739851330519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0506138466192611</v>
+        <v>0.1093026096547437</v>
       </c>
     </row>
     <row r="6">
@@ -6127,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.133709126794701e-05</v>
+        <v>5.482650420692616e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05663923194973389</v>
+        <v>0.1480079229735902</v>
       </c>
     </row>
     <row r="7">
@@ -6140,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.011268401384818</v>
+        <v>-7.594845359233346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5654127596582774</v>
+        <v>0.4973432528416752</v>
       </c>
     </row>
     <row r="8">
@@ -6153,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.82759136224999</v>
+        <v>-3.609655040806118</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4581747053878302</v>
+        <v>0.7612514425865741</v>
       </c>
     </row>
     <row r="9">
@@ -6166,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1076.507501281775</v>
+        <v>-53.16203877336375</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2528315202417378</v>
+        <v>0.9472255610946041</v>
       </c>
     </row>
     <row r="10">
@@ -6179,49 +5802,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1255.371278256115</v>
+        <v>793.427810215052</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2153480603053297</v>
+        <v>0.4442402460704535</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3971.025819620147</v>
+        <v>2872.495135625097</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07084949534442189</v>
+        <v>0.3228486632364992</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1872.090229090405</v>
+        <v>-16.83559125664745</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4950560209499987</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-17.27543166527659</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.4894966825028091</v>
+        <v>0.5291027055205211</v>
       </c>
     </row>
   </sheetData>
@@ -6235,7 +5845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6267,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4130.616121350115</v>
+        <v>4935.422483704715</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04699998222810699</v>
+        <v>0.01558390590595608</v>
       </c>
     </row>
     <row r="3">
@@ -6280,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.25561259497715</v>
+        <v>5.847713245442378</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6847285429019596</v>
+        <v>0.9135262225548123</v>
       </c>
     </row>
     <row r="4">
@@ -6293,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.898033048102</v>
+        <v>179.0640538827969</v>
       </c>
       <c r="C4" t="n">
-        <v>7.407186076641716e-05</v>
+        <v>0.000102131050386522</v>
       </c>
     </row>
     <row r="5">
@@ -6306,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04346553620260135</v>
+        <v>-0.0439048056786096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1447988580106442</v>
+        <v>0.1459084729720966</v>
       </c>
     </row>
     <row r="6">
@@ -6319,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.741285781002818e-05</v>
+        <v>2.664237164896993e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3940800269751307</v>
+        <v>0.4137148560533663</v>
       </c>
     </row>
     <row r="7">
@@ -6332,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.6876841744387</v>
+        <v>-17.43776273310632</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08521601899945037</v>
+        <v>0.05777055169817989</v>
       </c>
     </row>
     <row r="8">
@@ -6345,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.962815822505178</v>
+        <v>-1.854215082105711</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7091337944566322</v>
+        <v>0.8476078691948286</v>
       </c>
     </row>
     <row r="9">
@@ -6358,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1104.371819000043</v>
+        <v>-815.5871787841161</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1115408236041352</v>
+        <v>0.2091813805544718</v>
       </c>
     </row>
     <row r="10">
@@ -6371,49 +5981,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>843.9474022190425</v>
+        <v>769.1876991105055</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2855440628545451</v>
+        <v>0.3342041859958658</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020.505552998185</v>
+        <v>6632.948780303705</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2264187370349968</v>
+        <v>0.01489859561066494</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6686.931545815203</v>
+        <v>-38.56415752377859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01347916545770241</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-42.98819550484633</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2196801749283888</v>
+        <v>0.2726676426141613</v>
       </c>
     </row>
   </sheetData>
@@ -6427,7 +6024,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6459,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3985.706930417582</v>
+        <v>4948.60442071553</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03260244923894217</v>
+        <v>0.006453737663034328</v>
       </c>
     </row>
     <row r="3">
@@ -6472,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>123.6208200549454</v>
+        <v>114.7681505403647</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06214897115652508</v>
+        <v>0.08602071326300893</v>
       </c>
     </row>
     <row r="4">
@@ -6485,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.3552537808593</v>
+        <v>184.867570402202</v>
       </c>
       <c r="C4" t="n">
-        <v>2.706504497808538e-06</v>
+        <v>3.837932310611827e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6498,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08143301298547362</v>
+        <v>-0.08627564019076045</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02249680039295386</v>
+        <v>0.01778959268256999</v>
       </c>
     </row>
     <row r="6">
@@ -6511,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.538389884820118e-05</v>
+        <v>9.589589314171739e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003371411228584033</v>
+        <v>0.003673395544061752</v>
       </c>
     </row>
     <row r="7">
@@ -6524,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.07926018427352</v>
+        <v>-17.54632041370055</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04081774321787737</v>
+        <v>0.02849105943680806</v>
       </c>
     </row>
     <row r="8">
@@ -6537,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.355086556850921</v>
+        <v>-13.95423932794925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5093694831026374</v>
+        <v>0.09404499542650449</v>
       </c>
     </row>
     <row r="9">
@@ -6550,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-593.9419408312806</v>
+        <v>-117.899446261541</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3489482910911306</v>
+        <v>0.8258426233528646</v>
       </c>
     </row>
     <row r="10">
@@ -6563,49 +6160,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>981.0550787911616</v>
+        <v>1094.11515803681</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2656825111389435</v>
+        <v>0.2244858845010986</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2541.036782389194</v>
+        <v>1687.20190452213</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1784597912333084</v>
+        <v>0.448632974093954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2016.716706503567</v>
+        <v>-3.049270065089942</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3585960348663346</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-7.08730982413239</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.7436436397639841</v>
+        <v>0.8895896118788192</v>
       </c>
     </row>
   </sheetData>
@@ -6619,7 +6203,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4032.266737437209</v>
+        <v>5682.054074461881</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1373020570498104</v>
+        <v>0.01070308239749281</v>
       </c>
     </row>
     <row r="3">
@@ -6664,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.63781951369003</v>
+        <v>-2.642291159322355</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6106801496299914</v>
+        <v>0.969062153617906</v>
       </c>
     </row>
     <row r="4">
@@ -6677,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>225.468297587143</v>
+        <v>213.6335391614905</v>
       </c>
       <c r="C4" t="n">
-        <v>1.996149832980761e-05</v>
+        <v>1.7789357619486e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6690,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06150332458324484</v>
+        <v>-0.06722937029236997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0611093109525187</v>
+        <v>0.03868539496503667</v>
       </c>
     </row>
     <row r="6">
@@ -6703,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.842972541684964e-05</v>
+        <v>7.157192637791823e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1631544049324832</v>
+        <v>0.07510496308506909</v>
       </c>
     </row>
     <row r="7">
@@ -6716,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.494264054997608</v>
+        <v>-8.099822116775883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6841315394592437</v>
+        <v>0.4397279758777455</v>
       </c>
     </row>
     <row r="8">
@@ -6729,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.8047854353138817</v>
+        <v>-7.476660769444095</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9437419765288384</v>
+        <v>0.4205962079596026</v>
       </c>
     </row>
     <row r="9">
@@ -6742,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1236.205868008368</v>
+        <v>-1086.127735538111</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0893925286431986</v>
+        <v>0.1226975528203016</v>
       </c>
     </row>
     <row r="10">
@@ -6755,49 +6339,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>464.8691063993097</v>
+        <v>432.5929743044899</v>
       </c>
       <c r="C10" t="n">
-        <v>0.595168463320496</v>
+        <v>0.6203251711067467</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2455.15932418943</v>
+        <v>2280.920270889834</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3280591737708071</v>
+        <v>0.3666779449272727</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3077.609563676792</v>
+        <v>-33.31880002040837</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2501654097664193</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-26.99326423120931</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3140339731275326</v>
+        <v>0.2034810737594587</v>
       </c>
     </row>
   </sheetData>
@@ -6811,7 +6382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6843,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4257.283670151872</v>
+        <v>5375.299949326569</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05025228528633367</v>
+        <v>0.02080022688819999</v>
       </c>
     </row>
     <row r="3">
@@ -6856,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.07783190470388</v>
+        <v>13.19731937140824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5053637711790802</v>
+        <v>0.8271779550646</v>
       </c>
     </row>
     <row r="4">
@@ -6869,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.7812446646048</v>
+        <v>174.4701021455245</v>
       </c>
       <c r="C4" t="n">
-        <v>5.382582473184987e-05</v>
+        <v>0.0002160901202183653</v>
       </c>
     </row>
     <row r="5">
@@ -6882,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07888859839890153</v>
+        <v>-0.07157659680728368</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0349547960374221</v>
+        <v>0.07120271474895441</v>
       </c>
     </row>
     <row r="6">
@@ -6895,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.4411472927806e-05</v>
+        <v>4.996242078295838e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08328822777730528</v>
+        <v>0.1373903970334792</v>
       </c>
     </row>
     <row r="7">
@@ -6908,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.61199693038872</v>
+        <v>-8.109863935335866</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6391350078531276</v>
+        <v>0.4437985081028378</v>
       </c>
     </row>
     <row r="8">
@@ -6921,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.426026253665171</v>
+        <v>-8.576076929155597</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8925708970390922</v>
+        <v>0.4336062372993246</v>
       </c>
     </row>
     <row r="9">
@@ -6934,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-526.7585246937681</v>
+        <v>-113.2435011624175</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4553139407007297</v>
+        <v>0.8768042196782693</v>
       </c>
     </row>
     <row r="10">
@@ -6947,49 +6518,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876.629068511859</v>
+        <v>780.3313460603276</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3253637982209066</v>
+        <v>0.4178644743604707</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3574.85251687506</v>
+        <v>1402.14906100572</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04796644219024994</v>
+        <v>0.639988813151581</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>686.9795728047857</v>
+        <v>-21.4423633705092</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8042775917976697</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.10986016166659</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2986448989702132</v>
+        <v>0.3726441828389615</v>
       </c>
     </row>
   </sheetData>
@@ -7003,7 +6561,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7035,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4501.613546388056</v>
+        <v>5074.308177307512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05163311800214022</v>
+        <v>0.02815165248266557</v>
       </c>
     </row>
     <row r="3">
@@ -7048,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.33065662080952</v>
+        <v>43.84901151065816</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3658310054858303</v>
+        <v>0.4851430680923914</v>
       </c>
     </row>
     <row r="4">
@@ -7061,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.1919542110482</v>
+        <v>195.6212288152983</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008924252653492847</v>
+        <v>0.0006810266875500918</v>
       </c>
     </row>
     <row r="5">
@@ -7074,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05781287525564485</v>
+        <v>-0.05820143589331261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.122333392152357</v>
+        <v>0.1235584105684502</v>
       </c>
     </row>
     <row r="6">
@@ -7087,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.709007350617395e-05</v>
+        <v>5.587804805178541e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08664252854346337</v>
+        <v>0.0958664244316608</v>
       </c>
     </row>
     <row r="7">
@@ -7100,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.13912203078394</v>
+        <v>-14.62180026017003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1605542802650797</v>
+        <v>0.1210899576404554</v>
       </c>
     </row>
     <row r="8">
@@ -7113,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.822930495149809</v>
+        <v>-7.891263100012985</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7977076196258526</v>
+        <v>0.4467665675627066</v>
       </c>
     </row>
     <row r="9">
@@ -7126,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-910.29705981904</v>
+        <v>-534.3600072385489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2333765208612997</v>
+        <v>0.4414459829036632</v>
       </c>
     </row>
     <row r="10">
@@ -7139,49 +6697,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>826.0577574681893</v>
+        <v>971.0271219448887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3713145133567766</v>
+        <v>0.2965184222255015</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.117491424699</v>
+        <v>2590.548220149649</v>
       </c>
       <c r="C11" t="n">
-        <v>0.237467412924847</v>
+        <v>0.3533525043834617</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2214.894892549946</v>
+        <v>-20.01166506127754</v>
       </c>
       <c r="C12" t="n">
-        <v>0.423726827606673</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.64098827894266</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3741166363325527</v>
+        <v>0.434549231067096</v>
       </c>
     </row>
   </sheetData>
@@ -7195,7 +6740,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7227,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4579.981534813061</v>
+        <v>5630.177119272777</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05337585673834541</v>
+        <v>0.01388768635147697</v>
       </c>
     </row>
     <row r="3">
@@ -7240,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.37639958280295</v>
+        <v>7.040225334347838</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7223901333771032</v>
+        <v>0.9288612428135954</v>
       </c>
     </row>
     <row r="4">
@@ -7253,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.834506952485</v>
+        <v>185.6853835481334</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001712882088220212</v>
+        <v>0.0002357288737018674</v>
       </c>
     </row>
     <row r="5">
@@ -7266,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07898051802159048</v>
+        <v>-0.08279306155609006</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04152807956987741</v>
+        <v>0.03456242866925834</v>
       </c>
     </row>
     <row r="6">
@@ -7279,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.328774049220429e-05</v>
+        <v>4.783598074703115e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.133001995860003</v>
+        <v>0.1761227665525759</v>
       </c>
     </row>
     <row r="7">
@@ -7292,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.79289309709144</v>
+        <v>-11.86909259908213</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2961463919055846</v>
+        <v>0.2561962609462249</v>
       </c>
     </row>
     <row r="8">
@@ -7305,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.010863287890501</v>
+        <v>-9.470389857700567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.806205500071611</v>
+        <v>0.4029121097167897</v>
       </c>
     </row>
     <row r="9">
@@ -7318,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-934.9762552248108</v>
+        <v>-532.172671856287</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2157663224999501</v>
+        <v>0.4303698341219818</v>
       </c>
     </row>
     <row r="10">
@@ -7331,49 +6876,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>900.674173661474</v>
+        <v>907.4727911510008</v>
       </c>
       <c r="C10" t="n">
-        <v>0.313841942954787</v>
+        <v>0.3163239654561232</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2470.693781832995</v>
+        <v>3064.939557764676</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2329255698968076</v>
+        <v>0.2320256343580082</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3014.627324707993</v>
+        <v>-25.89182667083716</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2339222797474987</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-25.58513403285278</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3453316212128799</v>
+        <v>0.3457856927668792</v>
       </c>
     </row>
   </sheetData>
@@ -7387,7 +6919,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7419,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4549.15639254266</v>
+        <v>5791.073857165717</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05250956630773811</v>
+        <v>0.01756423062705361</v>
       </c>
     </row>
     <row r="3">
@@ -7432,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.02496164463878</v>
+        <v>54.88947626254179</v>
       </c>
       <c r="C3" t="n">
-        <v>0.201248765415703</v>
+        <v>0.4162148627293473</v>
       </c>
     </row>
     <row r="4">
@@ -7445,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.04560413275</v>
+        <v>178.3027550033232</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001188965839629703</v>
+        <v>0.0003260129486061414</v>
       </c>
     </row>
     <row r="5">
@@ -7458,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07604879057369386</v>
+        <v>-0.07633020589892894</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02179367647035153</v>
+        <v>0.02873327007535877</v>
       </c>
     </row>
     <row r="6">
@@ -7471,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.040304704073887e-05</v>
+        <v>6.73224153692618e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06708372561640073</v>
+        <v>0.09602767829218535</v>
       </c>
     </row>
     <row r="7">
@@ -7484,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.263730318553129</v>
+        <v>-11.46685906738134</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4296196298521266</v>
+        <v>0.2994631949847574</v>
       </c>
     </row>
     <row r="8">
@@ -7497,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.553426111699743</v>
+        <v>-12.91915953696944</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6129766540909513</v>
+        <v>0.2423217537940858</v>
       </c>
     </row>
     <row r="9">
@@ -7510,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-955.4746315875682</v>
+        <v>-498.3547718079335</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2349705990997812</v>
+        <v>0.5333783621829704</v>
       </c>
     </row>
     <row r="10">
@@ -7523,49 +7055,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>542.3584964772454</v>
+        <v>592.3732278990356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5303951827066038</v>
+        <v>0.5198220711136661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3295.736073717799</v>
+        <v>2374.25060387861</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08025403975109914</v>
+        <v>0.3778544194031809</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2131.030473387254</v>
+        <v>-22.1359689123081</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3996138947469461</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-22.5004176591089</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3835600994231804</v>
+        <v>0.4199460796074547</v>
       </c>
     </row>
   </sheetData>
@@ -7579,7 +7098,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7611,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1713.532922556496</v>
+        <v>3104.891690435266</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3776116840664224</v>
+        <v>0.09132692345659472</v>
       </c>
     </row>
     <row r="3">
@@ -7624,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.47669234282716</v>
+        <v>-15.73089377943506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6546912160647643</v>
+        <v>0.7902094368047646</v>
       </c>
     </row>
     <row r="4">
@@ -7637,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.1589308143269</v>
+        <v>151.8609197233246</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001446090886307039</v>
+        <v>0.0003355753683865406</v>
       </c>
     </row>
     <row r="5">
@@ -7650,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01342712307839098</v>
+        <v>-0.0144550230773807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6587412988375916</v>
+        <v>0.6470417882590191</v>
       </c>
     </row>
     <row r="6">
@@ -7663,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.408755910883525e-05</v>
+        <v>2.040992517079291e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6652593733739527</v>
+        <v>0.543946042671981</v>
       </c>
     </row>
     <row r="7">
@@ -7676,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.07493614875777</v>
+        <v>-14.67373877795379</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2441801016069255</v>
+        <v>0.08806247856128867</v>
       </c>
     </row>
     <row r="8">
@@ -7689,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.812772371150601</v>
+        <v>-5.278459432445629</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8462162581890367</v>
+        <v>0.5361370328858375</v>
       </c>
     </row>
     <row r="9">
@@ -7702,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1517.986540400547</v>
+        <v>-1197.662869103274</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01097328122207679</v>
+        <v>0.03141721314520972</v>
       </c>
     </row>
     <row r="10">
@@ -7715,49 +7234,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-198.6073070515686</v>
+        <v>-237.1012784414625</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7960517078311886</v>
+        <v>0.7663382183745308</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2559.401877763608</v>
+        <v>7377.285395315625</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1294547841808185</v>
+        <v>0.007068685490895844</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7460.562446720905</v>
+        <v>18.79667709409566</v>
       </c>
       <c r="C12" t="n">
-        <v>0.005280079328415901</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>19.93947641971644</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3875918958837353</v>
+        <v>0.4316248211913901</v>
       </c>
     </row>
   </sheetData>
@@ -7771,7 +7277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7803,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5018.955279581278</v>
+        <v>6636.742325906853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03724911477618197</v>
+        <v>0.005673312463987622</v>
       </c>
     </row>
     <row r="3">
@@ -7816,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.227855277366928</v>
+        <v>3.748934668713503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9276806284468737</v>
+        <v>0.9584994662627384</v>
       </c>
     </row>
     <row r="4">
@@ -7829,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>231.287325308451</v>
+        <v>207.5313989642622</v>
       </c>
       <c r="C4" t="n">
-        <v>4.376812435444545e-06</v>
+        <v>9.330289243469501e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7842,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03199747575542175</v>
+        <v>-0.03662719734607933</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3559872350183586</v>
+        <v>0.3136360808303542</v>
       </c>
     </row>
     <row r="6">
@@ -7855,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.031378443777023e-06</v>
+        <v>2.196632184944011e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8164907087397799</v>
+        <v>0.5849598787265402</v>
       </c>
     </row>
     <row r="7">
@@ -7868,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.43777339869611</v>
+        <v>-16.37235297151783</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06462338779806655</v>
+        <v>0.09404317408255294</v>
       </c>
     </row>
     <row r="8">
@@ -7881,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.65721351624769</v>
+        <v>-5.817066628480873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4207812471944152</v>
+        <v>0.5344708160164015</v>
       </c>
     </row>
     <row r="9">
@@ -7894,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-908.8344783794469</v>
+        <v>-142.1193263829018</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3488707505801554</v>
+        <v>0.8729670725382515</v>
       </c>
     </row>
     <row r="10">
@@ -7907,49 +7413,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>919.0846425927157</v>
+        <v>654.375644713265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2957941337068929</v>
+        <v>0.4674832990538139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4787.382857906573</v>
+        <v>4154.872897945737</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1009411604201312</v>
+        <v>0.2306253522686094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6299.17059711794</v>
+        <v>-65.35982858334802</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08239705476606271</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-88.18849791737244</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03056243147865422</v>
+        <v>0.09315383273205227</v>
       </c>
     </row>
   </sheetData>
@@ -7963,7 +7456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7995,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3908.278920115842</v>
+        <v>4593.874598342683</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05952788586085909</v>
+        <v>0.02422328115530288</v>
       </c>
     </row>
     <row r="3">
@@ -8008,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.0033160312563</v>
+        <v>73.38781499856884</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1126667896910409</v>
+        <v>0.1665644946981785</v>
       </c>
     </row>
     <row r="4">
@@ -8021,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.6584999703341</v>
+        <v>214.1764689598687</v>
       </c>
       <c r="C4" t="n">
-        <v>6.88204333398275e-06</v>
+        <v>5.181505388921967e-06</v>
       </c>
     </row>
     <row r="5">
@@ -8034,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0777750857202763</v>
+        <v>-0.07753114597589295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03776208822293137</v>
+        <v>0.03946552857984251</v>
       </c>
     </row>
     <row r="6">
@@ -8047,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.815919975909529e-05</v>
+        <v>8.636945767869311e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.00455523669453467</v>
+        <v>0.005346720373870994</v>
       </c>
     </row>
     <row r="7">
@@ -8060,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.59488960520413</v>
+        <v>-16.12108977436064</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09158538230752448</v>
+        <v>0.06338071574204335</v>
       </c>
     </row>
     <row r="8">
@@ -8073,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.274495882980631</v>
+        <v>-6.355066371300076</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8959298761776919</v>
+        <v>0.4740240337059202</v>
       </c>
     </row>
     <row r="9">
@@ -8086,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-484.1900795594152</v>
+        <v>-113.4098103592851</v>
       </c>
       <c r="C9" t="n">
-        <v>0.426429725250303</v>
+        <v>0.8272203430184163</v>
       </c>
     </row>
     <row r="10">
@@ -8099,49 +7592,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1797.216037277978</v>
+        <v>1911.58089052339</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06940845311479626</v>
+        <v>0.05523112170212135</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2054.394894224872</v>
+        <v>1767.453434459515</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2494415164922972</v>
+        <v>0.4556813662195477</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1625.343892944843</v>
+        <v>-20.6916749611905</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4886239072968164</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-21.34228115104872</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3598061384281349</v>
+        <v>0.3786079896882744</v>
       </c>
     </row>
   </sheetData>
@@ -8155,7 +7635,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8187,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3215.450185747122</v>
+        <v>4330.105595177521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1128310966863652</v>
+        <v>0.02790140316048247</v>
       </c>
     </row>
     <row r="3">
@@ -8200,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.30197897035373</v>
+        <v>24.34774739840583</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7460559878167436</v>
+        <v>0.6908184150912403</v>
       </c>
     </row>
     <row r="4">
@@ -8213,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.667012928036</v>
+        <v>165.5542138040058</v>
       </c>
       <c r="C4" t="n">
-        <v>6.455524446613959e-05</v>
+        <v>0.0001013156938944905</v>
       </c>
     </row>
     <row r="5">
@@ -8226,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0318783484785438</v>
+        <v>-0.03231350460964783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2644905223724238</v>
+        <v>0.2705521607138413</v>
       </c>
     </row>
     <row r="6">
@@ -8239,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.809540844779822e-05</v>
+        <v>2.856304729686608e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3882166386895347</v>
+        <v>0.3931412284892819</v>
       </c>
     </row>
     <row r="7">
@@ -8252,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.44776173213384</v>
+        <v>-19.1867009859969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07581265583297374</v>
+        <v>0.0716902997036367</v>
       </c>
     </row>
     <row r="8">
@@ -8265,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.377013623745654</v>
+        <v>-9.217609283757852</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7838629935596254</v>
+        <v>0.2981032593625774</v>
       </c>
     </row>
     <row r="9">
@@ -8278,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1391.979567635855</v>
+        <v>-625.4981704970983</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1366992212234614</v>
+        <v>0.4054233929234731</v>
       </c>
     </row>
     <row r="10">
@@ -8291,49 +7771,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.9597352963428</v>
+        <v>274.1246631815748</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6128106186668889</v>
+        <v>0.743227652659077</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3319.943495603518</v>
+        <v>6790.209713795601</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1692778820639501</v>
+        <v>0.02473578423121393</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7322.202415729414</v>
+        <v>-2.792492959869179</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01538327475559057</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-18.43586041693828</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.6208943395635366</v>
+        <v>0.9389435829764672</v>
       </c>
     </row>
   </sheetData>
@@ -8347,7 +7814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8379,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2525.441543287583</v>
+        <v>3555.521621257689</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3312291064856246</v>
+        <v>0.1464001143961389</v>
       </c>
     </row>
     <row r="3">
@@ -8392,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>78.22526110777312</v>
+        <v>38.80768596190472</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3182785856112674</v>
+        <v>0.5683770781198301</v>
       </c>
     </row>
     <row r="4">
@@ -8405,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.3516153646273</v>
+        <v>192.7785463570353</v>
       </c>
       <c r="C4" t="n">
-        <v>6.496228819091276e-05</v>
+        <v>6.62151054126004e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8418,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05977020107862113</v>
+        <v>-0.06314587250222592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08021145505186443</v>
+        <v>0.06473385156667723</v>
       </c>
     </row>
     <row r="6">
@@ -8431,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.500007125506353e-05</v>
+        <v>6.174554236756614e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05804891765539979</v>
+        <v>0.06927079251220847</v>
       </c>
     </row>
     <row r="7">
@@ -8444,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.762614938357871</v>
+        <v>-4.74182079734787</v>
       </c>
       <c r="C7" t="n">
-        <v>0.578295563478185</v>
+        <v>0.6463737891027406</v>
       </c>
     </row>
     <row r="8">
@@ -8457,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.651965483032598</v>
+        <v>4.589799201230989</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4620753923276597</v>
+        <v>0.7057744696086823</v>
       </c>
     </row>
     <row r="9">
@@ -8470,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-854.4181426349483</v>
+        <v>-715.7932366622135</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2758987492565094</v>
+        <v>0.3529452344828423</v>
       </c>
     </row>
     <row r="10">
@@ -8483,49 +7950,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1002.574444177324</v>
+        <v>885.2653724420405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.261318383126399</v>
+        <v>0.3164717978028957</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2402.96007736713</v>
+        <v>2964.396401895519</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3005853196211642</v>
+        <v>0.2512451702668037</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3191.28072121661</v>
+        <v>-25.70292712552599</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2189346286237172</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-23.16221963137524</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3849645229454328</v>
+        <v>0.3353304131076159</v>
       </c>
     </row>
   </sheetData>
@@ -8539,7 +7993,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8571,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4194.843461486033</v>
+        <v>4594.189260587231</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07304810416689247</v>
+        <v>0.06112906262880727</v>
       </c>
     </row>
     <row r="3">
@@ -8584,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.91976177910425</v>
+        <v>53.01469225522533</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3316123572069614</v>
+        <v>0.4186635807910428</v>
       </c>
     </row>
     <row r="4">
@@ -8597,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.7487149717466</v>
+        <v>222.2973043079374</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01170366565400712</v>
+        <v>0.003765582645262906</v>
       </c>
     </row>
     <row r="5">
@@ -8610,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09401355274469891</v>
+        <v>-0.08001628520049786</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02186561663191344</v>
+        <v>0.05173173479719151</v>
       </c>
     </row>
     <row r="6">
@@ -8623,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.723820726590212e-05</v>
+        <v>6.756573324531742e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03328533630851853</v>
+        <v>0.04043359230133518</v>
       </c>
     </row>
     <row r="7">
@@ -8636,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.75780740060442</v>
+        <v>-12.29219881622013</v>
       </c>
       <c r="C7" t="n">
-        <v>0.286734128007773</v>
+        <v>0.2464569892139893</v>
       </c>
     </row>
     <row r="8">
@@ -8649,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.157552327846616</v>
+        <v>-7.068890436855238</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9148972938467927</v>
+        <v>0.4927295743638257</v>
       </c>
     </row>
     <row r="9">
@@ -8662,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-978.9748759478671</v>
+        <v>-429.2847793257852</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1380837245201278</v>
+        <v>0.4656203897123713</v>
       </c>
     </row>
     <row r="10">
@@ -8675,49 +8129,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1686.842615500209</v>
+        <v>1649.16385292391</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1078697990796735</v>
+        <v>0.1326638606956376</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3322.105771624194</v>
+        <v>2436.398276013908</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09652021171959659</v>
+        <v>0.3762441773280835</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1476.603337206627</v>
+        <v>-19.30000757464168</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5787190671684087</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-29.13119729726736</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2522768414805326</v>
+        <v>0.4541846021009392</v>
       </c>
     </row>
   </sheetData>
@@ -8731,7 +8172,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8763,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4586.558235590612</v>
+        <v>5654.465532243562</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04826785710742159</v>
+        <v>0.0133314138642921</v>
       </c>
     </row>
     <row r="3">
@@ -8776,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.4960049161798</v>
+        <v>19.99935612963253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5485033635430641</v>
+        <v>0.7804831361665319</v>
       </c>
     </row>
     <row r="4">
@@ -8789,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>198.1955530691154</v>
+        <v>187.4005024289159</v>
       </c>
       <c r="C4" t="n">
-        <v>4.014891401270402e-05</v>
+        <v>6.46785488605218e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8802,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07004193322762106</v>
+        <v>-0.07121598555153134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1732757276961938</v>
+        <v>0.1752785060731054</v>
       </c>
     </row>
     <row r="6">
@@ -8815,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.445641144518189e-05</v>
+        <v>4.774316963146298e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3455407865995151</v>
+        <v>0.4155478661749925</v>
       </c>
     </row>
     <row r="7">
@@ -8828,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.38358935945536</v>
+        <v>-13.22781496155459</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2322137999156027</v>
+        <v>0.1724775739390194</v>
       </c>
     </row>
     <row r="8">
@@ -8841,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.375119152837271</v>
+        <v>-10.11123759714613</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7686350949875358</v>
+        <v>0.345548545405409</v>
       </c>
     </row>
     <row r="9">
@@ -8854,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-870.046394375905</v>
+        <v>-385.9136734620188</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3760440383202917</v>
+        <v>0.6777281645705997</v>
       </c>
     </row>
     <row r="10">
@@ -8867,49 +8308,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>816.697531171535</v>
+        <v>799.8496362589735</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4046976939621686</v>
+        <v>0.4245559774988197</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2611.952840763573</v>
+        <v>2062.487710283098</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1820036144294747</v>
+        <v>0.5977830318361331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2287.051228808745</v>
+        <v>-22.22336678687897</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5502721624306768</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-24.45957105086721</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.3816975940957759</v>
+        <v>0.4353205522311205</v>
       </c>
     </row>
   </sheetData>
@@ -8923,7 +8351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8955,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3527.185652706093</v>
+        <v>4410.951944740433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09911400984160942</v>
+        <v>0.03536250425767859</v>
       </c>
     </row>
     <row r="3">
@@ -8968,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>55.53638516149155</v>
+        <v>31.44962434832451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.414279685836155</v>
+        <v>0.6340928218457142</v>
       </c>
     </row>
     <row r="4">
@@ -8981,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.678636785441</v>
+        <v>192.7407299510846</v>
       </c>
       <c r="C4" t="n">
-        <v>3.303718776515232e-05</v>
+        <v>4.12885074416963e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8994,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07790803055662279</v>
+        <v>-0.07911761155686142</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02507660381250143</v>
+        <v>0.02477392798193645</v>
       </c>
     </row>
     <row r="6">
@@ -9007,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.218748972066565e-05</v>
+        <v>4.816766815697792e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1220865343969987</v>
+        <v>0.1559781329303887</v>
       </c>
     </row>
     <row r="7">
@@ -9020,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.753438243784018</v>
+        <v>-6.873380799853891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5527845439953509</v>
+        <v>0.4847811413025054</v>
       </c>
     </row>
     <row r="8">
@@ -9033,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.999668639071459</v>
+        <v>-0.3655994384154475</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5828130985171207</v>
+        <v>0.9704144097005848</v>
       </c>
     </row>
     <row r="9">
@@ -9046,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-770.8065169671427</v>
+        <v>-348.2568993622309</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2712845077094247</v>
+        <v>0.5734908548526958</v>
       </c>
     </row>
     <row r="10">
@@ -9059,49 +8487,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1349.202663723511</v>
+        <v>1384.634106088462</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1649683367107129</v>
+        <v>0.1608177528657737</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.582094350788</v>
+        <v>2756.745268239783</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2082637227132875</v>
+        <v>0.2786134982669936</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2631.638951846417</v>
+        <v>-31.28031828914506</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2929249456265962</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-32.85036400948937</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2107105732951847</v>
+        <v>0.2392613772769111</v>
       </c>
     </row>
   </sheetData>
@@ -9115,7 +8530,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9147,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5133.60767855014</v>
+        <v>6370.027916262714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03998160406256276</v>
+        <v>0.002833836987021186</v>
       </c>
     </row>
     <row r="3">
@@ -9160,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.79341902684337</v>
+        <v>32.94590756179707</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4040166180265516</v>
+        <v>0.6112535526005702</v>
       </c>
     </row>
     <row r="4">
@@ -9173,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.004444423407</v>
+        <v>178.6155686101803</v>
       </c>
       <c r="C4" t="n">
-        <v>1.872704594999581e-05</v>
+        <v>1.562543775678454e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9186,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06794813166643494</v>
+        <v>-0.07300732967202049</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03871034810790243</v>
+        <v>0.02414210553846106</v>
       </c>
     </row>
     <row r="6">
@@ -9199,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.700650793881324e-05</v>
+        <v>9.360640791658926e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03264312919295887</v>
+        <v>0.01948952238901805</v>
       </c>
     </row>
     <row r="7">
@@ -9212,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.48987721576457</v>
+        <v>-18.07954821741443</v>
       </c>
       <c r="C7" t="n">
-        <v>0.108991169990056</v>
+        <v>0.05102476624620554</v>
       </c>
     </row>
     <row r="8">
@@ -9225,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.336945158292039</v>
+        <v>-10.59719502991154</v>
       </c>
       <c r="C8" t="n">
-        <v>0.602324473926347</v>
+        <v>0.2092216496660464</v>
       </c>
     </row>
     <row r="9">
@@ -9238,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-865.1144090756161</v>
+        <v>-594.1426641604189</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1944320664880149</v>
+        <v>0.3054761628666218</v>
       </c>
     </row>
     <row r="10">
@@ -9251,49 +8666,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>709.8535852887633</v>
+        <v>733.6991268043573</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3768413648917517</v>
+        <v>0.3581226790129538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1844.896760194515</v>
+        <v>1424.809558721947</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3796670296157898</v>
+        <v>0.5548229793273898</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1900.452113116047</v>
+        <v>-32.17112214136024</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4461214489590436</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-26.626405913254</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2970816430140937</v>
+        <v>0.1941130473173096</v>
       </c>
     </row>
   </sheetData>
@@ -9307,7 +8709,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9339,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3627.672290858871</v>
+        <v>4789.453814979217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09588573692379165</v>
+        <v>0.03516475356735205</v>
       </c>
     </row>
     <row r="3">
@@ -9352,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.89138208732919</v>
+        <v>36.64971391547289</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6408085877521137</v>
+        <v>0.6158947034317271</v>
       </c>
     </row>
     <row r="4">
@@ -9365,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>230.7849325409484</v>
+        <v>212.4915432793991</v>
       </c>
       <c r="C4" t="n">
-        <v>3.333644839860935e-06</v>
+        <v>9.914709197956661e-06</v>
       </c>
     </row>
     <row r="5">
@@ -9378,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05325861262554035</v>
+        <v>-0.06298099607316887</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06976902402777471</v>
+        <v>0.04306313427817973</v>
       </c>
     </row>
     <row r="6">
@@ -9391,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.326709639034356e-05</v>
+        <v>5.845797876912436e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3761252253105783</v>
+        <v>0.126737781799151</v>
       </c>
     </row>
     <row r="7">
@@ -9404,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.10675385102356</v>
+        <v>-13.07395295540635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1698466190415923</v>
+        <v>0.198103985570016</v>
       </c>
     </row>
     <row r="8">
@@ -9417,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.94264876008383</v>
+        <v>2.653910602088047</v>
       </c>
       <c r="C8" t="n">
-        <v>0.160552223221751</v>
+        <v>0.7803941188392804</v>
       </c>
     </row>
     <row r="9">
@@ -9430,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1071.649240751976</v>
+        <v>-297.1790520822257</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1346842061179636</v>
+        <v>0.6179466229139392</v>
       </c>
     </row>
     <row r="10">
@@ -9443,49 +8845,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1245.762098773283</v>
+        <v>1256.58329644708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1006975611279971</v>
+        <v>0.1191602044128258</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4321.511848151753</v>
+        <v>4529.811560549027</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07448620762835588</v>
+        <v>0.1014115706584297</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6583.614379531304</v>
+        <v>-55.67078020714115</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02506249167755454</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-79.83462168655177</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.03805532449307148</v>
+        <v>0.1338784064576122</v>
       </c>
     </row>
   </sheetData>
@@ -9499,7 +8888,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2419.092284173548</v>
+        <v>3041.822692919501</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1112794667406008</v>
+        <v>0.04538688481372968</v>
       </c>
     </row>
     <row r="3">
@@ -9544,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.0435319375012</v>
+        <v>40.59450017088066</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2359682077288788</v>
+        <v>0.3479804856096819</v>
       </c>
     </row>
     <row r="4">
@@ -9557,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.4586995678711</v>
+        <v>165.4656440334092</v>
       </c>
       <c r="C4" t="n">
-        <v>4.530022026904151e-05</v>
+        <v>4.098389968124126e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9570,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.623746758159684e-05</v>
+        <v>0.00228066234669172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9991432199531965</v>
+        <v>0.9275671815898462</v>
       </c>
     </row>
     <row r="6">
@@ -9583,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.835807100102038e-05</v>
+        <v>5.796296823914854e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01491124381856248</v>
+        <v>0.01761917967032969</v>
       </c>
     </row>
     <row r="7">
@@ -9596,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-23.23759457907909</v>
+        <v>-25.78476534676647</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002733223781114662</v>
+        <v>0.001015622640543454</v>
       </c>
     </row>
     <row r="8">
@@ -9609,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.140238956534233</v>
+        <v>-8.605798551799062</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6958153658816388</v>
+        <v>0.2433735350977608</v>
       </c>
     </row>
     <row r="9">
@@ -9622,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-985.1333263168162</v>
+        <v>-728.6639093735967</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0592474022186694</v>
+        <v>0.1362632934966578</v>
       </c>
     </row>
     <row r="10">
@@ -9635,49 +9024,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.0271917159148</v>
+        <v>248.3432131765787</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7427279068253263</v>
+        <v>0.6975471159505939</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1864.446322900338</v>
+        <v>6047.538445526094</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1670621098020798</v>
+        <v>0.006431443262987385</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>5770.305909687493</v>
+        <v>28.12686934006323</v>
       </c>
       <c r="C12" t="n">
-        <v>0.007844567919570314</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>24.41064275929627</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1823229701750433</v>
+        <v>0.1331295651553226</v>
       </c>
     </row>
   </sheetData>
@@ -9691,7 +9067,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9723,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4606.967766984995</v>
+        <v>5671.930378957966</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06008150306608164</v>
+        <v>0.01593859241293123</v>
       </c>
     </row>
     <row r="3">
@@ -9736,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.95579283384222</v>
+        <v>46.11940801048087</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3568468434368366</v>
+        <v>0.4980337447429855</v>
       </c>
     </row>
     <row r="4">
@@ -9749,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>199.1670701975856</v>
+        <v>190.8869804911676</v>
       </c>
       <c r="C4" t="n">
-        <v>3.257309598662102e-05</v>
+        <v>4.11560990210237e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9762,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07593891426403913</v>
+        <v>-0.07934360976508628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03043176142871882</v>
+        <v>0.02489772202469178</v>
       </c>
     </row>
     <row r="6">
@@ -9775,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.693548391845257e-05</v>
+        <v>5.539674901909434e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1477398740006381</v>
+        <v>0.1618528134668819</v>
       </c>
     </row>
     <row r="7">
@@ -9788,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.177461456952074</v>
+        <v>-7.067226367557822</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6184415469005566</v>
+        <v>0.4973069883836158</v>
       </c>
     </row>
     <row r="8">
@@ -9801,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.316784672021214</v>
+        <v>-9.547918254402063</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7683103124206156</v>
+        <v>0.3479958964836248</v>
       </c>
     </row>
     <row r="9">
@@ -9814,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-841.4574647913155</v>
+        <v>-455.2731773322002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2965946536401592</v>
+        <v>0.5360264107529606</v>
       </c>
     </row>
     <row r="10">
@@ -9827,49 +9203,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>547.8724905990457</v>
+        <v>593.1124712688643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5500136872778638</v>
+        <v>0.5219479404614924</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2338.910136384631</v>
+        <v>2320.533332058621</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2444217464439043</v>
+        <v>0.3897596675827509</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2356.655374521186</v>
+        <v>-29.98421966486876</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3777808287437225</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-28.73493661284724</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.2966530512571851</v>
+        <v>0.2811074191519837</v>
       </c>
     </row>
   </sheetData>
@@ -9883,7 +9246,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9915,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4663.050039556139</v>
+        <v>6036.805801126859</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03461128891670256</v>
+        <v>0.01293995194234212</v>
       </c>
     </row>
     <row r="3">
@@ -9928,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>87.39745456664792</v>
+        <v>46.22464809281627</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2045490436094925</v>
+        <v>0.5289829657680825</v>
       </c>
     </row>
     <row r="4">
@@ -9941,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.6441127139103</v>
+        <v>192.2587610522775</v>
       </c>
       <c r="C4" t="n">
-        <v>3.823672184857895e-05</v>
+        <v>0.0002806838137006834</v>
       </c>
     </row>
     <row r="5">
@@ -9954,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09263563363904939</v>
+        <v>-0.08136408905334294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01502950958445103</v>
+        <v>0.04718248613598098</v>
       </c>
     </row>
     <row r="6">
@@ -9967,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.912100020196781e-05</v>
+        <v>6.758753173263992e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01698065200955377</v>
+        <v>0.05696133964884639</v>
       </c>
     </row>
     <row r="7">
@@ -9980,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.815295181671715</v>
+        <v>-11.81718876116575</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3392840029313116</v>
+        <v>0.2512514248747618</v>
       </c>
     </row>
     <row r="8">
@@ -9993,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.964591017044611</v>
+        <v>-12.46198154409929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7694259562605925</v>
+        <v>0.2408540810835981</v>
       </c>
     </row>
     <row r="9">
@@ -10006,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1337.471568960575</v>
+        <v>-694.6501060245996</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04054202243286879</v>
+        <v>0.2709039522005035</v>
       </c>
     </row>
     <row r="10">
@@ -10019,49 +9382,36 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1158.235477880704</v>
+        <v>913.7097210444444</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1929981122811027</v>
+        <v>0.3506171714474815</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>bike_lane_share_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4316.02705908418</v>
+        <v>1850.486805093451</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0253554327936998</v>
+        <v>0.5154637926114584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>811.0463653852676</v>
+        <v>-27.62337329889689</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7516149099873553</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>-30.96479166852532</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.1780058303417876</v>
+        <v>0.2783198173927896</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06591445" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06702387" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06794918" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06890634" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06983013" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07078975" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07171618" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07265996" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07361769" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ07456690" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ07551406" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ07647660" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ07744950" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ07843488" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ07942409" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ08049157" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ08146671" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ08245389" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ08342902" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ08439655" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ08537747" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ08635423" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ08730186" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ08823708" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ08922064" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ09022449" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ09138788" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ09233621" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ09331713" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ09429229" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ09527749" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ09626304" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ09726891" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ09821941" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ09920465" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ10015106" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ10113625" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ10211806" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ10309330" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ10406855" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ10515913" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ10615745" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ10714413" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ10819139" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ10933168" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ11061589" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ11161166" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ11261092" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ11364952" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ11485775" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ33843353" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ34045944" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ34199101" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34294413" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34390157" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34482455" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ34578098" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ34673618" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34770143" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34866657" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ34984264" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ35122742" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ35243630" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ35361514" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ35476409" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ35596060" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ35712434" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ35816918" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ35910997" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ36002638" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ36097150" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ36192665" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ36285183" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ36377690" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ36467201" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ36561512" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ36654022" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ36745109" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ36835440" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ36929958" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37024269" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37118778" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ37212130" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ37305642" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ37398147" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ37489660" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ37594558" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ37697080" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ37801679" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ37897193" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ37991704" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ38085732" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ38179317" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ38272828" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ38369571" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ38462087" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ38555614" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ38648124" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ38742129" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ38835637" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33843353" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ34045944" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ34199101" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34294413" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34390157" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ34482455" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34578098" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ34673618" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34770143" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ34866657" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ34984264" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ35122742" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ35243630" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ35361514" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ35476409" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ35596060" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ35712434" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ35816918" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ35910997" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ36002638" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ36097150" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ36192665" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ36285183" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ36377690" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ36467201" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ36561512" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ36654022" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ36745109" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ36835440" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ36929958" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ37024269" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37118778" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ37212130" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ37305642" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ37398147" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ37489660" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ37594558" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ37697080" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ37801679" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ37897193" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ37991704" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ38085732" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ38179317" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ38272828" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ38369571" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ38462087" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ38555614" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ38648124" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ38742129" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ38835637" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ48117261" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ48245773" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ48341805" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ48439318" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ48538123" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ48634147" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ48731682" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ48827488" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ48922777" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ49022288" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ49120805" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ49219320" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ49315217" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ49410697" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ49505093" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ49600610" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ49695128" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ49798641" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ49893215" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ49989595" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ50085900" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ50182427" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ50276949" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ50372471" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ50467042" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ50563558" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ50658087" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ50751614" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ50845125" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ50940631" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ51035308" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ51125867" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ51223383" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ51319977" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ51421495" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ51518003" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ51612087" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ51707092" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ51801605" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ51897462" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ51992970" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ52113878" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ52207125" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ52299740" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ52395255" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ52489768" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ52583487" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ52680518" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ52776558" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ52874136" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5289.361968218514</v>
+        <v>5209.347810936722</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01113687112147469</v>
+        <v>0.01276111897133777</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.96427910591134</v>
+        <v>58.41648740797507</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2597530587524712</v>
+        <v>0.3113664849086426</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>221.4554745527232</v>
+        <v>220.6188955794806</v>
       </c>
       <c r="C4" t="n">
-        <v>1.319664611109377e-05</v>
+        <v>1.601650619075159e-05</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05304679856069354</v>
+        <v>-0.04550422695010788</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07395875373161614</v>
+        <v>0.08984780716869917</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.5730392030965e-05</v>
+        <v>9.322642409036391e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008821888975476153</v>
+        <v>0.01055345958370244</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.21420657960995</v>
+        <v>-19.15624473224556</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02260007689374742</v>
+        <v>0.02411915164538032</v>
       </c>
     </row>
     <row r="8">
@@ -585,10 +585,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.76421237109729</v>
+        <v>-15.40817795097346</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08808578004677459</v>
+        <v>0.09719887484526435</v>
       </c>
     </row>
     <row r="9">
@@ -598,10 +598,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-276.7458582599288</v>
+        <v>-282.1289732850432</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6715423409989931</v>
+        <v>0.6688129658971114</v>
       </c>
     </row>
     <row r="10">
@@ -611,10 +611,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>727.0046224983225</v>
+        <v>701.3002457599523</v>
       </c>
       <c r="C10" t="n">
-        <v>0.370001379418787</v>
+        <v>0.3920327314661748</v>
       </c>
     </row>
     <row r="11">
@@ -624,10 +624,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3667.184721946602</v>
+        <v>3797.284959047052</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09491203122281586</v>
+        <v>0.08586193356709769</v>
       </c>
     </row>
     <row r="12">
@@ -637,10 +637,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-14.1319241819879</v>
+        <v>-13.19439606385401</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5674262339385011</v>
+        <v>0.596537385675201</v>
       </c>
     </row>
   </sheetData>
@@ -686,10 +686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5623.251878931052</v>
+        <v>5629.269493666779</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009559851048080527</v>
+        <v>0.009467792643568087</v>
       </c>
     </row>
     <row r="3">
@@ -699,10 +699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.236714154365472</v>
+        <v>-4.531035196648531</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9470050090229801</v>
+        <v>0.9434170448779811</v>
       </c>
     </row>
     <row r="4">
@@ -712,10 +712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.238691358233</v>
+        <v>174.5815730474679</v>
       </c>
       <c r="C4" t="n">
-        <v>4.282955119290365e-05</v>
+        <v>5.795137854239748e-05</v>
       </c>
     </row>
     <row r="5">
@@ -725,10 +725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09390840395949646</v>
+        <v>-0.08450894608157666</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01680647556981483</v>
+        <v>0.01657994023081972</v>
       </c>
     </row>
     <row r="6">
@@ -738,10 +738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.701021010987508e-05</v>
+        <v>4.684251563800724e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1781462219882045</v>
+        <v>0.1791321540173008</v>
       </c>
     </row>
     <row r="7">
@@ -751,10 +751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.18920234377121</v>
+        <v>-11.0745393113643</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2376423164705958</v>
+        <v>0.2418690638755532</v>
       </c>
     </row>
     <row r="8">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.426568397784671</v>
+        <v>-5.756148044159872</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5341893875741278</v>
+        <v>0.5757190862392032</v>
       </c>
     </row>
     <row r="9">
@@ -777,10 +777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-699.9878414323757</v>
+        <v>-777.4035712006516</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4325126232628373</v>
+        <v>0.3847202870694376</v>
       </c>
     </row>
     <row r="10">
@@ -790,10 +790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1230.58212016269</v>
+        <v>1217.629016873361</v>
       </c>
       <c r="C10" t="n">
-        <v>0.214358026297923</v>
+        <v>0.2170966975141971</v>
       </c>
     </row>
     <row r="11">
@@ -803,10 +803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2378.775915385691</v>
+        <v>2388.23041849418</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3399806734784028</v>
+        <v>0.3372121796263379</v>
       </c>
     </row>
     <row r="12">
@@ -816,10 +816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-29.98692186745838</v>
+        <v>-30.75835018938305</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2458044874088291</v>
+        <v>0.2357642974593975</v>
       </c>
     </row>
   </sheetData>
@@ -865,10 +865,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6362.350895363605</v>
+        <v>6337.449290314002</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003011050637437931</v>
+        <v>0.003224078098081882</v>
       </c>
     </row>
     <row r="3">
@@ -878,10 +878,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.85673833592799</v>
+        <v>16.54466967596926</v>
       </c>
       <c r="C3" t="n">
-        <v>0.725976971954111</v>
+        <v>0.7981027554147144</v>
       </c>
     </row>
     <row r="4">
@@ -891,10 +891,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.9821966028695</v>
+        <v>186.7374401752544</v>
       </c>
       <c r="C4" t="n">
-        <v>1.437092709514999e-05</v>
+        <v>1.769239161287291e-05</v>
       </c>
     </row>
     <row r="5">
@@ -904,10 +904,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0509006710452454</v>
+        <v>-0.04435861680995418</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2032866140538696</v>
+        <v>0.2279960945794333</v>
       </c>
     </row>
     <row r="6">
@@ -917,10 +917,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.978913579787054e-05</v>
+        <v>6.836689251341798e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03651690735180924</v>
+        <v>0.03982278984942778</v>
       </c>
     </row>
     <row r="7">
@@ -930,10 +930,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.24040091911873</v>
+        <v>-13.14737394612598</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1223612861649874</v>
+        <v>0.1264380106534307</v>
       </c>
     </row>
     <row r="8">
@@ -943,10 +943,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.50146632729027</v>
+        <v>-12.27266247780925</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1925616639322781</v>
+        <v>0.2028400108049245</v>
       </c>
     </row>
     <row r="9">
@@ -956,10 +956,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-676.2705984955112</v>
+        <v>-695.1766943073858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4078124788558178</v>
+        <v>0.3991559369586943</v>
       </c>
     </row>
     <row r="10">
@@ -969,10 +969,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>318.8267058460824</v>
+        <v>286.2864350843756</v>
       </c>
       <c r="C10" t="n">
-        <v>0.761010711854575</v>
+        <v>0.7879609949815356</v>
       </c>
     </row>
     <row r="11">
@@ -982,10 +982,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>828.1080979583203</v>
+        <v>925.8026499148546</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7494787439117577</v>
+        <v>0.7213400417837483</v>
       </c>
     </row>
     <row r="12">
@@ -995,10 +995,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-28.04267472754358</v>
+        <v>-27.86402624245783</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2494197694478313</v>
+        <v>0.2571683615521664</v>
       </c>
     </row>
   </sheetData>
@@ -1044,10 +1044,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4249.854578853105</v>
+        <v>4384.012153276275</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08946000774997541</v>
+        <v>0.08138831857710446</v>
       </c>
     </row>
     <row r="3">
@@ -1057,10 +1057,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>50.24127444531337</v>
+        <v>43.83937751025292</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4452795311639479</v>
+        <v>0.5044557244424983</v>
       </c>
     </row>
     <row r="4">
@@ -1070,10 +1070,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>251.7530933276361</v>
+        <v>248.7702335173697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003492242775883384</v>
+        <v>0.0003987124859119448</v>
       </c>
     </row>
     <row r="5">
@@ -1083,10 +1083,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06563657851661786</v>
+        <v>-0.06081526993412212</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09297754176182686</v>
+        <v>0.08297261370872648</v>
       </c>
     </row>
     <row r="6">
@@ -1096,10 +1096,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.922775240449082e-05</v>
+        <v>7.899138944553669e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04137019047146906</v>
+        <v>0.04007251252156018</v>
       </c>
     </row>
     <row r="7">
@@ -1109,10 +1109,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.95199138415021</v>
+        <v>-11.92343152767531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2757789697421835</v>
+        <v>0.2734650805157759</v>
       </c>
     </row>
     <row r="8">
@@ -1122,10 +1122,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.564858875678919</v>
+        <v>-6.68731399763918</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5260451609501031</v>
+        <v>0.5163035175643236</v>
       </c>
     </row>
     <row r="9">
@@ -1135,10 +1135,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-504.0393727372395</v>
+        <v>-518.1025888524821</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4737413776308843</v>
+        <v>0.4596226554059419</v>
       </c>
     </row>
     <row r="10">
@@ -1148,10 +1148,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>977.0915397776134</v>
+        <v>969.3350370063868</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2732982047930976</v>
+        <v>0.272278852009493</v>
       </c>
     </row>
     <row r="11">
@@ -1161,10 +1161,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3248.941307567478</v>
+        <v>3176.491399653492</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2265676551023992</v>
+        <v>0.233713522374805</v>
       </c>
     </row>
     <row r="12">
@@ -1174,10 +1174,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-16.43714314863405</v>
+        <v>-17.98986135094233</v>
       </c>
       <c r="C12" t="n">
-        <v>0.567679558342866</v>
+        <v>0.5331584042478072</v>
       </c>
     </row>
   </sheetData>
@@ -1223,10 +1223,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1733.629589193524</v>
+        <v>1763.594620564418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2907514099943253</v>
+        <v>0.2779939954318347</v>
       </c>
     </row>
     <row r="3">
@@ -1236,10 +1236,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.15676034937718</v>
+        <v>39.3357461602015</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3784734280335683</v>
+        <v>0.4219469305280977</v>
       </c>
     </row>
     <row r="4">
@@ -1249,10 +1249,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.6558995287185</v>
+        <v>155.8958263907416</v>
       </c>
       <c r="C4" t="n">
-        <v>1.747309690272662e-05</v>
+        <v>1.776922394747296e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1262,10 +1262,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04105194679003391</v>
+        <v>-0.03826453763817687</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1065515714538329</v>
+        <v>0.08906313370508061</v>
       </c>
     </row>
     <row r="6">
@@ -1275,10 +1275,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.969606035858649e-05</v>
+        <v>3.883208674196339e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1619436336779547</v>
+        <v>0.1623023199681372</v>
       </c>
     </row>
     <row r="7">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.93977087562915</v>
+        <v>-10.75188949656177</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1650554394627858</v>
+        <v>0.1693381032150309</v>
       </c>
     </row>
     <row r="8">
@@ -1301,10 +1301,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.074817408211317</v>
+        <v>4.344714661143954</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6460385013008982</v>
+        <v>0.621464042866631</v>
       </c>
     </row>
     <row r="9">
@@ -1314,10 +1314,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-519.8664791001256</v>
+        <v>-517.0897260682004</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3214894993964378</v>
+        <v>0.3203722088296723</v>
       </c>
     </row>
     <row r="10">
@@ -1327,10 +1327,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>889.7891288556284</v>
+        <v>912.3154655924263</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1897521536090147</v>
+        <v>0.1744888482899511</v>
       </c>
     </row>
     <row r="11">
@@ -1340,10 +1340,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5973.725168167013</v>
+        <v>5936.433754448437</v>
       </c>
       <c r="C11" t="n">
-        <v>0.005407016008861782</v>
+        <v>0.005014460137765355</v>
       </c>
     </row>
     <row r="12">
@@ -1353,10 +1353,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>12.40297125295925</v>
+        <v>11.50467404038477</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5606946146423444</v>
+        <v>0.5864062756062987</v>
       </c>
     </row>
   </sheetData>
@@ -1402,10 +1402,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6294.584393417447</v>
+        <v>6357.67584611703</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007374256901042119</v>
+        <v>0.006915188125696642</v>
       </c>
     </row>
     <row r="3">
@@ -1415,10 +1415,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.45248436658414</v>
+        <v>14.4468862915204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7866566723471461</v>
+        <v>0.8310552662036986</v>
       </c>
     </row>
     <row r="4">
@@ -1428,10 +1428,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.7176043024309</v>
+        <v>182.218172060473</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001001514516771268</v>
+        <v>0.0001185453366289282</v>
       </c>
     </row>
     <row r="5">
@@ -1441,10 +1441,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06189385936851255</v>
+        <v>-0.05637601400705008</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05885363864651957</v>
+        <v>0.05497864151182039</v>
       </c>
     </row>
     <row r="6">
@@ -1454,10 +1454,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.917960225904203e-05</v>
+        <v>3.768363563099098e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2776840077530634</v>
+        <v>0.2909181849268625</v>
       </c>
     </row>
     <row r="7">
@@ -1467,10 +1467,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.09022515983493</v>
+        <v>-18.06872780470016</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08429904024264918</v>
+        <v>0.08376518537748273</v>
       </c>
     </row>
     <row r="8">
@@ -1480,10 +1480,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.044408588746826</v>
+        <v>-7.210937523832015</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4824117499764496</v>
+        <v>0.4713918587106661</v>
       </c>
     </row>
     <row r="9">
@@ -1493,10 +1493,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-560.5904629573129</v>
+        <v>-557.680205468788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3576557312722161</v>
+        <v>0.3586186800611911</v>
       </c>
     </row>
     <row r="10">
@@ -1506,10 +1506,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1109.043324105044</v>
+        <v>1097.244511573007</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2120176178931593</v>
+        <v>0.2126505367162325</v>
       </c>
     </row>
     <row r="11">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4557.372433243801</v>
+        <v>4610.630624405068</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1175644750569448</v>
+        <v>0.1100915230921017</v>
       </c>
     </row>
     <row r="12">
@@ -1532,10 +1532,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-52.72169292714544</v>
+        <v>-53.25433881283787</v>
       </c>
       <c r="C12" t="n">
-        <v>0.109985255527973</v>
+        <v>0.1060392895571885</v>
       </c>
     </row>
   </sheetData>
@@ -1581,10 +1581,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5373.706668251982</v>
+        <v>5392.318294183213</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01472441688027688</v>
+        <v>0.01468335722377415</v>
       </c>
     </row>
     <row r="3">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.199564403273598</v>
+        <v>-1.840668238395494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9633032504129517</v>
+        <v>0.9788432655838832</v>
       </c>
     </row>
     <row r="4">
@@ -1607,10 +1607,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.2953539056047</v>
+        <v>189.3046300054879</v>
       </c>
       <c r="C4" t="n">
-        <v>2.830376035636747e-05</v>
+        <v>3.453688350383239e-05</v>
       </c>
     </row>
     <row r="5">
@@ -1620,10 +1620,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08233869354074513</v>
+        <v>-0.07416525645575722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03893851386160058</v>
+        <v>0.03920339132722071</v>
       </c>
     </row>
     <row r="6">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.023228381750958e-05</v>
+        <v>4.087087496439969e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2954771070868307</v>
+        <v>0.2892849570321128</v>
       </c>
     </row>
     <row r="7">
@@ -1646,10 +1646,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.485263660657949</v>
+        <v>-5.72492298007721</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6117181839412962</v>
+        <v>0.5962891685059342</v>
       </c>
     </row>
     <row r="8">
@@ -1659,10 +1659,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.372384707715248</v>
+        <v>-7.995690505146246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3915054371437435</v>
+        <v>0.4106404174666156</v>
       </c>
     </row>
     <row r="9">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-292.5589037702462</v>
+        <v>-313.36758706829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6562723755381098</v>
+        <v>0.6333430884803666</v>
       </c>
     </row>
     <row r="10">
@@ -1685,10 +1685,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.1363047016403</v>
+        <v>703.1422403732313</v>
       </c>
       <c r="C10" t="n">
-        <v>0.485343058814841</v>
+        <v>0.4830309861292074</v>
       </c>
     </row>
     <row r="11">
@@ -1698,10 +1698,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2228.60548240444</v>
+        <v>2227.693231185018</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4190677768826322</v>
+        <v>0.419671684797728</v>
       </c>
     </row>
     <row r="12">
@@ -1711,10 +1711,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-23.18192281459434</v>
+        <v>-23.83643133845268</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3638085988365002</v>
+        <v>0.3537669272867426</v>
       </c>
     </row>
   </sheetData>
@@ -1760,10 +1760,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3649.795311886486</v>
+        <v>3795.116305719445</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02596046145466515</v>
+        <v>0.01927139041282223</v>
       </c>
     </row>
     <row r="3">
@@ -1773,10 +1773,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38.1670416544701</v>
+        <v>-38.8782548854295</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4197032839032321</v>
+        <v>0.4010487123243837</v>
       </c>
     </row>
     <row r="4">
@@ -1786,10 +1786,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.8337429988433</v>
+        <v>102.1633812184217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001469759213870989</v>
+        <v>0.001389235508350542</v>
       </c>
     </row>
     <row r="5">
@@ -1799,10 +1799,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0225166995537634</v>
+        <v>-0.02501455449416029</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4469274268411414</v>
+        <v>0.3375234510406975</v>
       </c>
     </row>
     <row r="6">
@@ -1812,10 +1812,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.242397671477255e-05</v>
+        <v>1.372862576125937e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6163051361228132</v>
+        <v>0.5728387026183519</v>
       </c>
     </row>
     <row r="7">
@@ -1825,10 +1825,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.42522698973181</v>
+        <v>-21.34454893466005</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002931247738438933</v>
+        <v>0.002805323905306645</v>
       </c>
     </row>
     <row r="8">
@@ -1838,10 +1838,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.98075517786009</v>
+        <v>-6.112509734504513</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4290050637820991</v>
+        <v>0.4108097791342105</v>
       </c>
     </row>
     <row r="9">
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1306.400350502587</v>
+        <v>-1294.535556484403</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01092511025164279</v>
+        <v>0.01079360687731008</v>
       </c>
     </row>
     <row r="10">
@@ -1864,10 +1864,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>30.41855849159447</v>
+        <v>100.1167830454947</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9627706715349592</v>
+        <v>0.8765472641768637</v>
       </c>
     </row>
     <row r="11">
@@ -1877,10 +1877,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7640.168705824115</v>
+        <v>7423.86102583677</v>
       </c>
       <c r="C11" t="n">
-        <v>0.001015208399790705</v>
+        <v>0.001066831506951314</v>
       </c>
     </row>
     <row r="12">
@@ -1890,10 +1890,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.80818760843527</v>
+        <v>17.5890306761674</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3114582047344117</v>
+        <v>0.3626579259269216</v>
       </c>
     </row>
   </sheetData>
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4753.329698688754</v>
+        <v>4784.652359117459</v>
       </c>
       <c r="C2" t="n">
-        <v>0.042461523573262</v>
+        <v>0.04117961150011124</v>
       </c>
     </row>
     <row r="3">
@@ -1952,10 +1952,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.9918473283285</v>
+        <v>36.53891444268493</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5086069322076885</v>
+        <v>0.5213689721139299</v>
       </c>
     </row>
     <row r="4">
@@ -1965,10 +1965,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>294.1599277552885</v>
+        <v>292.9982622576358</v>
       </c>
       <c r="C4" t="n">
-        <v>2.711741907605401e-06</v>
+        <v>3.072320679184494e-06</v>
       </c>
     </row>
     <row r="5">
@@ -1978,10 +1978,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01861342864574481</v>
+        <v>-0.01759290214289362</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5670331685795182</v>
+        <v>0.5442377006313686</v>
       </c>
     </row>
     <row r="6">
@@ -1991,10 +1991,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.951438789767756e-05</v>
+        <v>1.958135789562927e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5676172128691206</v>
+        <v>0.5617632646953651</v>
       </c>
     </row>
     <row r="7">
@@ -2004,10 +2004,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.995634948103742</v>
+        <v>-9.944383046877633</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4494692334924038</v>
+        <v>0.4511410970076262</v>
       </c>
     </row>
     <row r="8">
@@ -2017,10 +2017,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.448407819748503</v>
+        <v>-4.527079815415895</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6306144487865759</v>
+        <v>0.624213764665684</v>
       </c>
     </row>
     <row r="9">
@@ -2030,10 +2030,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>130.4633156778555</v>
+        <v>127.2225259434626</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8568703180609062</v>
+        <v>0.8598596847249578</v>
       </c>
     </row>
     <row r="10">
@@ -2043,10 +2043,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>765.3599951904544</v>
+        <v>766.8207824446881</v>
       </c>
       <c r="C10" t="n">
-        <v>0.445750435863201</v>
+        <v>0.4419216655586791</v>
       </c>
     </row>
     <row r="11">
@@ -2056,10 +2056,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5356.005396605495</v>
+        <v>5335.497771591673</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06815868188855238</v>
+        <v>0.06823948987485723</v>
       </c>
     </row>
     <row r="12">
@@ -2069,10 +2069,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-49.80783691284805</v>
+        <v>-49.98693753786965</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1372836241990243</v>
+        <v>0.1352333304938294</v>
       </c>
     </row>
   </sheetData>
@@ -2118,10 +2118,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4693.076455008969</v>
+        <v>4652.370270413148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01739739395005595</v>
+        <v>0.01855014886546453</v>
       </c>
     </row>
     <row r="3">
@@ -2131,10 +2131,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.90130966227585</v>
+        <v>44.13508751425115</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4381215336300528</v>
+        <v>0.483851953203318</v>
       </c>
     </row>
     <row r="4">
@@ -2144,10 +2144,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.9264243770422</v>
+        <v>190.5508662980856</v>
       </c>
       <c r="C4" t="n">
-        <v>5.434921626308064e-06</v>
+        <v>6.512758916509407e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2157,10 +2157,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06052222259290836</v>
+        <v>-0.05397528938415341</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03828536140323406</v>
+        <v>0.04204516818846433</v>
       </c>
     </row>
     <row r="6">
@@ -2170,10 +2170,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.939478666421603e-05</v>
+        <v>9.695475401111146e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006775699457598662</v>
+        <v>0.007824550333651059</v>
       </c>
     </row>
     <row r="7">
@@ -2183,10 +2183,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.89128975048006</v>
+        <v>-14.54209912286726</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1078826373398684</v>
+        <v>0.117265828814121</v>
       </c>
     </row>
     <row r="8">
@@ -2196,10 +2196,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.901715583847704</v>
+        <v>-5.632839114812061</v>
       </c>
       <c r="C8" t="n">
-        <v>0.499515999150133</v>
+        <v>0.5201865590111086</v>
       </c>
     </row>
     <row r="9">
@@ -2209,10 +2209,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-363.9535232308622</v>
+        <v>-359.78020432105</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5412565032341106</v>
+        <v>0.547509549712643</v>
       </c>
     </row>
     <row r="10">
@@ -2222,10 +2222,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>646.9374461151801</v>
+        <v>624.0832677328331</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3768475793972839</v>
+        <v>0.3942479064087802</v>
       </c>
     </row>
     <row r="11">
@@ -2235,10 +2235,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2404.346410753349</v>
+        <v>2536.491539274801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2905535629045374</v>
+        <v>0.2632795256706266</v>
       </c>
     </row>
     <row r="12">
@@ -2248,10 +2248,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-18.6478830594551</v>
+        <v>-18.61556430231231</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4209363704273813</v>
+        <v>0.4249819144725664</v>
       </c>
     </row>
   </sheetData>
@@ -2297,10 +2297,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7068.66200981035</v>
+        <v>7074.788159810998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007381274812429056</v>
+        <v>0.007454859558086918</v>
       </c>
     </row>
     <row r="3">
@@ -2310,10 +2310,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.98156636994187</v>
+        <v>48.97255618712104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4023248345868382</v>
+        <v>0.4821460553725539</v>
       </c>
     </row>
     <row r="4">
@@ -2323,10 +2323,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.2332746062731</v>
+        <v>176.112695851075</v>
       </c>
       <c r="C4" t="n">
-        <v>5.813704569299414e-05</v>
+        <v>7.607695114784513e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2336,10 +2336,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09151740225300486</v>
+        <v>-0.08173460427556892</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0209943666945832</v>
+        <v>0.02139242461442664</v>
       </c>
     </row>
     <row r="6">
@@ -2349,10 +2349,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.033454270017155e-05</v>
+        <v>6.781736409369527e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06663786195694626</v>
+        <v>0.07387448010127451</v>
       </c>
     </row>
     <row r="7">
@@ -2362,10 +2362,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.935480825761573</v>
+        <v>-8.907777767405619</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3678138607598491</v>
+        <v>0.36969302542231</v>
       </c>
     </row>
     <row r="8">
@@ -2375,10 +2375,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.67422865992433</v>
+        <v>-12.47446205816915</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2301548550981453</v>
+        <v>0.2365966420641033</v>
       </c>
     </row>
     <row r="9">
@@ -2388,10 +2388,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-912.9626835964327</v>
+        <v>-926.0915052280047</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2413950180352171</v>
+        <v>0.2354935403095868</v>
       </c>
     </row>
     <row r="10">
@@ -2401,10 +2401,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>760.5289746594704</v>
+        <v>740.9160366505362</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4238295735835582</v>
+        <v>0.4345276843659309</v>
       </c>
     </row>
     <row r="11">
@@ -2414,10 +2414,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.9972490489599</v>
+        <v>882.3269614768869</v>
       </c>
       <c r="C11" t="n">
-        <v>0.778474294924703</v>
+        <v>0.7622648102754976</v>
       </c>
     </row>
     <row r="12">
@@ -2427,10 +2427,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-45.65653944292453</v>
+        <v>-45.41515125506939</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1428423793950059</v>
+        <v>0.144827682450221</v>
       </c>
     </row>
   </sheetData>
@@ -2476,10 +2476,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3999.477422682257</v>
+        <v>4115.64155359601</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02529501179820737</v>
+        <v>0.02292024327266655</v>
       </c>
     </row>
     <row r="3">
@@ -2489,10 +2489,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38.65050460251393</v>
+        <v>-38.86805286334322</v>
       </c>
       <c r="C3" t="n">
-        <v>0.583279195732929</v>
+        <v>0.5723159282075776</v>
       </c>
     </row>
     <row r="4">
@@ -2502,10 +2502,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.3851171082233</v>
+        <v>131.2698676021712</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0004181347802972246</v>
+        <v>0.000377619797576247</v>
       </c>
     </row>
     <row r="5">
@@ -2515,10 +2515,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01824057389671357</v>
+        <v>-0.01965186235506719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5632317639185782</v>
+        <v>0.4924750607259627</v>
       </c>
     </row>
     <row r="6">
@@ -2528,10 +2528,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.900372299931652e-05</v>
+        <v>2.108722266323912e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5823755150250267</v>
+        <v>0.5402652387248865</v>
       </c>
     </row>
     <row r="7">
@@ -2541,10 +2541,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.5828791444243</v>
+        <v>-17.59202751671247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0261779211670168</v>
+        <v>0.02556779360540066</v>
       </c>
     </row>
     <row r="8">
@@ -2554,10 +2554,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.615712143667217</v>
+        <v>-7.567086513289794</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2994872620211688</v>
+        <v>0.2999917702932399</v>
       </c>
     </row>
     <row r="9">
@@ -2567,10 +2567,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1658.454945640223</v>
+        <v>-1655.688254282385</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01212041461268725</v>
+        <v>0.01164642662777819</v>
       </c>
     </row>
     <row r="10">
@@ -2580,10 +2580,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-328.0022950618186</v>
+        <v>-276.1460764949315</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6824779657832951</v>
+        <v>0.7272809881461604</v>
       </c>
     </row>
     <row r="11">
@@ -2593,10 +2593,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6941.951558074057</v>
+        <v>6743.54802718582</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01259938529341761</v>
+        <v>0.01461231518313278</v>
       </c>
     </row>
     <row r="12">
@@ -2606,10 +2606,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.84033968981809</v>
+        <v>13.69324613448391</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5308166238279011</v>
+        <v>0.5932905501190313</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +2655,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5049.686009532868</v>
+        <v>5097.214458148539</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01763958991571239</v>
+        <v>0.01750565551130316</v>
       </c>
     </row>
     <row r="3">
@@ -2668,10 +2668,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.20813190926478</v>
+        <v>25.41571278974342</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6372025463697711</v>
+        <v>0.7173536314418674</v>
       </c>
     </row>
     <row r="4">
@@ -2681,10 +2681,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.9608106761592</v>
+        <v>191.5824111830108</v>
       </c>
       <c r="C4" t="n">
-        <v>5.699215779285087e-05</v>
+        <v>7.093078702254256e-05</v>
       </c>
     </row>
     <row r="5">
@@ -2694,10 +2694,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08037127105406475</v>
+        <v>-0.07140221136765956</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02530345717521419</v>
+        <v>0.02667814250674105</v>
       </c>
     </row>
     <row r="6">
@@ -2707,10 +2707,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.290114605218397e-05</v>
+        <v>5.221347557614317e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1281977017696526</v>
+        <v>0.1332799664838068</v>
       </c>
     </row>
     <row r="7">
@@ -2720,10 +2720,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.96405973052639</v>
+        <v>-12.04228422743775</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1825636742960312</v>
+        <v>0.1809327643168333</v>
       </c>
     </row>
     <row r="8">
@@ -2733,10 +2733,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.625066514976936</v>
+        <v>-9.506226938944394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3291080383981149</v>
+        <v>0.3359165002549104</v>
       </c>
     </row>
     <row r="9">
@@ -2746,10 +2746,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-428.3459855202422</v>
+        <v>-452.2372888803777</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4942229523778662</v>
+        <v>0.4718459813804795</v>
       </c>
     </row>
     <row r="10">
@@ -2759,10 +2759,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1479.677561276463</v>
+        <v>1434.406346471264</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1403380106827429</v>
+        <v>0.1497416389190985</v>
       </c>
     </row>
     <row r="11">
@@ -2772,10 +2772,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2732.000648028676</v>
+        <v>2812.714601847896</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2760771444851395</v>
+        <v>0.2613992532470728</v>
       </c>
     </row>
     <row r="12">
@@ -2785,10 +2785,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.16186251489134</v>
+        <v>-19.87801801263348</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4629780586972755</v>
+        <v>0.4505629620733447</v>
       </c>
     </row>
   </sheetData>
@@ -2834,10 +2834,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5404.271395383987</v>
+        <v>5319.945862148677</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008406798307404385</v>
+        <v>0.009627586843285173</v>
       </c>
     </row>
     <row r="3">
@@ -2847,10 +2847,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.37750251176351</v>
+        <v>-1.044137883451555</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9407496986686187</v>
+        <v>0.9859400477826967</v>
       </c>
     </row>
     <row r="4">
@@ -2860,10 +2860,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.8762592183475</v>
+        <v>212.5001750993293</v>
       </c>
       <c r="C4" t="n">
-        <v>3.094645228508495e-06</v>
+        <v>4.194712982970022e-06</v>
       </c>
     </row>
     <row r="5">
@@ -2873,10 +2873,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06852895100333668</v>
+        <v>-0.05922705632751141</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0256630594770115</v>
+        <v>0.03068449947837096</v>
       </c>
     </row>
     <row r="6">
@@ -2886,10 +2886,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.107286450490266e-05</v>
+        <v>3.042908742620156e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.394273126107381</v>
+        <v>0.4078820774926272</v>
       </c>
     </row>
     <row r="7">
@@ -2899,10 +2899,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.01174600209313</v>
+        <v>-10.03840119675635</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2646342879646198</v>
+        <v>0.2674949771727186</v>
       </c>
     </row>
     <row r="8">
@@ -2912,10 +2912,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.75691602603508</v>
+        <v>3.090129868254511</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7645060347692851</v>
+        <v>0.7388183682205329</v>
       </c>
     </row>
     <row r="9">
@@ -2925,10 +2925,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-338.0836536780605</v>
+        <v>-350.1337160102726</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6056197326729282</v>
+        <v>0.5962043166421698</v>
       </c>
     </row>
     <row r="10">
@@ -2938,10 +2938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1492.359735558973</v>
+        <v>1445.632564496012</v>
       </c>
       <c r="C10" t="n">
-        <v>0.06853457850948456</v>
+        <v>0.07766419647694328</v>
       </c>
     </row>
     <row r="11">
@@ -2951,10 +2951,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4989.227065987066</v>
+        <v>5074.282682775652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05230563261332905</v>
+        <v>0.05047994768321106</v>
       </c>
     </row>
     <row r="12">
@@ -2964,10 +2964,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-71.27675533991578</v>
+        <v>-69.91090716637184</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02794939356654672</v>
+        <v>0.03151448529526954</v>
       </c>
     </row>
   </sheetData>
@@ -3013,10 +3013,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3270.490128302211</v>
+        <v>3260.676533025293</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08028565796279111</v>
+        <v>0.07968457738289424</v>
       </c>
     </row>
     <row r="3">
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68.10783384486297</v>
+        <v>64.19109109594621</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2671270331889598</v>
+        <v>0.2925339483734432</v>
       </c>
     </row>
     <row r="4">
@@ -3039,10 +3039,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>269.9054532426684</v>
+        <v>268.7576210293183</v>
       </c>
       <c r="C4" t="n">
-        <v>7.887968397575337e-05</v>
+        <v>8.330376416488713e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3052,10 +3052,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04410258537478451</v>
+        <v>-0.04032568737922498</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1307389198604945</v>
+        <v>0.1259918353221734</v>
       </c>
     </row>
     <row r="6">
@@ -3065,10 +3065,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.718041754915098e-05</v>
+        <v>6.558492379787404e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03384201630744276</v>
+        <v>0.03661064498572866</v>
       </c>
     </row>
     <row r="7">
@@ -3078,10 +3078,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.709804261758137</v>
+        <v>-3.289972824195146</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7216323546100895</v>
+        <v>0.7516108956616245</v>
       </c>
     </row>
     <row r="8">
@@ -3091,10 +3091,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.788705837985855</v>
+        <v>-7.573490906515701</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3922688751145441</v>
+        <v>0.4038069504101371</v>
       </c>
     </row>
     <row r="9">
@@ -3104,10 +3104,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-264.9810655829456</v>
+        <v>-257.7264096204058</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6476603315516412</v>
+        <v>0.6559674572789846</v>
       </c>
     </row>
     <row r="10">
@@ -3117,10 +3117,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>223.4809904404319</v>
+        <v>210.8125311448784</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7971738117989384</v>
+        <v>0.8069755938877744</v>
       </c>
     </row>
     <row r="11">
@@ -3130,10 +3130,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3605.862661490661</v>
+        <v>3649.760617980026</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1099476928786629</v>
+        <v>0.1029007781732262</v>
       </c>
     </row>
     <row r="12">
@@ -3143,10 +3143,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04482967083453104</v>
+        <v>-0.2388183157530648</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9983864552568109</v>
+        <v>0.9914013633921884</v>
       </c>
     </row>
   </sheetData>
@@ -3192,10 +3192,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5862.665115658363</v>
+        <v>6062.248172917438</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02298849352189128</v>
+        <v>0.02000923127113502</v>
       </c>
     </row>
     <row r="3">
@@ -3205,10 +3205,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.43897158582422</v>
+        <v>8.395573728463319</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8448809350761944</v>
+        <v>0.9090780335892437</v>
       </c>
     </row>
     <row r="4">
@@ -3218,10 +3218,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.5081493990705</v>
+        <v>179.6665312578404</v>
       </c>
       <c r="C4" t="n">
-        <v>7.810246602851383e-05</v>
+        <v>9.677323931128843e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3231,10 +3231,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08973109553502084</v>
+        <v>-0.08151501491154339</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04028928812950874</v>
+        <v>0.03779698686518072</v>
       </c>
     </row>
     <row r="6">
@@ -3244,10 +3244,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.921805003603606e-05</v>
+        <v>7.854272106039493e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07970743758290377</v>
+        <v>0.07959362429237908</v>
       </c>
     </row>
     <row r="7">
@@ -3257,10 +3257,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.79192712532658</v>
+        <v>-16.898634379296</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1277958522983244</v>
+        <v>0.124644775501071</v>
       </c>
     </row>
     <row r="8">
@@ -3270,10 +3270,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.012583222983828</v>
+        <v>-9.427314485089873</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4495258166894924</v>
+        <v>0.4281331394886659</v>
       </c>
     </row>
     <row r="9">
@@ -3283,10 +3283,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-472.207995773774</v>
+        <v>-483.7512730548598</v>
       </c>
       <c r="C9" t="n">
-        <v>0.570036318557944</v>
+        <v>0.5598150564189319</v>
       </c>
     </row>
     <row r="10">
@@ -3296,10 +3296,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1038.239202667447</v>
+        <v>1021.82123692137</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3317555069511792</v>
+        <v>0.3337737260119525</v>
       </c>
     </row>
     <row r="11">
@@ -3309,10 +3309,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2153.237935964302</v>
+        <v>2072.326253549951</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4495038940064342</v>
+        <v>0.4668448918570085</v>
       </c>
     </row>
     <row r="12">
@@ -3322,10 +3322,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-27.52666857639161</v>
+        <v>-29.66903528030659</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3366143407268752</v>
+        <v>0.3045150703827574</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5262.926603282733</v>
+        <v>5449.106043624102</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005731777590561226</v>
+        <v>0.004037914263565261</v>
       </c>
     </row>
     <row r="3">
@@ -3384,10 +3384,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.23515486998252</v>
+        <v>7.788881408301449</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7942378045375723</v>
+        <v>0.8740834307997523</v>
       </c>
     </row>
     <row r="4">
@@ -3397,10 +3397,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>130.1510865479573</v>
+        <v>126.6082940530006</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003853045755329665</v>
+        <v>0.000445180134305451</v>
       </c>
     </row>
     <row r="5">
@@ -3410,10 +3410,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0598617699400823</v>
+        <v>-0.06079194844202637</v>
       </c>
       <c r="C5" t="n">
-        <v>0.12101475654328</v>
+        <v>0.08061909079082628</v>
       </c>
     </row>
     <row r="6">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.874664969780349e-05</v>
+        <v>3.969586583637077e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.165069265679007</v>
+        <v>0.1427026843257181</v>
       </c>
     </row>
     <row r="7">
@@ -3436,10 +3436,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.71925409417941</v>
+        <v>-20.86448264542224</v>
       </c>
       <c r="C7" t="n">
-        <v>0.009416326826076236</v>
+        <v>0.0080565130389668</v>
       </c>
     </row>
     <row r="8">
@@ -3449,10 +3449,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-11.00238528995736</v>
+        <v>-11.10657708248392</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1648782796835388</v>
+        <v>0.1526511576775237</v>
       </c>
     </row>
     <row r="9">
@@ -3462,10 +3462,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1182.149375424101</v>
+        <v>-1205.584349138036</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03453883530561834</v>
+        <v>0.02880485874400458</v>
       </c>
     </row>
     <row r="10">
@@ -3475,10 +3475,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>707.2275806356283</v>
+        <v>841.3121004336581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4346325632585549</v>
+        <v>0.3466927116779246</v>
       </c>
     </row>
     <row r="11">
@@ -3488,10 +3488,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4581.528730194705</v>
+        <v>4430.381986432598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09939354549235113</v>
+        <v>0.1007332504195783</v>
       </c>
     </row>
     <row r="12">
@@ -3501,10 +3501,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.03320574057993</v>
+        <v>-4.639343016490542</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9271620119462947</v>
+        <v>0.8328050944229076</v>
       </c>
     </row>
   </sheetData>
@@ -3550,10 +3550,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4509.073097381297</v>
+        <v>4564.027025031261</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03483918606287873</v>
+        <v>0.03368076868322456</v>
       </c>
     </row>
     <row r="3">
@@ -3563,10 +3563,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.55555739437727</v>
+        <v>67.6326818191327</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3113635108210416</v>
+        <v>0.3608193141798839</v>
       </c>
     </row>
     <row r="4">
@@ -3576,10 +3576,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>196.5603582353848</v>
+        <v>194.6693860296658</v>
       </c>
       <c r="C4" t="n">
-        <v>4.78815418223277e-05</v>
+        <v>5.562040686158437e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3589,10 +3589,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06523122081978498</v>
+        <v>-0.05868086184926476</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04790041396595745</v>
+        <v>0.0474754652442506</v>
       </c>
     </row>
     <row r="6">
@@ -3602,10 +3602,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.233254902735121e-05</v>
+        <v>7.07168145924286e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03888572380377191</v>
+        <v>0.04164055950456357</v>
       </c>
     </row>
     <row r="7">
@@ -3615,10 +3615,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.19870464768231</v>
+        <v>-12.14018422060049</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1821663484289625</v>
+        <v>0.1839547861859908</v>
       </c>
     </row>
     <row r="8">
@@ -3628,10 +3628,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.73095249027908</v>
+        <v>-9.646178149989623</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3270641261094268</v>
+        <v>0.3306986030109529</v>
       </c>
     </row>
     <row r="9">
@@ -3641,10 +3641,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-371.2632213970655</v>
+        <v>-386.4067147835935</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5561057351983374</v>
+        <v>0.5402406405983227</v>
       </c>
     </row>
     <row r="10">
@@ -3654,10 +3654,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>898.3981510952417</v>
+        <v>881.5628327522484</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2924266796772322</v>
+        <v>0.2985879452519332</v>
       </c>
     </row>
     <row r="11">
@@ -3667,10 +3667,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2957.068091349476</v>
+        <v>3020.88073850303</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2333677419673422</v>
+        <v>0.2205276426960268</v>
       </c>
     </row>
     <row r="12">
@@ -3680,10 +3680,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-10.33306008608469</v>
+        <v>-11.20373670487439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6935960179671571</v>
+        <v>0.6711399143773098</v>
       </c>
     </row>
   </sheetData>
@@ -3729,10 +3729,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4643.190272453552</v>
+        <v>4777.166606296352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05049088927089803</v>
+        <v>0.045234344261474</v>
       </c>
     </row>
     <row r="3">
@@ -3742,10 +3742,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.65180048172772</v>
+        <v>9.801114220925527</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7997813984898728</v>
+        <v>0.8801583253297641</v>
       </c>
     </row>
     <row r="4">
@@ -3755,10 +3755,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>237.5153962787776</v>
+        <v>235.2702452887895</v>
       </c>
       <c r="C4" t="n">
-        <v>3.557049569320522e-05</v>
+        <v>3.856468819261721e-05</v>
       </c>
     </row>
     <row r="5">
@@ -3768,10 +3768,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06150802388043108</v>
+        <v>-0.05615008061743412</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06761615383425572</v>
+        <v>0.06111112786480133</v>
       </c>
     </row>
     <row r="6">
@@ -3781,10 +3781,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.587282920320275e-05</v>
+        <v>4.458354694870893e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1911899989592247</v>
+        <v>0.1977964481280826</v>
       </c>
     </row>
     <row r="7">
@@ -3794,10 +3794,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.845496255558183</v>
+        <v>1.809294957178267</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8784569542114899</v>
+        <v>0.8802547453473034</v>
       </c>
     </row>
     <row r="8">
@@ -3807,10 +3807,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.325946547625605</v>
+        <v>-9.801931099515627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4362874078753826</v>
+        <v>0.4118565206106942</v>
       </c>
     </row>
     <row r="9">
@@ -3820,10 +3820,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-258.111801682664</v>
+        <v>-241.1435828916742</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7716613938196958</v>
+        <v>0.7849778018844027</v>
       </c>
     </row>
     <row r="10">
@@ -3833,10 +3833,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.85388815808778</v>
+        <v>-30.63801724731616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9797366030547037</v>
+        <v>0.9747201386862643</v>
       </c>
     </row>
     <row r="11">
@@ -3846,10 +3846,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2804.084298875776</v>
+        <v>2785.962923877131</v>
       </c>
       <c r="C11" t="n">
-        <v>0.261298667765511</v>
+        <v>0.2603644847494199</v>
       </c>
     </row>
     <row r="12">
@@ -3859,10 +3859,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-17.93028481131136</v>
+        <v>-18.94395792834927</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4825537439252412</v>
+        <v>0.4583726692121618</v>
       </c>
     </row>
   </sheetData>
@@ -3908,10 +3908,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3173.789562424987</v>
+        <v>3218.113468238278</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1472852059822968</v>
+        <v>0.1361677373932866</v>
       </c>
     </row>
     <row r="3">
@@ -3921,10 +3921,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.69335933631726</v>
+        <v>27.95649197949069</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6415150668274086</v>
+        <v>0.6921693553747233</v>
       </c>
     </row>
     <row r="4">
@@ -3934,10 +3934,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.6059555002864</v>
+        <v>173.0238567342026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001840030067124919</v>
+        <v>0.002001883502966267</v>
       </c>
     </row>
     <row r="5">
@@ -3947,10 +3947,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06766440220227538</v>
+        <v>-0.0637382637767385</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04152604170926248</v>
+        <v>0.03251957845534646</v>
       </c>
     </row>
     <row r="6">
@@ -3960,10 +3960,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.751626702974326e-05</v>
+        <v>5.683467023056022e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1221443358775497</v>
+        <v>0.118850381488006</v>
       </c>
     </row>
     <row r="7">
@@ -3973,10 +3973,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.685199280934071</v>
+        <v>-5.399356968345614</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5526908418139012</v>
+        <v>0.5677867537371759</v>
       </c>
     </row>
     <row r="8">
@@ -3986,10 +3986,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.439085060190287</v>
+        <v>7.051029545371783</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5807456653916697</v>
+        <v>0.5387486061811992</v>
       </c>
     </row>
     <row r="9">
@@ -3999,10 +3999,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-251.1907365127754</v>
+        <v>-240.4764574110832</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6796806630421689</v>
+        <v>0.6889976342557784</v>
       </c>
     </row>
     <row r="10">
@@ -4012,10 +4012,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1305.391864018574</v>
+        <v>1350.551530245006</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1521657528645408</v>
+        <v>0.1353059660207307</v>
       </c>
     </row>
     <row r="11">
@@ -4025,10 +4025,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3420.095610466017</v>
+        <v>3318.064859741934</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1628263972339754</v>
+        <v>0.1689625711719797</v>
       </c>
     </row>
     <row r="12">
@@ -4038,10 +4038,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-26.24638170139076</v>
+        <v>-28.03589580952944</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2930549379396948</v>
+        <v>0.2597868739719532</v>
       </c>
     </row>
   </sheetData>
@@ -4087,10 +4087,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4765.10057268042</v>
+        <v>4877.065783379898</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00776338926544743</v>
+        <v>0.006435603867344312</v>
       </c>
     </row>
     <row r="3">
@@ -4100,10 +4100,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6.683311347645315</v>
+        <v>-0.7534076304623341</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8942476209190846</v>
+        <v>0.9878776428039926</v>
       </c>
     </row>
     <row r="4">
@@ -4113,10 +4113,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.3483703139882</v>
+        <v>134.5102950733451</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002277114887676152</v>
+        <v>0.0002652535808579762</v>
       </c>
     </row>
     <row r="5">
@@ -4126,10 +4126,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05953552166002571</v>
+        <v>-0.0553549887521736</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05503332528732838</v>
+        <v>0.04409543381425995</v>
       </c>
     </row>
     <row r="6">
@@ -4139,10 +4139,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.743494831839327e-05</v>
+        <v>4.714818475221125e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1225485782075385</v>
+        <v>0.1181751063064969</v>
       </c>
     </row>
     <row r="7">
@@ -4152,10 +4152,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.05798149828898</v>
+        <v>-22.06320104182986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006234399485822356</v>
+        <v>0.005800965790894877</v>
       </c>
     </row>
     <row r="8">
@@ -4165,10 +4165,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.223692714209903</v>
+        <v>-8.116042095020141</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2816575592756421</v>
+        <v>0.2820385138636382</v>
       </c>
     </row>
     <row r="9">
@@ -4178,10 +4178,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1141.016880360887</v>
+        <v>-1162.066670678422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04306012757058732</v>
+        <v>0.03779970827074982</v>
       </c>
     </row>
     <row r="10">
@@ -4191,10 +4191,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>310.7585770545022</v>
+        <v>319.1508132040299</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6373631993673906</v>
+        <v>0.6216288457254424</v>
       </c>
     </row>
     <row r="11">
@@ -4204,10 +4204,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5536.553839017532</v>
+        <v>5473.07673852185</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01817404863598938</v>
+        <v>0.01761726755582329</v>
       </c>
     </row>
     <row r="12">
@@ -4217,10 +4217,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1.408302278627247</v>
+        <v>-0.1529560015436573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9498944566175183</v>
+        <v>0.9945307554260669</v>
       </c>
     </row>
   </sheetData>
@@ -4266,10 +4266,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4532.821429509383</v>
+        <v>4478.596141720785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02720569542133489</v>
+        <v>0.02996726889882548</v>
       </c>
     </row>
     <row r="3">
@@ -4279,10 +4279,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>83.71121356557302</v>
+        <v>79.32726406540519</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2103751445608198</v>
+        <v>0.2378059564373345</v>
       </c>
     </row>
     <row r="4">
@@ -4292,10 +4292,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.0148894503899</v>
+        <v>180.1593243227628</v>
       </c>
       <c r="C4" t="n">
-        <v>1.037354262553642e-05</v>
+        <v>1.325264646029566e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4305,10 +4305,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05794101864827059</v>
+        <v>-0.04989418844776089</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09600973612982765</v>
+        <v>0.1098082524344256</v>
       </c>
     </row>
     <row r="6">
@@ -4318,10 +4318,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.785463983829127e-05</v>
+        <v>8.715859187925182e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01183253484649277</v>
+        <v>0.01276516342286278</v>
       </c>
     </row>
     <row r="7">
@@ -4331,10 +4331,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.95422025890794</v>
+        <v>-14.96827926781236</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08620916182665264</v>
+        <v>0.08761869901951083</v>
       </c>
     </row>
     <row r="8">
@@ -4344,10 +4344,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.869837383927766</v>
+        <v>-9.477866592957355</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2657195482038353</v>
+        <v>0.2851286939460396</v>
       </c>
     </row>
     <row r="9">
@@ -4357,10 +4357,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-418.4332850690062</v>
+        <v>-435.1557902160102</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5032890026888045</v>
+        <v>0.4889821396276707</v>
       </c>
     </row>
     <row r="10">
@@ -4370,10 +4370,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>883.9931032752529</v>
+        <v>839.2729881031364</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2963777828059463</v>
+        <v>0.3206682877333895</v>
       </c>
     </row>
     <row r="11">
@@ -4383,10 +4383,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2002.317522716517</v>
+        <v>2124.798615800968</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4042037297729281</v>
+        <v>0.3768896389568649</v>
       </c>
     </row>
     <row r="12">
@@ -4396,10 +4396,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-4.440047519536179</v>
+        <v>-4.133953101073828</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8528776802012805</v>
+        <v>0.864349410473361</v>
       </c>
     </row>
   </sheetData>
@@ -4445,10 +4445,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5284.987926622151</v>
+        <v>5366.558148976312</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03692186557940829</v>
+        <v>0.03525089320953366</v>
       </c>
     </row>
     <row r="3">
@@ -4458,10 +4458,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.81734662180122</v>
+        <v>21.22604568409372</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7251570469476945</v>
+        <v>0.7638169034240639</v>
       </c>
     </row>
     <row r="4">
@@ -4471,10 +4471,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>215.1124419018371</v>
+        <v>212.2563782757047</v>
       </c>
       <c r="C4" t="n">
-        <v>2.917480395520562e-05</v>
+        <v>3.679790650831819e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4484,10 +4484,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0632484445488285</v>
+        <v>-0.05649740243802592</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1052667596339816</v>
+        <v>0.1008521123107679</v>
       </c>
     </row>
     <row r="6">
@@ -4497,10 +4497,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.125006206747648e-05</v>
+        <v>4.065561327056782e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2545939297682673</v>
+        <v>0.2597127669239693</v>
       </c>
     </row>
     <row r="7">
@@ -4510,10 +4510,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.38613065863407</v>
+        <v>-12.39129196383671</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2618645262137666</v>
+        <v>0.2608221190864319</v>
       </c>
     </row>
     <row r="8">
@@ -4523,10 +4523,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.236636037771156</v>
+        <v>-4.444657511277899</v>
       </c>
       <c r="C8" t="n">
-        <v>0.697164171290608</v>
+        <v>0.6833361385618704</v>
       </c>
     </row>
     <row r="9">
@@ -4536,10 +4536,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-570.9869548952543</v>
+        <v>-581.0003380641674</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3845056861873984</v>
+        <v>0.375575954758498</v>
       </c>
     </row>
     <row r="10">
@@ -4549,10 +4549,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>926.1845146471383</v>
+        <v>906.7188078223708</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3099957268787858</v>
+        <v>0.3160138773508009</v>
       </c>
     </row>
     <row r="11">
@@ -4562,10 +4562,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4713.787405455368</v>
+        <v>4691.439873261619</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1006456999091572</v>
+        <v>0.1014466965237024</v>
       </c>
     </row>
     <row r="12">
@@ -4575,10 +4575,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-44.19025110529515</v>
+        <v>-44.81363410240201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.190553242992561</v>
+        <v>0.1848153931555733</v>
       </c>
     </row>
   </sheetData>
@@ -4624,10 +4624,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7404.559781851243</v>
+        <v>7363.948737220602</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002070956683016639</v>
+        <v>0.002184912507561132</v>
       </c>
     </row>
     <row r="3">
@@ -4637,10 +4637,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.21880552572105</v>
+        <v>15.89515466445022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7487813277140798</v>
+        <v>0.8007069510447031</v>
       </c>
     </row>
     <row r="4">
@@ -4650,10 +4650,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.0886202575645</v>
+        <v>195.1056535667566</v>
       </c>
       <c r="C4" t="n">
-        <v>9.189773189952282e-06</v>
+        <v>1.176794709786499e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4663,10 +4663,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06540538542663052</v>
+        <v>-0.05877092407141915</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07714824247229465</v>
+        <v>0.08225767641296741</v>
       </c>
     </row>
     <row r="6">
@@ -4676,10 +4676,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.457301942095373e-05</v>
+        <v>2.318533698690733e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4618422020368856</v>
+        <v>0.4857208195322378</v>
       </c>
     </row>
     <row r="7">
@@ -4689,10 +4689,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.80698002915477</v>
+        <v>-13.67597765864325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1464035359066801</v>
+        <v>0.1509788704878866</v>
       </c>
     </row>
     <row r="8">
@@ -4702,10 +4702,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.616110317944774</v>
+        <v>-5.499513411864932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5417310468072729</v>
+        <v>0.5509072677554037</v>
       </c>
     </row>
     <row r="9">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-464.3364427497389</v>
+        <v>-476.6318983729476</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4408017348514686</v>
+        <v>0.4308943078521449</v>
       </c>
     </row>
     <row r="10">
@@ -4728,10 +4728,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1281.771490808334</v>
+        <v>1254.488031716082</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2076945468262354</v>
+        <v>0.2168683210807124</v>
       </c>
     </row>
     <row r="11">
@@ -4741,10 +4741,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2401.301865313384</v>
+        <v>2568.70692694321</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4420287489827975</v>
+        <v>0.4102402123792592</v>
       </c>
     </row>
     <row r="12">
@@ -4754,10 +4754,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-77.77210160439577</v>
+        <v>-77.22266869944339</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02385009544632085</v>
+        <v>0.02493209567230981</v>
       </c>
     </row>
   </sheetData>
@@ -4803,10 +4803,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2004.140514659566</v>
+        <v>2019.830468976959</v>
       </c>
       <c r="C2" t="n">
-        <v>0.323503109666151</v>
+        <v>0.3238143212688772</v>
       </c>
     </row>
     <row r="3">
@@ -4816,10 +4816,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>96.99911350016293</v>
+        <v>93.32256755060024</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1289891735492814</v>
+        <v>0.1440699315630907</v>
       </c>
     </row>
     <row r="4">
@@ -4829,10 +4829,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>272.0346119242196</v>
+        <v>270.1370228976937</v>
       </c>
       <c r="C4" t="n">
-        <v>7.656252058368773e-06</v>
+        <v>9.369685417744786e-06</v>
       </c>
     </row>
     <row r="5">
@@ -4842,10 +4842,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05897631773227269</v>
+        <v>-0.05176699121500096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04808937546677433</v>
+        <v>0.0527227343114219</v>
       </c>
     </row>
     <row r="6">
@@ -4855,10 +4855,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.174565468101769e-05</v>
+        <v>6.049425505340173e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07325216528772339</v>
+        <v>0.07902206169990347</v>
       </c>
     </row>
     <row r="7">
@@ -4868,10 +4868,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3931488590533085</v>
+        <v>-0.4740205225533387</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9669265304948806</v>
+        <v>0.9603047872982897</v>
       </c>
     </row>
     <row r="8">
@@ -4881,10 +4881,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.641091608943476</v>
+        <v>1.572953667603592</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8639025780464415</v>
+        <v>0.8701661848734582</v>
       </c>
     </row>
     <row r="9">
@@ -4894,10 +4894,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-311.5572919091346</v>
+        <v>-314.1413496531559</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5955030777740298</v>
+        <v>0.5941113210220244</v>
       </c>
     </row>
     <row r="10">
@@ -4907,10 +4907,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1189.558929955293</v>
+        <v>1143.819478689106</v>
       </c>
       <c r="C10" t="n">
-        <v>0.150961210887261</v>
+        <v>0.1646251126532752</v>
       </c>
     </row>
     <row r="11">
@@ -4920,10 +4920,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4071.168035162034</v>
+        <v>4173.262355569126</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07558454917818652</v>
+        <v>0.06854650086703828</v>
       </c>
     </row>
     <row r="12">
@@ -4933,10 +4933,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-7.160815298705671</v>
+        <v>-7.072297456774209</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7651333922898522</v>
+        <v>0.7693979530113255</v>
       </c>
     </row>
   </sheetData>
@@ -4982,10 +4982,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7137.406448317211</v>
+        <v>7120.328776036125</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00288640622009562</v>
+        <v>0.002968085667505194</v>
       </c>
     </row>
     <row r="3">
@@ -4995,10 +4995,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.91219909383221</v>
+        <v>20.36185992524014</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7058003033143834</v>
+        <v>0.7729533765648902</v>
       </c>
     </row>
     <row r="4">
@@ -5008,10 +5008,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>197.387733189823</v>
+        <v>195.9500197135933</v>
       </c>
       <c r="C4" t="n">
-        <v>5.258199854257116e-05</v>
+        <v>6.125058574239544e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5021,10 +5021,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06293676540880197</v>
+        <v>-0.0558677703027764</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06328566601451212</v>
+        <v>0.06572271816144201</v>
       </c>
     </row>
     <row r="6">
@@ -5034,10 +5034,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.458200721243672e-05</v>
+        <v>2.356090520373079e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5017584809468364</v>
+        <v>0.5184428177144937</v>
       </c>
     </row>
     <row r="7">
@@ -5047,10 +5047,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.76814169273558</v>
+        <v>-18.62451254580024</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06028906950720708</v>
+        <v>0.06264973177185262</v>
       </c>
     </row>
     <row r="8">
@@ -5060,10 +5060,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.192537099941539</v>
+        <v>-6.076599991959561</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5282586848590076</v>
+        <v>0.5364375163700008</v>
       </c>
     </row>
     <row r="9">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-87.19048767796994</v>
+        <v>-91.74920539851382</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9100554544860781</v>
+        <v>0.9056129303145204</v>
       </c>
     </row>
     <row r="10">
@@ -5086,10 +5086,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1105.176244742098</v>
+        <v>1079.283348163122</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1957795977627789</v>
+        <v>0.2041970398979256</v>
       </c>
     </row>
     <row r="11">
@@ -5099,10 +5099,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5264.434642667753</v>
+        <v>5334.961551345999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07700206575531884</v>
+        <v>0.07270889326467468</v>
       </c>
     </row>
     <row r="12">
@@ -5112,10 +5112,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-78.13504412733354</v>
+        <v>-77.84647371725201</v>
       </c>
       <c r="C12" t="n">
-        <v>0.03732000337837706</v>
+        <v>0.03817347717344508</v>
       </c>
     </row>
   </sheetData>
@@ -5161,10 +5161,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6872.170967280879</v>
+        <v>6964.063878756055</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00295275226884275</v>
+        <v>0.00265763368186335</v>
       </c>
     </row>
     <row r="3">
@@ -5174,10 +5174,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.713816962522969</v>
+        <v>2.212822581038097</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8955729200366731</v>
+        <v>0.9731128572155394</v>
       </c>
     </row>
     <row r="4">
@@ -5187,10 +5187,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.6506418625392</v>
+        <v>164.8728056124848</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001570686156831875</v>
+        <v>0.0001871324525215644</v>
       </c>
     </row>
     <row r="5">
@@ -5200,10 +5200,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0731541935483568</v>
+        <v>-0.0692005160549081</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07145760210194649</v>
+        <v>0.06351699059986099</v>
       </c>
     </row>
     <row r="6">
@@ -5213,10 +5213,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.683335958884123e-05</v>
+        <v>7.80139269985408e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05650437610563633</v>
+        <v>0.05240968152067797</v>
       </c>
     </row>
     <row r="7">
@@ -5226,10 +5226,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.58217105745541</v>
+        <v>-15.88967414934901</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1237287453224083</v>
+        <v>0.1159620823131014</v>
       </c>
     </row>
     <row r="8">
@@ -5239,10 +5239,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.459581640415081</v>
+        <v>-9.275842991977683</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3033751110675538</v>
+        <v>0.3094606160372634</v>
       </c>
     </row>
     <row r="9">
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-851.2008296097788</v>
+        <v>-866.7260051583376</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2100589453087756</v>
+        <v>0.2002501143394838</v>
       </c>
     </row>
     <row r="10">
@@ -5265,10 +5265,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>801.7645240249585</v>
+        <v>873.5690727122583</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4561395581626974</v>
+        <v>0.4203414708989213</v>
       </c>
     </row>
     <row r="11">
@@ -5278,10 +5278,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>107.0625617691039</v>
+        <v>66.44034675843432</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9710386334772337</v>
+        <v>0.9819290925172186</v>
       </c>
     </row>
     <row r="12">
@@ -5291,10 +5291,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-39.2485021424251</v>
+        <v>-40.89857061799387</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1466176505948477</v>
+        <v>0.1325719047833467</v>
       </c>
     </row>
   </sheetData>
@@ -5340,10 +5340,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5070.969405878372</v>
+        <v>5237.143196254619</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02043916412332695</v>
+        <v>0.01700884186946915</v>
       </c>
     </row>
     <row r="3">
@@ -5353,10 +5353,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-3.453326242273249</v>
+        <v>-9.285728165045271</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9495622968227099</v>
+        <v>0.8630538034413331</v>
       </c>
     </row>
     <row r="4">
@@ -5366,10 +5366,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.6650177879631</v>
+        <v>149.5128382002936</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001082333209860844</v>
+        <v>0.0001153335305044987</v>
       </c>
     </row>
     <row r="5">
@@ -5379,10 +5379,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05619405149277629</v>
+        <v>-0.05332946572498926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1370567630713359</v>
+        <v>0.1113203082317102</v>
       </c>
     </row>
     <row r="6">
@@ -5392,10 +5392,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.464247243797214e-05</v>
+        <v>3.431737101678144e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2392259792757451</v>
+        <v>0.2335497078971258</v>
       </c>
     </row>
     <row r="7">
@@ -5405,10 +5405,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.08323378238229</v>
+        <v>-20.03961457061668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01531747813809807</v>
+        <v>0.01475034382378034</v>
       </c>
     </row>
     <row r="8">
@@ -5418,10 +5418,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.54523804007454</v>
+        <v>-13.98130112489764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1623023902611064</v>
+        <v>0.1472151056176865</v>
       </c>
     </row>
     <row r="9">
@@ -5431,10 +5431,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1079.959563184266</v>
+        <v>-1089.640036564857</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07888357333134123</v>
+        <v>0.07333871119251568</v>
       </c>
     </row>
     <row r="10">
@@ -5444,10 +5444,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>405.8753515205281</v>
+        <v>428.7750550342992</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5997834532303875</v>
+        <v>0.5717116583737474</v>
       </c>
     </row>
     <row r="11">
@@ -5457,10 +5457,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5562.573683320035</v>
+        <v>5437.975215943981</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04888027065567212</v>
+        <v>0.04972735930978486</v>
       </c>
     </row>
     <row r="12">
@@ -5470,10 +5470,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.739798353398896</v>
+        <v>2.244619603496687</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8775647505671604</v>
+        <v>0.9258261155922043</v>
       </c>
     </row>
   </sheetData>
@@ -5519,10 +5519,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3626.211115334636</v>
+        <v>3625.490779443696</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05342676961305824</v>
+        <v>0.05290643829938335</v>
       </c>
     </row>
     <row r="3">
@@ -5532,10 +5532,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.38896720678156</v>
+        <v>41.144325981674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4153524356320277</v>
+        <v>0.47831952512655</v>
       </c>
     </row>
     <row r="4">
@@ -5545,10 +5545,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.2273506760852</v>
+        <v>176.1973777753518</v>
       </c>
       <c r="C4" t="n">
-        <v>1.820244154444994e-05</v>
+        <v>2.116330155368717e-05</v>
       </c>
     </row>
     <row r="5">
@@ -5558,10 +5558,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0478752582890839</v>
+        <v>-0.0436078134575118</v>
       </c>
       <c r="C5" t="n">
-        <v>0.102406386821132</v>
+        <v>0.0999172656306857</v>
       </c>
     </row>
     <row r="6">
@@ -5571,10 +5571,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.443645845105287e-05</v>
+        <v>7.246506801186639e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02685273332414275</v>
+        <v>0.03000409672075185</v>
       </c>
     </row>
     <row r="7">
@@ -5584,10 +5584,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.56646965318289</v>
+        <v>-13.23565767425403</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1667483318741975</v>
+        <v>0.1776303070275712</v>
       </c>
     </row>
     <row r="8">
@@ -5597,10 +5597,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-4.010487511888527</v>
+        <v>-3.548890588607087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6598392820476486</v>
+        <v>0.6950394376964882</v>
       </c>
     </row>
     <row r="9">
@@ -5610,10 +5610,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-228.942952327754</v>
+        <v>-238.7125012960364</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6881603669521643</v>
+        <v>0.6754828874050995</v>
       </c>
     </row>
     <row r="10">
@@ -5623,10 +5623,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>591.3364949476563</v>
+        <v>595.6912138045491</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4618428450091054</v>
+        <v>0.4582408935640961</v>
       </c>
     </row>
     <row r="11">
@@ -5636,10 +5636,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3619.849520488126</v>
+        <v>3654.321038597729</v>
       </c>
       <c r="C11" t="n">
-        <v>0.09837395304613822</v>
+        <v>0.0930712926525594</v>
       </c>
     </row>
     <row r="12">
@@ -5649,10 +5649,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.314105019455916</v>
+        <v>-3.073714039968969</v>
       </c>
       <c r="C12" t="n">
-        <v>0.91811037482493</v>
+        <v>0.892130588657319</v>
       </c>
     </row>
   </sheetData>
@@ -5698,10 +5698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4223.187831563884</v>
+        <v>4259.742697827428</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09146044125708681</v>
+        <v>0.08486881317188516</v>
       </c>
     </row>
     <row r="3">
@@ -5711,10 +5711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.49684009965131</v>
+        <v>30.77799991838765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6075500465510747</v>
+        <v>0.6532924379418519</v>
       </c>
     </row>
     <row r="4">
@@ -5724,10 +5724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.9539515932169</v>
+        <v>180.8412839224573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001836662377315602</v>
+        <v>0.0001957748758510232</v>
       </c>
     </row>
     <row r="5">
@@ -5737,10 +5737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06335739851330519</v>
+        <v>-0.05927769430274765</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1093026096547437</v>
+        <v>0.09368800733547293</v>
       </c>
     </row>
     <row r="6">
@@ -5750,10 +5750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.482650420692616e-05</v>
+        <v>5.367110045998065e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1480079229735902</v>
+        <v>0.1505683958645484</v>
       </c>
     </row>
     <row r="7">
@@ -5763,10 +5763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.594845359233346</v>
+        <v>-7.24007908667884</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4973432528416752</v>
+        <v>0.5147456290621746</v>
       </c>
     </row>
     <row r="8">
@@ -5776,10 +5776,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-3.609655040806118</v>
+        <v>-3.49403507634662</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7612514425865741</v>
+        <v>0.7658631740881137</v>
       </c>
     </row>
     <row r="9">
@@ -5789,10 +5789,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-53.16203877336375</v>
+        <v>-49.82413448855095</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9472255610946041</v>
+        <v>0.950176242670842</v>
       </c>
     </row>
     <row r="10">
@@ -5802,10 +5802,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>793.427810215052</v>
+        <v>803.3708581802675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4442402460704535</v>
+        <v>0.4334078834347086</v>
       </c>
     </row>
     <row r="11">
@@ -5815,10 +5815,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2872.495135625097</v>
+        <v>2869.568094817743</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3228486632364992</v>
+        <v>0.3129153477614489</v>
       </c>
     </row>
     <row r="12">
@@ -5828,10 +5828,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-16.83559125664745</v>
+        <v>-17.55562182407439</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5291027055205211</v>
+        <v>0.5082728780518948</v>
       </c>
     </row>
   </sheetData>
@@ -5877,10 +5877,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4935.422483704715</v>
+        <v>4971.156912184999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01558390590595608</v>
+        <v>0.01473939344984549</v>
       </c>
     </row>
     <row r="3">
@@ -5890,10 +5890,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.847713245442378</v>
+        <v>1.953440366332643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9135262225548123</v>
+        <v>0.9706265214465308</v>
       </c>
     </row>
     <row r="4">
@@ -5903,10 +5903,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.0640538827969</v>
+        <v>177.1961613126771</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000102131050386522</v>
+        <v>0.0001063717048953143</v>
       </c>
     </row>
     <row r="5">
@@ -5916,10 +5916,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0439048056786096</v>
+        <v>-0.04004986572365485</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1459084729720966</v>
+        <v>0.13581668109559</v>
       </c>
     </row>
     <row r="6">
@@ -5929,10 +5929,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.664237164896993e-05</v>
+        <v>2.579359031124772e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4137148560533663</v>
+        <v>0.4224563143933326</v>
       </c>
     </row>
     <row r="7">
@@ -5942,10 +5942,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.43776273310632</v>
+        <v>-17.35733488287801</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05777055169817989</v>
+        <v>0.05816767709487981</v>
       </c>
     </row>
     <row r="8">
@@ -5955,10 +5955,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1.854215082105711</v>
+        <v>-1.903326179762246</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8476078691948286</v>
+        <v>0.8431431727044124</v>
       </c>
     </row>
     <row r="9">
@@ -5968,10 +5968,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-815.5871787841161</v>
+        <v>-822.5762870336057</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2091813805544718</v>
+        <v>0.2036855619359629</v>
       </c>
     </row>
     <row r="10">
@@ -5981,10 +5981,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>769.1876991105055</v>
+        <v>761.5078068375633</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3342041859958658</v>
+        <v>0.3330097539286589</v>
       </c>
     </row>
     <row r="11">
@@ -5994,10 +5994,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6632.948780303705</v>
+        <v>6611.453372596141</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01489859561066494</v>
+        <v>0.01448217538886449</v>
       </c>
     </row>
     <row r="12">
@@ -6007,10 +6007,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-38.56415752377859</v>
+        <v>-38.6454959837189</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2726676426141613</v>
+        <v>0.2684435603068932</v>
       </c>
     </row>
   </sheetData>
@@ -6056,10 +6056,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4948.60442071553</v>
+        <v>4933.711304686871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006453737663034328</v>
+        <v>0.007535001748373782</v>
       </c>
     </row>
     <row r="3">
@@ -6069,10 +6069,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>114.7681505403647</v>
+        <v>104.9260958338992</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08602071326300893</v>
+        <v>0.1151597369424903</v>
       </c>
     </row>
     <row r="4">
@@ -6082,10 +6082,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184.867570402202</v>
+        <v>182.4009487717786</v>
       </c>
       <c r="C4" t="n">
-        <v>3.837932310611827e-06</v>
+        <v>5.703828091852229e-06</v>
       </c>
     </row>
     <row r="5">
@@ -6095,10 +6095,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08627564019076045</v>
+        <v>-0.0759674361235459</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01778959268256999</v>
+        <v>0.02377053546901183</v>
       </c>
     </row>
     <row r="6">
@@ -6108,10 +6108,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.589589314171739e-05</v>
+        <v>9.294214606188772e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.003673395544061752</v>
+        <v>0.004806420490501388</v>
       </c>
     </row>
     <row r="7">
@@ -6121,10 +6121,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.54632041370055</v>
+        <v>-17.32272004777624</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02849105943680806</v>
+        <v>0.03231194305345069</v>
       </c>
     </row>
     <row r="8">
@@ -6134,10 +6134,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-13.95423932794925</v>
+        <v>-13.34917059326628</v>
       </c>
       <c r="C8" t="n">
-        <v>0.09404499542650449</v>
+        <v>0.1114630239753688</v>
       </c>
     </row>
     <row r="9">
@@ -6147,10 +6147,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-117.899446261541</v>
+        <v>-140.9968747138928</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8258426233528646</v>
+        <v>0.7949734877338552</v>
       </c>
     </row>
     <row r="10">
@@ -6160,10 +6160,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1094.11515803681</v>
+        <v>1071.50702675413</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2244858845010986</v>
+        <v>0.2452439799636193</v>
       </c>
     </row>
     <row r="11">
@@ -6173,10 +6173,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1687.20190452213</v>
+        <v>1828.58259643656</v>
       </c>
       <c r="C11" t="n">
-        <v>0.448632974093954</v>
+        <v>0.4182379629123023</v>
       </c>
     </row>
     <row r="12">
@@ -6186,10 +6186,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-3.049270065089942</v>
+        <v>-3.919308794103742</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8895896118788192</v>
+        <v>0.8623410966600449</v>
       </c>
     </row>
   </sheetData>
@@ -6235,10 +6235,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5682.054074461881</v>
+        <v>5762.63514585423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01070308239749281</v>
+        <v>0.01008828161543043</v>
       </c>
     </row>
     <row r="3">
@@ -6248,10 +6248,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.642291159322355</v>
+        <v>-9.955604520311994</v>
       </c>
       <c r="C3" t="n">
-        <v>0.969062153617906</v>
+        <v>0.8836205329164684</v>
       </c>
     </row>
     <row r="4">
@@ -6261,10 +6261,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.6335391614905</v>
+        <v>211.2989519844726</v>
       </c>
       <c r="C4" t="n">
-        <v>1.7789357619486e-05</v>
+        <v>2.098673975053652e-05</v>
       </c>
     </row>
     <row r="5">
@@ -6274,10 +6274,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06722937029236997</v>
+        <v>-0.06087044721279078</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03868539496503667</v>
+        <v>0.03698022434094854</v>
       </c>
     </row>
     <row r="6">
@@ -6287,10 +6287,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.157192637791823e-05</v>
+        <v>7.228217226336835e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07510496308506909</v>
+        <v>0.07243446730622596</v>
       </c>
     </row>
     <row r="7">
@@ -6300,10 +6300,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.099822116775883</v>
+        <v>-8.28692828221325</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4397279758777455</v>
+        <v>0.4288780833065073</v>
       </c>
     </row>
     <row r="8">
@@ -6313,10 +6313,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.476660769444095</v>
+        <v>-7.426361176706557</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4205962079596026</v>
+        <v>0.4223834796388682</v>
       </c>
     </row>
     <row r="9">
@@ -6326,10 +6326,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1086.127735538111</v>
+        <v>-1119.304302691132</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1226975528203016</v>
+        <v>0.1118766246953447</v>
       </c>
     </row>
     <row r="10">
@@ -6339,10 +6339,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>432.5929743044899</v>
+        <v>418.0564893804396</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6203251711067467</v>
+        <v>0.6292187244781978</v>
       </c>
     </row>
     <row r="11">
@@ -6352,10 +6352,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2280.920270889834</v>
+        <v>2265.712469119395</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3666779449272727</v>
+        <v>0.3685318248478541</v>
       </c>
     </row>
     <row r="12">
@@ -6365,10 +6365,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-33.31880002040837</v>
+        <v>-34.27195062449066</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2034810737594587</v>
+        <v>0.1929489407895473</v>
       </c>
     </row>
   </sheetData>
@@ -6414,10 +6414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5375.299949326569</v>
+        <v>5435.693698949234</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02080022688819999</v>
+        <v>0.01879468240341105</v>
       </c>
     </row>
     <row r="3">
@@ -6427,10 +6427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>13.19731937140824</v>
+        <v>4.96260281214478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8271779550646</v>
+        <v>0.9335950690127324</v>
       </c>
     </row>
     <row r="4">
@@ -6440,10 +6440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.4701021455245</v>
+        <v>171.905682464387</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002160901202183653</v>
+        <v>0.0002439317972119103</v>
       </c>
     </row>
     <row r="5">
@@ -6453,10 +6453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07157659680728368</v>
+        <v>-0.06680953360970152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07120271474895441</v>
+        <v>0.06047564573124417</v>
       </c>
     </row>
     <row r="6">
@@ -6466,10 +6466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.996242078295838e-05</v>
+        <v>4.93117223122244e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1373903970334792</v>
+        <v>0.1357458073796973</v>
       </c>
     </row>
     <row r="7">
@@ -6479,10 +6479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.109863935335866</v>
+        <v>-7.812213710143141</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4437985081028378</v>
+        <v>0.4563812698246251</v>
       </c>
     </row>
     <row r="8">
@@ -6492,10 +6492,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.576076929155597</v>
+        <v>-8.592511178084081</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4336062372993246</v>
+        <v>0.4283907332581828</v>
       </c>
     </row>
     <row r="9">
@@ -6505,10 +6505,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-113.2435011624175</v>
+        <v>-98.18466049482913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8768042196782693</v>
+        <v>0.8922020569805102</v>
       </c>
     </row>
     <row r="10">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>780.3313460603276</v>
+        <v>806.9174274012553</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4178644743604707</v>
+        <v>0.397239034412503</v>
       </c>
     </row>
     <row r="11">
@@ -6531,10 +6531,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1402.14906100572</v>
+        <v>1377.805704175463</v>
       </c>
       <c r="C11" t="n">
-        <v>0.639988813151581</v>
+        <v>0.6426005842995512</v>
       </c>
     </row>
     <row r="12">
@@ -6544,10 +6544,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-21.4423633705092</v>
+        <v>-22.19868149116741</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3726441828389615</v>
+        <v>0.3534366723374073</v>
       </c>
     </row>
   </sheetData>
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5074.308177307512</v>
+        <v>5173.549464632835</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02815165248266557</v>
+        <v>0.02608191592913275</v>
       </c>
     </row>
     <row r="3">
@@ -6606,10 +6606,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.84901151065816</v>
+        <v>37.65878147145042</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4851430680923914</v>
+        <v>0.5444703319239026</v>
       </c>
     </row>
     <row r="4">
@@ -6619,10 +6619,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.6212288152983</v>
+        <v>192.7597339659189</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0006810266875500918</v>
+        <v>0.0008226839162105942</v>
       </c>
     </row>
     <row r="5">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05820143589331261</v>
+        <v>-0.0529036171469241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1235584105684502</v>
+        <v>0.1159759948452939</v>
       </c>
     </row>
     <row r="6">
@@ -6645,10 +6645,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.587804805178541e-05</v>
+        <v>5.49481246306481e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0958664244316608</v>
+        <v>0.09805325507494835</v>
       </c>
     </row>
     <row r="7">
@@ -6658,10 +6658,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.62180026017003</v>
+        <v>-14.69349268859344</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1210899576404554</v>
+        <v>0.1185156739743665</v>
       </c>
     </row>
     <row r="8">
@@ -6671,10 +6671,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.891263100012985</v>
+        <v>-8.069784049465929</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4467665675627066</v>
+        <v>0.4356922091720785</v>
       </c>
     </row>
     <row r="9">
@@ -6684,10 +6684,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-534.3600072385489</v>
+        <v>-538.2492116755002</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4414459829036632</v>
+        <v>0.4368045045976531</v>
       </c>
     </row>
     <row r="10">
@@ -6697,10 +6697,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>971.0271219448887</v>
+        <v>960.8899892899326</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2965184222255015</v>
+        <v>0.2960314948251663</v>
       </c>
     </row>
     <row r="11">
@@ -6710,10 +6710,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2590.548220149649</v>
+        <v>2591.897076171532</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3533525043834617</v>
+        <v>0.3516219808367662</v>
       </c>
     </row>
     <row r="12">
@@ -6723,10 +6723,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.01166506127754</v>
+        <v>-20.90361418194182</v>
       </c>
       <c r="C12" t="n">
-        <v>0.434549231067096</v>
+        <v>0.416026547516993</v>
       </c>
     </row>
   </sheetData>
@@ -6772,10 +6772,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5630.177119272777</v>
+        <v>5647.370016040911</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01388768635147697</v>
+        <v>0.0138497554536394</v>
       </c>
     </row>
     <row r="3">
@@ -6785,10 +6785,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.040225334347838</v>
+        <v>-0.5194492431539288</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9288612428135954</v>
+        <v>0.9947569792787527</v>
       </c>
     </row>
     <row r="4">
@@ -6798,10 +6798,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.6853835481334</v>
+        <v>183.116150162694</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002357288737018674</v>
+        <v>0.0002860355978019421</v>
       </c>
     </row>
     <row r="5">
@@ -6811,10 +6811,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08279306155609006</v>
+        <v>-0.07358444470977588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03456242866925834</v>
+        <v>0.03485836623996691</v>
       </c>
     </row>
     <row r="6">
@@ -6824,10 +6824,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.783598074703115e-05</v>
+        <v>4.725860049052243e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1761227665525759</v>
+        <v>0.180721980987642</v>
       </c>
     </row>
     <row r="7">
@@ -6837,10 +6837,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.86909259908213</v>
+        <v>-11.81934173769076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2561962609462249</v>
+        <v>0.2582041804694771</v>
       </c>
     </row>
     <row r="8">
@@ -6850,10 +6850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.470389857700567</v>
+        <v>-9.194232903095042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4029121097167897</v>
+        <v>0.4155223205755764</v>
       </c>
     </row>
     <row r="9">
@@ -6863,10 +6863,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-532.172671856287</v>
+        <v>-563.2333063386804</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4303698341219818</v>
+        <v>0.4041334078319365</v>
       </c>
     </row>
     <row r="10">
@@ -6876,10 +6876,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>907.4727911510008</v>
+        <v>875.815215277994</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3163239654561232</v>
+        <v>0.3296381507973709</v>
       </c>
     </row>
     <row r="11">
@@ -6889,10 +6889,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3064.939557764676</v>
+        <v>3127.448786044794</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2320256343580082</v>
+        <v>0.2209917737968929</v>
       </c>
     </row>
     <row r="12">
@@ -6902,10 +6902,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.89182667083716</v>
+        <v>-26.40414611204474</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3457856927668792</v>
+        <v>0.3382437484760931</v>
       </c>
     </row>
   </sheetData>
@@ -6951,10 +6951,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5791.073857165717</v>
+        <v>5838.308727475693</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01756423062705361</v>
+        <v>0.01710448939628081</v>
       </c>
     </row>
     <row r="3">
@@ -6964,10 +6964,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.88947626254179</v>
+        <v>45.80906464957391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4162148627293473</v>
+        <v>0.4922109193003908</v>
       </c>
     </row>
     <row r="4">
@@ -6977,10 +6977,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.3027550033232</v>
+        <v>176.0534406230265</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003260129486061414</v>
+        <v>0.0003803995254674729</v>
       </c>
     </row>
     <row r="5">
@@ -6990,10 +6990,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07633020589892894</v>
+        <v>-0.06863769665873538</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02873327007535877</v>
+        <v>0.02839763426248803</v>
       </c>
     </row>
     <row r="6">
@@ -7003,10 +7003,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.73224153692618e-05</v>
+        <v>6.439165176444885e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09602767829218535</v>
+        <v>0.1070491415211329</v>
       </c>
     </row>
     <row r="7">
@@ -7016,10 +7016,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.46685906738134</v>
+        <v>-11.08077106059419</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2994631949847574</v>
+        <v>0.3152841031500996</v>
       </c>
     </row>
     <row r="8">
@@ -7029,10 +7029,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.91915953696944</v>
+        <v>-12.96230823101632</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2423217537940858</v>
+        <v>0.2406893493466643</v>
       </c>
     </row>
     <row r="9">
@@ -7042,10 +7042,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-498.3547718079335</v>
+        <v>-488.9278365838372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5333783621829704</v>
+        <v>0.5406056257281528</v>
       </c>
     </row>
     <row r="10">
@@ -7055,10 +7055,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>592.3732278990356</v>
+        <v>571.5798289946388</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5198220711136661</v>
+        <v>0.5323411027276865</v>
       </c>
     </row>
     <row r="11">
@@ -7068,10 +7068,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.25060387861</v>
+        <v>2365.268728424482</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3778544194031809</v>
+        <v>0.3794712385834829</v>
       </c>
     </row>
     <row r="12">
@@ -7081,10 +7081,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-22.1359689123081</v>
+        <v>-22.35560165879345</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4199460796074547</v>
+        <v>0.4157136615002116</v>
       </c>
     </row>
   </sheetData>
@@ -7130,10 +7130,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3104.891690435266</v>
+        <v>3203.632484315402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09132692345659472</v>
+        <v>0.08371468729465947</v>
       </c>
     </row>
     <row r="3">
@@ -7143,10 +7143,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.73089377943506</v>
+        <v>-15.67853609641088</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7902094368047646</v>
+        <v>0.7871138335575687</v>
       </c>
     </row>
     <row r="4">
@@ -7156,10 +7156,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.8609197233246</v>
+        <v>151.5122335977893</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003355753683865406</v>
+        <v>0.0003139267183669158</v>
       </c>
     </row>
     <row r="5">
@@ -7169,10 +7169,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0144550230773807</v>
+        <v>-0.01586446888462855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6470417882590191</v>
+        <v>0.5750689867467274</v>
       </c>
     </row>
     <row r="6">
@@ -7182,10 +7182,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.040992517079291e-05</v>
+        <v>2.210249177683281e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.543946042671981</v>
+        <v>0.5073451727808946</v>
       </c>
     </row>
     <row r="7">
@@ -7195,10 +7195,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.67373877795379</v>
+        <v>-14.72241482050509</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08806247856128867</v>
+        <v>0.08621749759683248</v>
       </c>
     </row>
     <row r="8">
@@ -7208,10 +7208,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.278459432445629</v>
+        <v>-5.302038471879087</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5361370328858375</v>
+        <v>0.533182565032328</v>
       </c>
     </row>
     <row r="9">
@@ -7221,10 +7221,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-1197.662869103274</v>
+        <v>-1191.517734092133</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03141721314520972</v>
+        <v>0.0317416750600493</v>
       </c>
     </row>
     <row r="10">
@@ -7234,10 +7234,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-237.1012784414625</v>
+        <v>-184.1823023026643</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7663382183745308</v>
+        <v>0.8163615263221773</v>
       </c>
     </row>
     <row r="11">
@@ -7247,10 +7247,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7377.285395315625</v>
+        <v>7207.717048111662</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007068685490895844</v>
+        <v>0.007826254723321952</v>
       </c>
     </row>
     <row r="12">
@@ -7260,10 +7260,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>18.79667709409566</v>
+        <v>17.12798877995735</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4316248211913901</v>
+        <v>0.4755443241431336</v>
       </c>
     </row>
   </sheetData>
@@ -7309,10 +7309,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6636.742325906853</v>
+        <v>6646.268828060734</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005673312463987622</v>
+        <v>0.005585154176449661</v>
       </c>
     </row>
     <row r="3">
@@ -7322,10 +7322,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3.748934668713503</v>
+        <v>1.585009867516874</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9584994662627384</v>
+        <v>0.9822680480423407</v>
       </c>
     </row>
     <row r="4">
@@ -7335,10 +7335,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>207.5313989642622</v>
+        <v>206.4204282340399</v>
       </c>
       <c r="C4" t="n">
-        <v>9.330289243469501e-06</v>
+        <v>1.060898621572505e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7348,10 +7348,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03662719734607933</v>
+        <v>-0.03385072877507361</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3136360808303542</v>
+        <v>0.3056239998196837</v>
       </c>
     </row>
     <row r="6">
@@ -7361,10 +7361,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.196632184944011e-05</v>
+        <v>2.125201988378969e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5849598787265402</v>
+        <v>0.5925615572926344</v>
       </c>
     </row>
     <row r="7">
@@ -7374,10 +7374,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.37235297151783</v>
+        <v>-16.35275126785272</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09404317408255294</v>
+        <v>0.09414436805772794</v>
       </c>
     </row>
     <row r="8">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-5.817066628480873</v>
+        <v>-5.75893401350833</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5344708160164015</v>
+        <v>0.5378282969877535</v>
       </c>
     </row>
     <row r="9">
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-142.1193263829018</v>
+        <v>-141.1559316080243</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8729670725382515</v>
+        <v>0.8735766365423581</v>
       </c>
     </row>
     <row r="10">
@@ -7413,10 +7413,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>654.375644713265</v>
+        <v>653.0939497689328</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4674832990538139</v>
+        <v>0.4652867677721154</v>
       </c>
     </row>
     <row r="11">
@@ -7426,10 +7426,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4154.872897945737</v>
+        <v>4253.799290125695</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2306253522686094</v>
+        <v>0.216024299559345</v>
       </c>
     </row>
     <row r="12">
@@ -7439,10 +7439,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-65.35982858334802</v>
+        <v>-65.76972807268035</v>
       </c>
       <c r="C12" t="n">
-        <v>0.09315383273205227</v>
+        <v>0.09067153697803502</v>
       </c>
     </row>
   </sheetData>
@@ -7488,10 +7488,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4593.874598342683</v>
+        <v>4585.880031788955</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02422328115530288</v>
+        <v>0.024937699669382</v>
       </c>
     </row>
     <row r="3">
@@ -7501,10 +7501,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>73.38781499856884</v>
+        <v>66.0997244146601</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1665644946981785</v>
+        <v>0.2123621681614462</v>
       </c>
     </row>
     <row r="4">
@@ -7514,10 +7514,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.1764689598687</v>
+        <v>211.9107087013846</v>
       </c>
       <c r="C4" t="n">
-        <v>5.181505388921967e-06</v>
+        <v>6.473293799278161e-06</v>
       </c>
     </row>
     <row r="5">
@@ -7527,10 +7527,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07753114597589295</v>
+        <v>-0.06991566108442157</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03946552857984251</v>
+        <v>0.04135908802768975</v>
       </c>
     </row>
     <row r="6">
@@ -7540,10 +7540,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.636945767869311e-05</v>
+        <v>8.46365512133597e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005346720373870994</v>
+        <v>0.006022816633634602</v>
       </c>
     </row>
     <row r="7">
@@ -7553,10 +7553,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.12108977436064</v>
+        <v>-16.0298569433189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06338071574204335</v>
+        <v>0.0652837799186842</v>
       </c>
     </row>
     <row r="8">
@@ -7566,10 +7566,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-6.355066371300076</v>
+        <v>-5.959034133701358</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4740240337059202</v>
+        <v>0.5005789429167117</v>
       </c>
     </row>
     <row r="9">
@@ -7579,10 +7579,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-113.4098103592851</v>
+        <v>-120.8017547879278</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8272203430184163</v>
+        <v>0.8165030971224827</v>
       </c>
     </row>
     <row r="10">
@@ -7592,10 +7592,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1911.58089052339</v>
+        <v>1927.790344394938</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05523112170212135</v>
+        <v>0.05569139253769075</v>
       </c>
     </row>
     <row r="11">
@@ -7605,10 +7605,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1767.453434459515</v>
+        <v>1833.456992871452</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4556813662195477</v>
+        <v>0.4380399258211042</v>
       </c>
     </row>
     <row r="12">
@@ -7618,10 +7618,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-20.6916749611905</v>
+        <v>-21.16099433500672</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3786079896882744</v>
+        <v>0.3729498261708204</v>
       </c>
     </row>
   </sheetData>
@@ -7667,10 +7667,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4330.105595177521</v>
+        <v>4351.907111561346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02790140316048247</v>
+        <v>0.02701397364265842</v>
       </c>
     </row>
     <row r="3">
@@ -7680,10 +7680,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.34774739840583</v>
+        <v>20.94160714695704</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6908184150912403</v>
+        <v>0.7283106209678666</v>
       </c>
     </row>
     <row r="4">
@@ -7693,10 +7693,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.5542138040058</v>
+        <v>164.3049358717159</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001013156938944905</v>
+        <v>0.0001065569756418364</v>
       </c>
     </row>
     <row r="5">
@@ -7706,10 +7706,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03231350460964783</v>
+        <v>-0.02985710037951501</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2705521607138413</v>
+        <v>0.2554770584542906</v>
       </c>
     </row>
     <row r="6">
@@ -7719,10 +7719,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.856304729686608e-05</v>
+        <v>2.833358739937921e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3931412284892819</v>
+        <v>0.3923050196937683</v>
       </c>
     </row>
     <row r="7">
@@ -7732,10 +7732,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.1867009859969</v>
+        <v>-19.00455856996521</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0716902997036367</v>
+        <v>0.07412299282411187</v>
       </c>
     </row>
     <row r="8">
@@ -7745,10 +7745,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.217609283757852</v>
+        <v>-9.239381849078868</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2981032593625774</v>
+        <v>0.2957083037361106</v>
       </c>
     </row>
     <row r="9">
@@ -7758,10 +7758,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-625.4981704970983</v>
+        <v>-630.9144106310891</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4054233929234731</v>
+        <v>0.400194600889746</v>
       </c>
     </row>
     <row r="10">
@@ -7771,10 +7771,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>274.1246631815748</v>
+        <v>269.2602423522349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.743227652659077</v>
+        <v>0.7451515045760448</v>
       </c>
     </row>
     <row r="11">
@@ -7784,10 +7784,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6790.209713795601</v>
+        <v>6746.89917747186</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02473578423121393</v>
+        <v>0.02487232778178329</v>
       </c>
     </row>
     <row r="12">
@@ -7797,10 +7797,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.792492959869179</v>
+        <v>-2.72702525444717</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9389435829764672</v>
+        <v>0.9402116068461834</v>
       </c>
     </row>
   </sheetData>
@@ -7846,10 +7846,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3555.521621257689</v>
+        <v>3702.07882308411</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1464001143961389</v>
+        <v>0.1329005756876689</v>
       </c>
     </row>
     <row r="3">
@@ -7859,10 +7859,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>38.80768596190472</v>
+        <v>33.74972644452606</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5683770781198301</v>
+        <v>0.6174460095607115</v>
       </c>
     </row>
     <row r="4">
@@ -7872,10 +7872,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.7785463570353</v>
+        <v>189.5692070426174</v>
       </c>
       <c r="C4" t="n">
-        <v>6.62151054126004e-05</v>
+        <v>8.007112641327854e-05</v>
       </c>
     </row>
     <row r="5">
@@ -7885,10 +7885,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06314587250222592</v>
+        <v>-0.05783694069312667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06473385156667723</v>
+        <v>0.05802931559725691</v>
       </c>
     </row>
     <row r="6">
@@ -7898,10 +7898,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.174554236756614e-05</v>
+        <v>6.074970695829487e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06927079251220847</v>
+        <v>0.07110079456904267</v>
       </c>
     </row>
     <row r="7">
@@ -7911,10 +7911,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.74182079734787</v>
+        <v>-4.765279129202362</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6463737891027406</v>
+        <v>0.6429945230910183</v>
       </c>
     </row>
     <row r="8">
@@ -7924,10 +7924,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.589799201230989</v>
+        <v>4.267671969416405</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7057744696086823</v>
+        <v>0.7245517616465578</v>
       </c>
     </row>
     <row r="9">
@@ -7937,10 +7937,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-715.7932366622135</v>
+        <v>-734.5335221033083</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3529452344828423</v>
+        <v>0.3390376513600232</v>
       </c>
     </row>
     <row r="10">
@@ -7950,10 +7950,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>885.2653724420405</v>
+        <v>876.3661656165957</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3164717978028957</v>
+        <v>0.3161865301196016</v>
       </c>
     </row>
     <row r="11">
@@ -7963,10 +7963,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2964.396401895519</v>
+        <v>2913.995582868929</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2512451702668037</v>
+        <v>0.2562382397392882</v>
       </c>
     </row>
     <row r="12">
@@ -7976,10 +7976,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-25.70292712552599</v>
+        <v>-27.08845087845174</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3353304131076159</v>
+        <v>0.3116886106608019</v>
       </c>
     </row>
   </sheetData>
@@ -8025,10 +8025,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4594.189260587231</v>
+        <v>4736.846936194794</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06112906262880727</v>
+        <v>0.05357157239914203</v>
       </c>
     </row>
     <row r="3">
@@ -8038,10 +8038,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>53.01469225522533</v>
+        <v>42.49853468662204</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4186635807910428</v>
+        <v>0.5157973332328658</v>
       </c>
     </row>
     <row r="4">
@@ -8051,10 +8051,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.2973043079374</v>
+        <v>214.7612510442106</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003765582645262906</v>
+        <v>0.005080657034461059</v>
       </c>
     </row>
     <row r="5">
@@ -8064,10 +8064,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08001628520049786</v>
+        <v>-0.07531593666278857</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05173173479719151</v>
+        <v>0.04342768835070224</v>
       </c>
     </row>
     <row r="6">
@@ -8077,10 +8077,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.756573324531742e-05</v>
+        <v>6.639890761660498e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04043359230133518</v>
+        <v>0.04048259355198257</v>
       </c>
     </row>
     <row r="7">
@@ -8090,10 +8090,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.29219881622013</v>
+        <v>-12.54628590830242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2464569892139893</v>
+        <v>0.2338770586762267</v>
       </c>
     </row>
     <row r="8">
@@ -8103,10 +8103,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-7.068890436855238</v>
+        <v>-6.870299826315524</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4927295743638257</v>
+        <v>0.4986851634774059</v>
       </c>
     </row>
     <row r="9">
@@ -8116,10 +8116,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-429.2847793257852</v>
+        <v>-431.0651448286035</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4656203897123713</v>
+        <v>0.460181597484056</v>
       </c>
     </row>
     <row r="10">
@@ -8129,10 +8129,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1649.16385292391</v>
+        <v>1714.987808320211</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1326638606956376</v>
+        <v>0.1177981558814085</v>
       </c>
     </row>
     <row r="11">
@@ -8142,10 +8142,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2436.398276013908</v>
+        <v>2341.474441377226</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3762441773280835</v>
+        <v>0.3890605502952537</v>
       </c>
     </row>
     <row r="12">
@@ -8155,10 +8155,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-19.30000757464168</v>
+        <v>-21.1217500236703</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4541846021009392</v>
+        <v>0.4137168960208052</v>
       </c>
     </row>
   </sheetData>
@@ -8204,10 +8204,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5654.465532243562</v>
+        <v>5685.05377997957</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0133314138642921</v>
+        <v>0.01289799426909157</v>
       </c>
     </row>
     <row r="3">
@@ -8217,10 +8217,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.99935612963253</v>
+        <v>12.84589640999334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7804831361665319</v>
+        <v>0.8551356975412588</v>
       </c>
     </row>
     <row r="4">
@@ -8230,10 +8230,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.4005024289159</v>
+        <v>185.1693484319771</v>
       </c>
       <c r="C4" t="n">
-        <v>6.46785488605218e-05</v>
+        <v>7.545048399774996e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8243,10 +8243,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07121598555153134</v>
+        <v>-0.06417729456878565</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1752785060731054</v>
+        <v>0.1678529242550973</v>
       </c>
     </row>
     <row r="6">
@@ -8256,10 +8256,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.774316963146298e-05</v>
+        <v>4.532710322304262e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4155478661749925</v>
+        <v>0.4272022085155427</v>
       </c>
     </row>
     <row r="7">
@@ -8269,10 +8269,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.22781496155459</v>
+        <v>-13.14441782105896</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1724775739390194</v>
+        <v>0.173237708441547</v>
       </c>
     </row>
     <row r="8">
@@ -8282,10 +8282,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.11123759714613</v>
+        <v>-9.940702539914682</v>
       </c>
       <c r="C8" t="n">
-        <v>0.345548545405409</v>
+        <v>0.3506745805864029</v>
       </c>
     </row>
     <row r="9">
@@ -8295,10 +8295,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-385.9136734620188</v>
+        <v>-370.1569128446017</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6777281645705997</v>
+        <v>0.6874895083673866</v>
       </c>
     </row>
     <row r="10">
@@ -8308,10 +8308,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>799.8496362589735</v>
+        <v>805.026145237231</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4245559774988197</v>
+        <v>0.4188705599768775</v>
       </c>
     </row>
     <row r="11">
@@ -8321,10 +8321,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2062.487710283098</v>
+        <v>2008.046759963197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5977830318361331</v>
+        <v>0.6057686286194663</v>
       </c>
     </row>
     <row r="12">
@@ -8334,10 +8334,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-22.22336678687897</v>
+        <v>-22.48175151319453</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4353205522311205</v>
+        <v>0.4289746898062521</v>
       </c>
     </row>
   </sheetData>
@@ -8383,10 +8383,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4410.951944740433</v>
+        <v>4381.491160986244</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03536250425767859</v>
+        <v>0.03658555058247226</v>
       </c>
     </row>
     <row r="3">
@@ -8396,10 +8396,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.44962434832451</v>
+        <v>26.54110044400585</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6340928218457142</v>
+        <v>0.6876104854450766</v>
       </c>
     </row>
     <row r="4">
@@ -8409,10 +8409,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.7407299510846</v>
+        <v>190.5455259838958</v>
       </c>
       <c r="C4" t="n">
-        <v>4.12885074416963e-05</v>
+        <v>5.063766653253296e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8422,10 +8422,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07911761155686142</v>
+        <v>-0.0705849947639408</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02477392798193645</v>
+        <v>0.02592164453548354</v>
       </c>
     </row>
     <row r="6">
@@ -8435,10 +8435,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.816766815697792e-05</v>
+        <v>4.693793212757474e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1559781329303887</v>
+        <v>0.1658645079293637</v>
       </c>
     </row>
     <row r="7">
@@ -8448,10 +8448,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.873380799853891</v>
+        <v>-6.781865540995057</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4847811413025054</v>
+        <v>0.4913989060389137</v>
       </c>
     </row>
     <row r="8">
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-0.3655994384154475</v>
+        <v>-0.1710535480265882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9704144097005848</v>
+        <v>0.9861728483540533</v>
       </c>
     </row>
     <row r="9">
@@ -8474,10 +8474,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-348.2568993622309</v>
+        <v>-358.5067174536721</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5734908548526958</v>
+        <v>0.5632014311782541</v>
       </c>
     </row>
     <row r="10">
@@ -8487,10 +8487,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1384.634106088462</v>
+        <v>1346.215273776309</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1608177528657737</v>
+        <v>0.1700149269317698</v>
       </c>
     </row>
     <row r="11">
@@ -8500,10 +8500,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2756.745268239783</v>
+        <v>2899.492266864587</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2786134982669936</v>
+        <v>0.2514890158799786</v>
       </c>
     </row>
     <row r="12">
@@ -8513,10 +8513,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-31.28031828914506</v>
+        <v>-31.04153011145394</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2392613772769111</v>
+        <v>0.2435232994220912</v>
       </c>
     </row>
   </sheetData>
@@ -8562,10 +8562,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6370.027916262714</v>
+        <v>6318.821764795943</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002833836987021186</v>
+        <v>0.003211688465894084</v>
       </c>
     </row>
     <row r="3">
@@ -8575,10 +8575,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32.94590756179707</v>
+        <v>28.43997803077366</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6112535526005702</v>
+        <v>0.6621839092362281</v>
       </c>
     </row>
     <row r="4">
@@ -8588,10 +8588,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.6155686101803</v>
+        <v>176.770619848551</v>
       </c>
       <c r="C4" t="n">
-        <v>1.562543775678454e-05</v>
+        <v>2.034555710568395e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8601,10 +8601,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07300732967202049</v>
+        <v>-0.06384274989637911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02414210553846106</v>
+        <v>0.02872283982056564</v>
       </c>
     </row>
     <row r="6">
@@ -8614,10 +8614,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.360640791658926e-05</v>
+        <v>9.28323601001875e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01948952238901805</v>
+        <v>0.02120216484272153</v>
       </c>
     </row>
     <row r="7">
@@ -8627,10 +8627,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.07954821741443</v>
+        <v>-18.07436245872175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05102476624620554</v>
+        <v>0.05280918262612494</v>
       </c>
     </row>
     <row r="8">
@@ -8640,10 +8640,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.59719502991154</v>
+        <v>-10.32085077683596</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2092216496660464</v>
+        <v>0.2237974811490859</v>
       </c>
     </row>
     <row r="9">
@@ -8653,10 +8653,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-594.1426641604189</v>
+        <v>-607.3492068742061</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3054761628666218</v>
+        <v>0.2990336714108855</v>
       </c>
     </row>
     <row r="10">
@@ -8666,10 +8666,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>733.6991268043573</v>
+        <v>662.7227423585387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3581226790129538</v>
+        <v>0.4033206005231058</v>
       </c>
     </row>
     <row r="11">
@@ -8679,10 +8679,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1424.809558721947</v>
+        <v>1599.388628151324</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5548229793273898</v>
+        <v>0.5076600301971719</v>
       </c>
     </row>
     <row r="12">
@@ -8692,10 +8692,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-32.17112214136024</v>
+        <v>-31.722463063776</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1941130473173096</v>
+        <v>0.2045617921595893</v>
       </c>
     </row>
   </sheetData>
@@ -8741,10 +8741,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4789.453814979217</v>
+        <v>4905.464948200035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03516475356735205</v>
+        <v>0.03205704270607432</v>
       </c>
     </row>
     <row r="3">
@@ -8754,10 +8754,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.64971391547289</v>
+        <v>28.55609838144323</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6158947034317271</v>
+        <v>0.6933719708481999</v>
       </c>
     </row>
     <row r="4">
@@ -8767,10 +8767,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.4915432793991</v>
+        <v>210.1591549699424</v>
       </c>
       <c r="C4" t="n">
-        <v>9.914709197956661e-06</v>
+        <v>1.16545928288758e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8780,10 +8780,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06298099607316887</v>
+        <v>-0.05762426452452522</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04306313427817973</v>
+        <v>0.03977028406058537</v>
       </c>
     </row>
     <row r="6">
@@ -8793,10 +8793,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.845797876912436e-05</v>
+        <v>5.810052630924426e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.126737781799151</v>
+        <v>0.1262024398112759</v>
       </c>
     </row>
     <row r="7">
@@ -8806,10 +8806,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.07395295540635</v>
+        <v>-13.19841275517736</v>
       </c>
       <c r="C7" t="n">
-        <v>0.198103985570016</v>
+        <v>0.1925815664743709</v>
       </c>
     </row>
     <row r="8">
@@ -8819,10 +8819,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.653910602088047</v>
+        <v>2.870996915494359</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7803941188392804</v>
+        <v>0.7615845135742807</v>
       </c>
     </row>
     <row r="9">
@@ -8832,10 +8832,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-297.1790520822257</v>
+        <v>-317.0529081028657</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6179466229139392</v>
+        <v>0.5938842742651322</v>
       </c>
     </row>
     <row r="10">
@@ -8845,10 +8845,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1256.58329644708</v>
+        <v>1248.775007189185</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1191602044128258</v>
+        <v>0.1182857293671497</v>
       </c>
     </row>
     <row r="11">
@@ -8858,10 +8858,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>4529.811560549027</v>
+        <v>4526.293893786871</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1014115706584297</v>
+        <v>0.09923124305108524</v>
       </c>
     </row>
     <row r="12">
@@ -8871,10 +8871,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-55.67078020714115</v>
+        <v>-57.77914970060795</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1338784064576122</v>
+        <v>0.1213097789240678</v>
       </c>
     </row>
   </sheetData>
@@ -8920,10 +8920,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3041.822692919501</v>
+        <v>3073.746713307934</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04538688481372968</v>
+        <v>0.04363994351476134</v>
       </c>
     </row>
     <row r="3">
@@ -8933,10 +8933,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.59450017088066</v>
+        <v>40.73757098148852</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3479804856096819</v>
+        <v>0.3463761098869244</v>
       </c>
     </row>
     <row r="4">
@@ -8946,10 +8946,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.4656440334092</v>
+        <v>165.3664407117701</v>
       </c>
       <c r="C4" t="n">
-        <v>4.098389968124126e-05</v>
+        <v>4.291621386591729e-05</v>
       </c>
     </row>
     <row r="5">
@@ -8959,10 +8959,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.00228066234669172</v>
+        <v>0.0002951296119751978</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9275671815898462</v>
+        <v>0.98952548231746</v>
       </c>
     </row>
     <row r="6">
@@ -8972,10 +8972,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.796296823914854e-05</v>
+        <v>5.842143788283633e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01761917967032969</v>
+        <v>0.01618191842016947</v>
       </c>
     </row>
     <row r="7">
@@ -8985,10 +8985,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.78476534676647</v>
+        <v>-25.69792945483192</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001015622640543454</v>
+        <v>0.001042079944882152</v>
       </c>
     </row>
     <row r="8">
@@ -8998,10 +8998,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-8.605798551799062</v>
+        <v>-8.615757172814718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2433735350977608</v>
+        <v>0.242912930060744</v>
       </c>
     </row>
     <row r="9">
@@ -9011,10 +9011,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-728.6639093735967</v>
+        <v>-731.1961614454003</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1362632934966578</v>
+        <v>0.1351335644592903</v>
       </c>
     </row>
     <row r="10">
@@ -9024,10 +9024,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>248.3432131765787</v>
+        <v>274.7061407233239</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6975471159505939</v>
+        <v>0.6672077261844496</v>
       </c>
     </row>
     <row r="11">
@@ -9037,10 +9037,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6047.538445526094</v>
+        <v>6007.601929056891</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006431443262987385</v>
+        <v>0.006487322057681475</v>
       </c>
     </row>
     <row r="12">
@@ -9050,10 +9050,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>28.12686934006323</v>
+        <v>27.49877354334279</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1331295651553226</v>
+        <v>0.1421047609485635</v>
       </c>
     </row>
   </sheetData>
@@ -9099,10 +9099,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5671.930378957966</v>
+        <v>5649.746791752532</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01593859241293123</v>
+        <v>0.01604861851793174</v>
       </c>
     </row>
     <row r="3">
@@ -9112,10 +9112,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.11940801048087</v>
+        <v>39.52610677962195</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4980337447429855</v>
+        <v>0.557641206455983</v>
       </c>
     </row>
     <row r="4">
@@ -9125,10 +9125,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.8869804911676</v>
+        <v>188.6834191567573</v>
       </c>
       <c r="C4" t="n">
-        <v>4.11560990210237e-05</v>
+        <v>4.847234216788577e-05</v>
       </c>
     </row>
     <row r="5">
@@ -9138,10 +9138,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07934360976508628</v>
+        <v>-0.07133156630628748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02489772202469178</v>
+        <v>0.02466553087307777</v>
       </c>
     </row>
     <row r="6">
@@ -9151,10 +9151,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.539674901909434e-05</v>
+        <v>5.204670472313091e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1618528134668819</v>
+        <v>0.1833843719314361</v>
       </c>
     </row>
     <row r="7">
@@ -9164,10 +9164,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.067226367557822</v>
+        <v>-6.68857516985905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4973069883836158</v>
+        <v>0.520538850053192</v>
       </c>
     </row>
     <row r="8">
@@ -9177,10 +9177,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-9.547918254402063</v>
+        <v>-9.438117508051391</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3479958964836248</v>
+        <v>0.3527214598358805</v>
       </c>
     </row>
     <row r="9">
@@ -9190,10 +9190,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-455.2731773322002</v>
+        <v>-447.1695156610322</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5360264107529606</v>
+        <v>0.5429167521100244</v>
       </c>
     </row>
     <row r="10">
@@ -9203,10 +9203,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>593.1124712688643</v>
+        <v>559.6060879613251</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5219479404614924</v>
+        <v>0.5426887469070047</v>
       </c>
     </row>
     <row r="11">
@@ -9216,10 +9216,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2320.533332058621</v>
+        <v>2424.213221101694</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3897596675827509</v>
+        <v>0.3653070069746692</v>
       </c>
     </row>
     <row r="12">
@@ -9229,10 +9229,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-29.98421966486876</v>
+        <v>-29.48274890865159</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2811074191519837</v>
+        <v>0.2870052823379047</v>
       </c>
     </row>
   </sheetData>
@@ -9278,10 +9278,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6036.805801126859</v>
+        <v>6136.298598537927</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01293995194234212</v>
+        <v>0.01187146844480351</v>
       </c>
     </row>
     <row r="3">
@@ -9291,10 +9291,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.22464809281627</v>
+        <v>39.32604487584189</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5289829657680825</v>
+        <v>0.5862458850566041</v>
       </c>
     </row>
     <row r="4">
@@ -9304,10 +9304,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.2587610522775</v>
+        <v>189.8653464098272</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002806838137006834</v>
+        <v>0.0003186354751236931</v>
       </c>
     </row>
     <row r="5">
@@ -9317,10 +9317,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08136408905334294</v>
+        <v>-0.07519384718676675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04718248613598098</v>
+        <v>0.042962811811463</v>
       </c>
     </row>
     <row r="6">
@@ -9330,10 +9330,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.758753173263992e-05</v>
+        <v>6.742384599863572e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05696133964884639</v>
+        <v>0.05549537047247707</v>
       </c>
     </row>
     <row r="7">
@@ -9343,10 +9343,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.81718876116575</v>
+        <v>-11.8432796408007</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2512514248747618</v>
+        <v>0.2481432085113565</v>
       </c>
     </row>
     <row r="8">
@@ -9356,10 +9356,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-12.46198154409929</v>
+        <v>-12.4587075075256</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2408540810835981</v>
+        <v>0.2383432693509628</v>
       </c>
     </row>
     <row r="9">
@@ -9369,10 +9369,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-694.6501060245996</v>
+        <v>-699.0334619371019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2709039522005035</v>
+        <v>0.2658027274535018</v>
       </c>
     </row>
     <row r="10">
@@ -9382,10 +9382,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>913.7097210444444</v>
+        <v>940.3004368680949</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3506171714474815</v>
+        <v>0.3354079737444438</v>
       </c>
     </row>
     <row r="11">
@@ -9395,10 +9395,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1850.486805093451</v>
+        <v>1780.235774692832</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5154637926114584</v>
+        <v>0.5295248466548912</v>
       </c>
     </row>
     <row r="12">
@@ -9408,10 +9408,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-27.62337329889689</v>
+        <v>-28.95737681641654</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2783198173927896</v>
+        <v>0.2582531296875211</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ48117261" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ48245773" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ48341805" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ48439318" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ48538123" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ48634147" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ48731682" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ48827488" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ48922777" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ49022288" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ49120805" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ49219320" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ49315217" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ49410697" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ49505093" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ49600610" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ49695128" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ49798641" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ49893215" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ49989595" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ50085900" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ50182427" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ50276949" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ50372471" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ50467042" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ50563558" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ50658087" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ50751614" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ50845125" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ50940631" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ51035308" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ51125867" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ51223383" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ51319977" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ51421495" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ51518003" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ51612087" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ51707092" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ51801605" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ51897462" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ51992970" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ52113878" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ52207125" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ52299740" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ52395255" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ52489768" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ52583487" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ52680518" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ52776558" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ52874136" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ33713597" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ33846125" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ33942149" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ34055853" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ34171289" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ34295567" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ34398761" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ34510077" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34610822" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ34747481" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ34891628" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ35051045" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ35166246" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ35285160" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ35437407" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ35584053" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ35738738" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ35905000" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ36057761" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ36238217" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ36410396" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ36560547" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ36683330" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ36802019" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ36911382" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ37047879" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ37161205" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ37276378" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ37375805" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ37484721" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ37578762" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ37691596" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ37807270" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ37920641" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ38036671" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ38149725" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ38257186" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ38370844" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ38478880" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ38601168" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ38708701" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ38811686" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ38914628" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ39011407" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ39114898" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ39217492" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ39350739" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ39507297" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ39623038" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ39720723" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,140 +507,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5209.347810936722</v>
+        <v>3046.153727353521</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01276111897133777</v>
+        <v>0.0001213353846450926</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.41648740797507</v>
+        <v>179.8348618487261</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3113664849086426</v>
+        <v>5.9462016708151e-05</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.6188955794806</v>
+        <v>0.01873485346854481</v>
       </c>
       <c r="C4" t="n">
-        <v>1.601650619075159e-05</v>
+        <v>0.5919732512372041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04550422695010788</v>
+        <v>7799.449497843862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08984780716869917</v>
+        <v>0.004304766639763992</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.322642409036391e-05</v>
+        <v>-1001.829614481398</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01055345958370244</v>
+        <v>0.2544036424186589</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.15624473224556</v>
+        <v>39.12054815078926</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02411915164538032</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-15.40817795097346</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.09719887484526435</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-282.1289732850432</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6688129658971114</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>701.3002457599523</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3920327314661748</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3797.284959047052</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.08586193356709769</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-13.19439606385401</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.596537385675201</v>
+        <v>0.5651985753437179</v>
       </c>
     </row>
   </sheetData>
@@ -654,7 +589,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -686,140 +621,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5629.269493666779</v>
+        <v>1686.407234298368</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009467792643568087</v>
+        <v>0.1071593215692863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-4.531035196648531</v>
+        <v>189.9770483347843</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9434170448779811</v>
+        <v>0.007891382650200649</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>174.5815730474679</v>
+        <v>-0.06942124464775778</v>
       </c>
       <c r="C4" t="n">
-        <v>5.795137854239748e-05</v>
+        <v>0.09272502524347834</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08450894608157666</v>
+        <v>13412.59966504342</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01657994023081972</v>
+        <v>0.0005911301959496819</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.684251563800724e-05</v>
+        <v>1657.315129253839</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1791321540173008</v>
+        <v>0.1896044551955035</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.0745393113643</v>
+        <v>-39.84662935860695</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2418690638755532</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.756148044159872</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5757190862392032</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-777.4035712006516</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3847202870694376</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1217.629016873361</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2170966975141971</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2388.23041849418</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3372121796263379</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-30.75835018938305</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2357642974593975</v>
+        <v>0.6990816650422125</v>
       </c>
     </row>
   </sheetData>
@@ -833,7 +703,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -865,140 +735,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6337.449290314002</v>
+        <v>2154.430942014073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003224078098081882</v>
+        <v>0.02913054415794514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>16.54466967596926</v>
+        <v>167.5848894680714</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7981027554147144</v>
+        <v>0.007037956391216001</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.7374401752544</v>
+        <v>-0.1096359315728593</v>
       </c>
       <c r="C4" t="n">
-        <v>1.769239161287291e-05</v>
+        <v>0.01317167262579756</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04435861680995418</v>
+        <v>11814.17953227257</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2279960945794333</v>
+        <v>0.001765632925335655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.836689251341798e-05</v>
+        <v>1801.594927440461</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03982278984942778</v>
+        <v>0.1251140018341218</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.14737394612598</v>
+        <v>83.15361946732003</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1264380106534307</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.27266247780925</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2028400108049245</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-695.1766943073858</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3991559369586943</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>286.2864350843756</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7879609949815356</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>925.8026499148546</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7213400417837483</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.86402624245783</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2571683615521664</v>
+        <v>0.4506080535953529</v>
       </c>
     </row>
   </sheetData>
@@ -1012,7 +817,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1044,140 +849,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4384.012153276275</v>
+        <v>3259.43023149678</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08138831857710446</v>
+        <v>0.0001798060454010421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>43.83937751025292</v>
+        <v>154.7086409176667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5044557244424983</v>
+        <v>0.001727552980276569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248.7702335173697</v>
+        <v>-0.01305855912692939</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003987124859119448</v>
+        <v>0.7670408388719789</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06081526993412212</v>
+        <v>7125.057438195365</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08297261370872648</v>
+        <v>0.02010244593981208</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.899138944553669e-05</v>
+        <v>-123.0105896380221</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04007251252156018</v>
+        <v>0.9042401711808425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.92343152767531</v>
+        <v>12.83499143092666</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2734650805157759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.68731399763918</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5163035175643236</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-518.1025888524821</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4596226554059419</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>969.3350370063868</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.272278852009493</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3176.491399653492</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.233713522374805</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.98986135094233</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5331584042478072</v>
+        <v>0.8746514019675287</v>
       </c>
     </row>
   </sheetData>
@@ -1191,7 +931,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1223,140 +963,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1763.594620564418</v>
+        <v>2504.730798957498</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2779939954318347</v>
+        <v>0.01574534486284053</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.3357461602015</v>
+        <v>169.1318910663511</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4219469305280977</v>
+        <v>0.00541826608789269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.8958263907416</v>
+        <v>-0.07318748275103978</v>
       </c>
       <c r="C4" t="n">
-        <v>1.776922394747296e-05</v>
+        <v>0.1170890402453083</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03826453763817687</v>
+        <v>11775.70603202082</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08906313370508061</v>
+        <v>0.002494563175425019</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.883208674196339e-05</v>
+        <v>698.5508539636949</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1623023199681372</v>
+        <v>0.601524237705666</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.75188949656177</v>
+        <v>0.1539647917518181</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1693381032150309</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.344714661143954</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.621464042866631</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-517.0897260682004</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3203722088296723</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>912.3154655924263</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1744888482899511</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5936.433754448437</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.005014460137765355</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>11.50467404038477</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5864062756062987</v>
+        <v>0.9987120554634047</v>
       </c>
     </row>
   </sheetData>
@@ -1370,7 +1045,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1402,140 +1077,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6357.67584611703</v>
+        <v>2383.431438896089</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006915188125696642</v>
+        <v>0.0235159668406349</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14.4468862915204</v>
+        <v>139.5725915637138</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8310552662036986</v>
+        <v>0.01507677222738432</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.218172060473</v>
+        <v>-0.0826748649003515</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001185453366289282</v>
+        <v>0.03660107224373897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05637601400705008</v>
+        <v>11741.00949749789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05497864151182039</v>
+        <v>0.004999252341683672</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.768363563099098e-05</v>
+        <v>1264.585349012315</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2909181849268625</v>
+        <v>0.2705539910084419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.06872780470016</v>
+        <v>60.68159692169769</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08376518537748273</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.210937523832015</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4713918587106661</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-557.680205468788</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3586186800611911</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1097.244511573007</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2126505367162325</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4610.630624405068</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1100915230921017</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-53.25433881283787</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1060392895571885</v>
+        <v>0.5568668382734695</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1159,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1581,140 +1191,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5392.318294183213</v>
+        <v>2534.30008634093</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01468335722377415</v>
+        <v>0.01913234829328164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.840668238395494</v>
+        <v>160.5921961297972</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9788432655838832</v>
+        <v>0.03407248089035478</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.3046300054879</v>
+        <v>-0.0959809921940909</v>
       </c>
       <c r="C4" t="n">
-        <v>3.453688350383239e-05</v>
+        <v>0.03683698110821366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07416525645575722</v>
+        <v>9798.042234280394</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03920339132722071</v>
+        <v>0.007198275643321382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.087087496439969e-05</v>
+        <v>2037.283757224398</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2892849570321128</v>
+        <v>0.1557696811820306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.72492298007721</v>
+        <v>36.28843709635811</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5962891685059342</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.995690505146246</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4106404174666156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-313.36758706829</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6333430884803666</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>703.1422403732313</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4830309861292074</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2227.693231185018</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.419671684797728</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-23.83643133845268</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3537669272867426</v>
+        <v>0.7362806078404037</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1273,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1760,140 +1305,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3795.116305719445</v>
+        <v>1891.059723870543</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01927139041282223</v>
+        <v>0.06823116574383731</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38.8782548854295</v>
+        <v>172.0636087351274</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4010487123243837</v>
+        <v>0.006409083326869213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>102.1633812184217</v>
+        <v>-0.06942198581368569</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001389235508350542</v>
+        <v>0.1137934630816011</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02501455449416029</v>
+        <v>12336.55784778993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3375234510406975</v>
+        <v>0.001197385590807259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.372862576125937e-05</v>
+        <v>1320.711889718671</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5728387026183519</v>
+        <v>0.2921427830665323</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-21.34454893466005</v>
+        <v>68.7170607041906</v>
       </c>
       <c r="C7" t="n">
-        <v>0.002805323905306645</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.112509734504513</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4108097791342105</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1294.535556484403</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01079360687731008</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100.1167830454947</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8765472641768637</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7423.86102583677</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.001066831506951314</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.5890306761674</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3626579259269216</v>
+        <v>0.5290660592414502</v>
       </c>
     </row>
   </sheetData>
@@ -1907,7 +1387,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1939,140 +1419,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4784.652359117459</v>
+        <v>2434.881232124987</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04117961150011124</v>
+        <v>0.01336036662586279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.53891444268493</v>
+        <v>153.7530167744798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5213689721139299</v>
+        <v>0.006578063340540076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.9982622576358</v>
+        <v>-0.1179154070688011</v>
       </c>
       <c r="C4" t="n">
-        <v>3.072320679184494e-06</v>
+        <v>0.01058874420086211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01759290214289362</v>
+        <v>11326.3087943722</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5442377006313686</v>
+        <v>0.003015936381838091</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1.958135789562927e-05</v>
+        <v>1722.432195551199</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5617632646953651</v>
+        <v>0.1777463057845041</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.944383046877633</v>
+        <v>65.56251888852455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4511410970076262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.527079815415895</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.624213764665684</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>127.2225259434626</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8598596847249578</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>766.8207824446881</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4419216655586791</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5335.497771591673</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06823948987485723</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-49.98693753786965</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1352333304938294</v>
+        <v>0.5316241971990363</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +1501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,140 +1533,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4652.370270413148</v>
+        <v>4462.842088495265</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01855014886546453</v>
+        <v>7.052881013623831e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>44.13508751425115</v>
+        <v>178.114046336806</v>
       </c>
       <c r="C3" t="n">
-        <v>0.483851953203318</v>
+        <v>0.0004911996034895155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.5508662980856</v>
+        <v>0.01411729446070102</v>
       </c>
       <c r="C4" t="n">
-        <v>6.512758916509407e-06</v>
+        <v>0.7022153017769519</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05397528938415341</v>
+        <v>96.07473750131976</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04204516818846433</v>
+        <v>0.9811810864504749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.695475401111146e-05</v>
+        <v>-536.7652439764624</v>
       </c>
       <c r="C6" t="n">
-        <v>0.007824550333651059</v>
+        <v>0.5852573707323603</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.54209912286726</v>
+        <v>40.88743834058869</v>
       </c>
       <c r="C7" t="n">
-        <v>0.117265828814121</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.632839114812061</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5201865590111086</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-359.78020432105</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.547509549712643</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>624.0832677328331</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3942479064087802</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2536.491539274801</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2632795256706266</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-18.61556430231231</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4249819144725664</v>
+        <v>0.616330397764016</v>
       </c>
     </row>
   </sheetData>
@@ -2265,7 +1615,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,140 +1647,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7074.788159810998</v>
+        <v>3043.604535848845</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007454859558086918</v>
+        <v>0.001483584953533967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>48.97255618712104</v>
+        <v>112.2010907821584</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4821460553725539</v>
+        <v>0.07246795978530879</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.112695851075</v>
+        <v>-0.09406855819731771</v>
       </c>
       <c r="C4" t="n">
-        <v>7.607695114784513e-05</v>
+        <v>0.01341709238182537</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08173460427556892</v>
+        <v>10426.27476532277</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02139242461442664</v>
+        <v>0.001043580582034353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.781736409369527e-05</v>
+        <v>1261.71338656992</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07387448010127451</v>
+        <v>0.2668939928073558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.907777767405619</v>
+        <v>-34.42302030994847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.36969302542231</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.47446205816915</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2365966420641033</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-926.0915052280047</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2354935403095868</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>740.9160366505362</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4345276843659309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>882.3269614768869</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7622648102754976</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-45.41515125506939</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.144827682450221</v>
+        <v>0.70364554098393</v>
       </c>
     </row>
   </sheetData>
@@ -2444,7 +1729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,140 +1761,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4115.64155359601</v>
+        <v>2400.536632210282</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02292024327266655</v>
+        <v>0.04048285913055517</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-38.86805286334322</v>
+        <v>162.4245011515079</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5723159282075776</v>
+        <v>0.067275042124019</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>131.2698676021712</v>
+        <v>-0.1010896206132901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000377619797576247</v>
+        <v>0.0265388616941221</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01965186235506719</v>
+        <v>9662.057492929147</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4924750607259627</v>
+        <v>0.009940128360615183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.108722266323912e-05</v>
+        <v>2241.824948298753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5402652387248865</v>
+        <v>0.1053193526426537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.59202751671247</v>
+        <v>82.92400071794378</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02556779360540066</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.567086513289794</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2999917702932399</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1655.688254282385</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.01164642662777819</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-276.1460764949315</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7272809881461604</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6743.54802718582</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01461231518313278</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>13.69324613448391</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5932905501190313</v>
+        <v>0.4955693907211061</v>
       </c>
     </row>
   </sheetData>
@@ -2623,7 +1843,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2655,140 +1875,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5097.214458148539</v>
+        <v>2766.963847765004</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01750565551130316</v>
+        <v>0.005640112561561676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25.41571278974342</v>
+        <v>143.6200964711144</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7173536314418674</v>
+        <v>0.01895281494666403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.5824111830108</v>
+        <v>-0.09884754898074682</v>
       </c>
       <c r="C4" t="n">
-        <v>7.093078702254256e-05</v>
+        <v>0.04443270604178661</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07140221136765956</v>
+        <v>10744.80144020196</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02667814250674105</v>
+        <v>0.003301944897789628</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.221347557614317e-05</v>
+        <v>1394.448025786563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1332799664838068</v>
+        <v>0.2685630252248841</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.04228422743775</v>
+        <v>-7.778190958328764</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1809327643168333</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.506226938944394</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3359165002549104</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-452.2372888803777</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4718459813804795</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1434.406346471264</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1497416389190985</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2812.714601847896</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2613992532470728</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-19.87801801263348</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4505629620733447</v>
+        <v>0.9362160288673437</v>
       </c>
     </row>
   </sheetData>
@@ -2802,7 +1957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2834,140 +1989,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5319.945862148677</v>
+        <v>2105.36426687634</v>
       </c>
       <c r="C2" t="n">
-        <v>0.009627586843285173</v>
+        <v>0.03204902416403395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1.044137883451555</v>
+        <v>172.5981106692456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9859400477826967</v>
+        <v>0.003829398717081866</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.5001750993293</v>
+        <v>-0.0884118209336783</v>
       </c>
       <c r="C4" t="n">
-        <v>4.194712982970022e-06</v>
+        <v>0.03126289308213943</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05922705632751141</v>
+        <v>11699.5334563191</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03068449947837096</v>
+        <v>0.001549735705284635</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.042908742620156e-05</v>
+        <v>1669.925107208569</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4078820774926272</v>
+        <v>0.1573637951603069</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.03840119675635</v>
+        <v>47.75785062871967</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2674949771727186</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>3.090129868254511</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7388183682205329</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-350.1337160102726</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5962043166421698</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1445.632564496012</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.07766419647694328</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5074.282682775652</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.05047994768321106</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-69.91090716637184</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03151448529526954</v>
+        <v>0.6244693908098944</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2071,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3013,140 +2103,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3260.676533025293</v>
+        <v>3030.729099433493</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07968457738289424</v>
+        <v>0.0009212183480625458</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.19109109594621</v>
+        <v>208.4377733983711</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2925339483734432</v>
+        <v>0.0008591892168307851</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>268.7576210293183</v>
+        <v>0.03557903306272286</v>
       </c>
       <c r="C4" t="n">
-        <v>8.330376416488713e-05</v>
+        <v>0.4424399803810946</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04032568737922498</v>
+        <v>6005.937047839901</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1259918353221734</v>
+        <v>0.04322081415712938</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.558492379787404e-05</v>
+        <v>-612.4834580474244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03661064498572866</v>
+        <v>0.5783674655252483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.289972824195146</v>
+        <v>59.74902795696346</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7516108956616245</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.573490906515701</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4038069504101371</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-257.7264096204058</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6559674572789846</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>210.8125311448784</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8069755938877744</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3649.760617980026</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1029007781732262</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.2388183157530648</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9914013633921884</v>
+        <v>0.4889219880756486</v>
       </c>
     </row>
   </sheetData>
@@ -3160,7 +2185,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3192,140 +2217,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6062.248172917438</v>
+        <v>3022.122597283697</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02000923127113502</v>
+        <v>0.001710073836121495</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>8.395573728463319</v>
+        <v>132.7434517649551</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9090780335892437</v>
+        <v>0.01833751753521539</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.6665312578404</v>
+        <v>-0.1346782273958692</v>
       </c>
       <c r="C4" t="n">
-        <v>9.677323931128843e-05</v>
+        <v>0.005551527522568489</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08151501491154339</v>
+        <v>7460.778326733354</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03779698686518072</v>
+        <v>0.03416477183684617</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.854272106039493e-05</v>
+        <v>3075.666335060821</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07959362429237908</v>
+        <v>0.03086140664664901</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.898634379296</v>
+        <v>69.76315928453056</v>
       </c>
       <c r="C7" t="n">
-        <v>0.124644775501071</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.427314485089873</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4281331394886659</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-483.7512730548598</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5598150564189319</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1021.82123692137</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3337737260119525</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2072.326253549951</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4668448918570085</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-29.66903528030659</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3045150703827574</v>
+        <v>0.4744797354172952</v>
       </c>
     </row>
   </sheetData>
@@ -3339,7 +2299,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3371,140 +2331,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5449.106043624102</v>
+        <v>2730.556080662853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004037914263565261</v>
+        <v>0.005384617244216744</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.788881408301449</v>
+        <v>128.4296405375935</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8740834307997523</v>
+        <v>0.03353419052425351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>126.6082940530006</v>
+        <v>-0.07161619070956901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.000445180134305451</v>
+        <v>0.0718970846499366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06079194844202637</v>
+        <v>11559.43418777789</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08061909079082628</v>
+        <v>0.0008523525741216631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.969586583637077e-05</v>
+        <v>801.8581603455004</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1427026843257181</v>
+        <v>0.4847155171237844</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.86448264542224</v>
+        <v>-17.05049199784469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0080565130389668</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-11.10657708248392</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1526511576775237</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1205.584349138036</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.02880485874400458</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>841.3121004336581</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3466927116779246</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4430.381986432598</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1007332504195783</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.639343016490542</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8328050944229076</v>
+        <v>0.8640051067264665</v>
       </c>
     </row>
   </sheetData>
@@ -3518,7 +2413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3550,140 +2445,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4564.027025031261</v>
+        <v>2114.661689400237</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03368076868322456</v>
+        <v>0.04700410869531113</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>67.6326818191327</v>
+        <v>155.8881913611927</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3608193141798839</v>
+        <v>0.00507675080919671</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>194.6693860296658</v>
+        <v>-0.09431625081135425</v>
       </c>
       <c r="C4" t="n">
-        <v>5.562040686158437e-05</v>
+        <v>0.02820477480755805</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05868086184926476</v>
+        <v>13691.36343056695</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0474754652442506</v>
+        <v>0.002730245380104214</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.07168145924286e-05</v>
+        <v>956.6267875806516</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04164055950456357</v>
+        <v>0.4218400573178331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.14018422060049</v>
+        <v>34.84286259465669</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1839547861859908</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.646178149989623</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3306986030109529</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-386.4067147835935</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5402406405983227</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>881.5628327522484</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2985879452519332</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3020.88073850303</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2205276426960268</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-11.20373670487439</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.6711399143773098</v>
+        <v>0.7290757046649203</v>
       </c>
     </row>
   </sheetData>
@@ -3697,7 +2527,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3729,140 +2559,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4777.166606296352</v>
+        <v>2841.696702884371</v>
       </c>
       <c r="C2" t="n">
-        <v>0.045234344261474</v>
+        <v>0.003926165656378993</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9.801114220925527</v>
+        <v>127.5334269589267</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8801583253297641</v>
+        <v>0.03670914431726498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.2702452887895</v>
+        <v>-0.08927781591036532</v>
       </c>
       <c r="C4" t="n">
-        <v>3.856468819261721e-05</v>
+        <v>0.0246907001165742</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05615008061743412</v>
+        <v>10072.84350125235</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06111112786480133</v>
+        <v>0.003531282066556332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.458354694870893e-05</v>
+        <v>1342.26910884366</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1977964481280826</v>
+        <v>0.2319312415526973</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.809294957178267</v>
+        <v>55.36113065262191</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8802547453473034</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.801931099515627</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4118565206106942</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-241.1435828916742</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7849778018844027</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-30.63801724731616</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9747201386862643</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2785.962923877131</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2603644847494199</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-18.94395792834927</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4583726692121618</v>
+        <v>0.5970060511070843</v>
       </c>
     </row>
   </sheetData>
@@ -3876,7 +2641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3908,140 +2673,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3218.113468238278</v>
+        <v>2328.361490501892</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1361677373932866</v>
+        <v>0.02983320613768626</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.95649197949069</v>
+        <v>162.9296177672929</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6921693553747233</v>
+        <v>0.008656117472012507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>173.0238567342026</v>
+        <v>-0.1325883676533222</v>
       </c>
       <c r="C4" t="n">
-        <v>0.002001883502966267</v>
+        <v>0.01606984390354447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0637382637767385</v>
+        <v>11413.19771692718</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03251957845534646</v>
+        <v>0.005232592298146543</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.683467023056022e-05</v>
+        <v>2067.201315826085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.118850381488006</v>
+        <v>0.1452197443352382</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.399356968345614</v>
+        <v>76.2468947178524</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5677867537371759</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7.051029545371783</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5387486061811992</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-240.4764574110832</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6889976342557784</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1350.551530245006</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1353059660207307</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3318.064859741934</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1689625711719797</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-28.03589580952944</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2597868739719532</v>
+        <v>0.4973331412870859</v>
       </c>
     </row>
   </sheetData>
@@ -4055,7 +2755,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4087,140 +2787,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4877.065783379898</v>
+        <v>2585.602210277826</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006435603867344312</v>
+        <v>0.01280593078047603</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.7534076304623341</v>
+        <v>134.0472433057369</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9878776428039926</v>
+        <v>0.07267807417675737</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.5102950733451</v>
+        <v>-0.08180328261652622</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002652535808579762</v>
+        <v>0.05727271693713561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0553549887521736</v>
+        <v>11057.4936924855</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04409543381425995</v>
+        <v>0.00189838888269068</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.714818475221125e-05</v>
+        <v>1172.148761148349</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1181751063064969</v>
+        <v>0.3664617827105864</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.06320104182986</v>
+        <v>15.38184017149322</v>
       </c>
       <c r="C7" t="n">
-        <v>0.005800965790894877</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.116042095020141</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2820385138636382</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1162.066670678422</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.03779970827074982</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>319.1508132040299</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6216288457254424</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5473.07673852185</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01761726755582329</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-0.1529560015436573</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9945307554260669</v>
+        <v>0.8849583419986264</v>
       </c>
     </row>
   </sheetData>
@@ -4234,7 +2869,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4266,140 +2901,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4478.596141720785</v>
+        <v>4130.051425435527</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02996726889882548</v>
+        <v>3.916475833345191e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.32726406540519</v>
+        <v>175.5069834944861</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2378059564373345</v>
+        <v>0.0001373873794490592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.1593243227628</v>
+        <v>-0.002181226182188661</v>
       </c>
       <c r="C4" t="n">
-        <v>1.325264646029566e-05</v>
+        <v>0.9477864096060488</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04989418844776089</v>
+        <v>2689.657861269234</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1098082524344256</v>
+        <v>0.4322710578790481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.715859187925182e-05</v>
+        <v>-345.9627278276751</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01276516342286278</v>
+        <v>0.6872104730437494</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.96827926781236</v>
+        <v>2.358505846986986</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08761869901951083</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.477866592957355</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2851286939460396</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-435.1557902160102</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4889821396276707</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>839.2729881031364</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3206682877333895</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2124.798615800968</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3768896389568649</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-4.133953101073828</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.864349410473361</v>
+        <v>0.9712425802498266</v>
       </c>
     </row>
   </sheetData>
@@ -4413,7 +2983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4445,140 +3015,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5366.558148976312</v>
+        <v>3120.017879710838</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03525089320953366</v>
+        <v>0.001502483178037338</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.22604568409372</v>
+        <v>128.3592066200969</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7638169034240639</v>
+        <v>0.02381540097126079</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>212.2563782757047</v>
+        <v>-0.1072642681551645</v>
       </c>
       <c r="C4" t="n">
-        <v>3.679790650831819e-05</v>
+        <v>0.02183675842543348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05649740243802592</v>
+        <v>10201.53563566229</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008521123107679</v>
+        <v>0.002914671661069439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.065561327056782e-05</v>
+        <v>1101.380714899239</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2597127669239693</v>
+        <v>0.330075763343745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.39129196383671</v>
+        <v>-11.70076891658918</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2608221190864319</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-4.444657511277899</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6833361385618704</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-581.0003380641674</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.375575954758498</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>906.7188078223708</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3160138773508009</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4691.439873261619</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1014466965237024</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-44.81363410240201</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1848153931555733</v>
+        <v>0.9060130318755326</v>
       </c>
     </row>
   </sheetData>
@@ -4592,7 +3097,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4624,140 +3129,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7363.948737220602</v>
+        <v>2335.863062164698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002184912507561132</v>
+        <v>0.01352277761855838</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.89515466445022</v>
+        <v>152.4825404887375</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8007069510447031</v>
+        <v>0.008156751461551651</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1056535667566</v>
+        <v>-0.08128132332227356</v>
       </c>
       <c r="C4" t="n">
-        <v>1.176794709786499e-05</v>
+        <v>0.0641251774530897</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05877092407141915</v>
+        <v>11499.99501081842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08225767641296741</v>
+        <v>0.002216151722095693</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.318533698690733e-05</v>
+        <v>1344.97408821538</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4857208195322378</v>
+        <v>0.299594398254114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.67597765864325</v>
+        <v>32.4131646566774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1509788704878866</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.499513411864932</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5509072677554037</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-476.6318983729476</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4308943078521449</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1254.488031716082</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2168683210807124</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2568.70692694321</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4102402123792592</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-77.22266869944339</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.02493209567230981</v>
+        <v>0.7547428525853686</v>
       </c>
     </row>
   </sheetData>
@@ -4771,7 +3211,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4803,140 +3243,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2019.830468976959</v>
+        <v>2587.302453675117</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3238143212688772</v>
+        <v>0.01039041394428554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.32256755060024</v>
+        <v>136.6488256012988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1440699315630907</v>
+        <v>0.02700569475333084</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>270.1370228976937</v>
+        <v>-0.08970789938843077</v>
       </c>
       <c r="C4" t="n">
-        <v>9.369685417744786e-06</v>
+        <v>0.05697504645658205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05176699121500096</v>
+        <v>10422.1385798338</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0527227343114219</v>
+        <v>0.005696113327067447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.049425505340173e-05</v>
+        <v>1621.886555914617</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07902206169990347</v>
+        <v>0.2264679626008455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.4740205225533387</v>
+        <v>11.72985038920456</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9603047872982897</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1.572953667603592</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8701661848734582</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-314.1413496531559</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5941113210220244</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1143.819478689106</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1646251126532752</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4173.262355569126</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.06854650086703828</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-7.072297456774209</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.7693979530113255</v>
+        <v>0.9182358677425202</v>
       </c>
     </row>
   </sheetData>
@@ -4950,7 +3325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4982,140 +3357,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>7120.328776036125</v>
+        <v>2491.071795983035</v>
       </c>
       <c r="C2" t="n">
-        <v>0.002968085667505194</v>
+        <v>0.007771659184934832</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.36185992524014</v>
+        <v>155.2619018538771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7729533765648902</v>
+        <v>0.01633505133312968</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.9500197135933</v>
+        <v>-0.07272258150396885</v>
       </c>
       <c r="C4" t="n">
-        <v>6.125058574239544e-05</v>
+        <v>0.0672695257362922</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0558677703027764</v>
+        <v>12190.26323372402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06572271816144201</v>
+        <v>0.0005002656006037607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.356090520373079e-05</v>
+        <v>801.7578908099722</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5184428177144937</v>
+        <v>0.5171817666379223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.62451254580024</v>
+        <v>12.9067447678176</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06264973177185262</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.076599991959561</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5364375163700008</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-91.74920539851382</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9056129303145204</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1079.283348163122</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2041970398979256</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5334.961551345999</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.07270889326467468</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-77.84647371725201</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.03817347717344508</v>
+        <v>0.886225351677804</v>
       </c>
     </row>
   </sheetData>
@@ -5129,7 +3439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5161,140 +3471,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6964.063878756055</v>
+        <v>4746.355348047037</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00265763368186335</v>
+        <v>4.830175498953789e-06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.212822581038097</v>
+        <v>137.5005494953523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9731128572155394</v>
+        <v>0.001617675155019391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.8728056124848</v>
+        <v>-0.006914906585721498</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001871324525215644</v>
+        <v>0.8547086519671736</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0692005160549081</v>
+        <v>428.0397606356528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06351699059986099</v>
+        <v>0.9026007162539749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.80139269985408e-05</v>
+        <v>-405.2900783223547</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05240968152067797</v>
+        <v>0.6406905291297278</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.88967414934901</v>
+        <v>11.64058586951796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1159620823131014</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.275842991977683</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3094606160372634</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-866.7260051583376</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2002501143394838</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>873.5690727122583</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4203414708989213</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>66.44034675843432</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9819290925172186</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-40.89857061799387</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1325719047833467</v>
+        <v>0.8651808951882294</v>
       </c>
     </row>
   </sheetData>
@@ -5308,7 +3553,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5340,140 +3585,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5237.143196254619</v>
+        <v>1385.084193250211</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01700884186946915</v>
+        <v>0.1724140817182783</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.285728165045271</v>
+        <v>197.2311864529294</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8630538034413331</v>
+        <v>0.002182879765040344</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>149.5128382002936</v>
+        <v>-0.09312582098981947</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001153335305044987</v>
+        <v>0.02785769176505769</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05332946572498926</v>
+        <v>13887.81928732502</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1113203082317102</v>
+        <v>0.0003097519080360525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.431737101678144e-05</v>
+        <v>1841.569776890798</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2335497078971258</v>
+        <v>0.1156516192687875</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-20.03961457061668</v>
+        <v>69.9485641070054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01475034382378034</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.98130112489764</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1472151056176865</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1089.640036564857</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.07333871119251568</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>428.7750550342992</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5717116583737474</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>5437.975215943981</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.04972735930978486</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2.244619603496687</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9258261155922043</v>
+        <v>0.5044047724522165</v>
       </c>
     </row>
   </sheetData>
@@ -5487,7 +3667,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5519,140 +3699,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3625.490779443696</v>
+        <v>2719.667223747867</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05290643829938335</v>
+        <v>0.006627825044326907</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41.144325981674</v>
+        <v>155.9098184824765</v>
       </c>
       <c r="C3" t="n">
-        <v>0.47831952512655</v>
+        <v>0.009424240025695722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.1973777753518</v>
+        <v>-0.108322155651741</v>
       </c>
       <c r="C4" t="n">
-        <v>2.116330155368717e-05</v>
+        <v>0.01556880884665413</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0436078134575118</v>
+        <v>9417.551329030077</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0999172656306857</v>
+        <v>0.008638325912974153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.246506801186639e-05</v>
+        <v>2148.768891217759</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03000409672075185</v>
+        <v>0.1079473115781809</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.23565767425403</v>
+        <v>53.46440401900531</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1776303070275712</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.548890588607087</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.6950394376964882</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-238.7125012960364</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6754828874050995</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>595.6912138045491</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4582408935640961</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3654.321038597729</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0930712926525594</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.073714039968969</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.892130588657319</v>
+        <v>0.6246494072268512</v>
       </c>
     </row>
   </sheetData>
@@ -5666,7 +3781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5698,140 +3813,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4259.742697827428</v>
+        <v>3446.226715816728</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08486881317188516</v>
+        <v>0.0002311772049061893</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.77799991838765</v>
+        <v>157.6736617490937</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6532924379418519</v>
+        <v>0.001539707958319059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.8412839224573</v>
+        <v>-0.01888297948427975</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001957748758510232</v>
+        <v>0.6643014190178418</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05927769430274765</v>
+        <v>5500.351070849014</v>
       </c>
       <c r="C5" t="n">
-        <v>0.09368800733547293</v>
+        <v>0.07117259391352264</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.367110045998065e-05</v>
+        <v>104.9838330844823</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1505683958645484</v>
+        <v>0.9340377016476923</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.24007908667884</v>
+        <v>79.01132941638954</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5147456290621746</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-3.49403507634662</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7658631740881137</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-49.82413448855095</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.950176242670842</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>803.3708581802675</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4334078834347086</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2869.568094817743</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3129153477614489</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-17.55562182407439</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5082728780518948</v>
+        <v>0.4090571932111806</v>
       </c>
     </row>
   </sheetData>
@@ -5845,7 +3895,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5877,140 +3927,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4971.156912184999</v>
+        <v>1842.847706655449</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01473939344984549</v>
+        <v>0.09085766737930472</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.953440366332643</v>
+        <v>195.386793707228</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9706265214465308</v>
+        <v>0.004164598280974458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.1961613126771</v>
+        <v>-0.08037110767037131</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001063717048953143</v>
+        <v>0.1070602799242278</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04004986572365485</v>
+        <v>12606.20908713989</v>
       </c>
       <c r="C5" t="n">
-        <v>0.13581668109559</v>
+        <v>0.001207676055430062</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.579359031124772e-05</v>
+        <v>1652.328681239094</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4224563143933326</v>
+        <v>0.1997732874745102</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.35733488287801</v>
+        <v>2.306341298054974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05816767709487981</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-1.903326179762246</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8431431727044124</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-822.5762870336057</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2036855619359629</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>761.5078068375633</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3330097539286589</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6611.453372596141</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.01448217538886449</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-38.6454959837189</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2684435603068932</v>
+        <v>0.9819861343580325</v>
       </c>
     </row>
   </sheetData>
@@ -6024,7 +4009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6056,140 +4041,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4933.711304686871</v>
+        <v>2586.821110289517</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007535001748373782</v>
+        <v>0.01704172338153278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.9260958338992</v>
+        <v>157.7765441357141</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1151597369424903</v>
+        <v>0.01022925829835902</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.4009487717786</v>
+        <v>-0.08489354963553818</v>
       </c>
       <c r="C4" t="n">
-        <v>5.703828091852229e-06</v>
+        <v>0.0369001699398771</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0759674361235459</v>
+        <v>12207.37692759836</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02377053546901183</v>
+        <v>0.006379554470834261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.294214606188772e-05</v>
+        <v>1001.386967830902</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004806420490501388</v>
+        <v>0.3733826722434863</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.32272004777624</v>
+        <v>-22.89324191254985</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03231194305345069</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-13.34917059326628</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1114630239753688</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-140.9968747138928</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.7949734877338552</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1071.50702675413</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2452439799636193</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1828.58259643656</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4182379629123023</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-3.919308794103742</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.8623410966600449</v>
+        <v>0.8055170977232604</v>
       </c>
     </row>
   </sheetData>
@@ -6203,7 +4123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6235,140 +4155,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5762.63514585423</v>
+        <v>2740.953311621705</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01008828161543043</v>
+        <v>0.004302123932311852</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-9.955604520311994</v>
+        <v>122.8640085902918</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8836205329164684</v>
+        <v>0.06760717189425798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.2989519844726</v>
+        <v>-0.07721335605153212</v>
       </c>
       <c r="C4" t="n">
-        <v>2.098673975053652e-05</v>
+        <v>0.04605186855622902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06087044721279078</v>
+        <v>12008.09356230683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03698022434094854</v>
+        <v>0.0004624326458056977</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.228217226336835e-05</v>
+        <v>587.1604364273426</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07243446730622596</v>
+        <v>0.6154289251434971</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.28692828221325</v>
+        <v>-6.681773569080974</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4288780833065073</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-7.426361176706557</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4223834796388682</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1119.304302691132</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1118766246953447</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>418.0564893804396</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6292187244781978</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2265.712469119395</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3685318248478541</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-34.27195062449066</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1929489407895473</v>
+        <v>0.9420627819144247</v>
       </c>
     </row>
   </sheetData>
@@ -6382,7 +4237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6414,140 +4269,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5435.693698949234</v>
+        <v>2237.03995520488</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01879468240341105</v>
+        <v>0.02141750807358573</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4.96260281214478</v>
+        <v>170.1334527973784</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9335950690127324</v>
+        <v>0.004910819525775183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.905682464387</v>
+        <v>-0.08745443703525596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002439317972119103</v>
+        <v>0.03841132017333533</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06680953360970152</v>
+        <v>11918.98297170461</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06047564573124417</v>
+        <v>0.001324400828991654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.93117223122244e-05</v>
+        <v>1571.52807251666</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1357458073796973</v>
+        <v>0.2285593261133471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.812213710143141</v>
+        <v>-3.586612998952774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4563812698246251</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.592511178084081</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4283907332581828</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-98.18466049482913</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8922020569805102</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>806.9174274012553</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.397239034412503</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1377.805704175463</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6426005842995512</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.19868149116741</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3534366723374073</v>
+        <v>0.9713401362484405</v>
       </c>
     </row>
   </sheetData>
@@ -6561,7 +4351,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6593,140 +4383,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5173.549464632835</v>
+        <v>2310.840270245223</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02608191592913275</v>
+        <v>0.0193016027270066</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>37.65878147145042</v>
+        <v>152.7995267764376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5444703319239026</v>
+        <v>0.009786719477191709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>192.7597339659189</v>
+        <v>-0.1031642626101298</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008226839162105942</v>
+        <v>0.02374151572364198</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0529036171469241</v>
+        <v>11064.60116159911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1159759948452939</v>
+        <v>0.003665279104817557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.49481246306481e-05</v>
+        <v>1740.504879678418</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09805325507494835</v>
+        <v>0.1605384239863379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.69349268859344</v>
+        <v>73.06605271453355</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1185156739743665</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.069784049465929</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4356922091720785</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-538.2492116755002</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4368045045976531</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>960.8899892899326</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2960314948251663</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2591.897076171532</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3516219808367662</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-20.90361418194182</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.416026547516993</v>
+        <v>0.4954715715934536</v>
       </c>
     </row>
   </sheetData>
@@ -6740,7 +4465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6772,140 +4497,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5647.370016040911</v>
+        <v>1734.636584549286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0138497554536394</v>
+        <v>0.1516533698197357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.5194492431539288</v>
+        <v>188.9756289553152</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9947569792787527</v>
+        <v>0.005589585982805114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.116150162694</v>
+        <v>-0.07633637423098125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002860355978019421</v>
+        <v>0.1079369197782129</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07358444470977588</v>
+        <v>13174.69339021422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03485836623996691</v>
+        <v>0.009624313984410609</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.725860049052243e-05</v>
+        <v>1578.934939142103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.180721980987642</v>
+        <v>0.2653276189171155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.81934173769076</v>
+        <v>43.0599374577549</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2582041804694771</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.194232903095042</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4155223205755764</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-563.2333063386804</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.4041334078319365</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>875.815215277994</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3296381507973709</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3127.448786044794</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2209917737968929</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-26.40414611204474</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3382437484760931</v>
+        <v>0.6629329384035947</v>
       </c>
     </row>
   </sheetData>
@@ -6919,7 +4579,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6951,140 +4611,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5838.308727475693</v>
+        <v>3337.229425582735</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01710448939628081</v>
+        <v>0.0003345622905580423</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>45.80906464957391</v>
+        <v>171.9644247189933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4922109193003908</v>
+        <v>0.001313428922795231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.0534406230265</v>
+        <v>-0.001728982827947978</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003803995254674729</v>
+        <v>0.9729067266310649</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06863769665873538</v>
+        <v>5958.741832212096</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02839763426248803</v>
+        <v>0.06280524695573013</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.439165176444885e-05</v>
+        <v>-321.6505173050782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1070491415211329</v>
+        <v>0.7884221578357802</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.08077106059419</v>
+        <v>61.42522951297215</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3152841031500996</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.96230823101632</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2406893493466643</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-488.9278365838372</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5406056257281528</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>571.5798289946388</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5323411027276865</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2365.268728424482</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3794712385834829</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.35560165879345</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4157136615002116</v>
+        <v>0.5266565918907241</v>
       </c>
     </row>
   </sheetData>
@@ -7098,7 +4693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7130,140 +4725,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3203.632484315402</v>
+        <v>2024.990018864627</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08371468729465947</v>
+        <v>0.03453889008736587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-15.67853609641088</v>
+        <v>198.0038822994194</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7871138335575687</v>
+        <v>0.003679764994094226</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>151.5122335977893</v>
+        <v>-0.09331803729160652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003139267183669158</v>
+        <v>0.02333354914922036</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01586446888462855</v>
+        <v>11672.77284062614</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5750689867467274</v>
+        <v>0.0008495323724490321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.210249177683281e-05</v>
+        <v>2083.207432768655</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5073451727808946</v>
+        <v>0.08849908866054482</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.72241482050509</v>
+        <v>17.83317527741963</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08621749759683248</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.302038471879087</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.533182565032328</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-1191.517734092133</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.0317416750600493</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>-184.1823023026643</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.8163615263221773</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>7207.717048111662</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.007826254723321952</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>17.12798877995735</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4755443241431336</v>
+        <v>0.8510700741282419</v>
       </c>
     </row>
   </sheetData>
@@ -7277,7 +4807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7309,140 +4839,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6646.268828060734</v>
+        <v>2579.467953391808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005585154176449661</v>
+        <v>0.008901990758264963</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.585009867516874</v>
+        <v>121.9932006909782</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9822680480423407</v>
+        <v>0.03819749397340881</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>206.4204282340399</v>
+        <v>-0.08778757492446321</v>
       </c>
       <c r="C4" t="n">
-        <v>1.060898621572505e-05</v>
+        <v>0.03428728268512022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03385072877507361</v>
+        <v>10746.50103163968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3056239998196837</v>
+        <v>0.002659776342155078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.125201988378969e-05</v>
+        <v>1553.915940074877</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5925615572926344</v>
+        <v>0.1971816736891965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.35275126785272</v>
+        <v>27.23646284896859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09414436805772794</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.75893401350833</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5378282969877535</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-141.1559316080243</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8735766365423581</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>653.0939497689328</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4652867677721154</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4253.799290125695</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.216024299559345</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-65.76972807268035</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.09067153697803502</v>
+        <v>0.8008228809820508</v>
       </c>
     </row>
   </sheetData>
@@ -7456,7 +4921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7488,140 +4953,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4585.880031788955</v>
+        <v>2980.548163854153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.024937699669382</v>
+        <v>0.0009693989806887924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.0997244146601</v>
+        <v>126.514129874727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2123621681614462</v>
+        <v>0.01347184456290688</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>211.9107087013846</v>
+        <v>-0.09255757509154872</v>
       </c>
       <c r="C4" t="n">
-        <v>6.473293799278161e-06</v>
+        <v>0.01720977844399776</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06991566108442157</v>
+        <v>11353.11571804317</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04135908802768975</v>
+        <v>0.0005167109176957202</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.46365512133597e-05</v>
+        <v>466.1252908731176</v>
       </c>
       <c r="C6" t="n">
-        <v>0.006022816633634602</v>
+        <v>0.6544137081566648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-16.0298569433189</v>
+        <v>19.40508224242592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0652837799186842</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-5.959034133701358</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5005789429167117</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-120.8017547879278</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8165030971224827</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1927.790344394938</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.05569139253769075</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1833.456992871452</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4380399258211042</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.16099433500672</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3729498261708204</v>
+        <v>0.8318906748464251</v>
       </c>
     </row>
   </sheetData>
@@ -7635,7 +5035,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7667,140 +5067,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4351.907111561346</v>
+        <v>2444.745619193104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02701397364265842</v>
+        <v>0.01638260585706997</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>20.94160714695704</v>
+        <v>151.8579474581052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7283106209678666</v>
+        <v>0.01117522241338635</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>164.3049358717159</v>
+        <v>-0.08426581540400585</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0001065569756418364</v>
+        <v>0.07829116304523831</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02985710037951501</v>
+        <v>10805.7870888345</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2554770584542906</v>
+        <v>0.005178027036305806</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.833358739937921e-05</v>
+        <v>1465.185952026895</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3923050196937683</v>
+        <v>0.2964251718561825</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.00455856996521</v>
+        <v>46.81630381935406</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07412299282411187</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.239381849078868</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2957083037361106</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-630.9144106310891</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.400194600889746</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>269.2602423522349</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.7451515045760448</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6746.89917747186</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.02487232778178329</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-2.72702525444717</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9402116068461834</v>
+        <v>0.6873543634408366</v>
       </c>
     </row>
   </sheetData>
@@ -7814,7 +5149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7846,140 +5181,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3702.07882308411</v>
+        <v>2879.051435796224</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1329005756876689</v>
+        <v>0.00177399214462705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.74972644452606</v>
+        <v>116.4817629636987</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6174460095607115</v>
+        <v>0.03991495100237356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.5692070426174</v>
+        <v>-0.09723713815863716</v>
       </c>
       <c r="C4" t="n">
-        <v>8.007112641327854e-05</v>
+        <v>0.01919848094002984</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05783694069312667</v>
+        <v>10276.07686590422</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05802931559725691</v>
+        <v>0.00216952501643666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.074970695829487e-05</v>
+        <v>1715.662189960753</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07110079456904267</v>
+        <v>0.1336758634738792</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.765279129202362</v>
+        <v>-15.84470087828765</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6429945230910183</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>4.267671969416405</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7245517616465578</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-734.5335221033083</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.3390376513600232</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>876.3661656165957</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3161865301196016</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2913.995582868929</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2562382397392882</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-27.08845087845174</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.3116886106608019</v>
+        <v>0.8693487506220744</v>
       </c>
     </row>
   </sheetData>
@@ -7993,7 +5263,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8025,140 +5295,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4736.846936194794</v>
+        <v>2509.175921114871</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05357157239914203</v>
+        <v>0.0128606235562222</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.49853468662204</v>
+        <v>159.0871883240013</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5157973332328658</v>
+        <v>0.02240606020926048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>214.7612510442106</v>
+        <v>-0.08807026234133791</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005080657034461059</v>
+        <v>0.05298989446385647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07531593666278857</v>
+        <v>11871.43698911589</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04342768835070224</v>
+        <v>0.0008257956633601837</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.639890761660498e-05</v>
+        <v>886.2938945886954</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04048259355198257</v>
+        <v>0.4695077516610086</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.54628590830242</v>
+        <v>24.4716765220108</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2338770586762267</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-6.870299826315524</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.4986851634774059</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-431.0651448286035</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.460181597484056</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1714.987808320211</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1177981558814085</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2341.474441377226</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3890605502952537</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-21.1217500236703</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4137168960208052</v>
+        <v>0.794767834788064</v>
       </c>
     </row>
   </sheetData>
@@ -8172,7 +5377,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8204,140 +5409,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5685.05377997957</v>
+        <v>1859.027201687923</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01289799426909157</v>
+        <v>0.08215571076247967</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>12.84589640999334</v>
+        <v>181.038776995198</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8551356975412588</v>
+        <v>0.005416437205611354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.1693484319771</v>
+        <v>-0.09429070800970665</v>
       </c>
       <c r="C4" t="n">
-        <v>7.545048399774996e-05</v>
+        <v>0.03380430651294059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06417729456878565</v>
+        <v>11139.33209322195</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1678529242550973</v>
+        <v>0.00365329150203224</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.532710322304262e-05</v>
+        <v>2413.739888713835</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4272022085155427</v>
+        <v>0.0804492002531929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.14441782105896</v>
+        <v>76.10109556467313</v>
       </c>
       <c r="C7" t="n">
-        <v>0.173237708441547</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.940702539914682</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3506745805864029</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-370.1569128446017</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6874895083673866</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>805.026145237231</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4188705599768775</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2008.046759963197</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6057686286194663</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-22.48175151319453</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4289746898062521</v>
+        <v>0.4863275069203905</v>
       </c>
     </row>
   </sheetData>
@@ -8351,7 +5491,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8383,140 +5523,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4381.491160986244</v>
+        <v>2314.923641081059</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03658555058247226</v>
+        <v>0.03671998391530398</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.54110044400585</v>
+        <v>161.4560428793943</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6876104854450766</v>
+        <v>0.008143265013003397</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.5455259838958</v>
+        <v>-0.09623449953168424</v>
       </c>
       <c r="C4" t="n">
-        <v>5.063766653253296e-05</v>
+        <v>0.03746491814665422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0705849947639408</v>
+        <v>11134.61587121669</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02592164453548354</v>
+        <v>0.0146955499666979</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.693793212757474e-05</v>
+        <v>1998.347751530103</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1658645079293637</v>
+        <v>0.1428180472550435</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.781865540995057</v>
+        <v>37.15658238561525</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4913989060389137</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1710535480265882</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9861728483540533</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-358.5067174536721</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5632014311782541</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1346.215273776309</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1700149269317698</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2899.492266864587</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.2514890158799786</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-31.04153011145394</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2435232994220912</v>
+        <v>0.7280099810172959</v>
       </c>
     </row>
   </sheetData>
@@ -8530,7 +5605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8562,140 +5637,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6318.821764795943</v>
+        <v>4372.770417201724</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003211688465894084</v>
+        <v>3.667049985191524e-05</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.43997803077366</v>
+        <v>165.9128806625182</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6621839092362281</v>
+        <v>0.0003727191042563732</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.770619848551</v>
+        <v>-0.007602916621099742</v>
       </c>
       <c r="C4" t="n">
-        <v>2.034555710568395e-05</v>
+        <v>0.8292743975519701</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.06384274989637911</v>
+        <v>2228.64423120868</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02872283982056564</v>
+        <v>0.5541659084314601</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.28323601001875e-05</v>
+        <v>-468.2759097851749</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02120216484272153</v>
+        <v>0.5929047310091689</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-18.07436245872175</v>
+        <v>4.301209419415613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.05280918262612494</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-10.32085077683596</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2237974811490859</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-607.3492068742061</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2990336714108855</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>662.7227423585387</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.4033206005231058</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1599.388628151324</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5076600301971719</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-31.722463063776</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2045617921595893</v>
+        <v>0.9512597650477436</v>
       </c>
     </row>
   </sheetData>
@@ -8709,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8741,140 +5751,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4905.464948200035</v>
+        <v>2611.433974926903</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03205704270607432</v>
+        <v>0.01111091385683911</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.55609838144323</v>
+        <v>143.5413763044101</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6933719708481999</v>
+        <v>0.01522832702938024</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.1591549699424</v>
+        <v>-0.08734041630011369</v>
       </c>
       <c r="C4" t="n">
-        <v>1.16545928288758e-05</v>
+        <v>0.05365861312135535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05762426452452522</v>
+        <v>10034.45575262134</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03977028406058537</v>
+        <v>0.00602095186183396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.810052630924426e-05</v>
+        <v>1498.132753859511</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1262024398112759</v>
+        <v>0.2610347529352032</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.19841275517736</v>
+        <v>63.0691893515891</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1925815664743709</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2.870996915494359</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.7615845135742807</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-317.0529081028657</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5938842742651322</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1248.775007189185</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.1182857293671497</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>4526.293893786871</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.09923124305108524</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-57.77914970060795</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1213097789240678</v>
+        <v>0.5709662590572582</v>
       </c>
     </row>
   </sheetData>
@@ -8888,7 +5833,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8920,140 +5865,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3073.746713307934</v>
+        <v>3705.01727941128</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04363994351476134</v>
+        <v>0.0004807691539883451</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>40.73757098148852</v>
+        <v>203.4795358575064</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3463761098869244</v>
+        <v>0.0004090647068983474</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>165.3664407117701</v>
+        <v>-0.003547000770064757</v>
       </c>
       <c r="C4" t="n">
-        <v>4.291621386591729e-05</v>
+        <v>0.9268641129657869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0002951296119751978</v>
+        <v>2630.10507603869</v>
       </c>
       <c r="C5" t="n">
-        <v>0.98952548231746</v>
+        <v>0.5220129213248117</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.842143788283633e-05</v>
+        <v>283.8593499886388</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01618191842016947</v>
+        <v>0.773131095467304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-25.69792945483192</v>
+        <v>45.7863336774773</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001042079944882152</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-8.615757172814718</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.242912930060744</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-731.1961614454003</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1351335644592903</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>274.7061407233239</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.6672077261844496</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>6007.601929056891</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.006487322057681475</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>27.49877354334279</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1421047609485635</v>
+        <v>0.5638081744807607</v>
       </c>
     </row>
   </sheetData>
@@ -9067,7 +5947,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9099,140 +5979,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5649.746791752532</v>
+        <v>2689.209155769589</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01604861851793174</v>
+        <v>0.004888863258740359</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.52610677962195</v>
+        <v>156.3671091570343</v>
       </c>
       <c r="C3" t="n">
-        <v>0.557641206455983</v>
+        <v>0.005482400061648257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.6834191567573</v>
+        <v>-0.1125162859404105</v>
       </c>
       <c r="C4" t="n">
-        <v>4.847234216788577e-05</v>
+        <v>0.010029408216569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07133156630628748</v>
+        <v>10084.30578819247</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02466553087307777</v>
+        <v>0.004058439661574945</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.204670472313091e-05</v>
+        <v>1989.440532096859</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1833843719314361</v>
+        <v>0.1219158362404188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.68857516985905</v>
+        <v>39.38639863044062</v>
       </c>
       <c r="C7" t="n">
-        <v>0.520538850053192</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-9.438117508051391</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.3527214598358805</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-447.1695156610322</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5429167521100244</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>559.6060879613251</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5426887469070047</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>2424.213221101694</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3653070069746692</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-29.48274890865159</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2870052823379047</v>
+        <v>0.7060323148308727</v>
       </c>
     </row>
   </sheetData>
@@ -9246,7 +6061,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9278,140 +6093,75 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6136.298598537927</v>
+        <v>3095.382207827074</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01187146844480351</v>
+        <v>0.001456690829365019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.32604487584189</v>
+        <v>126.0725261787685</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5862458850566041</v>
+        <v>0.02397677068661306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.8653464098272</v>
+        <v>-0.10554160995696</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003186354751236931</v>
+        <v>0.02894309429005987</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07519384718676675</v>
+        <v>10107.00425178726</v>
       </c>
       <c r="C5" t="n">
-        <v>0.042962811811463</v>
+        <v>0.003703482630532678</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.742384599863572e-05</v>
+        <v>1139.906445998951</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05549537047247707</v>
+        <v>0.325030025133331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.8432796408007</v>
+        <v>4.62207421280101</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2481432085113565</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>street_length_res</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>-12.4587075075256</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.2383432693509628</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>LU_Comm_res</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>-699.0334619371019</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.2658027274535018</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>940.3004368680949</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3354079737444438</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Commute_Trip</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1780.235774692832</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5295248466548912</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>-28.95737681641654</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.2582531296875211</v>
+        <v>0.9614243323055713</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ33713597" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ33846125" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ33942149" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ34055853" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ34171289" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ34295567" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ34398761" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ34510077" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34610822" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ34747481" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ34891628" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ35051045" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ35166246" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ35285160" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ35437407" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ35584053" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ35738738" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ35905000" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ36057761" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ36238217" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ36410396" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ36560547" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ36683330" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ36802019" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ36911382" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ37047879" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ37161205" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ37276378" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ37375805" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ37484721" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ37578762" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ37691596" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ37807270" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ37920641" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ38036671" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ38149725" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ38257186" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ38370844" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ38478880" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ38601168" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ38708701" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ38811686" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ38914628" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ39011407" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ39114898" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ39217492" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ39350739" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ39507297" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ39623038" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ39720723" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ06422413" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06505780" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06580670" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ06663159" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ06752403" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ06823239" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ06924734" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07008671" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ07090858" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ07173239" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ07256533" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ07355120" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ07424589" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ07516593" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ07591366" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ07674601" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ07761034" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ07841436" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ07924285" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ08031244" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ08109646" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ08190881" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ08255487" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ08340648" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ08423089" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ08507619" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ08605725" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ08690738" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ08772445" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ08848888" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ08923077" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ09007206" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ09090660" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ09176582" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ09255743" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ09345515" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ09429396" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ09514496" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ09599198" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ09682382" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ09757056" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ09841314" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ09923207" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ10005195" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ10082301" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ10165618" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ10240372" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ10323251" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ10405067" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ10482382" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06422413" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06505780" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06580670" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ06663159" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ06752403" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ06823239" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ06924734" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07008671" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ07090858" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ07173239" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ07256533" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ07355120" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ07424589" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ07516593" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ07591366" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ07674601" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ07761034" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ07841436" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ07924285" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ08031244" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ08109646" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ08190881" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ08255487" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ08340648" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ08423089" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ08507619" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ08605725" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ08690738" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ08772445" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ08848888" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ08923077" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ09007206" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ09090660" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ09176582" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ09255743" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ09345515" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ09429396" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ09514496" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ09599198" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ09682382" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ09757056" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ09841314" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ09923207" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ10005195" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ10082301" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ10165618" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ10240372" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ10323251" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ10405067" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ10482382" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ37235549" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ37436215" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ37530941" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ37625646" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ37724691" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ37825277" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ37924792" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ38025491" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ38125004" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ38225197" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ38318692" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ38418208" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ38525792" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ38642062" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ38740176" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ38837289" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ38939560" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ39047250" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ39150201" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ39240332" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ39331483" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ39422327" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ39524798" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ39626798" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ39720965" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ39819858" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ39915312" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ40014138" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ40117035" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ40221065" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ40327000" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ40430401" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ40537830" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ40645156" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ40753314" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ40856061" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ40953829" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ41051339" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ41143602" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ41238457" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ41337942" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ41434008" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ41528517" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ41623421" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ41716933" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ41813965" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ41908477" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ42006092" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ42102216" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ42197782" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,75 +507,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3046.153727353521</v>
+        <v>3859.263020458526</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001213353846450926</v>
+        <v>0.1504746447281026</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.8348618487261</v>
+        <v>57.66283822143146</v>
       </c>
       <c r="C3" t="n">
-        <v>5.9462016708151e-05</v>
+        <v>0.4585569154240037</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01873485346854481</v>
+        <v>181.265191475843</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5919732512372041</v>
+        <v>0.0008550356505176184</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7799.449497843862</v>
+        <v>-0.003139445945685215</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004304766639763992</v>
+        <v>0.9385206575562515</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1001.829614481398</v>
+        <v>3.419955247415955e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2544036424186589</v>
+        <v>0.4373732509636994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.12054815078926</v>
+        <v>4.889471063309557</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5651985753437179</v>
+        <v>0.7094913546532325</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-720.1003616526441</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4013165594195934</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-630.1003156292627</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5874242502683313</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6727.176492600453</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08217553414081388</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-28.13426975117395</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5577295459612764</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -621,75 +673,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1686.407234298368</v>
+        <v>2145.842225233764</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1071593215692863</v>
+        <v>0.5706167109993913</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>189.9770483347843</v>
+        <v>36.46286713509858</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007891382650200649</v>
+        <v>0.7502254090175595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06942124464775778</v>
+        <v>189.3149447190016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.09272502524347834</v>
+        <v>0.01171362156342015</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13412.59966504342</v>
+        <v>-0.1003032675045935</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005911301959496819</v>
+        <v>0.04022929759397929</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1657.315129253839</v>
+        <v>9.163437675037972e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1896044551955035</v>
+        <v>0.1363718399719445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-39.84662935860695</v>
+        <v>7.11474626906066</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6990816650422125</v>
+        <v>0.6919948555843973</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1028.402723916141</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4565112315603786</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1983.579806122626</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1849857934487009</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9077.521713321441</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07920503177799307</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-15.72635174639888</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7892061798347748</v>
       </c>
     </row>
   </sheetData>
@@ -703,7 +807,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,75 +839,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2154.430942014073</v>
+        <v>3547.446121525667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02913054415794514</v>
+        <v>0.3095451635099072</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.5848894680714</v>
+        <v>113.5175289183752</v>
       </c>
       <c r="C3" t="n">
-        <v>0.007037956391216001</v>
+        <v>0.3671818037863798</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1096359315728593</v>
+        <v>178.0228767696668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01317167262579756</v>
+        <v>0.00627748539552273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11814.17953227257</v>
+        <v>-0.1207058849414923</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001765632925335655</v>
+        <v>0.01476151635665656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1801.594927440461</v>
+        <v>9.678470641861164e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1251140018341218</v>
+        <v>0.07855091333299584</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>83.15361946732003</v>
+        <v>-2.823098232052558</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4506080535953529</v>
+        <v>0.8565941583613724</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1458.010646609897</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2455079995534738</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1410.11442424531</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2895121294074413</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7696.133907499375</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1153157104084789</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.715097611169909</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8291723022494218</v>
       </c>
     </row>
   </sheetData>
@@ -817,7 +973,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -849,75 +1005,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3259.43023149678</v>
+        <v>-155.5425220254983</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001798060454010421</v>
+        <v>0.9627754226980787</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>154.7086409176667</v>
+        <v>58.78896698544622</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001727552980276569</v>
+        <v>0.5051021419245334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01305855912692939</v>
+        <v>166.3397206965388</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7670408388719789</v>
+        <v>0.001148075853767214</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7125.057438195365</v>
+        <v>-0.02474123978695701</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02010244593981208</v>
+        <v>0.5899915310746642</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-123.0105896380221</v>
+        <v>8.380372839034413e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9042401711808425</v>
+        <v>0.06567632162490646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.83499143092666</v>
+        <v>25.16174570526798</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8746514019675287</v>
+        <v>0.140325873190799</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>63.72251312763206</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.9442264940043952</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1200.94678267268</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3195832347763865</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7109.646928255897</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08801046588221988</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-5.777385688735478</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8696059623780319</v>
       </c>
     </row>
   </sheetData>
@@ -931,7 +1139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -963,75 +1171,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2504.730798957498</v>
+        <v>6639.467932419839</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01574534486284053</v>
+        <v>0.08849211574056903</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>169.1318910663511</v>
+        <v>74.11574725273334</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00541826608789269</v>
+        <v>0.4847185986086338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07318748275103978</v>
+        <v>166.6438592362989</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1170890402453083</v>
+        <v>0.007796772343581461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11775.70603202082</v>
+        <v>-0.1320865856024683</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002494563175425019</v>
+        <v>0.01754079553907412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>698.5508539636949</v>
+        <v>0.0001277332600323811</v>
       </c>
       <c r="C6" t="n">
-        <v>0.601524237705666</v>
+        <v>0.05237149974574652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1539647917518181</v>
+        <v>-14.23953608988543</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9987120554634047</v>
+        <v>0.4183666214269721</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-606.5078414816248</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.631366871040046</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>766.0262539526739</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5970150926215272</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2648.518463453824</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6248803069703749</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-25.65923326755554</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6550279466372894</v>
       </c>
     </row>
   </sheetData>
@@ -1045,7 +1305,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1077,75 +1337,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2383.431438896089</v>
+        <v>4143.946656691363</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0235159668406349</v>
+        <v>0.1630939629732788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.5725915637138</v>
+        <v>147.1758491289687</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01507677222738432</v>
+        <v>0.1493695374991009</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0826748649003515</v>
+        <v>137.2509183094903</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03660107224373897</v>
+        <v>0.01772733954437022</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11741.00949749789</v>
+        <v>-0.1047576080850973</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004999252341683672</v>
+        <v>0.01895356767004135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1264.585349012315</v>
+        <v>0.0001214037072297255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2705539910084419</v>
+        <v>0.02311598659337412</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>60.68159692169769</v>
+        <v>-4.866394321129093</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5568668382734695</v>
+        <v>0.7143208428057133</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2257.696256433803</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.03961934426556751</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>356.2888957535386</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7642037082278923</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10145.59682655366</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02190767219476164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-19.18501172075091</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6614415681069655</v>
       </c>
     </row>
   </sheetData>
@@ -1159,7 +1471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1191,75 +1503,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2534.30008634093</v>
+        <v>4805.346590287567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01913234829328164</v>
+        <v>0.2221811178276391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160.5921961297972</v>
+        <v>99.49835499680654</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03407248089035478</v>
+        <v>0.3757591898755813</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0959809921940909</v>
+        <v>178.9724498914005</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03683698110821366</v>
+        <v>0.03274332597788526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9798.042234280394</v>
+        <v>-0.1413433587782002</v>
       </c>
       <c r="C5" t="n">
-        <v>0.007198275643321382</v>
+        <v>0.01156860450749695</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2037.283757224398</v>
+        <v>0.0001396231672761312</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1557696811820306</v>
+        <v>0.02840972195307467</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.28843709635811</v>
+        <v>0.909363586051537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7362806078404037</v>
+        <v>0.9547525645266177</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1205.798740582061</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.265152375812011</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2184.095313453403</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1945566396914892</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2945.365875197163</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5721991088597205</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-33.57505667585053</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4938567711481843</v>
       </c>
     </row>
   </sheetData>
@@ -1273,7 +1637,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1305,75 +1669,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1891.059723870543</v>
+        <v>4765.107907640286</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06823116574383731</v>
+        <v>0.1762884757829274</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.0636087351274</v>
+        <v>112.6413020330018</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006409083326869213</v>
+        <v>0.3070367946871333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.06942198581368569</v>
+        <v>171.8367875041702</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1137934630816011</v>
+        <v>0.007598689506206069</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12336.55784778993</v>
+        <v>-0.1062244119138187</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001197385590807259</v>
+        <v>0.0303665276128095</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1320.711889718671</v>
+        <v>0.0001407018119841062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2921427830665323</v>
+        <v>0.06385808456055045</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.7170607041906</v>
+        <v>5.345601429649946</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5290660592414502</v>
+        <v>0.7412777103729016</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1198.640524803146</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2569309391330623</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1176.970510686264</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4144448981377927</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5250.912582454615</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3359209044026488</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-53.29333642417056</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3665797149702368</v>
       </c>
     </row>
   </sheetData>
@@ -1387,7 +1803,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1419,75 +1835,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2434.881232124987</v>
+        <v>3651.888371583978</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01336036662586279</v>
+        <v>0.340401729218104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>153.7530167744798</v>
+        <v>127.6962123813468</v>
       </c>
       <c r="C3" t="n">
-        <v>0.006578063340540076</v>
+        <v>0.2640442174054711</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1179154070688011</v>
+        <v>158.9896363307892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01058874420086211</v>
+        <v>0.009499717674394059</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11326.3087943722</v>
+        <v>-0.1411781516192798</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003015936381838091</v>
+        <v>0.01045301584704779</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1722.432195551199</v>
+        <v>9.700648683716913e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1777463057845041</v>
+        <v>0.07137320814087196</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.56251888852455</v>
+        <v>2.41209111658668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5316241971990363</v>
+        <v>0.8848167100796642</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1113.778773207292</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3464598345020573</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1865.140453873699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2131619582515499</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7089.311238250812</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1511208370363131</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-22.70683467455257</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6387299134114106</v>
       </c>
     </row>
   </sheetData>
@@ -1501,7 +1969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,75 +2001,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4462.842088495265</v>
+        <v>5608.377034077233</v>
       </c>
       <c r="C2" t="n">
-        <v>7.052881013623831e-05</v>
+        <v>0.06036809560779394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>178.114046336806</v>
+        <v>63.02501944030996</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004911996034895155</v>
+        <v>0.5255473135780573</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01411729446070102</v>
+        <v>193.6915577320784</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7022153017769519</v>
+        <v>0.001085821485721179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>96.07473750131976</v>
+        <v>-0.02704948211242261</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9811810864504749</v>
+        <v>0.6292902229213777</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-536.7652439764624</v>
+        <v>6.727076790733746e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5852573707323603</v>
+        <v>0.346930904485223</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40.88743834058869</v>
+        <v>-3.240950740161928</v>
       </c>
       <c r="C7" t="n">
-        <v>0.616330397764016</v>
+        <v>0.8028532283516834</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-997.8259617562239</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4356564448908626</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-349.0698709977753</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7672799201769894</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1940.309927508337</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7118584415200164</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-28.29719242086927</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4752101130147243</v>
       </c>
     </row>
   </sheetData>
@@ -1615,7 +2135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1647,75 +2167,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3043.604535848845</v>
+        <v>2838.095681540637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001483584953533967</v>
+        <v>0.4011720132881319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.2010907821584</v>
+        <v>64.76824343076282</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07246795978530879</v>
+        <v>0.5181789280271816</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09406855819731771</v>
+        <v>147.3313891943536</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01341709238182537</v>
+        <v>0.03672672661591248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10426.27476532277</v>
+        <v>-0.1045833643950858</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001043580582034353</v>
+        <v>0.031948133486907</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1261.71338656992</v>
+        <v>9.224558893200388e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2668939928073558</v>
+        <v>0.06698174886540562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-34.42302030994847</v>
+        <v>-8.897984885313278</v>
       </c>
       <c r="C7" t="n">
-        <v>0.70364554098393</v>
+        <v>0.5729727073467359</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-559.8294171450307</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5910283039882622</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1229.531151470263</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3620873653654815</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6552.563117444643</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1820177411996702</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>29.67290105892408</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4724702652633751</v>
       </c>
     </row>
   </sheetData>
@@ -1729,7 +2301,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1761,75 +2333,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2400.536632210282</v>
+        <v>4270.849492186542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04048285913055517</v>
+        <v>0.2601853961674908</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.4245011515079</v>
+        <v>191.7126209931986</v>
       </c>
       <c r="C3" t="n">
-        <v>0.067275042124019</v>
+        <v>0.1493695806931048</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1010896206132901</v>
+        <v>236.9779446542727</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0265388616941221</v>
+        <v>0.01349223979239869</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9662.057492929147</v>
+        <v>-0.1403707809695094</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009940128360615183</v>
+        <v>0.009950106898139677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2241.824948298753</v>
+        <v>0.0001596554495207409</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1053193526426537</v>
+        <v>0.01047797945523299</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>82.92400071794378</v>
+        <v>-4.737158172929924</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4955693907211061</v>
+        <v>0.7784160461763059</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1183.030659681801</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2655425942268168</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2397.05028144499</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.08876157768581226</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2162.926010938747</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6840718041368092</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-16.48742916153148</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7247009758183669</v>
       </c>
     </row>
   </sheetData>
@@ -1843,7 +2467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1875,75 +2499,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2766.963847765004</v>
+        <v>3847.218374962789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005640112561561676</v>
+        <v>0.3112379105112488</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.6200964711144</v>
+        <v>69.62678636946109</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01895281494666403</v>
+        <v>0.5395122281382431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09884754898074682</v>
+        <v>150.0817619395637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04443270604178661</v>
+        <v>0.02188413798885877</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10744.80144020196</v>
+        <v>-0.1312223919130054</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003301944897789628</v>
+        <v>0.02391937039667665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1394.448025786563</v>
+        <v>0.0001042907205649301</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2685630252248841</v>
+        <v>0.09061096199934537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.778190958328764</v>
+        <v>-0.3336577652037604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9362160288673437</v>
+        <v>0.9852976636852611</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1475.75226301683</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2656718563158937</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1610.918580979699</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2855975592391846</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5684.793460336467</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2621041090130524</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.388262720249472</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8376651141394093</v>
       </c>
     </row>
   </sheetData>
@@ -1957,7 +2633,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1989,75 +2665,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2105.36426687634</v>
+        <v>3386.711585105399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03204902416403395</v>
+        <v>0.3217199899734667</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>172.5981106692456</v>
+        <v>102.451211492363</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003829398717081866</v>
+        <v>0.4018201677106522</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.0884118209336783</v>
+        <v>177.6701088959745</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03126289308213943</v>
+        <v>0.00638890369966914</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11699.5334563191</v>
+        <v>-0.1155342811584675</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001549735705284635</v>
+        <v>0.01531304297837961</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1669.925107208569</v>
+        <v>9.484369796089456e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1573637951603069</v>
+        <v>0.1291531171874209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.75785062871967</v>
+        <v>5.921799916265947</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6244693908098944</v>
+        <v>0.7148105125636135</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-901.8134256151297</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4472439315476198</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1885.31956372714</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1741209976722382</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7430.770792328898</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1377591336193212</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-33.59102924150177</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5671517181611118</v>
       </c>
     </row>
   </sheetData>
@@ -2071,7 +2799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2103,75 +2831,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3030.729099433493</v>
+        <v>4437.189674015402</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009212183480625458</v>
+        <v>0.161893314154377</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>208.4377733983711</v>
+        <v>132.9417616234495</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0008591892168307851</v>
+        <v>0.1553940787550869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.03557903306272286</v>
+        <v>224.8468561705068</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4424399803810946</v>
+        <v>0.0008437742019728084</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6005.937047839901</v>
+        <v>0.006703719292996402</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04322081415712938</v>
+        <v>0.8902006199947855</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-612.4834580474244</v>
+        <v>9.662446665170044e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5783674655252483</v>
+        <v>0.03456938622628099</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>59.74902795696346</v>
+        <v>-4.904727693704416</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4889219880756486</v>
+        <v>0.7220824234223435</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-522.3746385680794</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5679423126083971</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-420.9109869924528</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7247804435760021</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2163.410315967732</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5607082416375453</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-14.77222481273051</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6889219738183254</v>
       </c>
     </row>
   </sheetData>
@@ -2185,7 +2965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2217,75 +2997,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3022.122597283697</v>
+        <v>8221.556356763354</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001710073836121495</v>
+        <v>0.02636439193803369</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.7434517649551</v>
+        <v>145.4908084319499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01833751753521539</v>
+        <v>0.1542025971911364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1346782273958692</v>
+        <v>132.3403192465942</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005551527522568489</v>
+        <v>0.01635179974838193</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7460.778326733354</v>
+        <v>-0.198702230827403</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03416477183684617</v>
+        <v>0.00109379290470556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3075.666335060821</v>
+        <v>0.0001165462393010043</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03086140664664901</v>
+        <v>0.02256158023505929</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.76315928453056</v>
+        <v>-11.8863507665356</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4744797354172952</v>
+        <v>0.4189500052674383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-885.2809588611308</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3562501201486176</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>3291.974965272917</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.03121335984885784</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-935.6088044930766</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8474755576510995</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-58.4514378412279</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1771856588320662</v>
       </c>
     </row>
   </sheetData>
@@ -2299,7 +3131,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2331,75 +3163,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2730.556080662853</v>
+        <v>322.5996023364264</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005384617244216744</v>
+        <v>0.9256156363419209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.4296405375935</v>
+        <v>-2.882884460007517</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03353419052425351</v>
+        <v>0.9779140714161545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07161619070956901</v>
+        <v>120.771042036468</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0718970846499366</v>
+        <v>0.05234795186488719</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11559.43418777789</v>
+        <v>-0.04548705706953859</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008523525741216631</v>
+        <v>0.3878163894552412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>801.8581603455004</v>
+        <v>4.477827466431775e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4847155171237844</v>
+        <v>0.4859084749269591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-17.05049199784469</v>
+        <v>4.821054523471496</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8640051067264665</v>
+        <v>0.7457927792718646</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2182.007312210111</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04397143303297852</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-319.1738127783537</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8212535645383539</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>13520.37475569345</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02382589361155309</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>45.73122787335691</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3747945273710904</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +3297,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2445,75 +3329,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2114.661689400237</v>
+        <v>4820.711765998964</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04700410869531113</v>
+        <v>0.1620291325349453</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.8881913611927</v>
+        <v>124.7938252657801</v>
       </c>
       <c r="C3" t="n">
-        <v>0.00507675080919671</v>
+        <v>0.2108805995610869</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09431625081135425</v>
+        <v>179.2057401742479</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02820477480755805</v>
+        <v>0.001597032850506572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13691.36343056695</v>
+        <v>-0.1307922626358097</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002730245380104214</v>
+        <v>0.004299046769383075</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>956.6267875806516</v>
+        <v>0.0001447855198048852</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4218400573178331</v>
+        <v>0.009601894412906252</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.84286259465669</v>
+        <v>-9.471652051693852</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7290757046649203</v>
+        <v>0.5763577616333913</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1203.46010873824</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3665196270228857</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>712.9405909752722</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5791799982440973</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9205.259301986591</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04176754107442783</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-30.26287058247486</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4766232215583422</v>
       </c>
     </row>
   </sheetData>
@@ -2527,7 +3463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2559,75 +3495,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2841.696702884371</v>
+        <v>3637.700950839568</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003926165656378993</v>
+        <v>0.2872871565122777</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.5334269589267</v>
+        <v>93.03295111791374</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03670914431726498</v>
+        <v>0.440285066347089</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08927781591036532</v>
+        <v>119.5382127031927</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0246907001165742</v>
+        <v>0.05148939680869209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10072.84350125235</v>
+        <v>-0.09251418169792719</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003531282066556332</v>
+        <v>0.04594691564246887</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1342.26910884366</v>
+        <v>7.276963950706043e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2319312415526973</v>
+        <v>0.1621090598077591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.36113065262191</v>
+        <v>-6.983525414833878</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5970060511070843</v>
+        <v>0.6536608864544428</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1714.490003419817</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.0912449796446765</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>516.9883334434285</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6759015166258826</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7953.625223088036</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07865567098590638</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>13.1113961958177</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7623091959242039</v>
       </c>
     </row>
   </sheetData>
@@ -2641,7 +3629,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2673,75 +3661,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2328.361490501892</v>
+        <v>6969.805829245073</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02983320613768626</v>
+        <v>0.09139036115547945</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.9296177672929</v>
+        <v>70.3374107792821</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008656117472012507</v>
+        <v>0.531209103102112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1325883676533222</v>
+        <v>175.5910153640019</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01606984390354447</v>
+        <v>0.005879841160478617</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11413.19771692718</v>
+        <v>-0.1752153546800842</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005232592298146543</v>
+        <v>0.009203211500648354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2067.201315826085</v>
+        <v>0.0001486591523259609</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1452197443352382</v>
+        <v>0.0239812432681571</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.2468947178524</v>
+        <v>-6.627312376307628</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4973331412870859</v>
+        <v>0.6703719752663044</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1237.982879400139</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3114043237126473</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2051.929298460055</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1909997215874211</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1195.4333783865</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8465547741328646</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-48.71016052497168</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3427237952788144</v>
       </c>
     </row>
   </sheetData>
@@ -2755,7 +3795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2787,75 +3827,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2585.602210277826</v>
+        <v>2311.124442675939</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01280593078047603</v>
+        <v>0.5558413139388385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>134.0472433057369</v>
+        <v>98.8356255869913</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07267807417675737</v>
+        <v>0.3901584819486394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08180328261652622</v>
+        <v>153.0123416545225</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05727271693713561</v>
+        <v>0.06226690574454849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11057.4936924855</v>
+        <v>-0.09980789764529333</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00189838888269068</v>
+        <v>0.0447801558680054</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1172.148761148349</v>
+        <v>0.0001101662274184977</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3664617827105864</v>
+        <v>0.04935399012734597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.38184017149322</v>
+        <v>7.260615670559716</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8849583419986264</v>
+        <v>0.6986148447913689</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1010.432191018498</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3938201551729561</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1364.85724040278</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3531986909695711</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7510.053983054058</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1278311627757072</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-9.017771631457109</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8467535944116363</v>
       </c>
     </row>
   </sheetData>
@@ -2869,7 +3961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2901,75 +3993,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4130.051425435527</v>
+        <v>5952.733534548332</v>
       </c>
       <c r="C2" t="n">
-        <v>3.916475833345191e-05</v>
+        <v>0.01855939307231223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>175.5069834944861</v>
+        <v>-20.84129153245112</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0001373873794490592</v>
+        <v>0.788076504894514</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.002181226182188661</v>
+        <v>201.76517605038</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9477864096060488</v>
+        <v>9.628763813308288e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2689.657861269234</v>
+        <v>-0.003342101019652849</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4322710578790481</v>
+        <v>0.9422683324975631</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-345.9627278276751</v>
+        <v>-2.777171935261662e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6872104730437494</v>
+        <v>0.6556499737538188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.358505846986986</v>
+        <v>9.542822303414859</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9712425802498266</v>
+        <v>0.4315284457287081</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>311.074425227062</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7454582033019035</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>235.3428968832966</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8140573235391797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2656.829018895503</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.510784885889666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-71.50109972769872</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.0815498845107509</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +4127,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3015,75 +4159,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3120.017879710838</v>
+        <v>6649.935175851951</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001502483178037338</v>
+        <v>0.07115013615475484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>128.3592066200969</v>
+        <v>72.95267273673085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02381540097126079</v>
+        <v>0.4980245500594328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1072642681551645</v>
+        <v>134.0300558287294</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02183675842543348</v>
+        <v>0.02502422618596375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10201.53563566229</v>
+        <v>-0.1454531861829975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002914671661069439</v>
+        <v>0.009292219206440014</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1101.380714899239</v>
+        <v>0.0001035311877015005</v>
       </c>
       <c r="C6" t="n">
-        <v>0.330075763343745</v>
+        <v>0.05092039149834983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.70076891658918</v>
+        <v>-12.99270261828794</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9060130318755326</v>
+        <v>0.4247919454772574</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-716.0233810929349</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5041992819047925</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>945.6001044498169</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4778026686206627</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3706.293462071535</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4334550763391357</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-27.44332949169225</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5310655310696533</v>
       </c>
     </row>
   </sheetData>
@@ -3097,7 +4293,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3129,75 +4325,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2335.863062164698</v>
+        <v>1872.4818555653</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01352277761855838</v>
+        <v>0.608065658335645</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.4825404887375</v>
+        <v>167.0222729934478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008156751461551651</v>
+        <v>0.1597311151733093</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08128132332227356</v>
+        <v>180.3247386900539</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0641251774530897</v>
+        <v>0.003112637015751915</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11499.99501081842</v>
+        <v>-0.1253176852342174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002216151722095693</v>
+        <v>0.01608007591641677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1344.97408821538</v>
+        <v>0.0001425240029108249</v>
       </c>
       <c r="C6" t="n">
-        <v>0.299594398254114</v>
+        <v>0.01864341698650259</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>32.4131646566774</v>
+        <v>0.8057918126039425</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7547428525853686</v>
+        <v>0.9632862963040262</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-989.1021109172998</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4669253071557411</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2180.509627637585</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.148369540909065</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5127.697159987987</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2819328492284883</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>14.02511989189952</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.7635354854153302</v>
       </c>
     </row>
   </sheetData>
@@ -3211,7 +4459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3243,75 +4491,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2587.302453675117</v>
+        <v>3062.785043343642</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01039041394428554</v>
+        <v>0.4662710362455601</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>136.6488256012988</v>
+        <v>85.43084269110773</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02700569475333084</v>
+        <v>0.4728985484009031</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08970789938843077</v>
+        <v>158.0953854135024</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05697504645658205</v>
+        <v>0.01114000953222705</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10422.1385798338</v>
+        <v>-0.1139140663820131</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005696113327067447</v>
+        <v>0.03291489437902121</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1621.886555914617</v>
+        <v>0.0001341241322299303</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2264679626008455</v>
+        <v>0.01888918457095304</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.72985038920456</v>
+        <v>0.1169866336289687</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9182358677425202</v>
+        <v>0.9951411255500707</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1163.452978930182</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3203421872112009</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1668.008824634406</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2541164973150402</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4895.023822989686</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3584972040536166</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.07997739576228469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9986491578435903</v>
       </c>
     </row>
   </sheetData>
@@ -3325,7 +4625,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,75 +4657,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2491.071795983035</v>
+        <v>1012.069944730843</v>
       </c>
       <c r="C2" t="n">
-        <v>0.007771659184934832</v>
+        <v>0.7638246491609924</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.2619018538771</v>
+        <v>17.04251893487674</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01633505133312968</v>
+        <v>0.888858555209785</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07272258150396885</v>
+        <v>135.5127011737781</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0672695257362922</v>
+        <v>0.07436363689192273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12190.26323372402</v>
+        <v>-0.0598605509382821</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005002656006037607</v>
+        <v>0.2402741651800875</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>801.7578908099722</v>
+        <v>4.101516587837526e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5171817666379223</v>
+        <v>0.5276290944472987</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.9067447678176</v>
+        <v>-1.791214780326463</v>
       </c>
       <c r="C7" t="n">
-        <v>0.886225351677804</v>
+        <v>0.9013937301145373</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1970.969986613829</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1169221365041802</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>34.12680419566777</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9830218648128448</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12280.78922843068</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02130876113899545</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>48.38081088519164</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3114574311252222</v>
       </c>
     </row>
   </sheetData>
@@ -3439,7 +4791,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3471,75 +4823,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4746.355348047037</v>
+        <v>6425.210938454203</v>
       </c>
       <c r="C2" t="n">
-        <v>4.830175498953789e-06</v>
+        <v>0.02786722105252186</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.5005494953523</v>
+        <v>35.44786287005093</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001617675155019391</v>
+        <v>0.7004983653695556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.006914906585721498</v>
+        <v>147.872458624363</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8547086519671736</v>
+        <v>0.003104200296607041</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>428.0397606356528</v>
+        <v>-0.03285311799032685</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9026007162539749</v>
+        <v>0.525803186917309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-405.2900783223547</v>
+        <v>3.605954116822384e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6406905291297278</v>
+        <v>0.6197313667210895</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.64058586951796</v>
+        <v>-7.572569634210609</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8651808951882294</v>
+        <v>0.5669180743125961</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>391.8225682180118</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7349497965804035</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-271.4637118239471</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8028769824268184</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>-1137.486408661163</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8172350968213452</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-18.29219613750096</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6067381879325092</v>
       </c>
     </row>
   </sheetData>
@@ -3553,7 +4957,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3585,75 +4989,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.084193250211</v>
+        <v>4000.375896481624</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1724140817182783</v>
+        <v>0.2309898982709874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>197.2311864529294</v>
+        <v>122.561727580655</v>
       </c>
       <c r="C3" t="n">
-        <v>0.002182879765040344</v>
+        <v>0.2869959825381155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09312582098981947</v>
+        <v>182.3838308814336</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02785769176505769</v>
+        <v>0.008511437752009507</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13887.81928732502</v>
+        <v>-0.1236225692018036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0003097519080360525</v>
+        <v>0.01397263579356603</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1841.569776890798</v>
+        <v>6.704745075824186e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1156516192687875</v>
+        <v>0.2598109353537599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>69.9485641070054</v>
+        <v>1.816875299584225</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5044047724522165</v>
+        <v>0.9135765481341004</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1185.641695279682</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3188078165881984</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1698.06944560299</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2089722332655207</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9986.672164114279</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.057788181611158</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-45.1989522100798</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.425512144311082</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +5123,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3699,75 +5155,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2719.667223747867</v>
+        <v>5289.081806638875</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006627825044326907</v>
+        <v>0.1312711914420415</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>155.9098184824765</v>
+        <v>92.7807374648221</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009424240025695722</v>
+        <v>0.3815857694213448</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.108322155651741</v>
+        <v>167.3789392715293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01556880884665413</v>
+        <v>0.005782722352329493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9417.551329030077</v>
+        <v>-0.1490744705473519</v>
       </c>
       <c r="C5" t="n">
-        <v>0.008638325912974153</v>
+        <v>0.004590889883951848</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2148.768891217759</v>
+        <v>0.0001299205604224911</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1079473115781809</v>
+        <v>0.0203104726821632</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.46440401900531</v>
+        <v>5.39768923238006</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6246494072268512</v>
+        <v>0.7225958458756992</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1554.271922516273</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.144653756596494</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2172.751260765312</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1242492532439514</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3452.575324304187</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4575066425607626</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-50.03956958821902</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.265593654282164</v>
       </c>
     </row>
   </sheetData>
@@ -3781,7 +5289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3813,75 +5321,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3446.226715816728</v>
+        <v>6579.747373660406</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0002311772049061893</v>
+        <v>0.02802712865791097</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.6736617490937</v>
+        <v>102.0085740461251</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001539707958319059</v>
+        <v>0.2869447223909579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.01888297948427975</v>
+        <v>156.243148940144</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6643014190178418</v>
+        <v>0.003067515632006244</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5500.351070849014</v>
+        <v>-0.07142414667615593</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07117259391352264</v>
+        <v>0.1488204548721613</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>104.9838330844823</v>
+        <v>8.795048588643655e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9340377016476923</v>
+        <v>0.07891183366261137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>79.01132941638954</v>
+        <v>2.458758413242293</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4090571932111806</v>
+        <v>0.8399833904172425</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1099.310468434783</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2305597664467908</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>432.1363504443343</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.7458207072437899</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>985.7936170729699</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8050180225761817</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-58.29593945990965</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1454265345061761</v>
       </c>
     </row>
   </sheetData>
@@ -3895,7 +5455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3927,75 +5487,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1842.847706655449</v>
+        <v>3856.477874346052</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09085766737930472</v>
+        <v>0.2745274628769923</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>195.386793707228</v>
+        <v>94.46068965659538</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004164598280974458</v>
+        <v>0.4259949385478584</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08037110767037131</v>
+        <v>183.5206738883533</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1070602799242278</v>
+        <v>0.01117479064812441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12606.20908713989</v>
+        <v>-0.09815724755299804</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001207676055430062</v>
+        <v>0.08213528961965003</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1652.328681239094</v>
+        <v>0.0001135652705970863</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1997732874745102</v>
+        <v>0.1000388355620504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.306341298054974</v>
+        <v>-5.086116542385781</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9819861343580325</v>
+        <v>0.7799284146631638</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-796.7978781494776</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5201281819893968</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1131.938679077774</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4466595658732364</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6591.63185149528</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2130818526674161</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-12.51322962391345</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8326973325325437</v>
       </c>
     </row>
   </sheetData>
@@ -4009,7 +5621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4041,75 +5653,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2586.821110289517</v>
+        <v>5627.899910609349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01704172338153278</v>
+        <v>0.07970072567877613</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>157.7765441357141</v>
+        <v>60.48299664488161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01022925829835902</v>
+        <v>0.5467597869355203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08489354963553818</v>
+        <v>176.7743258854452</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0369001699398771</v>
+        <v>0.004595337687556731</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12207.37692759836</v>
+        <v>-0.1124137054009702</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006379554470834261</v>
+        <v>0.01625188532072428</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1001.386967830902</v>
+        <v>0.0001362170234176392</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3733826722434863</v>
+        <v>0.02045116053991432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-22.89324191254985</v>
+        <v>-10.94281631388969</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8055170977232604</v>
+        <v>0.4293028377386294</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1669.205013652638</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1445016865331656</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>216.5820374996683</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.863437726303882</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8354.034152857999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09109596773267029</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-31.00601696375102</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4424377283100634</v>
       </c>
     </row>
   </sheetData>
@@ -4123,7 +5787,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4155,75 +5819,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2740.953311621705</v>
+        <v>-3115.903648162541</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004302123932311852</v>
+        <v>0.4136481059040591</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.8640085902918</v>
+        <v>34.70821413460732</v>
       </c>
       <c r="C3" t="n">
-        <v>0.06760717189425798</v>
+        <v>0.7236595532379874</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07721335605153212</v>
+        <v>144.4706025354686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04605186855622902</v>
+        <v>0.04015414055133298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>12008.09356230683</v>
+        <v>-0.08090986664102465</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004624326458056977</v>
+        <v>0.05813206469113474</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>587.1604364273426</v>
+        <v>8.894495858810467e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6154289251434971</v>
+        <v>0.07455145519386622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.681773569080974</v>
+        <v>24.98729918596841</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9420627819144247</v>
+        <v>0.1760891409784647</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1947.324800499938</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1085876279891351</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1569.364677268207</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2458553598021793</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>12563.82707532153</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.008704154369744447</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>57.29818548363025</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1880779761929108</v>
       </c>
     </row>
   </sheetData>
@@ -4237,7 +5953,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4269,75 +5985,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2237.03995520488</v>
+        <v>3334.024003590462</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02141750807358573</v>
+        <v>0.3493042966361881</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170.1334527973784</v>
+        <v>79.44470222946478</v>
       </c>
       <c r="C3" t="n">
-        <v>0.004910819525775183</v>
+        <v>0.4893537366564055</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08745443703525596</v>
+        <v>183.6174277646663</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03841132017333533</v>
+        <v>0.005626641009182204</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11918.98297170461</v>
+        <v>-0.1110270591397411</v>
       </c>
       <c r="C5" t="n">
-        <v>0.001324400828991654</v>
+        <v>0.02726551241292589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1571.52807251666</v>
+        <v>0.0001045411040835098</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2285593261133471</v>
+        <v>0.07259569966954453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.586612998952774</v>
+        <v>-4.863018047009898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9713401362484405</v>
+        <v>0.7756583890117312</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-748.9639658819306</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5838868914275821</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1496.363246009194</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2923610702818385</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6947.341778500204</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.136197851362315</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-1.665238674604055</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9718254288405173</v>
       </c>
     </row>
   </sheetData>
@@ -4351,7 +6119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4383,75 +6151,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2310.840270245223</v>
+        <v>5000.620294727931</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0193016027270066</v>
+        <v>0.1993627780181397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>152.7995267764376</v>
+        <v>148.0739642935085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009786719477191709</v>
+        <v>0.2159286512628978</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1031642626101298</v>
+        <v>169.2620720217276</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02374151572364198</v>
+        <v>0.004506587153612367</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11064.60116159911</v>
+        <v>-0.1436642265101975</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003665279104817557</v>
+        <v>0.009095920152558242</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1740.504879678418</v>
+        <v>0.0001253256889120748</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1605384239863379</v>
+        <v>0.02171216384116771</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>73.06605271453355</v>
+        <v>-8.108974360620977</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4954715715934536</v>
+        <v>0.6328251498064823</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-705.2297823397066</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5077651347170576</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2018.326073961877</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1451287389283564</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3949.241975497588</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4295886898349373</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-22.88448689418938</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6245753797919633</v>
       </c>
     </row>
   </sheetData>
@@ -4465,7 +6285,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4497,75 +6317,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1734.636584549286</v>
+        <v>6407.873465322809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1516533698197357</v>
+        <v>0.04454127989968286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>188.9756289553152</v>
+        <v>77.2905843788771</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005589585982805114</v>
+        <v>0.3656708386753145</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.07633637423098125</v>
+        <v>228.0690170308054</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1079369197782129</v>
+        <v>0.0002756600832089317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>13174.69339021422</v>
+        <v>-0.1459227590320222</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009624313984410609</v>
+        <v>0.002105628690222629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1578.934939142103</v>
+        <v>0.000194226503613947</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2653276189171155</v>
+        <v>0.004052222849333331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>43.0599374577549</v>
+        <v>9.85435992578202</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6629329384035947</v>
+        <v>0.4778898411774734</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2287.501591972769</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.04703321438073051</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1791.175556254979</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1854514632681081</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8085.393250627113</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08380627310752767</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-117.9501926138369</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.03084996580628585</v>
       </c>
     </row>
   </sheetData>
@@ -4579,7 +6451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4611,75 +6483,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3337.229425582735</v>
+        <v>5865.332092846294</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0003345622905580423</v>
+        <v>0.0928123005936019</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>171.9644247189933</v>
+        <v>105.4820220638741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.001313428922795231</v>
+        <v>0.3152028038791114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.001728982827947978</v>
+        <v>177.652380418093</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9729067266310649</v>
+        <v>0.001886872979074758</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>5958.741832212096</v>
+        <v>-0.05076964861480993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06280524695573013</v>
+        <v>0.4008533691814749</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-321.6505173050782</v>
+        <v>7.743049705922556e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7884221578357802</v>
+        <v>0.114308454520109</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>61.42522951297215</v>
+        <v>-3.718010545871685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5266565918907241</v>
+        <v>0.8064496045906558</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-748.3968799276295</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4397942015682802</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>139.8763692449552</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9157337229934194</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2098.226718405319</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6375934030075691</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-36.49563231412314</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3722324820323275</v>
       </c>
     </row>
   </sheetData>
@@ -4693,7 +6617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4725,75 +6649,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2024.990018864627</v>
+        <v>1986.998423088423</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03453889008736587</v>
+        <v>0.5709597470756467</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198.0038822994194</v>
+        <v>125.9734325277515</v>
       </c>
       <c r="C3" t="n">
-        <v>0.003679764994094226</v>
+        <v>0.2745952567155011</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09331803729160652</v>
+        <v>218.9675866531647</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02333354914922036</v>
+        <v>0.004053919964835599</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11672.77284062614</v>
+        <v>-0.09972855485493058</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008495323724490321</v>
+        <v>0.03802210249257133</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2083.207432768655</v>
+        <v>0.0001098771095739691</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08849908866054482</v>
+        <v>0.0584566638544614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.83317527741963</v>
+        <v>-2.924355718845455</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8510700741282419</v>
+        <v>0.8453212327232533</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-417.2907065955014</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7073957062745124</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1907.484487929168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1680101353960553</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7501.098585113306</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.09718888782609357</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10.50032834992679</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8153099970134534</v>
       </c>
     </row>
   </sheetData>
@@ -4807,7 +6783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4839,75 +6815,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2579.467953391808</v>
+        <v>2694.516459386352</v>
       </c>
       <c r="C2" t="n">
-        <v>0.008901990758264963</v>
+        <v>0.4354394990083182</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>121.9932006909782</v>
+        <v>104.0181136828229</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03819749397340881</v>
+        <v>0.4082122831899604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08778757492446321</v>
+        <v>127.0570293658773</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03428728268512022</v>
+        <v>0.04453261628115034</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10746.50103163968</v>
+        <v>-0.1123188357181024</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002659776342155078</v>
+        <v>0.02691188536005465</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1553.915940074877</v>
+        <v>0.0001017184371763803</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1971816736891965</v>
+        <v>0.07251226313703128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27.23646284896859</v>
+        <v>7.034352525136548</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8008228809820508</v>
+        <v>0.6680268427595328</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1310.592245969494</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2717277908550327</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1795.969852339205</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2118017760654125</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>6772.637501693936</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1739446415794446</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-11.02443140734744</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8087298506343183</v>
       </c>
     </row>
   </sheetData>
@@ -4921,7 +6949,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4953,75 +6981,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2980.548163854153</v>
+        <v>4037.201467215249</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0009693989806887924</v>
+        <v>0.2001001092783301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.514129874727</v>
+        <v>89.5189405290248</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01347184456290688</v>
+        <v>0.3270730754230434</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09255757509154872</v>
+        <v>115.6602205829111</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01720977844399776</v>
+        <v>0.02776189753486611</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11353.11571804317</v>
+        <v>-0.09199389416491144</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0005167109176957202</v>
+        <v>0.03170035137916096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>466.1252908731176</v>
+        <v>8.445274240298972e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6544137081566648</v>
+        <v>0.06935188801902745</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.40508224242592</v>
+        <v>-13.67199006742274</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8318906748464251</v>
+        <v>0.3400937214373217</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1238.625901787887</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2151708422282316</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-506.8603884506892</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.6660184396942642</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7580.456400250856</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.08337314068839508</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>26.58614650211115</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4955192841523611</v>
       </c>
     </row>
   </sheetData>
@@ -5035,7 +7115,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5067,75 +7147,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2444.745619193104</v>
+        <v>5060.438634158494</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01638260585706997</v>
+        <v>0.1910859342910469</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>151.8579474581052</v>
+        <v>166.1093606989324</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01117522241338635</v>
+        <v>0.1678421551043354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08426581540400585</v>
+        <v>162.2529684867579</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07829116304523831</v>
+        <v>0.009207894688486849</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10805.7870888345</v>
+        <v>-0.121096325839524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.005178027036305806</v>
+        <v>0.03172749019093588</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1465.185952026895</v>
+        <v>0.0001367693798497952</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2964251718561825</v>
+        <v>0.01745501697833566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.81630381935406</v>
+        <v>-8.792927258457965</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6873543634408366</v>
+        <v>0.610298265544307</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-937.3315488403196</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4296834245623579</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1336.893826788963</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.3566869558644397</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3649.399158584334</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4748057430909686</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-18.83949875491021</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6855685408517939</v>
       </c>
     </row>
   </sheetData>
@@ -5149,7 +7281,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5181,75 +7313,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2879.051435796224</v>
+        <v>3823.609839543829</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00177399214462705</v>
+        <v>0.3051475055924143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.4817629636987</v>
+        <v>47.82023590874911</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03991495100237356</v>
+        <v>0.6804905555151569</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09723713815863716</v>
+        <v>119.84090153815</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01919848094002984</v>
+        <v>0.05559742467123143</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10276.07686590422</v>
+        <v>-0.1170763116457528</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00216952501643666</v>
+        <v>0.02557416786190064</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1715.662189960753</v>
+        <v>7.063320986161557e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1336758634738792</v>
+        <v>0.2336778073044773</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.84470087828765</v>
+        <v>2.480957581285494</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8693487506220744</v>
+        <v>0.8821408141754096</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1025.84337808044</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.3427391795177775</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1701.525841692731</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2355512328498796</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>7325.903755622554</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1640652438963149</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-19.45586232447596</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6741930467446029</v>
       </c>
     </row>
   </sheetData>
@@ -5263,7 +7447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5295,75 +7479,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2509.175921114871</v>
+        <v>329.4433814457698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0128606235562222</v>
+        <v>0.9253096883407498</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>159.0871883240013</v>
+        <v>75.78663542477216</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02240606020926048</v>
+        <v>0.4468918318039818</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08807026234133791</v>
+        <v>181.515270892397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05298989446385647</v>
+        <v>0.0122733148265733</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11871.43698911589</v>
+        <v>-0.09484772735527514</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0008257956633601837</v>
+        <v>0.05016663960346687</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>886.2938945886954</v>
+        <v>0.0001012129150704536</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4695077516610086</v>
+        <v>0.05372067468665289</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.4716765220108</v>
+        <v>4.779402696226668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.794767834788064</v>
+        <v>0.7630238263568065</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2177.82263757648</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08180558551258245</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1069.566858671239</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4341706665215019</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9698.492727959263</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.02996207206075923</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>40.4256032984398</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.3649238890156938</v>
       </c>
     </row>
   </sheetData>
@@ -5377,7 +7613,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5409,75 +7645,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1859.027201687923</v>
+        <v>5216.067578183505</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08215571076247967</v>
+        <v>0.1761971729808218</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>181.038776995198</v>
+        <v>93.14751299476256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005416437205611354</v>
+        <v>0.4677332821882769</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09429070800970665</v>
+        <v>169.3231904693668</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03380430651294059</v>
+        <v>0.01174651592447577</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11139.33209322195</v>
+        <v>-0.1342882205544952</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00365329150203224</v>
+        <v>0.01168463637862762</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2413.739888713835</v>
+        <v>0.000125837432917963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0804492002531929</v>
+        <v>0.06911885736225767</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.10109556467313</v>
+        <v>0.5606109200289069</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4863275069203905</v>
+        <v>0.9716115111476953</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1296.014475458662</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2893460284918397</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>2023.304665010266</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1910165591534533</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3661.499721640332</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4993612404271934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-42.76771172057394</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4965046372591521</v>
       </c>
     </row>
   </sheetData>
@@ -5491,7 +7779,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5523,75 +7811,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2314.923641081059</v>
+        <v>5822.368448494147</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03671998391530398</v>
+        <v>0.08086217491591842</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>161.4560428793943</v>
+        <v>113.7981947827058</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008143265013003397</v>
+        <v>0.2875109800116468</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.09623449953168424</v>
+        <v>186.5682061185139</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03746491814665422</v>
+        <v>0.001732381731543164</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>11134.61587121669</v>
+        <v>-0.1228574913984125</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0146955499666979</v>
+        <v>0.009629762098291748</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1998.347751530103</v>
+        <v>0.0001728801847733986</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1428180472550435</v>
+        <v>0.005783365204451138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37.15658238561525</v>
+        <v>-6.382451714382036</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7280099810172959</v>
+        <v>0.6555525068083548</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-2200.124602991407</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05777525235166816</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1046.176366546084</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.449274073225438</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>8006.919755619161</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.07580323541152741</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-57.70700649021474</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1925150100807183</v>
       </c>
     </row>
   </sheetData>
@@ -5605,7 +7945,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5637,75 +7977,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4372.770417201724</v>
+        <v>4943.063644822288</v>
       </c>
       <c r="C2" t="n">
-        <v>3.667049985191524e-05</v>
+        <v>0.07117145589062149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.9128806625182</v>
+        <v>42.23783555762418</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0003727191042563732</v>
+        <v>0.6379037661450081</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.007602916621099742</v>
+        <v>179.0775381060472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8292743975519701</v>
+        <v>0.0008903844943290196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2228.64423120868</v>
+        <v>-0.04014938770223664</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5541659084314601</v>
+        <v>0.4534067634422557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-468.2759097851749</v>
+        <v>5.551489520740194e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5929047310091689</v>
+        <v>0.396268200096683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.301209419415613</v>
+        <v>-0.9065715275175847</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9512597650477436</v>
+        <v>0.941994132583856</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-281.5341545552055</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8030472146376008</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-134.6351619731286</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.9021449423988558</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>2840.754681648044</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.5775351415720396</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-20.08831308944676</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5737998332909224</v>
       </c>
     </row>
   </sheetData>
@@ -5719,7 +8111,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5751,75 +8143,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2611.433974926903</v>
+        <v>4419.023870456787</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01111091385683911</v>
+        <v>0.2184792040219833</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>143.5413763044101</v>
+        <v>129.5518052185008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01522832702938024</v>
+        <v>0.2631253929153952</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.08734041630011369</v>
+        <v>159.7104610612537</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05365861312135535</v>
+        <v>0.006806285839530448</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10034.45575262134</v>
+        <v>-0.1147352422880542</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00602095186183396</v>
+        <v>0.02099658537400663</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1498.132753859511</v>
+        <v>0.0001581011133687099</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2610347529352032</v>
+        <v>0.01189844818933613</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63.0691893515891</v>
+        <v>0.159957581166708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5709662590572582</v>
+        <v>0.9918126761918591</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1263.859456808218</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.2471108795221678</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1053.33072335652</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.4363387017516567</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3300.460840610051</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.4854643755575498</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.17345054118545</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6617214997572267</v>
       </c>
     </row>
   </sheetData>
@@ -5833,7 +8277,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5865,75 +8309,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3705.01727941128</v>
+        <v>3377.885956375673</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0004807691539883451</v>
+        <v>0.2408388472208141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>203.4795358575064</v>
+        <v>79.81737346472312</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004090647068983474</v>
+        <v>0.4494942996501331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.003547000770064757</v>
+        <v>220.1439188239438</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9268641129657869</v>
+        <v>0.001841155587843318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2630.10507603869</v>
+        <v>-0.01563642153323586</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5220129213248117</v>
+        <v>0.8083579597014583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>283.8593499886388</v>
+        <v>2.878851654943541e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.773131095467304</v>
+        <v>0.6936621041587306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.7863336774773</v>
+        <v>3.107438916315317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5638081744807607</v>
+        <v>0.8090846316729864</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>353.6504394203621</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.7843761002001928</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>797.2261220520871</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5343656001721884</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>1682.385186635391</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.7652584261797717</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-6.675993990599949</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8751022287678986</v>
       </c>
     </row>
   </sheetData>
@@ -5947,7 +8443,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5979,75 +8475,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2689.209155769589</v>
+        <v>5145.720793745522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.004888863258740359</v>
+        <v>0.1331227855708788</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>156.3671091570343</v>
+        <v>90.83564763203293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.005482400061648257</v>
+        <v>0.427070164743319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.1125162859404105</v>
+        <v>171.1286182032554</v>
       </c>
       <c r="C4" t="n">
-        <v>0.010029408216569</v>
+        <v>0.003633384371195098</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10084.30578819247</v>
+        <v>-0.1357545014755953</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004058439661574945</v>
+        <v>0.006839557516040175</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1989.440532096859</v>
+        <v>0.0001089398510564342</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1219158362404188</v>
+        <v>0.03845583842142738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.38639863044062</v>
+        <v>-7.349505256191186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7060323148308727</v>
+        <v>0.6258838243880083</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-926.4547218652569</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.4135577366433089</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1635.465567892115</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.257949018442089</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4683.597453769088</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2898816468100089</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-21.50375015679452</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.6149077143190448</v>
       </c>
     </row>
   </sheetData>
@@ -6061,7 +8609,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6093,75 +8641,127 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3095.382207827074</v>
+        <v>5369.770865064718</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001456690829365019</v>
+        <v>0.1997566764215306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>126.0725261787685</v>
+        <v>69.86753252362053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.02397677068661306</v>
+        <v>0.4906957989665296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.10554160995696</v>
+        <v>109.4698605210874</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02894309429005987</v>
+        <v>0.06333836395619048</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>10107.00425178726</v>
+        <v>-0.1209338647578748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.003703482630532678</v>
+        <v>0.05013600494370738</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1139.906445998951</v>
+        <v>7.958004634610051e-05</v>
       </c>
       <c r="C6" t="n">
-        <v>0.325030025133331</v>
+        <v>0.1337175214083042</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.62207421280101</v>
+        <v>-12.42945716692189</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9614243323055713</v>
+        <v>0.4846837398136227</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-1686.878766699345</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1429135052597064</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>441.2141466206558</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.741398367428253</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Commute_Trip</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>5944.804389431702</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.2691921067984666</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Age</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.7446534688032216</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.9873074876159029</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
+++ b/outputs/ML_Results/dist_LR/Düsseldorf.xlsx
@@ -7,56 +7,56 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ37235549" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ37436215" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ37530941" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ37625646" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ37724691" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ37825277" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ37924792" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ38025491" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ38125004" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="summ38225197" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="summ38318692" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="summ38418208" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="summ38525792" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="summ38642062" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="summ38740176" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="summ38837289" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="summ38939560" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="summ39047250" sheetId="18" state="visible" r:id="rId18"/>
-    <sheet name="summ39150201" sheetId="19" state="visible" r:id="rId19"/>
-    <sheet name="summ39240332" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet name="summ39331483" sheetId="21" state="visible" r:id="rId21"/>
-    <sheet name="summ39422327" sheetId="22" state="visible" r:id="rId22"/>
-    <sheet name="summ39524798" sheetId="23" state="visible" r:id="rId23"/>
-    <sheet name="summ39626798" sheetId="24" state="visible" r:id="rId24"/>
-    <sheet name="summ39720965" sheetId="25" state="visible" r:id="rId25"/>
-    <sheet name="summ39819858" sheetId="26" state="visible" r:id="rId26"/>
-    <sheet name="summ39915312" sheetId="27" state="visible" r:id="rId27"/>
-    <sheet name="summ40014138" sheetId="28" state="visible" r:id="rId28"/>
-    <sheet name="summ40117035" sheetId="29" state="visible" r:id="rId29"/>
-    <sheet name="summ40221065" sheetId="30" state="visible" r:id="rId30"/>
-    <sheet name="summ40327000" sheetId="31" state="visible" r:id="rId31"/>
-    <sheet name="summ40430401" sheetId="32" state="visible" r:id="rId32"/>
-    <sheet name="summ40537830" sheetId="33" state="visible" r:id="rId33"/>
-    <sheet name="summ40645156" sheetId="34" state="visible" r:id="rId34"/>
-    <sheet name="summ40753314" sheetId="35" state="visible" r:id="rId35"/>
-    <sheet name="summ40856061" sheetId="36" state="visible" r:id="rId36"/>
-    <sheet name="summ40953829" sheetId="37" state="visible" r:id="rId37"/>
-    <sheet name="summ41051339" sheetId="38" state="visible" r:id="rId38"/>
-    <sheet name="summ41143602" sheetId="39" state="visible" r:id="rId39"/>
-    <sheet name="summ41238457" sheetId="40" state="visible" r:id="rId40"/>
-    <sheet name="summ41337942" sheetId="41" state="visible" r:id="rId41"/>
-    <sheet name="summ41434008" sheetId="42" state="visible" r:id="rId42"/>
-    <sheet name="summ41528517" sheetId="43" state="visible" r:id="rId43"/>
-    <sheet name="summ41623421" sheetId="44" state="visible" r:id="rId44"/>
-    <sheet name="summ41716933" sheetId="45" state="visible" r:id="rId45"/>
-    <sheet name="summ41813965" sheetId="46" state="visible" r:id="rId46"/>
-    <sheet name="summ41908477" sheetId="47" state="visible" r:id="rId47"/>
-    <sheet name="summ42006092" sheetId="48" state="visible" r:id="rId48"/>
-    <sheet name="summ42102216" sheetId="49" state="visible" r:id="rId49"/>
-    <sheet name="summ42197782" sheetId="50" state="visible" r:id="rId50"/>
+    <sheet name="summ27351697" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ27579661" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ27678407" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ27776626" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ27875299" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ27973260" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ28074318" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ28192354" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ28297166" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ28393680" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="summ28489696" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="summ28585209" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="summ28686491" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="summ28786096" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="summ28887860" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="summ28989658" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="summ29092837" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="summ29196164" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="summ29294699" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="summ29399725" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="summ29505410" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="summ29609930" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="summ29714960" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="summ29815350" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="summ29911168" sheetId="25" state="visible" r:id="rId25"/>
+    <sheet name="summ30008187" sheetId="26" state="visible" r:id="rId26"/>
+    <sheet name="summ30105888" sheetId="27" state="visible" r:id="rId27"/>
+    <sheet name="summ30201790" sheetId="28" state="visible" r:id="rId28"/>
+    <sheet name="summ30300940" sheetId="29" state="visible" r:id="rId29"/>
+    <sheet name="summ30400156" sheetId="30" state="visible" r:id="rId30"/>
+    <sheet name="summ30498341" sheetId="31" state="visible" r:id="rId31"/>
+    <sheet name="summ30599987" sheetId="32" state="visible" r:id="rId32"/>
+    <sheet name="summ30701350" sheetId="33" state="visible" r:id="rId33"/>
+    <sheet name="summ30800385" sheetId="34" state="visible" r:id="rId34"/>
+    <sheet name="summ30898934" sheetId="35" state="visible" r:id="rId35"/>
+    <sheet name="summ30998184" sheetId="36" state="visible" r:id="rId36"/>
+    <sheet name="summ31101171" sheetId="37" state="visible" r:id="rId37"/>
+    <sheet name="summ31200270" sheetId="38" state="visible" r:id="rId38"/>
+    <sheet name="summ31349406" sheetId="39" state="visible" r:id="rId39"/>
+    <sheet name="summ31449914" sheetId="40" state="visible" r:id="rId40"/>
+    <sheet name="summ31547022" sheetId="41" state="visible" r:id="rId41"/>
+    <sheet name="summ31646644" sheetId="42" state="visible" r:id="rId42"/>
+    <sheet name="summ31747749" sheetId="43" state="visible" r:id="rId43"/>
+    <sheet name="summ31847692" sheetId="44" state="visible" r:id="rId44"/>
+    <sheet name="summ31947434" sheetId="45" state="visible" r:id="rId45"/>
+    <sheet name="summ32045526" sheetId="46" state="visible" r:id="rId46"/>
+    <sheet name="summ32146998" sheetId="47" state="visible" r:id="rId47"/>
+    <sheet name="summ32245751" sheetId="48" state="visible" r:id="rId48"/>
+    <sheet name="summ32340972" sheetId="49" state="visible" r:id="rId49"/>
+    <sheet name="summ32437735" sheetId="50" state="visible" r:id="rId50"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,7 +475,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -507,10 +507,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3859.263020458526</v>
+        <v>3661.042152004587</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1504746447281026</v>
+        <v>0.1595402981451509</v>
       </c>
     </row>
     <row r="3">
@@ -520,10 +520,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>57.66283822143146</v>
+        <v>60.01922885166027</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4585569154240037</v>
+        <v>0.4314940550852183</v>
       </c>
     </row>
     <row r="4">
@@ -533,10 +533,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.265191475843</v>
+        <v>190.917783002892</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008550356505176184</v>
+        <v>0.0001803632457378265</v>
       </c>
     </row>
     <row r="5">
@@ -546,10 +546,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003139445945685215</v>
+        <v>-1.647909119019703</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9385206575562515</v>
+        <v>0.6068642030850115</v>
       </c>
     </row>
     <row r="6">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.419955247415955e-05</v>
+        <v>34.71621987616037</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4373732509636994</v>
+        <v>0.4219380613926405</v>
       </c>
     </row>
     <row r="7">
@@ -572,10 +572,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.889471063309557</v>
+        <v>8.506011567625492</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7094913546532325</v>
+        <v>0.4463735226739576</v>
       </c>
     </row>
     <row r="8">
@@ -585,49 +585,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-720.1003616526441</v>
+        <v>-6.232356446458382</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4013165594195934</v>
+        <v>0.4483301685951715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-630.1003156292627</v>
+        <v>68.5646149610327</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5874242502683313</v>
+        <v>0.07087996049917145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6727.176492600453</v>
+        <v>-38.00911637728944</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08217553414081388</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-28.13426975117395</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5577295459612764</v>
+        <v>0.3856676796103158</v>
       </c>
     </row>
   </sheetData>
@@ -641,7 +628,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -673,10 +660,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2145.842225233764</v>
+        <v>3875.362901232153</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5706167109993913</v>
+        <v>0.2905904095182769</v>
       </c>
     </row>
     <row r="3">
@@ -686,10 +673,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.46286713509858</v>
+        <v>52.33781614440477</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7502254090175595</v>
+        <v>0.6529163984295054</v>
       </c>
     </row>
     <row r="4">
@@ -699,10 +686,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.3149447190016</v>
+        <v>169.369455321969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01171362156342015</v>
+        <v>0.02132473833721494</v>
       </c>
     </row>
     <row r="5">
@@ -712,10 +699,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1003032675045935</v>
+        <v>-6.970826792937999</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04022929759397929</v>
+        <v>0.1019119228174955</v>
       </c>
     </row>
     <row r="6">
@@ -725,10 +712,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.163437675037972e-05</v>
+        <v>87.81466378389989</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1363718399719445</v>
+        <v>0.1595153315412774</v>
       </c>
     </row>
     <row r="7">
@@ -738,10 +725,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.11474626906066</v>
+        <v>-2.046439632092856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6919948555843973</v>
+        <v>0.9038482439518403</v>
       </c>
     </row>
     <row r="8">
@@ -751,49 +738,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1028.402723916141</v>
+        <v>-13.00246786709685</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4565112315603786</v>
+        <v>0.352591999689078</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1983.579806122626</v>
+        <v>90.91558424137925</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1849857934487009</v>
+        <v>0.08389272516616324</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9077.521713321441</v>
+        <v>-17.69782288594828</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07920503177799307</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-15.72635174639888</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7892061798347748</v>
+        <v>0.7680442076477997</v>
       </c>
     </row>
   </sheetData>
@@ -807,7 +781,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -839,10 +813,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3547.446121525667</v>
+        <v>4435.953744053029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3095451635099072</v>
+        <v>0.1957014068676731</v>
       </c>
     </row>
     <row r="3">
@@ -852,10 +826,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.5175289183752</v>
+        <v>84.25718934815006</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3671818037863798</v>
+        <v>0.4923647312190602</v>
       </c>
     </row>
     <row r="4">
@@ -865,10 +839,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.0228767696668</v>
+        <v>169.9079469232611</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00627748539552273</v>
+        <v>0.00805076719997346</v>
       </c>
     </row>
     <row r="5">
@@ -878,10 +852,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1207058849414923</v>
+        <v>-9.296148046731769</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01476151635665656</v>
+        <v>0.02155871378858153</v>
       </c>
     </row>
     <row r="6">
@@ -891,10 +865,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.678470641861164e-05</v>
+        <v>95.1408135512248</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07855091333299584</v>
+        <v>0.08377064480816696</v>
       </c>
     </row>
     <row r="7">
@@ -904,10 +878,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.823098232052558</v>
+        <v>-8.272695680770738</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8565941583613724</v>
+        <v>0.5784411360642759</v>
       </c>
     </row>
     <row r="8">
@@ -917,49 +891,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1458.010646609897</v>
+        <v>-17.90588500581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2455079995534738</v>
+        <v>0.1458527936756353</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1410.11442424531</v>
+        <v>82.06116671419227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2895121294074413</v>
+        <v>0.09363192089798072</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7696.133907499375</v>
+        <v>-7.723319520410485</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1153157104084789</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.715097611169909</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8291723022494218</v>
+        <v>0.8641996308230553</v>
       </c>
     </row>
   </sheetData>
@@ -973,7 +934,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1005,10 +966,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-155.5425220254983</v>
+        <v>1271.805293467435</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9627754226980787</v>
+        <v>0.6742241645319789</v>
       </c>
     </row>
     <row r="3">
@@ -1018,10 +979,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.78896698544622</v>
+        <v>61.86755866214696</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5051021419245334</v>
+        <v>0.483130674837184</v>
       </c>
     </row>
     <row r="4">
@@ -1031,10 +992,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.3397206965388</v>
+        <v>161.446363211562</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001148075853767214</v>
+        <v>0.001324707298956161</v>
       </c>
     </row>
     <row r="5">
@@ -1044,10 +1005,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02474123978695701</v>
+        <v>-0.2331939946268813</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5899915310746642</v>
+        <v>0.9535085763322024</v>
       </c>
     </row>
     <row r="6">
@@ -1057,10 +1018,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.380372839034413e-05</v>
+        <v>78.75988862497658</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06567632162490646</v>
+        <v>0.07976259585095068</v>
       </c>
     </row>
     <row r="7">
@@ -1070,10 +1031,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25.16174570526798</v>
+        <v>16.55392296124008</v>
       </c>
       <c r="C7" t="n">
-        <v>0.140325873190799</v>
+        <v>0.2519093209824922</v>
       </c>
     </row>
     <row r="8">
@@ -1083,49 +1044,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63.72251312763206</v>
+        <v>-1.403300951127825</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9442264940043952</v>
+        <v>0.8745372678860706</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1200.94678267268</v>
+        <v>63.77194885211773</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3195832347763865</v>
+        <v>0.1169466377286336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7109.646928255897</v>
+        <v>-6.017178435661549</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08801046588221988</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-5.777385688735478</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8696059623780319</v>
+        <v>0.8643052223021765</v>
       </c>
     </row>
   </sheetData>
@@ -1139,7 +1087,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1171,10 +1119,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6639.467932419839</v>
+        <v>7019.593793646418</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08849211574056903</v>
+        <v>0.06313013006311938</v>
       </c>
     </row>
     <row r="3">
@@ -1184,10 +1132,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>74.11574725273334</v>
+        <v>68.58190658210395</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4847185986086338</v>
+        <v>0.5079455010804559</v>
       </c>
     </row>
     <row r="4">
@@ -1197,10 +1145,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166.6438592362989</v>
+        <v>159.9949162293968</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007796772343581461</v>
+        <v>0.007466075017623732</v>
       </c>
     </row>
     <row r="5">
@@ -1210,10 +1158,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1320865856024683</v>
+        <v>-11.72857479061174</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01754079553907412</v>
+        <v>0.01125357594780698</v>
       </c>
     </row>
     <row r="6">
@@ -1223,10 +1171,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001277332600323811</v>
+        <v>125.817114193872</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05237149974574652</v>
+        <v>0.0509251312684266</v>
       </c>
     </row>
     <row r="7">
@@ -1236,10 +1184,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-14.23953608988543</v>
+        <v>-17.82754661173331</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4183666214269721</v>
+        <v>0.2664091823508489</v>
       </c>
     </row>
     <row r="8">
@@ -1249,49 +1197,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-606.5078414816248</v>
+        <v>-5.732867019207099</v>
       </c>
       <c r="C8" t="n">
-        <v>0.631366871040046</v>
+        <v>0.6437885145986937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>766.0262539526739</v>
+        <v>29.434554607883</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5970150926215272</v>
+        <v>0.5783945127402845</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2648.518463453824</v>
+        <v>-21.89712208996615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6248803069703749</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-25.65923326755554</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6550279466372894</v>
+        <v>0.6954902262716616</v>
       </c>
     </row>
   </sheetData>
@@ -1305,7 +1240,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1337,10 +1272,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4143.946656691363</v>
+        <v>4241.416499288998</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1630939629732788</v>
+        <v>0.1422221549263881</v>
       </c>
     </row>
     <row r="3">
@@ -1350,10 +1285,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>147.1758491289687</v>
+        <v>143.5245464428376</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1493695374991009</v>
+        <v>0.1468975725325557</v>
       </c>
     </row>
     <row r="4">
@@ -1363,10 +1298,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>137.2509183094903</v>
+        <v>132.3751901470234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01772733954437022</v>
+        <v>0.01424817178741389</v>
       </c>
     </row>
     <row r="5">
@@ -1376,10 +1311,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1047576080850973</v>
+        <v>-9.778282504361364</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01895356767004135</v>
+        <v>0.007854362930204743</v>
       </c>
     </row>
     <row r="6">
@@ -1389,10 +1324,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001214037072297255</v>
+        <v>119.8812599941296</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02311598659337412</v>
+        <v>0.02094061107934575</v>
       </c>
     </row>
     <row r="7">
@@ -1402,10 +1337,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.866394321129093</v>
+        <v>-5.807147101377307</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7143208428057133</v>
+        <v>0.645912740593513</v>
       </c>
     </row>
     <row r="8">
@@ -1415,49 +1350,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2257.696256433803</v>
+        <v>-23.54807239272803</v>
       </c>
       <c r="C8" t="n">
-        <v>0.03961934426556751</v>
+        <v>0.02216060249182814</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>356.2888957535386</v>
+        <v>104.4443835161886</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7642037082278923</v>
+        <v>0.01356050952904058</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10145.59682655366</v>
+        <v>-17.25789919913356</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02190767219476164</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-19.18501172075091</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6614415681069655</v>
+        <v>0.6835936896435568</v>
       </c>
     </row>
   </sheetData>
@@ -1471,7 +1393,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1503,10 +1425,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4805.346590287567</v>
+        <v>6275.68436178023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2221811178276391</v>
+        <v>0.1065947396721466</v>
       </c>
     </row>
     <row r="3">
@@ -1516,10 +1438,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>99.49835499680654</v>
+        <v>63.86559983915259</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3757591898755813</v>
+        <v>0.562709213399279</v>
       </c>
     </row>
     <row r="4">
@@ -1529,10 +1451,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.9724498914005</v>
+        <v>131.6471126391997</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03274332597788526</v>
+        <v>0.07745010996623322</v>
       </c>
     </row>
     <row r="5">
@@ -1542,10 +1464,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1413433587782002</v>
+        <v>-10.19901999575862</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01156860450749695</v>
+        <v>0.02525026686577696</v>
       </c>
     </row>
     <row r="6">
@@ -1555,10 +1477,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001396231672761312</v>
+        <v>123.5497857249997</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02840972195307467</v>
+        <v>0.04847229936768803</v>
       </c>
     </row>
     <row r="7">
@@ -1568,10 +1490,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.909363586051537</v>
+        <v>-7.76227883268281</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9547525645266177</v>
+        <v>0.6035378189544792</v>
       </c>
     </row>
     <row r="8">
@@ -1581,49 +1503,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1205.798740582061</v>
+        <v>-15.73929530845466</v>
       </c>
       <c r="C8" t="n">
-        <v>0.265152375812011</v>
+        <v>0.1431036485511782</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2184.095313453403</v>
+        <v>40.2256690130055</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1945566396914892</v>
+        <v>0.4444859491887458</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2945.365875197163</v>
+        <v>-29.37381115270026</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5721991088597205</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-33.57505667585053</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4938567711481843</v>
+        <v>0.5551272840180641</v>
       </c>
     </row>
   </sheetData>
@@ -1637,7 +1546,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1669,10 +1578,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4765.107907640286</v>
+        <v>5367.998381677615</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1762884757829274</v>
+        <v>0.1183528741921717</v>
       </c>
     </row>
     <row r="3">
@@ -1682,10 +1591,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>112.6413020330018</v>
+        <v>111.8852022546183</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3070367946871333</v>
+        <v>0.3059373339122025</v>
       </c>
     </row>
     <row r="4">
@@ -1695,10 +1604,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8367875041702</v>
+        <v>157.2533772127349</v>
       </c>
       <c r="C4" t="n">
-        <v>0.007598689506206069</v>
+        <v>0.009058402753082223</v>
       </c>
     </row>
     <row r="5">
@@ -1708,10 +1617,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1062244119138187</v>
+        <v>-8.629424473831332</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0303665276128095</v>
+        <v>0.03569296029437204</v>
       </c>
     </row>
     <row r="6">
@@ -1721,10 +1630,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001407018119841062</v>
+        <v>152.0691897368745</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06385808456055045</v>
+        <v>0.04111437637041606</v>
       </c>
     </row>
     <row r="7">
@@ -1734,10 +1643,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.345601429649946</v>
+        <v>-0.8488596361349039</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7412777103729016</v>
+        <v>0.9523070435275405</v>
       </c>
     </row>
     <row r="8">
@@ -1747,49 +1656,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1198.640524803146</v>
+        <v>-13.37461344641665</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2569309391330623</v>
+        <v>0.1978872562125036</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1176.970510686264</v>
+        <v>46.43916882580177</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4144448981377927</v>
+        <v>0.3849946436097266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5250.912582454615</v>
+        <v>-41.39497396877123</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3359209044026488</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-53.29333642417056</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3665797149702368</v>
+        <v>0.4636189546583825</v>
       </c>
     </row>
   </sheetData>
@@ -1803,7 +1699,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1835,10 +1731,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3651.888371583978</v>
+        <v>4298.459142646721</v>
       </c>
       <c r="C2" t="n">
-        <v>0.340401729218104</v>
+        <v>0.2665703561012857</v>
       </c>
     </row>
     <row r="3">
@@ -1848,10 +1744,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127.6962123813468</v>
+        <v>122.0142271076775</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2640442174054711</v>
+        <v>0.2917477056022032</v>
       </c>
     </row>
     <row r="4">
@@ -1861,10 +1757,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.9896363307892</v>
+        <v>148.5425791454157</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009499717674394059</v>
+        <v>0.01437355673220204</v>
       </c>
     </row>
     <row r="5">
@@ -1874,10 +1770,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1411781516192798</v>
+        <v>-10.53836941148961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01045301584704779</v>
+        <v>0.02050022207641619</v>
       </c>
     </row>
     <row r="6">
@@ -1887,10 +1783,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.700648683716913e-05</v>
+        <v>94.19247119234159</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07137320814087196</v>
+        <v>0.08277696327064389</v>
       </c>
     </row>
     <row r="7">
@@ -1900,10 +1796,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.41209111658668</v>
+        <v>-5.932618747920131</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8848167100796642</v>
+        <v>0.7031048007088982</v>
       </c>
     </row>
     <row r="8">
@@ -1913,49 +1809,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1113.778773207292</v>
+        <v>-13.31871456600128</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3464598345020573</v>
+        <v>0.2643817097438715</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1865.140453873699</v>
+        <v>82.44608253170404</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2131619582515499</v>
+        <v>0.09666721186746885</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7089.311238250812</v>
+        <v>-10.67840165339101</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1511208370363131</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-22.70683467455257</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6387299134114106</v>
+        <v>0.8241583533790763</v>
       </c>
     </row>
   </sheetData>
@@ -1969,7 +1852,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2001,10 +1884,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5608.377034077233</v>
+        <v>5403.15029676918</v>
       </c>
       <c r="C2" t="n">
-        <v>0.06036809560779394</v>
+        <v>0.05619123198253709</v>
       </c>
     </row>
     <row r="3">
@@ -2014,10 +1897,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>63.02501944030996</v>
+        <v>70.42888270109637</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5255473135780573</v>
+        <v>0.4539376483642614</v>
       </c>
     </row>
     <row r="4">
@@ -2027,10 +1910,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>193.6915577320784</v>
+        <v>196.058001618782</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001085821485721179</v>
+        <v>0.0006562279831840783</v>
       </c>
     </row>
     <row r="5">
@@ -2040,10 +1923,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.02704948211242261</v>
+        <v>-3.666936440510122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6292902229213777</v>
+        <v>0.4131173564974407</v>
       </c>
     </row>
     <row r="6">
@@ -2053,10 +1936,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.727076790733746e-05</v>
+        <v>71.46124474069268</v>
       </c>
       <c r="C6" t="n">
-        <v>0.346930904485223</v>
+        <v>0.2977615458730213</v>
       </c>
     </row>
     <row r="7">
@@ -2066,10 +1949,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.240950740161928</v>
+        <v>-2.162040335459785</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8028532283516834</v>
+        <v>0.8590449107367296</v>
       </c>
     </row>
     <row r="8">
@@ -2079,49 +1962,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-997.8259617562239</v>
+        <v>-9.890121969032506</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4356564448908626</v>
+        <v>0.4290697485278941</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-349.0698709977753</v>
+        <v>20.76654336595089</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7672799201769894</v>
+        <v>0.6848369708122075</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1940.309927508337</v>
+        <v>-29.28690918251387</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7118584415200164</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-28.29719242086927</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4752101130147243</v>
+        <v>0.4482265783314207</v>
       </c>
     </row>
   </sheetData>
@@ -2135,7 +2005,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2167,10 +2037,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2838.095681540637</v>
+        <v>3143.127171125298</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4011720132881319</v>
+        <v>0.3491472380670529</v>
       </c>
     </row>
     <row r="3">
@@ -2180,10 +2050,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.76824343076282</v>
+        <v>40.29437906208068</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5181789280271816</v>
+        <v>0.6745142111026355</v>
       </c>
     </row>
     <row r="4">
@@ -2193,10 +2063,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.3313891943536</v>
+        <v>123.3846401452072</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03672672661591248</v>
+        <v>0.05388933358326358</v>
       </c>
     </row>
     <row r="5">
@@ -2206,10 +2076,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1045833643950858</v>
+        <v>-8.075197809829962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.031948133486907</v>
+        <v>0.04233197455332964</v>
       </c>
     </row>
     <row r="6">
@@ -2219,10 +2089,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.224558893200388e-05</v>
+        <v>79.01307129858429</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06698174886540562</v>
+        <v>0.09585225745341561</v>
       </c>
     </row>
     <row r="7">
@@ -2232,10 +2102,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.897984885313278</v>
+        <v>-10.85309892192883</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5729727073467359</v>
+        <v>0.486934775291947</v>
       </c>
     </row>
     <row r="8">
@@ -2245,49 +2115,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-559.8294171450307</v>
+        <v>-9.1984244695482</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5910283039882622</v>
+        <v>0.3423082344831672</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1229.531151470263</v>
+        <v>78.65155362707321</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3620873653654815</v>
+        <v>0.09588470750866956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6552.563117444643</v>
+        <v>34.92760697766619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1820177411996702</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>29.67290105892408</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4724702652633751</v>
+        <v>0.3924488559838755</v>
       </c>
     </row>
   </sheetData>
@@ -2301,7 +2158,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2333,10 +2190,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4270.849492186542</v>
+        <v>5478.169862144981</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2601853961674908</v>
+        <v>0.1662795766827084</v>
       </c>
     </row>
     <row r="3">
@@ -2346,10 +2203,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>191.7126209931986</v>
+        <v>125.8718288984391</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1493695806931048</v>
+        <v>0.3400659640503332</v>
       </c>
     </row>
     <row r="4">
@@ -2359,10 +2216,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>236.9779446542727</v>
+        <v>200.9355707986433</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01349223979239869</v>
+        <v>0.03574067467718035</v>
       </c>
     </row>
     <row r="5">
@@ -2372,10 +2229,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1403707809695094</v>
+        <v>-9.573865107563197</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009950106898139677</v>
+        <v>0.04394556147229314</v>
       </c>
     </row>
     <row r="6">
@@ -2385,10 +2242,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001596554495207409</v>
+        <v>147.1003645192527</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01047797945523299</v>
+        <v>0.02115541098437471</v>
       </c>
     </row>
     <row r="7">
@@ -2398,10 +2255,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.737158172929924</v>
+        <v>-9.46710248486734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7784160461763059</v>
+        <v>0.5896676718998908</v>
       </c>
     </row>
     <row r="8">
@@ -2411,49 +2268,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1183.030659681801</v>
+        <v>-17.20442951862756</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2655425942268168</v>
+        <v>0.1136965410451721</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2397.05028144499</v>
+        <v>39.52067528328422</v>
       </c>
       <c r="C9" t="n">
-        <v>0.08876157768581226</v>
+        <v>0.4740219811897262</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2162.926010938747</v>
+        <v>-17.31155299085157</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6840718041368092</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-16.48742916153148</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7247009758183669</v>
+        <v>0.7254946339498387</v>
       </c>
     </row>
   </sheetData>
@@ -2467,7 +2311,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2499,10 +2343,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3847.218374962789</v>
+        <v>5074.637004014025</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3112379105112488</v>
+        <v>0.1672500364361604</v>
       </c>
     </row>
     <row r="3">
@@ -2512,10 +2356,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.62678636946109</v>
+        <v>47.77664568561053</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5395122281382431</v>
+        <v>0.6692466764277867</v>
       </c>
     </row>
     <row r="4">
@@ -2525,10 +2369,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.0817619395637</v>
+        <v>129.3680571750914</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02188413798885877</v>
+        <v>0.03566342771849822</v>
       </c>
     </row>
     <row r="5">
@@ -2538,10 +2382,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1312223919130054</v>
+        <v>-9.746350315542067</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02391937039667665</v>
+        <v>0.03878958335050059</v>
       </c>
     </row>
     <row r="6">
@@ -2551,10 +2395,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001042907205649301</v>
+        <v>87.61494639961458</v>
       </c>
       <c r="C6" t="n">
-        <v>0.09061096199934537</v>
+        <v>0.1387175494034402</v>
       </c>
     </row>
     <row r="7">
@@ -2564,10 +2408,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.3336577652037604</v>
+        <v>-9.153502772703298</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9852976636852611</v>
+        <v>0.5745174280166209</v>
       </c>
     </row>
     <row r="8">
@@ -2577,49 +2421,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1475.75226301683</v>
+        <v>-14.19945111754193</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2656718563158937</v>
+        <v>0.2849001867531387</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1610.918580979699</v>
+        <v>65.93173346638645</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2855975592391846</v>
+        <v>0.1910191052612492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5684.793460336467</v>
+        <v>-6.768787185163291</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2621041090130524</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.388262720249472</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8376651141394093</v>
+        <v>0.8828659003325209</v>
       </c>
     </row>
   </sheetData>
@@ -2633,7 +2464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2665,10 +2496,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3386.711585105399</v>
+        <v>4403.370228707381</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3217199899734667</v>
+        <v>0.2009249493065038</v>
       </c>
     </row>
     <row r="3">
@@ -2678,10 +2509,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.451211492363</v>
+        <v>87.94344639086262</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4018201677106522</v>
+        <v>0.4791522519018621</v>
       </c>
     </row>
     <row r="4">
@@ -2691,10 +2522,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.6701088959745</v>
+        <v>156.3617738074582</v>
       </c>
       <c r="C4" t="n">
-        <v>0.00638890369966914</v>
+        <v>0.01302226821962967</v>
       </c>
     </row>
     <row r="5">
@@ -2704,10 +2535,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1155342811584675</v>
+        <v>-8.35455541272102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01531304297837961</v>
+        <v>0.03926816693429464</v>
       </c>
     </row>
     <row r="6">
@@ -2717,10 +2548,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.484369796089456e-05</v>
+        <v>98.32036292349193</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1291531171874209</v>
+        <v>0.1238348623183901</v>
       </c>
     </row>
     <row r="7">
@@ -2730,10 +2561,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.921799916265947</v>
+        <v>-2.799927520484914</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7148105125636135</v>
+        <v>0.8546085964082921</v>
       </c>
     </row>
     <row r="8">
@@ -2743,49 +2574,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-901.8134256151297</v>
+        <v>-12.78608408085625</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4472439315476198</v>
+        <v>0.2829088594772665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1885.31956372714</v>
+        <v>74.61722186856569</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1741209976722382</v>
+        <v>0.144489786807227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7430.770792328898</v>
+        <v>-20.74072960033857</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1377591336193212</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-33.59102924150177</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5671517181611118</v>
+        <v>0.7259852850335142</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2831,10 +2649,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4437.189674015402</v>
+        <v>4076.080109931567</v>
       </c>
       <c r="C2" t="n">
-        <v>0.161893314154377</v>
+        <v>0.1628429439738532</v>
       </c>
     </row>
     <row r="3">
@@ -2844,10 +2662,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>132.9417616234495</v>
+        <v>135.7010751707338</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1553940787550869</v>
+        <v>0.1368202927996752</v>
       </c>
     </row>
     <row r="4">
@@ -2857,10 +2675,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224.8468561705068</v>
+        <v>231.4376523802299</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008437742019728084</v>
+        <v>0.0002735135250733866</v>
       </c>
     </row>
     <row r="5">
@@ -2870,10 +2688,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.006703719292996402</v>
+        <v>-0.2379460567347316</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8902006199947855</v>
+        <v>0.9528238235762984</v>
       </c>
     </row>
     <row r="6">
@@ -2883,10 +2701,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.662446665170044e-05</v>
+        <v>98.54457061142216</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03456938622628099</v>
+        <v>0.02661396417315564</v>
       </c>
     </row>
     <row r="7">
@@ -2896,10 +2714,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.904727693704416</v>
+        <v>-3.182653303571314</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7220824234223435</v>
+        <v>0.8004200012295706</v>
       </c>
     </row>
     <row r="8">
@@ -2909,49 +2727,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-522.3746385680794</v>
+        <v>-4.628892109797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5679423126083971</v>
+        <v>0.5979423482137565</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-420.9109869924528</v>
+        <v>22.69870096861441</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7247804435760021</v>
+        <v>0.5310562341023743</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2163.410315967732</v>
+        <v>-14.36534564078983</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5607082416375453</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-14.77222481273051</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6889219738183254</v>
+        <v>0.6902039016839572</v>
       </c>
     </row>
   </sheetData>
@@ -2965,7 +2770,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2997,10 +2802,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8221.556356763354</v>
+        <v>8094.984823704144</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02636439193803369</v>
+        <v>0.04350620520207898</v>
       </c>
     </row>
     <row r="3">
@@ -3010,10 +2815,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>145.4908084319499</v>
+        <v>105.7111986914506</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1542025971911364</v>
+        <v>0.3313992022299312</v>
       </c>
     </row>
     <row r="4">
@@ -3023,10 +2828,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>132.3403192465942</v>
+        <v>115.0330749005293</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01635179974838193</v>
+        <v>0.04836297303303385</v>
       </c>
     </row>
     <row r="5">
@@ -3036,10 +2841,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.198702230827403</v>
+        <v>-11.8325425781416</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00109379290470556</v>
+        <v>0.01158537254341505</v>
       </c>
     </row>
     <row r="6">
@@ -3049,10 +2854,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001165462393010043</v>
+        <v>105.8902221018007</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02256158023505929</v>
+        <v>0.05275750667918768</v>
       </c>
     </row>
     <row r="7">
@@ -3062,10 +2867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-11.8863507665356</v>
+        <v>-18.9356126265856</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4189500052674383</v>
+        <v>0.2345974777318559</v>
       </c>
     </row>
     <row r="8">
@@ -3075,49 +2880,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-885.2809588611308</v>
+        <v>-13.6617498319674</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3562501201486176</v>
+        <v>0.1883544304490221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3291.974965272917</v>
+        <v>26.13301448151913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03121335984885784</v>
+        <v>0.6068207698200001</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-935.6088044930766</v>
+        <v>-34.12192295496405</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8474755576510995</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-58.4514378412279</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1771856588320662</v>
+        <v>0.4512912742704688</v>
       </c>
     </row>
   </sheetData>
@@ -3131,7 +2923,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3163,10 +2955,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>322.5996023364264</v>
+        <v>305.2348606322785</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9256156363419209</v>
+        <v>0.9279079453136323</v>
       </c>
     </row>
     <row r="3">
@@ -3176,10 +2968,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2.882884460007517</v>
+        <v>3.571752400695573</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9779140714161545</v>
+        <v>0.9708674043806884</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +2981,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.771042036468</v>
+        <v>123.920048272571</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05234795186488719</v>
+        <v>0.03690378032966248</v>
       </c>
     </row>
     <row r="5">
@@ -3202,10 +2994,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04548705706953859</v>
+        <v>-5.31823273490966</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3878163894552412</v>
+        <v>0.1779604050469568</v>
       </c>
     </row>
     <row r="6">
@@ -3215,10 +3007,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.477827466431775e-05</v>
+        <v>49.00570271520962</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4859084749269591</v>
+        <v>0.4149858768596865</v>
       </c>
     </row>
     <row r="7">
@@ -3228,10 +3020,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.821054523471496</v>
+        <v>6.092837494994807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7457927792718646</v>
+        <v>0.6507006704220146</v>
       </c>
     </row>
     <row r="8">
@@ -3241,49 +3033,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2182.007312210111</v>
+        <v>-21.02857933813192</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04397143303297852</v>
+        <v>0.03491147095327852</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-319.1738127783537</v>
+        <v>131.0730781940398</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8212535645383539</v>
+        <v>0.01796140263942259</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13520.37475569345</v>
+        <v>41.78812647301298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02382589361155309</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>45.73122787335691</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3747945273710904</v>
+        <v>0.3765900418252242</v>
       </c>
     </row>
   </sheetData>
@@ -3297,7 +3076,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3329,10 +3108,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4820.711765998964</v>
+        <v>5537.059500645682</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1620291325349453</v>
+        <v>0.08068820504451935</v>
       </c>
     </row>
     <row r="3">
@@ -3342,10 +3121,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>124.7938252657801</v>
+        <v>120.019282512958</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2108805995610869</v>
+        <v>0.2184163444031957</v>
       </c>
     </row>
     <row r="4">
@@ -3355,10 +3134,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.2057401742479</v>
+        <v>173.5138867807761</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001597032850506572</v>
+        <v>0.001426221610270748</v>
       </c>
     </row>
     <row r="5">
@@ -3368,10 +3147,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1307922626358097</v>
+        <v>-11.90054189154146</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004299046769383075</v>
+        <v>0.002269127442462298</v>
       </c>
     </row>
     <row r="6">
@@ -3381,10 +3160,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001447855198048852</v>
+        <v>142.3452779726235</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009601894412906252</v>
+        <v>0.009108800897093344</v>
       </c>
     </row>
     <row r="7">
@@ -3394,10 +3173,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-9.471652051693852</v>
+        <v>-14.06814859095417</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5763577616333913</v>
+        <v>0.3366898546980794</v>
       </c>
     </row>
     <row r="8">
@@ -3407,49 +3186,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1203.46010873824</v>
+        <v>-11.3257328521734</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3665196270228857</v>
+        <v>0.3845126658376437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>712.9405909752722</v>
+        <v>95.0505042146286</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5791799982440973</v>
+        <v>0.03167756899117935</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9205.259301986591</v>
+        <v>-31.82555609428036</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04176754107442783</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-30.26287058247486</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4766232215583422</v>
+        <v>0.4456786672487003</v>
       </c>
     </row>
   </sheetData>
@@ -3463,7 +3229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3495,10 +3261,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3637.700950839568</v>
+        <v>3875.771089823789</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2872871565122777</v>
+        <v>0.2409689037921988</v>
       </c>
     </row>
     <row r="3">
@@ -3508,10 +3274,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.03295111791374</v>
+        <v>83.82036824858562</v>
       </c>
       <c r="C3" t="n">
-        <v>0.440285066347089</v>
+        <v>0.4692239435784319</v>
       </c>
     </row>
     <row r="4">
@@ -3521,10 +3287,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.5382127031927</v>
+        <v>112.743236059669</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05148939680869209</v>
+        <v>0.05022126279614199</v>
       </c>
     </row>
     <row r="5">
@@ -3534,10 +3300,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09251418169792719</v>
+        <v>-8.268988506462911</v>
       </c>
       <c r="C5" t="n">
-        <v>0.04594691564246887</v>
+        <v>0.03197413563319113</v>
       </c>
     </row>
     <row r="6">
@@ -3547,10 +3313,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.276963950706043e-05</v>
+        <v>69.31396225568815</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1621090598077591</v>
+        <v>0.1670518237502282</v>
       </c>
     </row>
     <row r="7">
@@ -3560,10 +3326,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.983525414833878</v>
+        <v>-9.040801875882792</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6536608864544428</v>
+        <v>0.5324768856679096</v>
       </c>
     </row>
     <row r="8">
@@ -3573,49 +3339,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1714.490003419817</v>
+        <v>-18.24981699682304</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0912449796446765</v>
+        <v>0.05831039744074759</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>516.9883334434285</v>
+        <v>82.8301704889019</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6759015166258826</v>
+        <v>0.05814494867892401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7953.625223088036</v>
+        <v>15.96510516618929</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07865567098590638</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>13.1113961958177</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7623091959242039</v>
+        <v>0.7033375222231344</v>
       </c>
     </row>
   </sheetData>
@@ -3629,7 +3382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3661,10 +3414,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6969.805829245073</v>
+        <v>6820.298453289953</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09139036115547945</v>
+        <v>0.1036249663133297</v>
       </c>
     </row>
     <row r="3">
@@ -3674,10 +3427,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>70.3374107792821</v>
+        <v>64.2696158118539</v>
       </c>
       <c r="C3" t="n">
-        <v>0.531209103102112</v>
+        <v>0.5740871736202775</v>
       </c>
     </row>
     <row r="4">
@@ -3687,10 +3440,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175.5910153640019</v>
+        <v>166.5466917223237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005879841160478617</v>
+        <v>0.008817867962286263</v>
       </c>
     </row>
     <row r="5">
@@ -3700,10 +3453,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1752153546800842</v>
+        <v>-12.42322571432204</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009203211500648354</v>
+        <v>0.01821065477210348</v>
       </c>
     </row>
     <row r="6">
@@ -3713,10 +3466,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001486591523259609</v>
+        <v>140.4978167750058</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0239812432681571</v>
+        <v>0.0335206728498111</v>
       </c>
     </row>
     <row r="7">
@@ -3726,10 +3479,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.627312376307628</v>
+        <v>-10.66127525509796</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6703719752663044</v>
+        <v>0.4953329244849334</v>
       </c>
     </row>
     <row r="8">
@@ -3739,49 +3492,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1237.982879400139</v>
+        <v>-16.40597864507427</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3114043237126473</v>
+        <v>0.1785409044215372</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2051.929298460055</v>
+        <v>36.01075494556829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1909997215874211</v>
+        <v>0.5518813870561625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1195.4333783865</v>
+        <v>-33.91101333940156</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8465547741328646</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-48.71016052497168</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3427237952788144</v>
+        <v>0.504269513475661</v>
       </c>
     </row>
   </sheetData>
@@ -3795,7 +3535,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3827,10 +3567,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2311.124442675939</v>
+        <v>3618.432668337397</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5558413139388385</v>
+        <v>0.3257488968134953</v>
       </c>
     </row>
     <row r="3">
@@ -3840,10 +3580,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>98.8356255869913</v>
+        <v>94.66576922407886</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3901584819486394</v>
+        <v>0.408224407407908</v>
       </c>
     </row>
     <row r="4">
@@ -3853,10 +3593,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>153.0123416545225</v>
+        <v>134.843259145462</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06226690574454849</v>
+        <v>0.0862631211755039</v>
       </c>
     </row>
     <row r="5">
@@ -3866,10 +3606,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09980789764529333</v>
+        <v>-7.929281449225391</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0447801558680054</v>
+        <v>0.06809939409387292</v>
       </c>
     </row>
     <row r="6">
@@ -3879,10 +3619,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001101662274184977</v>
+        <v>111.198869535115</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04935399012734597</v>
+        <v>0.04632824137487276</v>
       </c>
     </row>
     <row r="7">
@@ -3892,10 +3632,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.260615670559716</v>
+        <v>-0.3472135334008897</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6986148447913689</v>
+        <v>0.9835321598882987</v>
       </c>
     </row>
     <row r="8">
@@ -3905,49 +3645,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1010.432191018498</v>
+        <v>-12.44748470120897</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3938201551729561</v>
+        <v>0.2832458435228241</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1364.85724040278</v>
+        <v>72.69303112386379</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3531986909695711</v>
+        <v>0.1376572533970777</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7510.053983054058</v>
+        <v>-8.716312390216217</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1278311627757072</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-9.017771631457109</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8467535944116363</v>
+        <v>0.8513802288659115</v>
       </c>
     </row>
   </sheetData>
@@ -3961,7 +3688,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3993,10 +3720,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5952.733534548332</v>
+        <v>6094.631729469576</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01855939307231223</v>
+        <v>0.01128000238420911</v>
       </c>
     </row>
     <row r="3">
@@ -4006,10 +3733,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-20.84129153245112</v>
+        <v>-23.45658910878666</v>
       </c>
       <c r="C3" t="n">
-        <v>0.788076504894514</v>
+        <v>0.7543483545719442</v>
       </c>
     </row>
     <row r="4">
@@ -4019,10 +3746,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>201.76517605038</v>
+        <v>199.3927248786501</v>
       </c>
       <c r="C4" t="n">
-        <v>9.628763813308288e-05</v>
+        <v>5.262030016128769e-05</v>
       </c>
     </row>
     <row r="5">
@@ -4032,10 +3759,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.003342101019652849</v>
+        <v>0.2151425529879241</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9422683324975631</v>
+        <v>0.9558740655261672</v>
       </c>
     </row>
     <row r="6">
@@ -4045,10 +3772,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2.777171935261662e-05</v>
+        <v>-29.63841637210535</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6556499737538188</v>
+        <v>0.6233700758161571</v>
       </c>
     </row>
     <row r="7">
@@ -4058,10 +3785,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.542822303414859</v>
+        <v>8.396742387106229</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4315284457287081</v>
+        <v>0.4381466771740263</v>
       </c>
     </row>
     <row r="8">
@@ -4071,49 +3798,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>311.074425227062</v>
+        <v>3.150160149279717</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7454582033019035</v>
+        <v>0.7363961821351916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>235.3428968832966</v>
+        <v>25.37260494235377</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8140573235391797</v>
+        <v>0.5166803147660549</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2656.829018895503</v>
+        <v>-69.70721995183158</v>
       </c>
       <c r="C10" t="n">
-        <v>0.510784885889666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-71.50109972769872</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0815498845107509</v>
+        <v>0.0762433741292427</v>
       </c>
     </row>
   </sheetData>
@@ -4127,7 +3841,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4159,10 +3873,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6649.935175851951</v>
+        <v>7171.769150182034</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07115013615475484</v>
+        <v>0.04562096853433669</v>
       </c>
     </row>
     <row r="3">
@@ -4172,10 +3886,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.95267273673085</v>
+        <v>53.54648511970484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4980245500594328</v>
+        <v>0.6018325046153359</v>
       </c>
     </row>
     <row r="4">
@@ -4185,10 +3899,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134.0300558287294</v>
+        <v>123.0924101430988</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02502422618596375</v>
+        <v>0.02925603908885916</v>
       </c>
     </row>
     <row r="5">
@@ -4198,10 +3912,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1454531861829975</v>
+        <v>-12.61405280605825</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009292219206440014</v>
+        <v>0.007241388860577526</v>
       </c>
     </row>
     <row r="6">
@@ -4211,10 +3925,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001035311877015005</v>
+        <v>96.43728966319668</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05092039149834983</v>
+        <v>0.05908359995088966</v>
       </c>
     </row>
     <row r="7">
@@ -4224,10 +3938,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.99270261828794</v>
+        <v>-17.50800016308968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4247919454772574</v>
+        <v>0.2408834096136384</v>
       </c>
     </row>
     <row r="8">
@@ -4237,49 +3951,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-716.0233810929349</v>
+        <v>-8.233660874641913</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5041992819047925</v>
+        <v>0.433156283727769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>945.6001044498169</v>
+        <v>42.26890723715505</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4778026686206627</v>
+        <v>0.3611631934053021</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3706.293462071535</v>
+        <v>-22.31062504396616</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4334550763391357</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-27.44332949169225</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5310655310696533</v>
+        <v>0.6006671446867036</v>
       </c>
     </row>
   </sheetData>
@@ -4293,7 +3994,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4325,10 +4026,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1872.4818555653</v>
+        <v>3438.193058149396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.608065658335645</v>
+        <v>0.3426528961255426</v>
       </c>
     </row>
     <row r="3">
@@ -4338,10 +4039,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>167.0222729934478</v>
+        <v>117.9581137425503</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1597311151733093</v>
+        <v>0.3078209514661121</v>
       </c>
     </row>
     <row r="4">
@@ -4351,10 +4052,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>180.3247386900539</v>
+        <v>157.3521837048912</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003112637015751915</v>
+        <v>0.007286662920766497</v>
       </c>
     </row>
     <row r="5">
@@ -4364,10 +4065,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1253176852342174</v>
+        <v>-7.945896409363526</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01608007591641677</v>
+        <v>0.04730231814852669</v>
       </c>
     </row>
     <row r="6">
@@ -4377,10 +4078,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001425240029108249</v>
+        <v>115.1241130711026</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01864341698650259</v>
+        <v>0.04550855125354738</v>
       </c>
     </row>
     <row r="7">
@@ -4390,10 +4091,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.8057918126039425</v>
+        <v>-9.689074423609682</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9632862963040262</v>
+        <v>0.558183787150436</v>
       </c>
     </row>
     <row r="8">
@@ -4403,49 +4104,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-989.1021109172998</v>
+        <v>-9.849003925594438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4669253071557411</v>
+        <v>0.4811015357117286</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2180.509627637585</v>
+        <v>69.32167680919974</v>
       </c>
       <c r="C9" t="n">
-        <v>0.148369540909065</v>
+        <v>0.1476633604721184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5127.697159987987</v>
+        <v>15.25614740637805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2819328492284883</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>14.02511989189952</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.7635354854153302</v>
+        <v>0.7504351737205005</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4147,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4491,10 +4179,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3062.785043343642</v>
+        <v>4288.549586416189</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4662710362455601</v>
+        <v>0.2991574495717479</v>
       </c>
     </row>
     <row r="3">
@@ -4504,10 +4192,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>85.43084269110773</v>
+        <v>72.57238004550345</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4728985484009031</v>
+        <v>0.5429251364946288</v>
       </c>
     </row>
     <row r="4">
@@ -4517,10 +4205,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>158.0953854135024</v>
+        <v>148.183583586955</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01114000953222705</v>
+        <v>0.01569673631851138</v>
       </c>
     </row>
     <row r="5">
@@ -4530,10 +4218,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1139140663820131</v>
+        <v>-8.136936407789783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03291489437902121</v>
+        <v>0.06370793178692095</v>
       </c>
     </row>
     <row r="6">
@@ -4543,10 +4231,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001341241322299303</v>
+        <v>131.9694002108943</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01888918457095304</v>
+        <v>0.02110316056064769</v>
       </c>
     </row>
     <row r="7">
@@ -4556,10 +4244,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1169866336289687</v>
+        <v>-7.513511389589439</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9951411255500707</v>
+        <v>0.6805594503485906</v>
       </c>
     </row>
     <row r="8">
@@ -4569,49 +4257,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1163.452978930182</v>
+        <v>-14.96024945338131</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3203421872112009</v>
+        <v>0.1947424456028517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1668.008824634406</v>
+        <v>52.84776665307453</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2541164973150402</v>
+        <v>0.325296608642369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4895.023822989686</v>
+        <v>0.8054565599645684</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3584972040536166</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.07997739576228469</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9986491578435903</v>
+        <v>0.9865146643696054</v>
       </c>
     </row>
   </sheetData>
@@ -4625,7 +4300,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,10 +4332,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1012.069944730843</v>
+        <v>1026.523843468853</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7638246491609924</v>
+        <v>0.7494068886658969</v>
       </c>
     </row>
     <row r="3">
@@ -4670,10 +4345,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17.04251893487674</v>
+        <v>15.91184977619332</v>
       </c>
       <c r="C3" t="n">
-        <v>0.888858555209785</v>
+        <v>0.8816910087349348</v>
       </c>
     </row>
     <row r="4">
@@ -4683,10 +4358,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>135.5127011737781</v>
+        <v>134.6739515087798</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07436363689192273</v>
+        <v>0.03295877311470061</v>
       </c>
     </row>
     <row r="5">
@@ -4696,10 +4371,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.0598605509382821</v>
+        <v>-5.919642160592515</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2402741651800875</v>
+        <v>0.1312763184554429</v>
       </c>
     </row>
     <row r="6">
@@ -4709,10 +4384,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4.101516587837526e-05</v>
+        <v>40.38754598537372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5276290944472987</v>
+        <v>0.4734541419181578</v>
       </c>
     </row>
     <row r="7">
@@ -4722,10 +4397,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1.791214780326463</v>
+        <v>-1.918510509797052</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9013937301145373</v>
+        <v>0.8810428145477666</v>
       </c>
     </row>
     <row r="8">
@@ -4735,49 +4410,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1970.969986613829</v>
+        <v>-19.76761560200472</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1169221365041802</v>
+        <v>0.09827761497882773</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>34.12680419566777</v>
+        <v>123.2449514660329</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9830218648128448</v>
+        <v>0.01014650952791912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12280.78922843068</v>
+        <v>48.58964178034951</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02130876113899545</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>48.38081088519164</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3114574311252222</v>
+        <v>0.2863309723577542</v>
       </c>
     </row>
   </sheetData>
@@ -4791,7 +4453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4823,10 +4485,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6425.210938454203</v>
+        <v>6214.549876471356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02786722105252186</v>
+        <v>0.02235603344271433</v>
       </c>
     </row>
     <row r="3">
@@ -4836,10 +4498,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>35.44786287005093</v>
+        <v>41.20859396319526</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7004983653695556</v>
+        <v>0.6366047212144381</v>
       </c>
     </row>
     <row r="4">
@@ -4849,10 +4511,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147.872458624363</v>
+        <v>150.6786346037666</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003104200296607041</v>
+        <v>0.001600247573753105</v>
       </c>
     </row>
     <row r="5">
@@ -4862,10 +4524,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.03285311799032685</v>
+        <v>-3.972648429719072</v>
       </c>
       <c r="C5" t="n">
-        <v>0.525803186917309</v>
+        <v>0.3554909706706669</v>
       </c>
     </row>
     <row r="6">
@@ -4875,10 +4537,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.605954116822384e-05</v>
+        <v>41.3246559257901</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6197313667210895</v>
+        <v>0.5434192373519672</v>
       </c>
     </row>
     <row r="7">
@@ -4888,10 +4550,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.572569634210609</v>
+        <v>-6.252557192547023</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5669180743125961</v>
+        <v>0.5969571200832806</v>
       </c>
     </row>
     <row r="8">
@@ -4901,49 +4563,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>391.8225682180118</v>
+        <v>3.632781605437074</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7349497965804035</v>
+        <v>0.7467257376119267</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-271.4637118239471</v>
+        <v>-9.316673223194186</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8028769824268184</v>
+        <v>0.8441524114415966</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-1137.486408661163</v>
+        <v>-19.85885599173711</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8172350968213452</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-18.29219613750096</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6067381879325092</v>
+        <v>0.5613659334828468</v>
       </c>
     </row>
   </sheetData>
@@ -4957,7 +4606,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4989,10 +4638,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4000.375896481624</v>
+        <v>4796.501354421104</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2309898982709874</v>
+        <v>0.1525192660619951</v>
       </c>
     </row>
     <row r="3">
@@ -5002,10 +4651,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>122.561727580655</v>
+        <v>116.211958546309</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2869959825381155</v>
+        <v>0.3185573580351915</v>
       </c>
     </row>
     <row r="4">
@@ -5015,10 +4664,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>182.3838308814336</v>
+        <v>157.2343676554002</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008511437752009507</v>
+        <v>0.01659081592227157</v>
       </c>
     </row>
     <row r="5">
@@ -5028,10 +4677,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1236225692018036</v>
+        <v>-9.353448618508741</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01397263579356603</v>
+        <v>0.03026905904893333</v>
       </c>
     </row>
     <row r="6">
@@ -5041,10 +4690,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.704745075824186e-05</v>
+        <v>71.80464770640042</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2598109353537599</v>
+        <v>0.234246490873923</v>
       </c>
     </row>
     <row r="7">
@@ -5054,10 +4703,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.816875299584225</v>
+        <v>-4.948404163395317</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9135765481341004</v>
+        <v>0.7593129739299725</v>
       </c>
     </row>
     <row r="8">
@@ -5067,49 +4716,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1185.641695279682</v>
+        <v>-14.33771706116086</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3188078165881984</v>
+        <v>0.2310115645090208</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1698.06944560299</v>
+        <v>98.12102369380617</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2089722332655207</v>
+        <v>0.06504780689771006</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9986.672164114279</v>
+        <v>-32.79024847084526</v>
       </c>
       <c r="C10" t="n">
-        <v>0.057788181611158</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-45.1989522100798</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.425512144311082</v>
+        <v>0.5617819232711285</v>
       </c>
     </row>
   </sheetData>
@@ -5123,7 +4759,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5155,10 +4791,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5289.081806638875</v>
+        <v>5902.137857680592</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1312711914420415</v>
+        <v>0.1030087494266222</v>
       </c>
     </row>
     <row r="3">
@@ -5168,10 +4804,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>92.7807374648221</v>
+        <v>71.04670793602008</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3815857694213448</v>
+        <v>0.5123482411382805</v>
       </c>
     </row>
     <row r="4">
@@ -5181,10 +4817,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167.3789392715293</v>
+        <v>158.4229307859981</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005782722352329493</v>
+        <v>0.009911712020734272</v>
       </c>
     </row>
     <row r="5">
@@ -5194,10 +4830,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1490744705473519</v>
+        <v>-10.26401017362961</v>
       </c>
       <c r="C5" t="n">
-        <v>0.004590889883951848</v>
+        <v>0.01343896410527352</v>
       </c>
     </row>
     <row r="6">
@@ -5207,10 +4843,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001299205604224911</v>
+        <v>129.1935362481786</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0203104726821632</v>
+        <v>0.02479213317054803</v>
       </c>
     </row>
     <row r="7">
@@ -5220,10 +4856,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.39768923238006</v>
+        <v>-2.577190814371129</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7225958458756992</v>
+        <v>0.8621857970647255</v>
       </c>
     </row>
     <row r="8">
@@ -5233,49 +4869,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1554.271922516273</v>
+        <v>-18.73885995848819</v>
       </c>
       <c r="C8" t="n">
-        <v>0.144653756596494</v>
+        <v>0.08631109351644464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2172.751260765312</v>
+        <v>47.66285251006687</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1242492532439514</v>
+        <v>0.316817539652386</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3452.575324304187</v>
+        <v>-36.77629505194417</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4575066425607626</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-50.03956958821902</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.265593654282164</v>
+        <v>0.4176505568006748</v>
       </c>
     </row>
   </sheetData>
@@ -5289,7 +4912,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5321,10 +4944,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6579.747373660406</v>
+        <v>6775.718792314434</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02802712865791097</v>
+        <v>0.01842672268213989</v>
       </c>
     </row>
     <row r="3">
@@ -5334,10 +4957,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>102.0085740461251</v>
+        <v>97.76670828751293</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2869447223909579</v>
+        <v>0.2909448963471346</v>
       </c>
     </row>
     <row r="4">
@@ -5347,10 +4970,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>156.243148940144</v>
+        <v>154.701775241026</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003067515632006244</v>
+        <v>0.002515739696848453</v>
       </c>
     </row>
     <row r="5">
@@ -5360,10 +4983,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.07142414667615593</v>
+        <v>-6.077242876281661</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1488204548721613</v>
+        <v>0.08831526362629477</v>
       </c>
     </row>
     <row r="6">
@@ -5373,10 +4996,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.795048588643655e-05</v>
+        <v>86.40629688134254</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07891183366261137</v>
+        <v>0.07539575183443431</v>
       </c>
     </row>
     <row r="7">
@@ -5386,10 +5009,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.458758413242293</v>
+        <v>1.148671593035758</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8399833904172425</v>
+        <v>0.9184364214767264</v>
       </c>
     </row>
     <row r="8">
@@ -5399,49 +5022,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1099.310468434783</v>
+        <v>-11.08482931609844</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2305597664467908</v>
+        <v>0.2157344406620845</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>432.1363504443343</v>
+        <v>10.1909941989388</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7458207072437899</v>
+        <v>0.7938378550378891</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>985.7936170729699</v>
+        <v>-57.35802355200161</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8050180225761817</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-58.29593945990965</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1454265345061761</v>
+        <v>0.1410718641480511</v>
       </c>
     </row>
   </sheetData>
@@ -5455,7 +5065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5487,10 +5097,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3856.477874346052</v>
+        <v>4307.050603760159</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2745274628769923</v>
+        <v>0.2125076783772907</v>
       </c>
     </row>
     <row r="3">
@@ -5500,10 +5110,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>94.46068965659538</v>
+        <v>97.12580544768514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4259949385478584</v>
+        <v>0.4079670834516218</v>
       </c>
     </row>
     <row r="4">
@@ -5513,10 +5123,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.5206738883533</v>
+        <v>167.246614326534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01117479064812441</v>
+        <v>0.01287665846081941</v>
       </c>
     </row>
     <row r="5">
@@ -5526,10 +5136,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09815724755299804</v>
+        <v>-7.730191579235388</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08213528961965003</v>
+        <v>0.1069479713909269</v>
       </c>
     </row>
     <row r="6">
@@ -5539,10 +5149,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001135652705970863</v>
+        <v>122.6771569982259</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1000388355620504</v>
+        <v>0.06960862159725145</v>
       </c>
     </row>
     <row r="7">
@@ -5552,10 +5162,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-5.086116542385781</v>
+        <v>-10.030057372389</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7799284146631638</v>
+        <v>0.5528155430586876</v>
       </c>
     </row>
     <row r="8">
@@ -5565,49 +5175,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-796.7978781494776</v>
+        <v>-9.151318662815415</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5201281819893968</v>
+        <v>0.4524936939921349</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1131.938679077774</v>
+        <v>62.04143732281477</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4466595658732364</v>
+        <v>0.2327158032734372</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6591.63185149528</v>
+        <v>-1.649088253812664</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2130818526674161</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-12.51322962391345</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8326973325325437</v>
+        <v>0.9768674136701669</v>
       </c>
     </row>
   </sheetData>
@@ -5621,7 +5218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5653,10 +5250,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5627.899910609349</v>
+        <v>5725.477363517342</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07970072567877613</v>
+        <v>0.06382869251732243</v>
       </c>
     </row>
     <row r="3">
@@ -5666,10 +5263,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>60.48299664488161</v>
+        <v>56.63275707522763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5467597869355203</v>
+        <v>0.5529231987642549</v>
       </c>
     </row>
     <row r="4">
@@ -5679,10 +5276,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.7743258854452</v>
+        <v>175.139478840509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004595337687556731</v>
+        <v>0.003539754698590259</v>
       </c>
     </row>
     <row r="5">
@@ -5692,10 +5289,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1124137054009702</v>
+        <v>-10.81276714867423</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01625188532072428</v>
+        <v>0.004754285919154753</v>
       </c>
     </row>
     <row r="6">
@@ -5705,10 +5302,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001362170234176392</v>
+        <v>135.934087605764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02045116053991432</v>
+        <v>0.01770984865386437</v>
       </c>
     </row>
     <row r="7">
@@ -5718,10 +5315,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-10.94281631388969</v>
+        <v>-11.78481257767676</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4293028377386294</v>
+        <v>0.3518870303498716</v>
       </c>
     </row>
     <row r="8">
@@ -5731,49 +5328,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1669.205013652638</v>
+        <v>-17.24349220079588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1445016865331656</v>
+        <v>0.108289319078642</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>216.5820374996683</v>
+        <v>85.36140693994224</v>
       </c>
       <c r="C9" t="n">
-        <v>0.863437726303882</v>
+        <v>0.07059441557344751</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8354.034152857999</v>
+        <v>-30.21985332231652</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09109596773267029</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-31.00601696375102</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4424377283100634</v>
+        <v>0.4399784342005049</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5371,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5819,10 +5403,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-3115.903648162541</v>
+        <v>-1473.069046470235</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4136481059040591</v>
+        <v>0.6785769789099252</v>
       </c>
     </row>
     <row r="3">
@@ -5832,10 +5416,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34.70821413460732</v>
+        <v>24.82688123515277</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7236595532379874</v>
+        <v>0.8013193033819725</v>
       </c>
     </row>
     <row r="4">
@@ -5845,10 +5429,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>144.4706025354686</v>
+        <v>117.2060853376623</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04015414055133298</v>
+        <v>0.0741941052497888</v>
       </c>
     </row>
     <row r="5">
@@ -5858,10 +5442,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.08090986664102465</v>
+        <v>-5.587396066685832</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05813206469113474</v>
+        <v>0.1226021098051412</v>
       </c>
     </row>
     <row r="6">
@@ -5871,10 +5455,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.894495858810467e-05</v>
+        <v>75.36072726613374</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07455145519386622</v>
+        <v>0.1189303201036023</v>
       </c>
     </row>
     <row r="7">
@@ -5884,10 +5468,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>24.98729918596841</v>
+        <v>14.80471438479157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1760891409784647</v>
+        <v>0.3596244497845459</v>
       </c>
     </row>
     <row r="8">
@@ -5897,49 +5481,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1947.324800499938</v>
+        <v>-20.6109978655109</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1085876279891351</v>
+        <v>0.09196486758116508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1569.364677268207</v>
+        <v>128.718182835227</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2458553598021793</v>
+        <v>0.007573233075935283</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>12563.82707532153</v>
+        <v>57.55759994694958</v>
       </c>
       <c r="C10" t="n">
-        <v>0.008704154369744447</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>57.29818548363025</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1880779761929108</v>
+        <v>0.1897347954306448</v>
       </c>
     </row>
   </sheetData>
@@ -5953,7 +5524,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5985,10 +5556,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3334.024003590462</v>
+        <v>4393.023584738621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3493042966361881</v>
+        <v>0.2040946981901937</v>
       </c>
     </row>
     <row r="3">
@@ -5998,10 +5569,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.44470222946478</v>
+        <v>75.60087053533636</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4893537366564055</v>
+        <v>0.5114810096571523</v>
       </c>
     </row>
     <row r="4">
@@ -6011,10 +5582,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.6174277646663</v>
+        <v>166.923123456591</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005626641009182204</v>
+        <v>0.008396581044265505</v>
       </c>
     </row>
     <row r="5">
@@ -6024,10 +5595,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1110270591397411</v>
+        <v>-8.628689162050968</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02726551241292589</v>
+        <v>0.04644999554370489</v>
       </c>
     </row>
     <row r="6">
@@ -6037,10 +5608,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001045411040835098</v>
+        <v>99.07921486491054</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07259569966954453</v>
+        <v>0.0867923716711351</v>
       </c>
     </row>
     <row r="7">
@@ -6050,10 +5621,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-4.863018047009898</v>
+        <v>-10.57319929466469</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7756583890117312</v>
+        <v>0.5172029638004206</v>
       </c>
     </row>
     <row r="8">
@@ -6063,49 +5634,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-748.9639658819306</v>
+        <v>-8.4234260669473</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5838868914275821</v>
+        <v>0.5387549796190916</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1496.363246009194</v>
+        <v>74.36885495595911</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2923610702818385</v>
+        <v>0.1109887311663803</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6947.341778500204</v>
+        <v>-2.822796305533103</v>
       </c>
       <c r="C10" t="n">
-        <v>0.136197851362315</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-1.665238674604055</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9718254288405173</v>
+        <v>0.9524108637731825</v>
       </c>
     </row>
   </sheetData>
@@ -6119,7 +5677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6151,10 +5709,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5000.620294727931</v>
+        <v>5849.836365217413</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1993627780181397</v>
+        <v>0.1424909962881013</v>
       </c>
     </row>
     <row r="3">
@@ -6164,10 +5722,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>148.0739642935085</v>
+        <v>109.8322134999988</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2159286512628978</v>
+        <v>0.356690063279099</v>
       </c>
     </row>
     <row r="4">
@@ -6177,10 +5735,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.2620720217276</v>
+        <v>154.9947022588872</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004506587153612367</v>
+        <v>0.008784354364279431</v>
       </c>
     </row>
     <row r="5">
@@ -6190,10 +5748,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1436642265101975</v>
+        <v>-10.34817019734535</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009095920152558242</v>
+        <v>0.02655988616556394</v>
       </c>
     </row>
     <row r="6">
@@ -6203,10 +5761,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001253256889120748</v>
+        <v>109.8132437730056</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02171216384116771</v>
+        <v>0.04230678206796568</v>
       </c>
     </row>
     <row r="7">
@@ -6216,10 +5774,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.108974360620977</v>
+        <v>-15.2315692786944</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6328251498064823</v>
+        <v>0.3672319329727198</v>
       </c>
     </row>
     <row r="8">
@@ -6229,49 +5787,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-705.2297823397066</v>
+        <v>-11.51715051119559</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5077651347170576</v>
+        <v>0.2778959612654959</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2018.326073961877</v>
+        <v>58.3599423324786</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1451287389283564</v>
+        <v>0.2452466620879748</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3949.241975497588</v>
+        <v>-16.14201647306552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4295886898349373</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-22.88448689418938</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6245753797919633</v>
+        <v>0.7358703280758809</v>
       </c>
     </row>
   </sheetData>
@@ -6285,7 +5830,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6317,10 +5862,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6407.873465322809</v>
+        <v>7108.804894448023</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04454127989968286</v>
+        <v>0.02794308122755103</v>
       </c>
     </row>
     <row r="3">
@@ -6330,10 +5875,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.2905843788771</v>
+        <v>73.01393180425191</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3656708386753145</v>
+        <v>0.4014472393262539</v>
       </c>
     </row>
     <row r="4">
@@ -6343,10 +5888,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>228.0690170308054</v>
+        <v>220.3470609615878</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0002756600832089317</v>
+        <v>0.0004099408140592903</v>
       </c>
     </row>
     <row r="5">
@@ -6356,10 +5901,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1459227590320222</v>
+        <v>-11.2811409988807</v>
       </c>
       <c r="C5" t="n">
-        <v>0.002105628690222629</v>
+        <v>0.003379377613568542</v>
       </c>
     </row>
     <row r="6">
@@ -6369,10 +5914,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000194226503613947</v>
+        <v>201.4424927133351</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004052222849333331</v>
+        <v>0.003345948717184858</v>
       </c>
     </row>
     <row r="7">
@@ -6382,10 +5927,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9.85435992578202</v>
+        <v>1.461134273262338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4778898411774734</v>
+        <v>0.9075993044861943</v>
       </c>
     </row>
     <row r="8">
@@ -6395,49 +5940,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2287.501591972769</v>
+        <v>-24.82638032117757</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04703321438073051</v>
+        <v>0.03403641549371077</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1791.175556254979</v>
+        <v>91.1569677351856</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1854514632681081</v>
+        <v>0.05450499651137207</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8085.393250627113</v>
+        <v>-107.2259578032171</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08380627310752767</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-117.9501926138369</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.03084996580628585</v>
+        <v>0.04864958789268851</v>
       </c>
     </row>
   </sheetData>
@@ -6451,7 +5983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6483,10 +6015,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5865.332092846294</v>
+        <v>5916.140100870399</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0928123005936019</v>
+        <v>0.07915635323326005</v>
       </c>
     </row>
     <row r="3">
@@ -6496,10 +6028,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>105.4820220638741</v>
+        <v>104.4489095104516</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3152028038791114</v>
+        <v>0.3051559676800176</v>
       </c>
     </row>
     <row r="4">
@@ -6509,10 +6041,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>177.652380418093</v>
+        <v>176.6945029610391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001886872979074758</v>
+        <v>0.001292467391827049</v>
       </c>
     </row>
     <row r="5">
@@ -6522,10 +6054,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.05076964861480993</v>
+        <v>-4.661239023921375</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4008533691814749</v>
+        <v>0.2962602449486964</v>
       </c>
     </row>
     <row r="6">
@@ -6535,10 +6067,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.743049705922556e-05</v>
+        <v>76.14345608188228</v>
       </c>
       <c r="C6" t="n">
-        <v>0.114308454520109</v>
+        <v>0.0995278557299136</v>
       </c>
     </row>
     <row r="7">
@@ -6548,10 +6080,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3.718010545871685</v>
+        <v>-4.021886643393707</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8064496045906558</v>
+        <v>0.781795024740618</v>
       </c>
     </row>
     <row r="8">
@@ -6561,49 +6093,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-748.3968799276295</v>
+        <v>-7.590539076158379</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4397942015682802</v>
+        <v>0.418872290131457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>139.8763692449552</v>
+        <v>21.52498027578957</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9157337229934194</v>
+        <v>0.6176224517177571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2098.226718405319</v>
+        <v>-36.34311590447237</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6375934030075691</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-36.49563231412314</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3722324820323275</v>
+        <v>0.3614381645555155</v>
       </c>
     </row>
   </sheetData>
@@ -6617,7 +6136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6649,10 +6168,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1986.998423088423</v>
+        <v>3454.443985782094</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5709597470756467</v>
+        <v>0.3175415675399745</v>
       </c>
     </row>
     <row r="3">
@@ -6662,10 +6181,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>125.9734325277515</v>
+        <v>102.6640376177549</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2745952567155011</v>
+        <v>0.3767252072518791</v>
       </c>
     </row>
     <row r="4">
@@ -6675,10 +6194,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>218.9675866531647</v>
+        <v>181.9738920693017</v>
       </c>
       <c r="C4" t="n">
-        <v>0.004053919964835599</v>
+        <v>0.009591453945874668</v>
       </c>
     </row>
     <row r="5">
@@ -6688,10 +6207,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09972855485493058</v>
+        <v>-7.176641558214474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03802210249257133</v>
+        <v>0.09772857514786601</v>
       </c>
     </row>
     <row r="6">
@@ -6701,10 +6220,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001098771095739691</v>
+        <v>105.7487074540607</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0584566638544614</v>
+        <v>0.07294605622467723</v>
       </c>
     </row>
     <row r="7">
@@ -6714,10 +6233,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2.924355718845455</v>
+        <v>-9.580594434729157</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8453212327232533</v>
+        <v>0.5128368914056953</v>
       </c>
     </row>
     <row r="8">
@@ -6727,49 +6246,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-417.2907065955014</v>
+        <v>-8.346096835042317</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7073957062745124</v>
+        <v>0.449252783547287</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1907.484487929168</v>
+        <v>78.80282132218855</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1680101353960553</v>
+        <v>0.08827499390497488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7501.098585113306</v>
+        <v>9.413909356418472</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09718888782609357</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10.50032834992679</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8153099970134534</v>
+        <v>0.8379050680816978</v>
       </c>
     </row>
   </sheetData>
@@ -6783,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6815,10 +6321,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2694.516459386352</v>
+        <v>3831.588259265021</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4354394990083182</v>
+        <v>0.2614290166471181</v>
       </c>
     </row>
     <row r="3">
@@ -6828,10 +6334,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.0181136828229</v>
+        <v>60.31895915141513</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4082122831899604</v>
+        <v>0.621102444056694</v>
       </c>
     </row>
     <row r="4">
@@ -6841,10 +6347,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127.0570293658773</v>
+        <v>110.5364196225428</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04453261628115034</v>
+        <v>0.07396865032627409</v>
       </c>
     </row>
     <row r="5">
@@ -6854,10 +6360,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1123188357181024</v>
+        <v>-7.823426308190283</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02691188536005465</v>
+        <v>0.06098819711728712</v>
       </c>
     </row>
     <row r="6">
@@ -6867,10 +6373,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001017184371763803</v>
+        <v>89.4956573192009</v>
       </c>
       <c r="C6" t="n">
-        <v>0.07251226313703128</v>
+        <v>0.1100429488483054</v>
       </c>
     </row>
     <row r="7">
@@ -6880,10 +6386,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.034352525136548</v>
+        <v>0.1348585064746892</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6680268427595328</v>
+        <v>0.9931353886262855</v>
       </c>
     </row>
     <row r="8">
@@ -6893,49 +6399,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1310.592245969494</v>
+        <v>-17.61060925067555</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2717277908550327</v>
+        <v>0.1317922334257327</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1795.969852339205</v>
+        <v>77.69674366838103</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2118017760654125</v>
+        <v>0.1215725041859205</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6772.637501693936</v>
+        <v>-7.323955401568355</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1739446415794446</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-11.02443140734744</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8087298506343183</v>
+        <v>0.8738122364203895</v>
       </c>
     </row>
   </sheetData>
@@ -6949,7 +6442,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6981,10 +6474,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4037.201467215249</v>
+        <v>3774.534222684043</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2001001092783301</v>
+        <v>0.2115651527498247</v>
       </c>
     </row>
     <row r="3">
@@ -6994,10 +6487,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89.5189405290248</v>
+        <v>94.57648433825727</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3270730754230434</v>
+        <v>0.2873641185642756</v>
       </c>
     </row>
     <row r="4">
@@ -7007,10 +6500,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>115.6602205829111</v>
+        <v>122.1223473302964</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02776189753486611</v>
+        <v>0.01397510255536983</v>
       </c>
     </row>
     <row r="5">
@@ -7020,10 +6513,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09199389416491144</v>
+        <v>-10.17942559437495</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03170035137916096</v>
+        <v>0.004828294186800878</v>
       </c>
     </row>
     <row r="6">
@@ -7033,10 +6526,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.445274240298972e-05</v>
+        <v>86.210618019842</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06935188801902745</v>
+        <v>0.05788056491899125</v>
       </c>
     </row>
     <row r="7">
@@ -7046,10 +6539,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-13.67199006742274</v>
+        <v>-11.12130927943812</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3400937214373217</v>
+        <v>0.3827016675942152</v>
       </c>
     </row>
     <row r="8">
@@ -7059,49 +6552,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1238.625901787887</v>
+        <v>-11.64928051337447</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2151708422282316</v>
+        <v>0.2262194160081599</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-506.8603884506892</v>
+        <v>74.36719256540198</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6660184396942642</v>
+        <v>0.08163368203434185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7580.456400250856</v>
+        <v>22.89753511609223</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08337314068839508</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>26.58614650211115</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4955192841523611</v>
+        <v>0.5386654353013107</v>
       </c>
     </row>
   </sheetData>
@@ -7115,7 +6595,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7147,10 +6627,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5060.438634158494</v>
+        <v>5428.360556552507</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1910859342910469</v>
+        <v>0.1581367927678903</v>
       </c>
     </row>
     <row r="3">
@@ -7160,10 +6640,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.1093606989324</v>
+        <v>157.862849193275</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1678421551043354</v>
+        <v>0.1857699751201181</v>
       </c>
     </row>
     <row r="4">
@@ -7173,10 +6653,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>162.2529684867579</v>
+        <v>150.7953760514518</v>
       </c>
       <c r="C4" t="n">
-        <v>0.009207894688486849</v>
+        <v>0.01189596546733216</v>
       </c>
     </row>
     <row r="5">
@@ -7186,10 +6666,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.121096325839524</v>
+        <v>-9.156956492549838</v>
       </c>
       <c r="C5" t="n">
-        <v>0.03172749019093588</v>
+        <v>0.0402076500324579</v>
       </c>
     </row>
     <row r="6">
@@ -7199,10 +6679,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001367693798497952</v>
+        <v>134.1544064238484</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01745501697833566</v>
+        <v>0.0185040854607026</v>
       </c>
     </row>
     <row r="7">
@@ -7212,10 +6692,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-8.792927258457965</v>
+        <v>-12.54593285003821</v>
       </c>
       <c r="C7" t="n">
-        <v>0.610298265544307</v>
+        <v>0.4546159999061858</v>
       </c>
     </row>
     <row r="8">
@@ -7225,49 +6705,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-937.3315488403196</v>
+        <v>-11.63375354187588</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4296834245623579</v>
+        <v>0.3170205350241097</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1336.893826788963</v>
+        <v>44.86485624104546</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3566869558644397</v>
+        <v>0.3719935362269874</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3649.399158584334</v>
+        <v>-12.99654436275449</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4748057430909686</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-18.83949875491021</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6855685408517939</v>
+        <v>0.7770481649506866</v>
       </c>
     </row>
   </sheetData>
@@ -7281,7 +6748,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7313,10 +6780,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823.609839543829</v>
+        <v>4907.606135741391</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3051475055924143</v>
+        <v>0.183526781166276</v>
       </c>
     </row>
     <row r="3">
@@ -7326,10 +6793,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>47.82023590874911</v>
+        <v>30.45884034902576</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6804905555151569</v>
+        <v>0.7936139181027512</v>
       </c>
     </row>
     <row r="4">
@@ -7339,10 +6806,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>119.84090153815</v>
+        <v>104.4206303395267</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05559742467123143</v>
+        <v>0.08752158837150245</v>
       </c>
     </row>
     <row r="5">
@@ -7352,10 +6819,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1170763116457528</v>
+        <v>-8.321069506335121</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02557416786190064</v>
+        <v>0.05126483364690385</v>
       </c>
     </row>
     <row r="6">
@@ -7365,10 +6832,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.063320986161557e-05</v>
+        <v>64.82831811961782</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2336778073044773</v>
+        <v>0.2764240270067395</v>
       </c>
     </row>
     <row r="7">
@@ -7378,10 +6845,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.480957581285494</v>
+        <v>-5.918865679513715</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8821408141754096</v>
+        <v>0.7012139982711116</v>
       </c>
     </row>
     <row r="8">
@@ -7391,49 +6858,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1025.84337808044</v>
+        <v>-13.01373417728963</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3427391795177775</v>
+        <v>0.226440685350616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1701.525841692731</v>
+        <v>78.57974446734087</v>
       </c>
       <c r="C9" t="n">
-        <v>0.2355512328498796</v>
+        <v>0.1394275018857417</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7325.903755622554</v>
+        <v>-12.85721091395581</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1640652438963149</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-19.45586232447596</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6741930467446029</v>
+        <v>0.7818483066204955</v>
       </c>
     </row>
   </sheetData>
@@ -7447,7 +6901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7479,10 +6933,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>329.4433814457698</v>
+        <v>1121.285633583808</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9253096883407498</v>
+        <v>0.7371202817593214</v>
       </c>
     </row>
     <row r="3">
@@ -7492,10 +6946,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>75.78663542477216</v>
+        <v>60.4883356650933</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4468918318039818</v>
+        <v>0.5309578895789993</v>
       </c>
     </row>
     <row r="4">
@@ -7505,10 +6959,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>181.515270892397</v>
+        <v>159.0312318308574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0122733148265733</v>
+        <v>0.0136876225678465</v>
       </c>
     </row>
     <row r="5">
@@ -7518,10 +6972,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.09484772735527514</v>
+        <v>-7.643815125357463</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05016663960346687</v>
+        <v>0.06269783703878827</v>
       </c>
     </row>
     <row r="6">
@@ -7531,10 +6985,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001012129150704536</v>
+        <v>89.84962202799326</v>
       </c>
       <c r="C6" t="n">
-        <v>0.05372067468665289</v>
+        <v>0.06893477722165878</v>
       </c>
     </row>
     <row r="7">
@@ -7544,10 +6998,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.779402696226668</v>
+        <v>-0.3763620266615462</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7630238263568065</v>
+        <v>0.9789811510320785</v>
       </c>
     </row>
     <row r="8">
@@ -7557,49 +7011,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2177.82263757648</v>
+        <v>-22.0019131153302</v>
       </c>
       <c r="C8" t="n">
-        <v>0.08180558551258245</v>
+        <v>0.07576902096627786</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1069.566858671239</v>
+        <v>102.9194023382154</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4341706665215019</v>
+        <v>0.0189422077273395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9698.492727959263</v>
+        <v>42.67967125545718</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02996207206075923</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>40.4256032984398</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.3649238890156938</v>
+        <v>0.3337069200449408</v>
       </c>
     </row>
   </sheetData>
@@ -7613,7 +7054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7645,10 +7086,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5216.067578183505</v>
+        <v>6454.063102628595</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1761971729808218</v>
+        <v>0.09375507958035878</v>
       </c>
     </row>
     <row r="3">
@@ -7658,10 +7099,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.14751299476256</v>
+        <v>59.72823365665107</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4677332821882769</v>
+        <v>0.6398414315863759</v>
       </c>
     </row>
     <row r="4">
@@ -7671,10 +7112,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>169.3231904693668</v>
+        <v>148.5628832590472</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01174651592447577</v>
+        <v>0.02241129952089771</v>
       </c>
     </row>
     <row r="5">
@@ -7684,10 +7125,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1342882205544952</v>
+        <v>-10.19441344165628</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01168463637862762</v>
+        <v>0.02709245496981814</v>
       </c>
     </row>
     <row r="6">
@@ -7697,10 +7138,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.000125837432917963</v>
+        <v>131.6243286126298</v>
       </c>
       <c r="C6" t="n">
-        <v>0.06911885736225767</v>
+        <v>0.06158816512961258</v>
       </c>
     </row>
     <row r="7">
@@ -7710,10 +7151,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.5606109200289069</v>
+        <v>-6.103997106259328</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9716115111476953</v>
+        <v>0.6890915420924298</v>
       </c>
     </row>
     <row r="8">
@@ -7723,49 +7164,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1296.014475458662</v>
+        <v>-17.66471118695398</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2893460284918397</v>
+        <v>0.1431081137364525</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2023.304665010266</v>
+        <v>38.22980075837648</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1910165591534533</v>
+        <v>0.4887441459470504</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3661.499721640332</v>
+        <v>-38.55494344104602</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4993612404271934</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-42.76771172057394</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.4965046372591521</v>
+        <v>0.5463450303085422</v>
       </c>
     </row>
   </sheetData>
@@ -7779,7 +7207,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7811,10 +7239,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5822.368448494147</v>
+        <v>6419.995451708694</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08086217491591842</v>
+        <v>0.0469055186390808</v>
       </c>
     </row>
     <row r="3">
@@ -7824,10 +7252,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>113.7981947827058</v>
+        <v>109.454957911514</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2875109800116468</v>
+        <v>0.2999327364386808</v>
       </c>
     </row>
     <row r="4">
@@ -7837,10 +7265,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>186.5682061185139</v>
+        <v>180.4965523620551</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001732381731543164</v>
+        <v>0.001799105064288941</v>
       </c>
     </row>
     <row r="5">
@@ -7850,10 +7278,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1228574913984125</v>
+        <v>-10.34213443269748</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009629762098291748</v>
+        <v>0.006751327049570768</v>
       </c>
     </row>
     <row r="6">
@@ -7863,10 +7291,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001728801847733986</v>
+        <v>178.4668238658965</v>
       </c>
       <c r="C6" t="n">
-        <v>0.005783365204451138</v>
+        <v>0.003853051216974869</v>
       </c>
     </row>
     <row r="7">
@@ -7876,10 +7304,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-6.382451714382036</v>
+        <v>-10.55800131684269</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6555525068083548</v>
+        <v>0.4219101129470196</v>
       </c>
     </row>
     <row r="8">
@@ -7889,49 +7317,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2200.124602991407</v>
+        <v>-24.37330820025839</v>
       </c>
       <c r="C8" t="n">
-        <v>0.05777525235166816</v>
+        <v>0.0288417634609777</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1046.176366546084</v>
+        <v>85.52480961263581</v>
       </c>
       <c r="C9" t="n">
-        <v>0.449274073225438</v>
+        <v>0.05326675493225213</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8006.919755619161</v>
+        <v>-57.14973674968192</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07580323541152741</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-57.70700649021474</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.1925150100807183</v>
+        <v>0.1917377832412062</v>
       </c>
     </row>
   </sheetData>
@@ -7945,7 +7360,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7977,10 +7392,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4943.063644822288</v>
+        <v>4859.017359700985</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07117145589062149</v>
+        <v>0.06009623237007002</v>
       </c>
     </row>
     <row r="3">
@@ -7990,10 +7405,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>42.23783555762418</v>
+        <v>44.43273660960824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6379037661450081</v>
+        <v>0.6047367487653048</v>
       </c>
     </row>
     <row r="4">
@@ -8003,10 +7418,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.0775381060472</v>
+        <v>180.0484443174175</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0008903844943290196</v>
+        <v>0.0005433892713867765</v>
       </c>
     </row>
     <row r="5">
@@ -8016,10 +7431,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.04014938770223664</v>
+        <v>-4.368325217458164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4534067634422557</v>
+        <v>0.3226547632575467</v>
       </c>
     </row>
     <row r="6">
@@ -8029,10 +7444,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5.551489520740194e-05</v>
+        <v>57.25183414559623</v>
       </c>
       <c r="C6" t="n">
-        <v>0.396268200096683</v>
+        <v>0.3587588617610065</v>
       </c>
     </row>
     <row r="7">
@@ -8042,10 +7457,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9065715275175847</v>
+        <v>-0.3365735213260734</v>
       </c>
       <c r="C7" t="n">
-        <v>0.941994132583856</v>
+        <v>0.9762026135004087</v>
       </c>
     </row>
     <row r="8">
@@ -8055,49 +7470,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-281.5341545552055</v>
+        <v>-2.834185232713764</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8030472146376008</v>
+        <v>0.7969090729297923</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-134.6351619731286</v>
+        <v>28.90239466102253</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9021449423988558</v>
+        <v>0.5602013754736899</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2840.754681648044</v>
+        <v>-20.76264097356121</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5775351415720396</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-20.08831308944676</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5737998332909224</v>
+        <v>0.5466374818821258</v>
       </c>
     </row>
   </sheetData>
@@ -8111,7 +7513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8143,10 +7545,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4419.023870456787</v>
+        <v>5106.997508557962</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2184792040219833</v>
+        <v>0.1409671908104564</v>
       </c>
     </row>
     <row r="3">
@@ -8156,10 +7558,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>129.5518052185008</v>
+        <v>117.2315349537602</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2631253929153952</v>
+        <v>0.3002578632326284</v>
       </c>
     </row>
     <row r="4">
@@ -8169,10 +7571,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>159.7104610612537</v>
+        <v>152.0170524919466</v>
       </c>
       <c r="C4" t="n">
-        <v>0.006806285839530448</v>
+        <v>0.007626119568160171</v>
       </c>
     </row>
     <row r="5">
@@ -8182,10 +7584,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1147352422880542</v>
+        <v>-9.543145205665773</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02099658537400663</v>
+        <v>0.02142319780338189</v>
       </c>
     </row>
     <row r="6">
@@ -8195,10 +7597,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001581011133687099</v>
+        <v>159.9395095553244</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01189844818933613</v>
+        <v>0.01006973167902928</v>
       </c>
     </row>
     <row r="7">
@@ -8208,10 +7610,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.159957581166708</v>
+        <v>-3.951496293481668</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9918126761918591</v>
+        <v>0.7859437507161169</v>
       </c>
     </row>
     <row r="8">
@@ -8221,49 +7623,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1263.859456808218</v>
+        <v>-13.9640250319906</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2471108795221678</v>
+        <v>0.1925637601199037</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1053.33072335652</v>
+        <v>34.27570567409481</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4363387017516567</v>
+        <v>0.4642551600850985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3300.460840610051</v>
+        <v>-20.03573098883675</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4854643755575498</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-21.17345054118545</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6617214997572267</v>
+        <v>0.6755872217370935</v>
       </c>
     </row>
   </sheetData>
@@ -8277,7 +7666,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8309,10 +7698,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3377.885956375673</v>
+        <v>3832.172700689246</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2408388472208141</v>
+        <v>0.1644377351665858</v>
       </c>
     </row>
     <row r="3">
@@ -8322,10 +7711,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>79.81737346472312</v>
+        <v>60.84282748289641</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4494942996501331</v>
+        <v>0.5393558057682856</v>
       </c>
     </row>
     <row r="4">
@@ -8335,10 +7724,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>220.1439188239438</v>
+        <v>207.486697124417</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001841155587843318</v>
+        <v>0.001543147866920339</v>
       </c>
     </row>
     <row r="5">
@@ -8348,10 +7737,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.01563642153323586</v>
+        <v>0.3473073209823383</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8083579597014583</v>
+        <v>0.9503687090922388</v>
       </c>
     </row>
     <row r="6">
@@ -8361,10 +7750,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2.878851654943541e-05</v>
+        <v>19.03855881076836</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6936621041587306</v>
+        <v>0.7862013277703775</v>
       </c>
     </row>
     <row r="7">
@@ -8374,10 +7763,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.107438916315317</v>
+        <v>0.2863197832418685</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8090846316729864</v>
+        <v>0.9807106813044767</v>
       </c>
     </row>
     <row r="8">
@@ -8387,49 +7776,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>353.6504394203621</v>
+        <v>2.537939722573498</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7843761002001928</v>
+        <v>0.840582084278326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>797.2261220520871</v>
+        <v>18.37503340689859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5343656001721884</v>
+        <v>0.7402022230724892</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1682.385186635391</v>
+        <v>-3.429470789384666</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7652584261797717</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-6.675993990599949</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.8751022287678986</v>
+        <v>0.9341075569191855</v>
       </c>
     </row>
   </sheetData>
@@ -8443,7 +7819,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8475,10 +7851,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5145.720793745522</v>
+        <v>5913.178414931179</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1331227855708788</v>
+        <v>0.08287675720000726</v>
       </c>
     </row>
     <row r="3">
@@ -8488,10 +7864,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>90.83564763203293</v>
+        <v>66.91361701236316</v>
       </c>
       <c r="C3" t="n">
-        <v>0.427070164743319</v>
+        <v>0.5533400494876781</v>
       </c>
     </row>
     <row r="4">
@@ -8501,10 +7877,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.1286182032554</v>
+        <v>161.9004639323783</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003633384371195098</v>
+        <v>0.005107164707781894</v>
       </c>
     </row>
     <row r="5">
@@ -8514,10 +7890,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1357545014755953</v>
+        <v>-10.39138391716713</v>
       </c>
       <c r="C5" t="n">
-        <v>0.006839557516040175</v>
+        <v>0.008947503363453166</v>
       </c>
     </row>
     <row r="6">
@@ -8527,10 +7903,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0001089398510564342</v>
+        <v>110.174054242498</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03845583842142738</v>
+        <v>0.03734074310476629</v>
       </c>
     </row>
     <row r="7">
@@ -8540,10 +7916,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-7.349505256191186</v>
+        <v>-14.16658548392283</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6258838243880083</v>
+        <v>0.3147443587998498</v>
       </c>
     </row>
     <row r="8">
@@ -8553,49 +7929,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-926.4547218652569</v>
+        <v>-11.11024452754101</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4135577366433089</v>
+        <v>0.3271309605958314</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1635.465567892115</v>
+        <v>52.68389246594511</v>
       </c>
       <c r="C9" t="n">
-        <v>0.257949018442089</v>
+        <v>0.2356073050002191</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4683.597453769088</v>
+        <v>-14.20270011973658</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2898816468100089</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>-21.50375015679452</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.6149077143190448</v>
+        <v>0.7383517024351239</v>
       </c>
     </row>
   </sheetData>
@@ -8609,7 +7972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8641,10 +8004,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5369.770865064718</v>
+        <v>5450.76157112114</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1997566764215306</v>
+        <v>0.1827258591241899</v>
       </c>
     </row>
     <row r="3">
@@ -8654,10 +8017,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>69.86753252362053</v>
+        <v>64.57803495284043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4906957989665296</v>
+        <v>0.5091188700440402</v>
       </c>
     </row>
     <row r="4">
@@ -8667,10 +8030,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109.4698605210874</v>
+        <v>103.6975736514775</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06333836395619048</v>
+        <v>0.05843270406634038</v>
       </c>
     </row>
     <row r="5">
@@ -8680,10 +8043,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.1209338647578748</v>
+        <v>-11.08357984808955</v>
       </c>
       <c r="C5" t="n">
-        <v>0.05013600494370738</v>
+        <v>0.03275480978099263</v>
       </c>
     </row>
     <row r="6">
@@ -8693,10 +8056,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.958004634610051e-05</v>
+        <v>75.48193873236073</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1337175214083042</v>
+        <v>0.1335145779444182</v>
       </c>
     </row>
     <row r="7">
@@ -8706,10 +8069,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-12.42945716692189</v>
+        <v>-13.85934999703723</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4846837398136227</v>
+        <v>0.4121757734725132</v>
       </c>
     </row>
     <row r="8">
@@ -8719,49 +8082,36 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-1686.878766699345</v>
+        <v>-17.98840033755747</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1429135052597064</v>
+        <v>0.09588365714724331</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>Commute_Trip</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>441.2141466206558</v>
+        <v>63.92495558308005</v>
       </c>
       <c r="C9" t="n">
-        <v>0.741398367428253</v>
+        <v>0.2104918699238684</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Commute_Trip</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5944.804389431702</v>
+        <v>4.220868705457349</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2691921067984666</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Age</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>0.7446534688032216</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9873074876159029</v>
+        <v>0.9246272999116989</v>
       </c>
     </row>
   </sheetData>
